--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6255F3-D468-42FC-848E-8D2016502917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABFF36-B90D-4CA4-9CFE-AA59A1870ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Masses and Volumes" sheetId="7" r:id="rId2"/>
-    <sheet name="Bulks" sheetId="6" r:id="rId3"/>
-    <sheet name="Optical" sheetId="5" r:id="rId4"/>
+    <sheet name="Masses and Volumes New VC" sheetId="8" r:id="rId3"/>
+    <sheet name="Bulks" sheetId="6" r:id="rId4"/>
+    <sheet name="Optical" sheetId="5" r:id="rId5"/>
+    <sheet name="Extra" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="172">
   <si>
     <t>Material</t>
   </si>
@@ -265,9 +267,6 @@
     <t>OCB-COMMS PCB++</t>
   </si>
   <si>
-    <t>Y+ Mag PCB ++</t>
-  </si>
-  <si>
     <t>Top PL PCB</t>
   </si>
   <si>
@@ -277,39 +276,21 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Prob ignore</t>
-  </si>
-  <si>
     <t>With VC and components</t>
   </si>
   <si>
     <t>With components</t>
   </si>
   <si>
-    <t>PTFE?</t>
-  </si>
-  <si>
     <t>COMMS Antenna</t>
   </si>
   <si>
     <t>Comms</t>
   </si>
   <si>
-    <t>Prob ignore (Total mass)</t>
-  </si>
-  <si>
-    <t>kg/unit</t>
-  </si>
-  <si>
     <t>ESATAN Volume (m^3)</t>
   </si>
   <si>
-    <t>Have to fix VC</t>
-  </si>
-  <si>
-    <t>in PCB</t>
-  </si>
-  <si>
     <t>Material Density (kg· m^-3)</t>
   </si>
   <si>
@@ -346,18 +327,6 @@
     <t>Mass (kg)</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Calculated or Measured</t>
-  </si>
-  <si>
     <t>SD_KS_PX</t>
   </si>
   <si>
@@ -481,9 +450,6 @@
     <t>Vertical Connectors (new)</t>
   </si>
   <si>
-    <t>2.2g (4)</t>
-  </si>
-  <si>
     <t>2.9g (4)</t>
   </si>
   <si>
@@ -523,7 +489,58 @@
     <t>Y mag raw</t>
   </si>
   <si>
-    <t>la unidad</t>
+    <t>Mass (kg/unit)</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Total mass (kg)</t>
+  </si>
+  <si>
+    <t>Total mass (g)</t>
+  </si>
+  <si>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>Y+ Mag PCB +</t>
+  </si>
+  <si>
+    <t>AOCS PCB+</t>
+  </si>
+  <si>
+    <t>EPS PCB +</t>
+  </si>
+  <si>
+    <t>OCB-COMMS PCB+</t>
+  </si>
+  <si>
+    <t>+ (With components)</t>
+  </si>
+  <si>
+    <t>Inner Connectors</t>
+  </si>
+  <si>
+    <t>Not added (resolution)</t>
+  </si>
+  <si>
+    <t>Not added (included in lats)</t>
+  </si>
+  <si>
+    <t>lateral</t>
+  </si>
+  <si>
+    <t>laterals comps</t>
+  </si>
+  <si>
+    <t>lateral comps solar</t>
+  </si>
+  <si>
+    <t>lateral comps solar thermal</t>
+  </si>
+  <si>
+    <t>Lateral PCB Thermal +</t>
   </si>
 </sst>
 </file>
@@ -655,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -710,6 +727,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60A6198-9637-4F08-B05D-DA5383A125B7}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,13 +1570,15 @@
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1553,38 +1589,41 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="I2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
@@ -1598,18 +1637,26 @@
         <v>1850</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E15" si="0">J3/1000/1000/1000</f>
+        <f t="shared" ref="E3:E15" si="0">L3/1000/1000/1000</f>
         <v>0</v>
       </c>
       <c r="F3" s="6">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <f>F3*G3</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <f>H3*1000</f>
+        <v>8.4</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -1629,16 +1676,24 @@
       <c r="F4" s="6">
         <v>1.66E-2</v>
       </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:I37" si="1">F4*G4</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I39" si="2">H4*1000</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>66</v>
@@ -1656,15 +1711,23 @@
       <c r="F5" s="6">
         <v>6.6E-3</v>
       </c>
-      <c r="G5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -1684,14 +1747,22 @@
       <c r="F6" s="6">
         <v>1.0199999999999999E-2</v>
       </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0199999999999999E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="2"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>78</v>
       </c>
@@ -1711,14 +1782,22 @@
       <c r="F7" s="6">
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="G7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>9.300000000000001E-3</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="2"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>79</v>
       </c>
@@ -1738,14 +1817,22 @@
       <c r="F8" s="6">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
@@ -1765,19 +1852,27 @@
       <c r="F9" s="6">
         <v>1.11E-2</v>
       </c>
-      <c r="G9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="6">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="2"/>
+        <v>44.4</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>49</v>
@@ -1790,28 +1885,36 @@
       <c r="F10" s="6">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="G10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>73</v>
@@ -1829,14 +1932,22 @@
       <c r="F12" s="6">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>71</v>
@@ -1854,12 +1965,20 @@
       <c r="F13" s="6">
         <v>7.6E-3</v>
       </c>
-      <c r="G13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
@@ -1879,14 +1998,20 @@
       <c r="F14" s="6">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -1906,17 +2031,25 @@
       <c r="F15" s="6">
         <v>2.4300000000000002E-2</v>
       </c>
-      <c r="G15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4300000000000002E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="2"/>
+        <v>24.3</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1924,13 +2057,22 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <f>J17/1000/1000/1000</f>
+        <f>L17/1000/1000/1000</f>
         <v>0</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
@@ -1944,20 +2086,26 @@
         <v>5316</v>
       </c>
       <c r="E18" s="11">
-        <f>J18/1000/1000/1000</f>
+        <f>L18/1000/1000/1000</f>
         <v>0</v>
       </c>
       <c r="F18" s="11">
         <v>9.5E-4</v>
       </c>
-      <c r="G18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>5</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -1971,37 +2119,48 @@
         <v>2750</v>
       </c>
       <c r="E19" s="11">
-        <f>J19/1000/1000/1000</f>
+        <f>L19/1000/1000/1000</f>
         <v>0</v>
       </c>
       <c r="F19" s="11">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14">
-        <f>J21/1000/1000/1000</f>
-        <v>0</v>
-      </c>
+      <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>55</v>
       </c>
@@ -2015,20 +2174,21 @@
         <v>8800</v>
       </c>
       <c r="E22" s="14">
-        <f>J22/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <f>L22/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>56</v>
       </c>
@@ -2042,108 +2202,109 @@
         <v>1070</v>
       </c>
       <c r="E23" s="14">
-        <f>J23/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="E24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+        <f>L23/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="G24" s="14">
+        <v>14.75</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17">
-        <f>J25/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B27" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17">
-        <f>J26/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17">
+        <f>L27/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
         <v>0.03</v>
       </c>
-      <c r="G26" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="17">
-        <v>8000</v>
-      </c>
-      <c r="E28" s="17">
-        <f>J28/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>60</v>
@@ -2155,23 +2316,29 @@
         <v>8000</v>
       </c>
       <c r="E29" s="17">
-        <f>J29/1000/1000/1000</f>
+        <f>L29/1000/1000/1000</f>
         <v>0</v>
       </c>
       <c r="F29" s="17">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G29" s="17">
+        <v>4</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I29" s="17">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>60</v>
@@ -2183,26 +2350,32 @@
         <v>8000</v>
       </c>
       <c r="E30" s="17">
-        <f>J30/1000/1000/1000</f>
+        <f>L30/1000/1000/1000</f>
         <v>0</v>
       </c>
       <c r="F30" s="17">
-        <v>1.93E-4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="G30" s="17">
+        <v>2</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>49</v>
@@ -2211,234 +2384,223 @@
         <v>8000</v>
       </c>
       <c r="E31" s="17">
-        <f>J31/1000/1000/1000</f>
+        <f>L31/1000/1000/1000</f>
         <v>0</v>
       </c>
       <c r="F31" s="17">
+        <v>1.93E-4</v>
+      </c>
+      <c r="G31" s="17">
+        <v>16</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="1"/>
+        <v>3.088E-3</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="2"/>
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E32" s="17">
+        <f>L32/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
         <f>0.0017</f>
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G31" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="G32" s="17">
+        <v>4</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="1"/>
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <v>8000</v>
       </c>
-      <c r="E33" s="17">
-        <f>J33/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
+      <c r="E34" s="17">
+        <f>L34/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="G33" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="G34" s="17">
+        <v>12</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="1"/>
+        <v>2.64E-3</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="2"/>
+        <v>2.64</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B35" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <v>2700</v>
       </c>
-      <c r="E34" s="17">
-        <f>J34/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
+      <c r="E35" s="17">
+        <f>L35/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="G34" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="G35" s="17">
+        <v>12</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999993E-4</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <v>1150</v>
       </c>
-      <c r="E35" s="17">
-        <f>J35/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
+      <c r="E36" s="17">
+        <f>L36/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="G35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="F36">
-        <f>SUM(F2:F35)*1000</f>
-        <v>186.696</v>
-      </c>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14">
-        <f>J38/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="14">
-        <v>8800</v>
-      </c>
-      <c r="E39" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1070</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49">
-        <v>9.5</v>
-      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27">
+        <f>SUM(H2:H37)-H31</f>
+        <v>0.23277</v>
+      </c>
+      <c r="I39" s="27">
+        <f t="shared" si="2"/>
+        <v>232.77</v>
+      </c>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,11 +2608,1248 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A729A410-6F9D-4B69-8564-D96FAE86FB77}">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.77734375" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E16" si="0">L3/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <f>F3*G3</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <f>H3*1000</f>
+        <v>8.4</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.66E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H37" si="1">F4*G4</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I40" si="2">H4*1000</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I6" s="6">
+        <f>H6*1000</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I7" s="6">
+        <f>H7*1000</f>
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <f>H8*1000</f>
+        <v>7</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" ref="E9" si="3">L9/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" ref="H9" si="4">F9*G9</f>
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="2"/>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.11E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="2"/>
+        <v>33.300000000000004</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7.6E-3</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2810</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2.4300000000000002E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4300000000000002E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="2"/>
+        <v>24.3</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
+        <f>L18/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5316</v>
+      </c>
+      <c r="E19" s="11">
+        <f>L19/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>9.5E-4</v>
+      </c>
+      <c r="G19" s="11">
+        <v>5</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2750</v>
+      </c>
+      <c r="E20" s="11">
+        <f>L20/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="14">
+        <v>8800</v>
+      </c>
+      <c r="E23" s="14">
+        <f>L23/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="G23" s="14">
+        <v>14.75</v>
+      </c>
+      <c r="H23" s="14">
+        <f>F23*G23</f>
+        <v>4.7937499999999994E-3</v>
+      </c>
+      <c r="I23" s="14">
+        <f>H23*1000</f>
+        <v>4.7937499999999993</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1070</v>
+      </c>
+      <c r="E24" s="14">
+        <f>L24/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="28">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G24" s="14">
+        <v>14.75</v>
+      </c>
+      <c r="H24" s="14">
+        <f>F24*G24</f>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="I24" s="14">
+        <f>H24*1000</f>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="G25" s="14">
+        <v>14.75</v>
+      </c>
+      <c r="H25" s="14">
+        <f>F25*G25</f>
+        <v>1.0693749999999998E-2</v>
+      </c>
+      <c r="I25" s="14">
+        <f>H25*1000</f>
+        <v>10.693749999999998</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17">
+        <f>L28/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E30" s="17">
+        <f>L30/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G30" s="17">
+        <v>4</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E31" s="17">
+        <f>L31/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="G31" s="17">
+        <v>2</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E32" s="17">
+        <f>L32/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <v>1.93E-4</v>
+      </c>
+      <c r="G32" s="17">
+        <v>16</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="1"/>
+        <v>3.088E-3</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="2"/>
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E33" s="17">
+        <f>L33/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
+        <f>0.0017</f>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G33" s="17">
+        <v>4</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="1"/>
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="17">
+        <f>L35/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="G35" s="17">
+        <v>12</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="1"/>
+        <v>2.64E-3</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="2"/>
+        <v>2.64</v>
+      </c>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="17">
+        <v>2700</v>
+      </c>
+      <c r="E36" s="17">
+        <f>L36/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="G36" s="17">
+        <v>12</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999993E-4</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1150</v>
+      </c>
+      <c r="E37" s="17">
+        <f>L37/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27">
+        <f>SUM(H2:H38)-H23-H24-H32</f>
+        <v>0.23706374999999996</v>
+      </c>
+      <c r="I40" s="30">
+        <f t="shared" si="2"/>
+        <v>237.06374999999997</v>
+      </c>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1282F9C-F5B3-4D06-B4B0-82EDC369CF35}">
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2466,27 +3865,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>4</v>
@@ -2497,7 +3896,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -2505,32 +3904,32 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>4</v>
@@ -2541,7 +3940,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2556,10 +3955,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D11" t="e">
         <f>C11/C12</f>
@@ -2571,7 +3970,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -2587,22 +3986,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>4</v>
@@ -2613,7 +4012,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2628,10 +4027,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D16" t="e">
         <f>C16/C17</f>
@@ -2643,7 +4042,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -2659,22 +4058,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>4</v>
@@ -2685,7 +4084,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2700,10 +4099,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D21" t="e">
         <f>C21/C22</f>
@@ -2715,7 +4114,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2731,17 +4130,17 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2749,22 +4148,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>4</v>
@@ -2775,7 +4174,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -2790,10 +4189,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D30" t="e">
         <f>C30/C31</f>
@@ -2805,7 +4204,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2821,22 +4220,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>4</v>
@@ -2847,7 +4246,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -2862,10 +4261,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D36" t="e">
         <f>C36/C37</f>
@@ -2877,7 +4276,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2893,22 +4292,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>4</v>
@@ -2919,37 +4318,37 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>4</v>
@@ -2960,37 +4359,37 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>4</v>
@@ -3001,37 +4400,37 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>4</v>
@@ -3042,37 +4441,37 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G64" s="22" t="s">
         <v>4</v>
@@ -3083,7 +4482,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3093,12 +4492,12 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -3106,22 +4505,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G70" s="22" t="s">
         <v>4</v>
@@ -3132,7 +4531,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3145,22 +4544,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>4</v>
@@ -3171,52 +4570,52 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G84" s="22" t="s">
         <v>4</v>
@@ -3227,7 +4626,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3237,22 +4636,22 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G89" s="22" t="s">
         <v>4</v>
@@ -3273,17 +4672,17 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3293,22 +4692,22 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G98" s="22" t="s">
         <v>4</v>
@@ -3319,7 +4718,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B99" t="s">
         <v>52</v>
@@ -3343,12 +4742,12 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
         <v>24</v>
@@ -3359,7 +4758,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B102" t="s">
         <v>24</v>
@@ -3371,7 +4770,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
@@ -3382,7 +4781,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B104" t="s">
         <v>24</v>
@@ -3393,7 +4792,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
         <v>24</v>
@@ -3404,7 +4803,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
         <v>24</v>
@@ -3418,7 +4817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6B548F-C44E-440B-8115-652E4A726701}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3430,4 +4829,165 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C9E490-A744-473C-8872-3574F7E7A57E}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14">
+        <f>'Masses and Volumes'!L41/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14">
+        <v>8800</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1070</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17">
+        <v>11.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive\Documentos\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE235889-FAF5-44FA-9850-E5B257A39D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -19,12 +18,12 @@
     <sheet name="Extra" sheetId="9" r:id="rId4"/>
     <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="198">
   <si>
     <t>Material</t>
   </si>
@@ -374,9 +373,6 @@
     <t>SD_PL_Board</t>
   </si>
   <si>
-    <t>PL Bot PCB</t>
-  </si>
-  <si>
     <t>SD_PLAntenna_Board</t>
   </si>
   <si>
@@ -576,13 +572,58 @@
   </si>
   <si>
     <t>Mass (g)</t>
+  </si>
+  <si>
+    <t>PL Bot PCB+Comp</t>
+  </si>
+  <si>
+    <t>PCBS</t>
+  </si>
+  <si>
+    <t>Capas de cobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de</t>
+  </si>
+  <si>
+    <t>FR4</t>
+  </si>
+  <si>
+    <t>Mascara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de </t>
+  </si>
+  <si>
+    <t>Y Mag</t>
+  </si>
+  <si>
+    <t>(mm)</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Kband Bot</t>
+  </si>
+  <si>
+    <t>PP2116</t>
+  </si>
+  <si>
+    <t>Cobre</t>
+  </si>
+  <si>
+    <t>Laterales y Bot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,8 +663,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +714,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -704,10 +757,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -778,8 +832,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -828,7 +884,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <family val="2"/>
       </font>
     </dxf>
     <dxf>
@@ -852,7 +907,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -886,15 +940,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C20A5230-B7B8-4799-B1CC-1F6B1830AF15}" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F17" xr:uid="{C20A5230-B7B8-4799-B1CC-1F6B1830AF15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D675D84B-B0DD-4EB8-A317-92122E7D79D8}" name="Material" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2C1928BD-7E08-41DE-B650-054A518E6935}" name="Solar Absorptivity (αs)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8EE61A7F-8170-4655-9886-C3D235F3D054}" name="IR Emissivity (εIR)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C0B9D85C-8164-4B9B-B582-F5A5C4EF3920}" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2A2FCB62-E1AF-490D-9EC0-BDE3C372B8C8}" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{A9A8CEFC-0F27-4E28-A4F7-A377235FB83F}" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
+    <tableColumn id="1" name="Material" dataDxfId="5"/>
+    <tableColumn id="2" name="Solar Absorptivity (αs)" dataDxfId="4"/>
+    <tableColumn id="3" name="IR Emissivity (εIR)" dataDxfId="3"/>
+    <tableColumn id="4" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
+    <tableColumn id="5" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
+    <tableColumn id="6" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -976,23 +1030,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1028,23 +1065,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,24 +1240,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1317,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1337,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1377,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1377,7 +1397,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1437,7 +1457,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1477,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1477,7 +1497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1497,7 +1517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1537,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1537,7 +1557,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1557,7 +1577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1577,16 +1597,16 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
     </row>
   </sheetData>
@@ -1598,29 +1618,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A729A410-6F9D-4B69-8564-D96FAE86FB77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.77734375" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1637,22 +1657,22 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -1665,10 +1685,10 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
@@ -1701,7 +1721,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -1734,9 +1754,9 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>66</v>
@@ -1767,9 +1787,9 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>67</v>
@@ -1800,9 +1820,9 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -1833,9 +1853,9 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>68</v>
@@ -1866,9 +1886,9 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>34</v>
@@ -1899,7 +1919,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>76</v>
       </c>
@@ -1932,7 +1952,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>85</v>
       </c>
@@ -1963,7 +1983,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1977,7 +1997,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>81</v>
       </c>
@@ -2010,7 +2030,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>80</v>
       </c>
@@ -2043,7 +2063,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -2076,7 +2096,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>47</v>
       </c>
@@ -2109,12 +2129,12 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +2151,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
@@ -2164,7 +2184,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>17</v>
       </c>
@@ -2197,14 +2217,14 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -2216,9 +2236,9 @@
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>74</v>
@@ -2248,10 +2268,10 @@
         <v>4.7937499999999993</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>56</v>
       </c>
@@ -2283,10 +2303,10 @@
         <v>5.8999999999999995</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>93</v>
       </c>
@@ -2310,12 +2330,12 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>29</v>
       </c>
@@ -2329,7 +2349,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>45</v>
       </c>
@@ -2360,7 +2380,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>48</v>
       </c>
@@ -2374,7 +2394,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>36</v>
       </c>
@@ -2408,7 +2428,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -2442,7 +2462,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>38</v>
       </c>
@@ -2474,11 +2494,11 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>58</v>
       </c>
@@ -2512,7 +2532,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>28</v>
       </c>
@@ -2529,7 +2549,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>39</v>
       </c>
@@ -2562,7 +2582,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
@@ -2596,7 +2616,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>41</v>
       </c>
@@ -2630,7 +2650,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="17"/>
@@ -2646,12 +2666,12 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>93</v>
       </c>
@@ -2671,19 +2691,19 @@
       </c>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
@@ -2694,30 +2714,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1282F9C-F5B3-4D06-B4B0-82EDC369CF35}">
-  <dimension ref="A1:I127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>99</v>
       </c>
@@ -2725,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>98</v>
@@ -2746,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>93</v>
       </c>
@@ -2773,17 +2793,17 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>90</v>
       </c>
@@ -2791,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>98</v>
@@ -2812,7 +2832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2834,7 +2854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2842,7 +2862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>93</v>
       </c>
@@ -2870,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
@@ -2878,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>98</v>
@@ -2899,7 +2919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -2921,7 +2941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -2942,7 +2962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>93</v>
       </c>
@@ -2970,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
@@ -2978,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>98</v>
@@ -2998,8 +3018,9 @@
       <c r="I19" s="22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3021,7 +3042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -3043,7 +3064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>93</v>
       </c>
@@ -3071,25 +3092,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>104</v>
       </c>
@@ -3097,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>98</v>
@@ -3117,8 +3138,9 @@
       <c r="I28" s="22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -3140,7 +3162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -3162,7 +3184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>93</v>
       </c>
@@ -3190,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
@@ -3198,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>98</v>
@@ -3218,8 +3240,9 @@
       <c r="I34" s="22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -3227,11 +3250,11 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="D35">
         <f>C35/1000</f>
-        <v>1.1999999999999999E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E35" t="e">
         <f>C35/C37</f>
@@ -3241,7 +3264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -3256,7 +3279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>93</v>
       </c>
@@ -3272,7 +3295,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -3280,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>98</v>
@@ -3301,29 +3324,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>112</v>
       </c>
       <c r="C41">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="D41">
         <f>C41/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
@@ -3331,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>98</v>
@@ -3352,29 +3378,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
       <c r="C47">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="D47">
         <f>C47/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -3382,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>98</v>
@@ -3403,29 +3432,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
       <c r="C53">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="D53">
         <f>C53/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
@@ -3433,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>98</v>
@@ -3454,37 +3486,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="C59">
-        <v>1.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D59">
         <f>C59/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>98</v>
@@ -3505,45 +3532,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65">
-        <v>1.2</v>
-      </c>
-      <c r="D65">
-        <f>C65/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>98</v>
@@ -3564,30 +3590,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C71">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="D71">
         <f>C71/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>98</v>
@@ -3608,16 +3634,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74">
-        <v>1.2</v>
+        <v>130</v>
       </c>
       <c r="D74">
         <f>C74/1000</f>
-        <v>1.1999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>24</v>
@@ -3629,14 +3652,14 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="32" t="s">
-        <v>173</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
@@ -3645,9 +3668,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
@@ -3657,9 +3680,9 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
@@ -3668,9 +3691,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -3679,35 +3702,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>98</v>
@@ -3728,52 +3751,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="D88">
         <f>C88/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>98</v>
@@ -3794,32 +3817,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C96">
-        <v>1.2</v>
+        <v>34</v>
       </c>
       <c r="D96">
         <f>C96/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>98</v>
@@ -3840,52 +3863,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>55</v>
       </c>
       <c r="C101">
-        <v>1.2</v>
+        <v>3.25</v>
       </c>
       <c r="D101">
         <f>C101/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>98</v>
@@ -3906,19 +3932,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
         <v>52</v>
       </c>
       <c r="C110">
-        <v>1.2</v>
+        <v>30</v>
       </c>
       <c r="D110">
         <f>C110/1000</f>
-        <v>1.1999999999999999E-3</v>
+        <v>0.03</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>24</v>
@@ -3936,14 +3962,14 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>134</v>
       </c>
       <c r="B112" t="s">
         <v>24</v>
@@ -3952,9 +3978,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
         <v>24</v>
@@ -3964,9 +3990,9 @@
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
         <v>24</v>
@@ -3975,9 +4001,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
         <v>24</v>
@@ -3986,9 +4012,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
         <v>24</v>
@@ -3997,9 +4023,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
         <v>24</v>
@@ -4008,28 +4034,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>98</v>
@@ -4050,41 +4076,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>179</v>
       </c>
-      <c r="C122">
-        <v>1.2</v>
-      </c>
-      <c r="D122">
-        <f>C122/1000</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4093,21 +4112,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C9E490-A744-473C-8872-3574F7E7A57E}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I44" sqref="I43:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -4120,7 +4139,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
@@ -4140,7 +4159,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>56</v>
       </c>
@@ -4160,92 +4179,345 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
       <c r="E4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>145</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>151</v>
       </c>
       <c r="B12">
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16">
         <v>11.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17">
         <v>11.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -4254,29 +4526,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60A6198-9637-4F08-B05D-DA5383A125B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4293,22 +4565,22 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -4321,7 +4593,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
@@ -4354,7 +4626,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -4389,9 +4661,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>66</v>
@@ -4425,7 +4697,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -4460,7 +4732,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>78</v>
       </c>
@@ -4495,7 +4767,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>79</v>
       </c>
@@ -4530,7 +4802,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
@@ -4565,7 +4837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
@@ -4596,7 +4868,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -4610,7 +4882,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>81</v>
       </c>
@@ -4643,7 +4915,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -4676,7 +4948,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
@@ -4709,7 +4981,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -4742,12 +5014,12 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -4770,7 +5042,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
@@ -4803,7 +5075,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -4836,14 +5108,14 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -4858,7 +5130,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>55</v>
       </c>
@@ -4886,7 +5158,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>56</v>
       </c>
@@ -4914,7 +5186,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>93</v>
       </c>
@@ -4929,19 +5201,19 @@
         <v>14.75</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
@@ -4955,7 +5227,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>45</v>
       </c>
@@ -4986,7 +5258,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>48</v>
       </c>
@@ -5000,7 +5272,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>36</v>
       </c>
@@ -5034,7 +5306,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>37</v>
       </c>
@@ -5068,7 +5340,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>38</v>
       </c>
@@ -5100,11 +5372,11 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>58</v>
       </c>
@@ -5138,7 +5410,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>28</v>
       </c>
@@ -5155,7 +5427,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>39</v>
       </c>
@@ -5188,7 +5460,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>40</v>
       </c>
@@ -5222,7 +5494,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>41</v>
       </c>
@@ -5256,7 +5528,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="17"/>
@@ -5272,12 +5544,12 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>93</v>
       </c>
@@ -5297,7 +5569,7 @@
       </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H40" s="3"/>
     </row>
   </sheetData>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Masses and Volumes" sheetId="8" r:id="rId2"/>
-    <sheet name="Bulks" sheetId="6" r:id="rId3"/>
-    <sheet name="Extra" sheetId="9" r:id="rId4"/>
-    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId5"/>
+    <sheet name="Properties PCBs" sheetId="10" r:id="rId3"/>
+    <sheet name="Bulks" sheetId="6" r:id="rId4"/>
+    <sheet name="Extra" sheetId="9" r:id="rId5"/>
+    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="227">
   <si>
     <t>Material</t>
   </si>
@@ -610,13 +611,100 @@
     <t>Kband Bot</t>
   </si>
   <si>
-    <t>PP2116</t>
-  </si>
-  <si>
     <t>Cobre</t>
   </si>
   <si>
     <t>Laterales y Bot</t>
+  </si>
+  <si>
+    <t>R= rho* l/A</t>
+  </si>
+  <si>
+    <t>rho= suma[rho_i * w_i]</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>OBC-COMMS</t>
+  </si>
+  <si>
+    <t>Y+Mag</t>
+  </si>
+  <si>
+    <t>Laterals</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Copper (mm)</t>
+  </si>
+  <si>
+    <t>FR4  (mm)</t>
+  </si>
+  <si>
+    <t>Mask  (mm)</t>
+  </si>
+  <si>
+    <t>Conductivity (k) [W/m·K] (ip)</t>
+  </si>
+  <si>
+    <t>Conductivity (k) [W/m·K] (cp)</t>
+  </si>
+  <si>
+    <t>FR-4 (ip)</t>
+  </si>
+  <si>
+    <t>FR-4 (cp)</t>
+  </si>
+  <si>
+    <t>(approx)</t>
+  </si>
+  <si>
+    <t>BotLat Bulk</t>
+  </si>
+  <si>
+    <t>Slider Bulk</t>
+  </si>
+  <si>
+    <t>Y+Mag Bulk</t>
+  </si>
+  <si>
+    <t>PCB Bulk</t>
+  </si>
+  <si>
+    <t>Kband(B) Bulk</t>
+  </si>
+  <si>
+    <t>ESATAN Area (m^2)</t>
+  </si>
+  <si>
+    <t>Rogers  (mm)</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Kband Top</t>
+  </si>
+  <si>
+    <t>Kband Interface</t>
+  </si>
+  <si>
+    <t>Kband Under</t>
+  </si>
+  <si>
+    <t>Kband Support</t>
+  </si>
+  <si>
+    <t>Kband Antenna</t>
+  </si>
+  <si>
+    <t>Kband Over</t>
   </si>
 </sst>
 </file>
@@ -761,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -833,6 +921,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -937,6 +1033,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciacp.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5124450" y="5057775"/>
+          <a:ext cx="4638675" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciaip.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5114925" y="7705725"/>
+          <a:ext cx="5781675" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,7 +1455,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1833,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,10 +2926,562 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C2">
+        <v>1.44</v>
+      </c>
+      <c r="D2">
+        <v>0.02</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>1/((1/(B2*$L$2)+1/(C2*$L$4)+1/(D2*$L$5))*(B2+C2+D2+E2))</f>
+        <v>2.4761056482585533E-3</v>
+      </c>
+      <c r="G2">
+        <f>(B2*$L$2+C2*$L$3+D2*$L$5+E2*$L$6)*(B2+C2+D2+E2)</f>
+        <v>91.472640000000013</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7">
+        <v>8930</v>
+      </c>
+      <c r="K2" s="7">
+        <v>385</v>
+      </c>
+      <c r="L2" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.44</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="0">1/((1/(B3*$L$2)+1/(C3*$L$4)+1/(D3*$L$5))*(B3+C3+D3+E3))</f>
+        <v>2.4761056482585533E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">(B3*$L$2+C3*$L$3+D3*$L$5+E3*$L$6)*(B3+C3+D3+E3)</f>
+        <v>91.472640000000013</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1850</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1200</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C4">
+        <v>1.44</v>
+      </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.4761056482585533E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>91.472640000000013</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1850</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1200</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.77</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.9844413195134712E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>170.87540000000004</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="36">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="36">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C6">
+        <v>1.77</v>
+      </c>
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.9844413195134712E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>170.87540000000004</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2200</v>
+      </c>
+      <c r="K6" s="7">
+        <v>960</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C7">
+        <v>1.77</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.9844413195134712E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.51</v>
+      </c>
+      <c r="D8">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.4770197889097197E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>46.763360000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="D9">
+        <v>0.04</v>
+      </c>
+      <c r="E9">
+        <v>0.21</v>
+      </c>
+      <c r="F9">
+        <f>1/((1/(B9*$L$2)+1/(C9*$L$4)+1/(D9*$L$5)+1/(E9*$L$6))*(B9+C9+D9+E9))</f>
+        <v>5.0300678708131551E-3</v>
+      </c>
+      <c r="G9">
+        <f>(B9*$L$2+C9*$L$3+D9*$L$5+E9*$L$6)*(B9+C9+D9+E9)</f>
+        <v>110.14952000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" t="e">
+        <f>1/((1/(B10*$L$2)+1/(C10*$L$4)+1/(D10*$L$5)+1/(E10*$L$6))*(B10+C10+D10+E10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10">
+        <f>(B10*$L$2+C10*$L$3+D10*$L$5+E10*$L$6)*(B10+C10+D10+E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.44</v>
+      </c>
+      <c r="D15">
+        <v>0.02</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>(B15*$J$2*$K$2+C15*$J$3*$K$3+D15*$J$5*$K$5+E15*$J$6*$K$6)/(B15*$J$2+C15*$J$3+D15*$J$5+E15*$J$6)</f>
+        <v>940.29816397754291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.44</v>
+      </c>
+      <c r="D16">
+        <v>0.02</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F22" si="2">(B16*$J$2*$K$2+C16*$J$3*$K$3+D16*$J$5*$K$5+E16*$J$6*$K$6)/(B16*$J$2+C16*$J$3+D16*$J$5+E16*$J$6)</f>
+        <v>940.29816397754291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.44</v>
+      </c>
+      <c r="D17">
+        <v>0.02</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>940.29816397754291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C18">
+        <v>1.77</v>
+      </c>
+      <c r="D18">
+        <v>0.02</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>903.96364021734939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C19">
+        <v>1.77</v>
+      </c>
+      <c r="D19">
+        <v>0.02</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>903.96364021734939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C20">
+        <v>1.77</v>
+      </c>
+      <c r="D20">
+        <v>0.02</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>903.96364021734939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.51</v>
+      </c>
+      <c r="D21">
+        <v>0.02</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1050.3855606314694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="D22">
+        <v>0.04</v>
+      </c>
+      <c r="E22">
+        <v>0.21</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>783.19706393372451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" t="e">
+        <f t="shared" ref="F23" si="3">(B23*$J$2*$K$2+C23*$J$3*$K$3+D23*$J$5*$K$5+E23*$J$6*$K$6)/(B23*$J$2+C23*$J$3+D23*$J$5+E23*$J$6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,6 +3546,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" s="7">
         <v>1070</v>
       </c>
@@ -2797,6 +3563,9 @@
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="F4">
+        <v>4.5600000000000001E-7</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2837,7 +3606,7 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="C10">
         <v>14.2</v>
@@ -2850,16 +3619,16 @@
         <f>C10/C12</f>
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
+      <c r="F10" s="38" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
+      <c r="F11" s="38" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2881,6 +3650,9 @@
         <f>SUM(E10:E11)</f>
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>6.6560000000000003E-6</v>
+      </c>
       <c r="H12">
         <f>H10*E10+H11*E11</f>
         <v>0</v>
@@ -2924,7 +3696,7 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="C15">
         <v>8.4</v>
@@ -2937,8 +3709,8 @@
         <f>C15/C17</f>
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
+      <c r="F15" s="34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2959,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3025,7 +3797,7 @@
         <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="C20">
         <v>9.8000000000000007</v>
@@ -3039,7 +3811,7 @@
         <v>0.96078431372549011</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3061,7 +3833,7 @@
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3083,6 +3855,9 @@
         <f>SUM(E20:E21)</f>
         <v>0.99999999999999989</v>
       </c>
+      <c r="F22">
+        <v>4.6079999999999998E-6</v>
+      </c>
       <c r="H22">
         <f>H20*E20+H21*E21</f>
         <v>0</v>
@@ -3145,7 +3920,7 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="C29">
         <v>9.8000000000000007</v>
@@ -3159,7 +3934,7 @@
         <v>0.94230769230769229</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3181,7 +3956,7 @@
         <v>5.7692307692307689E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3203,6 +3978,9 @@
         <f>SUM(E29:E30)</f>
         <v>1</v>
       </c>
+      <c r="F31">
+        <v>4.6079999999999998E-6</v>
+      </c>
       <c r="H31">
         <f>H29*E29+H30*E30</f>
         <v>0</v>
@@ -3247,7 +4025,7 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="C35">
         <v>6.6</v>
@@ -3261,7 +4039,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3276,7 +4054,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3286,6 +4064,9 @@
       <c r="B37" t="s">
         <v>23</v>
       </c>
+      <c r="F37">
+        <v>4.0500000000000002E-6</v>
+      </c>
       <c r="H37" t="e">
         <f>H35*E35+H36*E36</f>
         <v>#DIV/0!</v>
@@ -3328,6 +4109,9 @@
       <c r="A41" t="s">
         <v>112</v>
       </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
       <c r="C41">
         <v>5.6</v>
       </c>
@@ -3335,6 +4119,9 @@
         <f>C41/1000</f>
         <v>5.5999999999999999E-3</v>
       </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3343,11 +4130,17 @@
       <c r="C42">
         <v>2.4</v>
       </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F43">
+        <v>2.5600000000000001E-6</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -3382,6 +4175,9 @@
       <c r="A47" t="s">
         <v>113</v>
       </c>
+      <c r="B47" t="s">
+        <v>216</v>
+      </c>
       <c r="C47">
         <v>5.5</v>
       </c>
@@ -3389,6 +4185,9 @@
         <f>C47/1000</f>
         <v>5.4999999999999997E-3</v>
       </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3397,11 +4196,17 @@
       <c r="C48">
         <v>1.6</v>
       </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F49">
+        <v>2.5600000000000001E-6</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -3436,6 +4241,9 @@
       <c r="A53" t="s">
         <v>114</v>
       </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
       <c r="C53">
         <v>5.4</v>
       </c>
@@ -3443,6 +4251,9 @@
         <f>C53/1000</f>
         <v>5.4000000000000003E-3</v>
       </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -3451,11 +4262,17 @@
       <c r="C54">
         <v>1.6</v>
       </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F55">
+        <v>2.5600000000000001E-6</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -3490,6 +4307,9 @@
       <c r="A59" t="s">
         <v>183</v>
       </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
       <c r="C59">
         <v>9.1999999999999993</v>
       </c>
@@ -3497,11 +4317,17 @@
         <f>C59/1000</f>
         <v>9.1999999999999998E-3</v>
       </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F60">
+        <v>2.5600000000000001E-6</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -3539,6 +4365,9 @@
       <c r="C65">
         <v>7.6</v>
       </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -3547,16 +4376,25 @@
       <c r="C66">
         <v>0.7</v>
       </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>92</v>
       </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F68">
+        <v>2.5600000000000001E-6</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
@@ -3578,7 +4416,7 @@
         <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>5</v>
@@ -3601,6 +4439,9 @@
         <f>C71/1000</f>
         <v>5.7000000000000002E-3</v>
       </c>
+      <c r="F71">
+        <v>4.2999999999999999E-4</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
@@ -3638,9 +4479,15 @@
       <c r="A74" s="25" t="s">
         <v>130</v>
       </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74">
+        <v>24.3</v>
+      </c>
       <c r="D74">
         <f>C74/1000</f>
-        <v>0</v>
+        <v>2.4300000000000002E-2</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>24</v>
@@ -3667,6 +4514,9 @@
       <c r="C76" t="s">
         <v>24</v>
       </c>
+      <c r="F76">
+        <v>3.1203999999999998E-6</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -3678,7 +4528,9 @@
       <c r="C77" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="32">
+        <v>1.52E-5</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -3690,6 +4542,9 @@
       <c r="C78" t="s">
         <v>24</v>
       </c>
+      <c r="F78">
+        <v>3.3600000000000003E-8</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -3701,6 +4556,9 @@
       <c r="C79" t="s">
         <v>24</v>
       </c>
+      <c r="F79">
+        <v>1.92E-8</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -3716,6 +4574,10 @@
       <c r="A82" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F82">
+        <f>F76+F77+F78*4+F79*4</f>
+        <v>1.8531600000000001E-5</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
@@ -3762,6 +4624,9 @@
         <f>C88/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
+      <c r="F88">
+        <v>3.96E-7</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -3828,6 +4693,9 @@
         <f>C96/1000</f>
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="F96">
+        <v>1.216E-5</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
@@ -3887,6 +4755,9 @@
       <c r="A103" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F103">
+        <v>2.8980000000000001E-7</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -3977,6 +4848,9 @@
       <c r="C112" t="s">
         <v>24</v>
       </c>
+      <c r="F112">
+        <v>2.6599999999999999E-6</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -3988,7 +4862,9 @@
       <c r="C113" t="s">
         <v>24</v>
       </c>
-      <c r="F113" s="3"/>
+      <c r="F113" s="32">
+        <v>7.9800000000000003E-7</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -4000,6 +4876,9 @@
       <c r="C114" t="s">
         <v>24</v>
       </c>
+      <c r="F114">
+        <v>7.9800000000000003E-7</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -4011,6 +4890,9 @@
       <c r="C115" t="s">
         <v>24</v>
       </c>
+      <c r="F115">
+        <v>2.9440000000000001E-6</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -4022,6 +4904,9 @@
       <c r="C116" t="s">
         <v>24</v>
       </c>
+      <c r="F116">
+        <v>2.9440000000000001E-6</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -4033,11 +4918,18 @@
       <c r="C117" t="s">
         <v>24</v>
       </c>
+      <c r="F117">
+        <v>5.2440000000000001E-6</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F118">
+        <f>SUM(F112:F117)</f>
+        <v>1.5387999999999999E-5</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
@@ -4080,21 +4972,33 @@
       <c r="A122" t="s">
         <v>178</v>
       </c>
+      <c r="F122" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>179</v>
       </c>
+      <c r="F123" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="33" t="s">
         <v>180</v>
       </c>
+      <c r="F124" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="F125">
+        <v>1.3E-7</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
@@ -4108,15 +5012,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I44" sqref="I43:I44"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4259,7 +5164,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -4267,7 +5172,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -4275,7 +5180,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -4288,8 +5193,18 @@
       <c r="D25">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>D25*B25</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -4302,8 +5217,12 @@
       <c r="D26">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" ref="E26:E27" si="0">D26*B26</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -4316,13 +5235,17 @@
       <c r="D27">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>185</v>
       </c>
@@ -4335,8 +5258,12 @@
       <c r="D31">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f>D31*B31</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>187</v>
       </c>
@@ -4349,8 +5276,12 @@
       <c r="D32">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" ref="E32:E33" si="1">D32*B32</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -4363,8 +5294,12 @@
       <c r="D33">
         <v>0.73499999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -4377,13 +5312,17 @@
       <c r="D34">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f>D34*B34</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>185</v>
       </c>
@@ -4396,8 +5335,12 @@
       <c r="D37">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f>D37*B37</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -4410,8 +5353,12 @@
       <c r="D38">
         <v>0.35399999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" ref="E38:E39" si="2">D38*B38</f>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -4424,13 +5371,20 @@
       <c r="D39">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="O41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -4441,72 +5395,92 @@
         <v>193</v>
       </c>
       <c r="D42">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E42">
+        <f>D42*B42</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>193</v>
       </c>
       <c r="D43">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.51</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E44" si="3">D43*B43</f>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
         <v>193</v>
       </c>
       <c r="D44">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>193</v>
       </c>
       <c r="D47">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+      <c r="E47">
+        <f>D47*B47</f>
+        <v>0.21</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
         <v>193</v>
       </c>
       <c r="D48">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="4">D48*B48</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -4519,17 +5493,285 @@
       <c r="D49">
         <v>0.01</v>
       </c>
+      <c r="E49">
+        <f>D49*B49</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52">
+        <v>0.91</v>
+      </c>
+      <c r="E52">
+        <f>D52*B52</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="5">D53*B53</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54">
+        <v>0.01</v>
+      </c>
+      <c r="E54">
+        <f>D54*B54</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70">
+        <v>0.21</v>
+      </c>
+      <c r="E70">
+        <f>D70*B70</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71" si="6">D71*B71</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72">
+        <v>0.01</v>
+      </c>
+      <c r="E72">
+        <f>D72*B72</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E76">
+        <f>D76*B76</f>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77" si="7">D77*B77</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78">
+        <v>0.01</v>
+      </c>
+      <c r="E78">
+        <f>D78*B78</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81">
+        <f>E76</f>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82">
+        <f>E70</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83">
+        <f>E71+E77</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84">
+        <f>E72+E78</f>
+        <v>0.04</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="247">
   <si>
     <t>Material</t>
   </si>
@@ -317,9 +317,6 @@
     <t>SD_Slider_Board</t>
   </si>
   <si>
-    <t>Slider PCB</t>
-  </si>
-  <si>
     <t>Mass (kg)</t>
   </si>
   <si>
@@ -677,9 +674,6 @@
     <t>PCB Bulk</t>
   </si>
   <si>
-    <t>Kband(B) Bulk</t>
-  </si>
-  <si>
     <t>ESATAN Area (m^2)</t>
   </si>
   <si>
@@ -705,13 +699,102 @@
   </si>
   <si>
     <t>Kband Over</t>
+  </si>
+  <si>
+    <t>Real Slider</t>
+  </si>
+  <si>
+    <t>Slider Board</t>
+  </si>
+  <si>
+    <t>SD_Slider_L</t>
+  </si>
+  <si>
+    <t>SD_Slider_R</t>
+  </si>
+  <si>
+    <t>SD_Slider_Front</t>
+  </si>
+  <si>
+    <t>SD_Slider_Back</t>
+  </si>
+  <si>
+    <t>Copper (m%)</t>
+  </si>
+  <si>
+    <t>FR4  (m%)</t>
+  </si>
+  <si>
+    <t>Mask  (m%)</t>
+  </si>
+  <si>
+    <t>Rogers  (m%)</t>
+  </si>
+  <si>
+    <t>Screws:</t>
+  </si>
+  <si>
+    <t>Total len</t>
+  </si>
+  <si>
+    <t>35mm</t>
+  </si>
+  <si>
+    <t>under kband</t>
+  </si>
+  <si>
+    <t>overkband</t>
+  </si>
+  <si>
+    <t>add to spacer</t>
+  </si>
+  <si>
+    <t>add to support</t>
+  </si>
+  <si>
+    <t>0.1775*m_t</t>
+  </si>
+  <si>
+    <t>0.29*4*m_t</t>
+  </si>
+  <si>
+    <t>(4 screws)</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <r>
+      <t>Density (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) [kg/m2]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,13 +836,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,11 +909,34 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -844,12 +972,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -902,8 +1148,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -916,11 +1160,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -928,10 +1167,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="3">
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1454,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,21 +2145,21 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1868,16 +2180,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>82</v>
@@ -1895,8 +2207,8 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="29" t="s">
-        <v>161</v>
+      <c r="J2" s="27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1967,7 +2279,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>66</v>
@@ -1983,24 +2295,24 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>6.6E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>6.6E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>67</v>
@@ -2033,7 +2345,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -2066,7 +2378,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>68</v>
@@ -2099,7 +2411,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>34</v>
@@ -2241,7 +2553,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>80</v>
       </c>
@@ -2435,7 +2747,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -2449,7 +2761,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>74</v>
@@ -2464,7 +2776,7 @@
         <f>L23/1000/1000/1000</f>
         <v>0</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="26">
         <v>3.2499999999999999E-4</v>
       </c>
       <c r="G23" s="14">
@@ -2479,7 +2791,7 @@
         <v>4.7937499999999993</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2499,7 +2811,7 @@
         <f>L24/1000/1000/1000</f>
         <v>0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="26">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G24" s="14">
@@ -2514,7 +2826,7 @@
         <v>5.8999999999999995</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2705,7 +3017,7 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -2883,22 +3195,22 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25">
         <f>SUM(H2:H38)-H23-H24-H32</f>
-        <v>0.23706374999999996</v>
-      </c>
-      <c r="I40" s="30">
+        <v>0.23766375000000001</v>
+      </c>
+      <c r="I40" s="28">
         <f t="shared" si="2"/>
-        <v>237.06374999999997</v>
+        <v>237.66374999999999</v>
       </c>
       <c r="J40" s="20"/>
     </row>
@@ -2906,8 +3218,8 @@
       <c r="A41" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -2926,380 +3238,339 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="9" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
     <col min="12" max="12" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>8930</v>
+      </c>
+      <c r="C2" s="7">
+        <v>385</v>
+      </c>
+      <c r="D2" s="7">
+        <v>400</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <f>B16*$B$2/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <v>0.31617014819685402</v>
+      </c>
+      <c r="H2">
+        <f>C16*$B$3/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <v>0.67371402559304039</v>
+      </c>
+      <c r="I2">
+        <f>D16*$B$5/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <v>1.011582621010571E-2</v>
+      </c>
+      <c r="J2">
+        <f>E16*$B$6/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1850</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <f>B17*$B$2/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <v>0.31617014819685402</v>
+      </c>
+      <c r="H3">
+        <f>C17*$B$3/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <v>0.67371402559304039</v>
+      </c>
+      <c r="I3">
+        <f>D17*$B$5/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <v>1.011582621010571E-2</v>
+      </c>
+      <c r="J3">
+        <f>E17*$B$6/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1850</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <f>B18*$B$2/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <v>0.31617014819685402</v>
+      </c>
+      <c r="H4">
+        <f>C18*$B$3/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <v>0.67371402559304039</v>
+      </c>
+      <c r="I4">
+        <f>D18*$B$5/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <v>1.011582621010571E-2</v>
+      </c>
+      <c r="J4">
+        <f>E18*$B$6/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5">
+        <f>B19*$B$2/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <v>0.36134340437011064</v>
+      </c>
+      <c r="H5">
+        <f>C19*$B$3/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <v>0.63094916952483715</v>
+      </c>
+      <c r="I5">
+        <f>D19*$B$5/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <v>7.7074261050522177E-3</v>
+      </c>
+      <c r="J5">
+        <f>E19*$B$6/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>960</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6">
+        <f>B20*$B$2/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <v>0.36134340437011064</v>
+      </c>
+      <c r="H6">
+        <f>C20*$B$3/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <v>0.63094916952483715</v>
+      </c>
+      <c r="I6">
+        <f>D20*$B$5/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <v>7.7074261050522177E-3</v>
+      </c>
+      <c r="J6">
+        <f>E20*$B$6/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7">
+        <f>B21*$B$2/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <v>0.36134340437011064</v>
+      </c>
+      <c r="H7">
+        <f>C21*$B$3/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <v>0.63094916952483715</v>
+      </c>
+      <c r="I7">
+        <f>D21*$B$5/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <v>7.7074261050522177E-3</v>
+      </c>
+      <c r="J7">
+        <f>E21*$B$6/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <f>B22*$B$2/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <v>0.18073787081478057</v>
+      </c>
+      <c r="H8">
+        <f>C22*$B$3/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <v>0.8076967559127971</v>
+      </c>
+      <c r="I8">
+        <f>D22*$B$5/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <v>1.1565373272422368E-2</v>
+      </c>
+      <c r="J8">
+        <f>E22*$B$6/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9">
+        <f>B23*$B$2/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <v>0.47221312920202457</v>
+      </c>
+      <c r="H9">
+        <f>C23*$B$3/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <v>0.39130763226147613</v>
+      </c>
+      <c r="I9">
+        <f>D23*$B$5/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <v>2.0144537053357843E-2</v>
+      </c>
+      <c r="J9">
+        <f>E23*$B$6/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <v>0.11633470148314154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" t="e">
+        <f>B24*$B$2/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" t="e">
+        <f>C24*$B$3/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <f>D24*$B$5/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" t="e">
+        <f>E24*$B$6/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D15" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E15" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C2">
-        <v>1.44</v>
-      </c>
-      <c r="D2">
-        <v>0.02</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>1/((1/(B2*$L$2)+1/(C2*$L$4)+1/(D2*$L$5))*(B2+C2+D2+E2))</f>
-        <v>2.4761056482585533E-3</v>
-      </c>
-      <c r="G2">
-        <f>(B2*$L$2+C2*$L$3+D2*$L$5+E2*$L$6)*(B2+C2+D2+E2)</f>
-        <v>91.472640000000013</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="7">
-        <v>8930</v>
-      </c>
-      <c r="K2" s="7">
-        <v>385</v>
-      </c>
-      <c r="L2" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.44</v>
-      </c>
-      <c r="D3">
-        <v>0.02</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">1/((1/(B3*$L$2)+1/(C3*$L$4)+1/(D3*$L$5))*(B3+C3+D3+E3))</f>
-        <v>2.4761056482585533E-3</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="1">(B3*$L$2+C3*$L$3+D3*$L$5+E3*$L$6)*(B3+C3+D3+E3)</f>
-        <v>91.472640000000013</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1850</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1200</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C4">
-        <v>1.44</v>
-      </c>
-      <c r="D4">
-        <v>0.02</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>2.4761056482585533E-3</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>91.472640000000013</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1850</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1200</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5">
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="C5">
-        <v>1.77</v>
-      </c>
-      <c r="D5">
-        <v>0.02</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1.9844413195134712E-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>170.87540000000004</v>
-      </c>
-      <c r="I5" s="35" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>200</v>
-      </c>
-      <c r="J5" s="36">
-        <v>2000</v>
-      </c>
-      <c r="K5" s="36">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6">
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="C6">
-        <v>1.77</v>
-      </c>
-      <c r="D6">
-        <v>0.02</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1.9844413195134712E-3</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>170.87540000000004</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2200</v>
-      </c>
-      <c r="K6" s="7">
-        <v>960</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7">
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="C7">
-        <v>1.77</v>
-      </c>
-      <c r="D7">
-        <v>0.02</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.9844413195134712E-3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C8">
-        <v>1.51</v>
-      </c>
-      <c r="D8">
-        <v>0.02</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>2.4770197889097197E-3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>46.763360000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9">
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="C9">
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="D9">
-        <v>0.04</v>
-      </c>
-      <c r="E9">
-        <v>0.21</v>
-      </c>
-      <c r="F9">
-        <f>1/((1/(B9*$L$2)+1/(C9*$L$4)+1/(D9*$L$5)+1/(E9*$L$6))*(B9+C9+D9+E9))</f>
-        <v>5.0300678708131551E-3</v>
-      </c>
-      <c r="G9">
-        <f>(B9*$L$2+C9*$L$3+D9*$L$5+E9*$L$6)*(B9+C9+D9+E9)</f>
-        <v>110.14952000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" t="e">
-        <f>1/((1/(B10*$L$2)+1/(C10*$L$4)+1/(D10*$L$5)+1/(E10*$L$6))*(B10+C10+D10+E10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10">
-        <f>(B10*$L$2+C10*$L$3+D10*$L$5+E10*$L$6)*(B10+C10+D10+E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C15">
-        <v>1.44</v>
-      </c>
-      <c r="D15">
-        <v>0.02</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>(B15*$J$2*$K$2+C15*$J$3*$K$3+D15*$J$5*$K$5+E15*$J$6*$K$6)/(B15*$J$2+C15*$J$3+D15*$J$5+E15*$J$6)</f>
-        <v>940.29816397754291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
       </c>
       <c r="B16">
         <v>0.14000000000000001</v>
@@ -3314,13 +3585,21 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="2">(B16*$J$2*$K$2+C16*$J$3*$K$3+D16*$J$5*$K$5+E16*$J$6*$K$6)/(B16*$J$2+C16*$J$3+D16*$J$5+E16*$J$6)</f>
+        <f>(B16*$B$2*$C$2+C16*$B$3*$C$3+D16*$B$5*$C$5+E16*$B$6*$C$6)/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>940.29816397754291</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f>1/(G2/$D$2+H2/$D$4+I2/$D$5+J2/$D$6)</f>
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="H16">
+        <f>(B16*$D$2+C16*$D$3+D16*$D$5+E16*$D$6)*(B16+C16+D16+E16)</f>
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>0.14000000000000001</v>
@@ -3335,19 +3614,27 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f>(B17*$B$2*$C$2+C17*$B$3*$C$3+D17*$B$5*$C$5+E17*$B$6*$C$6)/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
         <v>940.29816397754291</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>1/(G3/$D$2+H3/$D$4+I3/$D$5+J3/$D$6)</f>
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="H17">
+        <f>(B17*$D$2+C17*$D$3+D17*$D$5+E17*$D$6)*(B17+C17+D17+E17)</f>
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="B18">
-        <v>0.21000000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C18">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="D18">
         <v>0.02</v>
@@ -3356,13 +3643,21 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>903.96364021734939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(B18*$B$2*$C$2+C18*$B$3*$C$3+D18*$B$5*$C$5+E18*$B$6*$C$6)/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <v>940.29816397754291</v>
+      </c>
+      <c r="G18">
+        <f>1/(G4/$D$2+H4/$D$4+I4/$D$5+J4/$D$6)</f>
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="H18">
+        <f>(B18*$D$2+C18*$D$3+D18*$D$5+E18*$D$6)*(B18+C18+D18+E18)</f>
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B19">
         <v>0.21000000000000002</v>
@@ -3377,13 +3672,21 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f>(B19*$B$2*$C$2+C19*$B$3*$C$3+D19*$B$5*$C$5+E19*$B$6*$C$6)/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
         <v>903.96364021734939</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f>1/(G5/$D$2+H5/$D$4+I5/$D$5+J5/$D$6)</f>
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="H19">
+        <f>(B19*$D$2+C19*$D$3+D19*$D$5+E19*$D$6)*(B19+C19+D19+E19)</f>
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20">
         <v>0.21000000000000002</v>
@@ -3398,19 +3701,27 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f>(B20*$B$2*$C$2+C20*$B$3*$C$3+D20*$B$5*$C$5+E20*$B$6*$C$6)/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
         <v>903.96364021734939</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f>1/(G6/$D$2+H6/$D$4+I6/$D$5+J6/$D$6)</f>
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="H20">
+        <f>(B20*$D$2+C20*$D$3+D20*$D$5+E20*$D$6)*(B20+C20+D20+E20)</f>
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="B21">
-        <v>7.0000000000000007E-2</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="C21">
-        <v>1.51</v>
+        <v>1.77</v>
       </c>
       <c r="D21">
         <v>0.02</v>
@@ -3419,53 +3730,104 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f>(B21*$B$2*$C$2+C21*$B$3*$C$3+D21*$B$5*$C$5+E21*$B$6*$C$6)/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <v>903.96364021734939</v>
+      </c>
+      <c r="G21">
+        <f>1/(G7/$D$2+H7/$D$4+I7/$D$5+J7/$D$6)</f>
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="H21">
+        <f>(B21*$D$2+C21*$D$3+D21*$D$5+E21*$D$6)*(B21+C21+D21+E21)</f>
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.51</v>
+      </c>
+      <c r="D22">
+        <v>0.02</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>(B22*$B$2*$C$2+C22*$B$3*$C$3+D22*$B$5*$C$5+E22*$B$6*$C$6)/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
         <v>1050.3855606314694</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22">
+      <c r="G22">
+        <f>1/(G8/$D$2+H8/$D$4+I8/$D$5+J8/$D$6)</f>
+        <v>0.35168669699040533</v>
+      </c>
+      <c r="H22">
+        <f>(B22*$D$2+C22*$D$3+D22*$D$5+E22*$D$6)*(B22+C22+D22+E22)</f>
+        <v>46.763360000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23">
         <v>0.21000000000000002</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>0.84000000000000008</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0.04</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.21</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
+      <c r="F23">
+        <f>(B23*$B$2*$C$2+C23*$B$3*$C$3+D23*$B$5*$C$5+E23*$B$6*$C$6)/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
         <v>783.19706393372451</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" t="e">
-        <f t="shared" ref="F23" si="3">(B23*$J$2*$K$2+C23*$J$3*$K$3+D23*$J$5*$K$5+E23*$J$6*$K$6)/(B23*$J$2+C23*$J$3+D23*$J$5+E23*$J$6)</f>
+      <c r="G23">
+        <f>1/(G9/$D$2+H9/$D$4+I9/$D$5+J9/$D$6)</f>
+        <v>0.49190487192846383</v>
+      </c>
+      <c r="H23">
+        <f>(B23*$D$2+C23*$D$3+D23*$D$5+E23*$D$6)*(B23+C23+D23+E23)</f>
+        <v>110.14952000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="e">
+        <f>(B24*$B$2*$C$2+C24*$B$3*$C$3+D24*$B$5*$C$5+E24*$B$6*$C$6)/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="3"/>
+      <c r="G24" t="e">
+        <f>1/(G10/$D$2+H10/$D$4+I10/$D$5+J10/$D$6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24">
+        <f>(B24*$D$2+C24*$D$3+D24*$D$5+E24*$D$6)*(B24+C24+D24+E24)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="3"/>
@@ -3478,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,1525 +3851,2883 @@
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="38">
         <v>1.2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="38">
         <f>C3/1000</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="38">
         <v>1</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1070</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="F3" s="49">
+        <v>4.5600000000000001E-7</v>
+      </c>
+      <c r="G3" s="50">
+        <f>D3/F3</f>
+        <v>2631.5789473684208</v>
+      </c>
+      <c r="H3" s="50">
         <v>1990</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="51">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43">
         <v>4.5600000000000001E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="G5" s="43">
+        <v>2631.5789473684208</v>
+      </c>
+      <c r="H5" s="43">
+        <v>1990</v>
+      </c>
+      <c r="I5" s="44">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I9" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="38">
         <v>14.2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="38">
         <f>C10/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="38">
         <f>C10/C12</f>
         <v>1</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="38">
+        <f>D12/F12</f>
+        <v>2133.4134615384614</v>
+      </c>
+      <c r="H10" s="38">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J10" s="39">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="38">
+        <v>2133.4134615384614</v>
+      </c>
+      <c r="H11" s="38">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J11" s="39">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="42">
         <f>SUM(C10:C11)</f>
         <v>14.2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="42">
         <f>C12/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="42">
         <f>SUM(E10:E11)</f>
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="42">
         <v>6.6560000000000003E-6</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="43">
+        <v>2133.4134615384614</v>
+      </c>
+      <c r="H12" s="43">
         <f>H10*E10+H11*E11</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I12" s="43">
         <f>I10*E10+I11*E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J12" s="44">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="38">
+        <v>8.4</v>
+      </c>
+      <c r="D16" s="38">
+        <f>C16/1000</f>
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="38">
+        <f>F18/($F$18+$F$19+$F$20+$F$21)</f>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="F18" s="38">
+        <v>1.3312000000000001E-6</v>
+      </c>
+      <c r="G18" s="38">
+        <v>1953.125</v>
+      </c>
+      <c r="H18" s="38">
+        <v>1050.3855606314694</v>
+      </c>
+      <c r="I18" s="38">
+        <v>0.35168669699040533</v>
+      </c>
+      <c r="J18" s="39">
+        <v>46.763360000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="38">
+        <f t="shared" ref="E19:E21" si="0">F19/($F$18+$F$19+$F$20+$F$21)</f>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1.3312000000000001E-6</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1953.125</v>
+      </c>
+      <c r="H19" s="38">
+        <v>1050.3855606314694</v>
+      </c>
+      <c r="I19" s="38">
+        <v>0.35168669699040533</v>
+      </c>
+      <c r="J19" s="39">
+        <v>46.763360000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="F20" s="38">
+        <v>8.1920000000000003E-7</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1953.125</v>
+      </c>
+      <c r="H20" s="38">
+        <v>1050.3855606314694</v>
+      </c>
+      <c r="I20" s="38">
+        <v>0.35168669699040533</v>
+      </c>
+      <c r="J20" s="39">
+        <v>46.763360000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="F21" s="38">
+        <v>8.1920000000000003E-7</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1953.125</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1050.3855606314694</v>
+      </c>
+      <c r="I21" s="38">
+        <v>0.35168669699040533</v>
+      </c>
+      <c r="J21" s="39">
+        <v>46.763360000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="42">
+        <v>8.4</v>
+      </c>
+      <c r="D22" s="42">
+        <f>C22/1000</f>
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="E22" s="42">
+        <f>SUM(E18:E21)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="42">
+        <f>SUM(F18:F21)</f>
+        <v>4.3008000000000004E-6</v>
+      </c>
+      <c r="G22" s="43">
+        <f>D16/F22</f>
+        <v>1953.125</v>
+      </c>
+      <c r="H22" s="43">
+        <v>1050.3855606314694</v>
+      </c>
+      <c r="I22" s="43">
+        <v>0.35168669699040533</v>
+      </c>
+      <c r="J22" s="44">
+        <v>46.763360000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="38">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D26" s="38">
+        <f>C26/1000</f>
+        <v>9.8000000000000014E-3</v>
+      </c>
+      <c r="E26" s="38">
+        <f>C26/C28</f>
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="38">
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H26" s="38">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I26" s="38">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J26" s="39">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="D27" s="38">
+        <f>C27/1000</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E27" s="38">
+        <f>C27/C28</f>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="38">
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H27" s="38">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I27" s="38">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J27" s="39">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="38">
+        <f>SUM(C26:C27)</f>
+        <v>10.200000000000001</v>
+      </c>
+      <c r="D28" s="38">
+        <f>C28/1000</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E28" s="38">
+        <f>SUM(E26:E27)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F28" s="38">
+        <v>4.6079999999999998E-6</v>
+      </c>
+      <c r="G28" s="49">
+        <f>D28/F28</f>
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H28" s="49">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I28" s="49">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J28" s="53">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="83"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="D30" s="38">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E30" s="38">
+        <f>SUM(E28:E29)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F30" s="38">
+        <v>4.6079999999999998E-6</v>
+      </c>
+      <c r="G30" s="49">
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H30" s="49">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I30" s="49">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J30" s="53">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="D31" s="42">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E31" s="42">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F31" s="42">
+        <v>4.6079999999999998E-6</v>
+      </c>
+      <c r="G31" s="43">
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H31" s="43">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I31" s="43">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J31" s="44">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" s="74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="38">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D35" s="38">
+        <f>C35/1000</f>
+        <v>9.8000000000000014E-3</v>
+      </c>
+      <c r="E35" s="38">
+        <f>C35/C37</f>
+        <v>0.94230769230769229</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="38">
+        <v>2256.9444444444448</v>
+      </c>
+      <c r="H35" s="38">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I35" s="38">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J35" s="39">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="D36" s="38">
+        <f>C36/1000</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E36" s="38">
+        <f>C36/C37</f>
+        <v>5.7692307692307689E-2</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="38">
+        <v>2256.9444444444448</v>
+      </c>
+      <c r="H36" s="38">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I36" s="38">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J36" s="39">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="42">
+        <f>SUM(C35:C36)</f>
+        <v>10.4</v>
+      </c>
+      <c r="D37" s="42">
+        <f>SUM(D35:D36)</f>
+        <v>1.0400000000000001E-2</v>
+      </c>
+      <c r="E37" s="42">
+        <f>SUM(E35:E36)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="42">
+        <v>4.6079999999999998E-6</v>
+      </c>
+      <c r="G37" s="54">
+        <f>D37/F37</f>
+        <v>2256.9444444444448</v>
+      </c>
+      <c r="H37" s="54">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I37" s="54">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J37" s="55">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="L40" s="74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41">
+        <v>7.1</v>
+      </c>
+      <c r="D41" s="38">
+        <f>C41/1000</f>
+        <v>7.0999999999999995E-3</v>
+      </c>
+      <c r="E41" s="38">
+        <f>C41/C43</f>
+        <v>1.0757575757575757</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="38">
+        <v>1629.6296296296296</v>
+      </c>
+      <c r="H41" s="38">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I41" s="38">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J41" s="39">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="38">
+        <v>0</v>
+      </c>
+      <c r="D42" s="38">
+        <f t="shared" ref="D42:D43" si="1">C42/1000</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="38">
+        <f>C42/C43</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="38">
+        <v>1629.6296296296296</v>
+      </c>
+      <c r="H42" s="38">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J42" s="39">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="D43" s="42">
+        <f t="shared" si="1"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42">
+        <v>4.0500000000000002E-6</v>
+      </c>
+      <c r="G43" s="43">
+        <f>D41/F43</f>
+        <v>1753.0864197530861</v>
+      </c>
+      <c r="H43" s="43">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I43" s="43">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J43" s="44">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="38">
+        <v>5.6</v>
+      </c>
+      <c r="D47" s="38">
+        <f>C47/1000</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E47" s="38">
+        <f>D47/$D$49</f>
+        <v>0.7</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="38">
+        <v>3125</v>
+      </c>
+      <c r="H47" s="38">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I47" s="38">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J47" s="39">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="D48" s="38">
+        <f>C48/1000</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E48" s="38">
+        <f>D48/$D$49</f>
+        <v>0.3</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="38">
+        <v>3125</v>
+      </c>
+      <c r="H48" s="38">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I48" s="38">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J48" s="39">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42">
+        <f>SUM(C47:C48)</f>
+        <v>8</v>
+      </c>
+      <c r="D49" s="42">
+        <f>SUM(D47:D48)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E49" s="42">
+        <f>SUM(E47:E48)</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="42">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G49" s="43">
+        <f>D49/F49</f>
+        <v>3125</v>
+      </c>
+      <c r="H49" s="43">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I49" s="43">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J49" s="44">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="38">
+        <v>5.5</v>
+      </c>
+      <c r="D53" s="38">
+        <f>C53/1000</f>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E53" s="38">
+        <f>D53/D55</f>
+        <v>0.77464788732394363</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="38">
+        <v>2773.4374999999995</v>
+      </c>
+      <c r="H53" s="38">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I53" s="38">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J53" s="39">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38">
+        <v>1.6</v>
+      </c>
+      <c r="D54" s="38">
+        <f>C54/1000</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E54" s="38">
+        <f>D54/$D$55</f>
+        <v>0.22535211267605637</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="38">
+        <v>2773.4374999999995</v>
+      </c>
+      <c r="H54" s="38">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I54" s="38">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J54" s="39">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42">
+        <f>SUM(C53:C54)</f>
+        <v>7.1</v>
+      </c>
+      <c r="D55" s="42">
+        <f>SUM(D53:D54)</f>
+        <v>7.0999999999999995E-3</v>
+      </c>
+      <c r="E55" s="42">
+        <f>SUM(E53:E54)</f>
+        <v>1</v>
+      </c>
+      <c r="F55" s="42">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G55" s="43">
+        <f>D55/F55</f>
+        <v>2773.4374999999995</v>
+      </c>
+      <c r="H55" s="43">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I55" s="43">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J55" s="44">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="D59" s="38">
+        <f>C59/1000</f>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E59" s="38">
+        <f>D59/$D$61</f>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="38">
+        <v>2734.375</v>
+      </c>
+      <c r="H59" s="38">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I59" s="38">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J59" s="39">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38">
+        <v>1.6</v>
+      </c>
+      <c r="D60" s="38">
+        <f>C60/1000</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E60" s="38">
+        <f>D60/$D$61</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="38">
+        <v>2734.375</v>
+      </c>
+      <c r="H60" s="38">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I60" s="38">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J60" s="39">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42">
+        <f>SUM(C59:C60)</f>
+        <v>7</v>
+      </c>
+      <c r="D61" s="42">
+        <f>SUM(D59:D60)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E61" s="42">
+        <f>SUM(E59:E60)</f>
+        <v>1</v>
+      </c>
+      <c r="F61" s="42">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G61" s="43">
+        <f>D61/F61</f>
+        <v>2734.375</v>
+      </c>
+      <c r="H61" s="43">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I61" s="43">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J61" s="44">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B65" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D65" s="38">
+        <f>C65/1000</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E65" s="38">
+        <v>1</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="38">
+        <v>3593.75</v>
+      </c>
+      <c r="H65" s="38">
+        <v>783.19706393372451</v>
+      </c>
+      <c r="I65" s="38">
+        <v>0.49190487192846383</v>
+      </c>
+      <c r="J65" s="39">
+        <v>110.14952000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D66" s="42">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E66" s="42">
+        <v>1</v>
+      </c>
+      <c r="F66" s="42">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G66" s="43">
+        <f>D65/F66</f>
+        <v>3593.75</v>
+      </c>
+      <c r="H66" s="43">
+        <v>783.19706393372451</v>
+      </c>
+      <c r="I66" s="43">
+        <v>0.49190487192846383</v>
+      </c>
+      <c r="J66" s="44">
+        <v>110.14952000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F69" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H69" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="I69" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J69" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="L69" s="74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38">
+        <v>7.6</v>
+      </c>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="39"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="39"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="39"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G73" s="79">
+        <v>3593.75</v>
+      </c>
+      <c r="H73" s="79">
+        <v>783.19706393372451</v>
+      </c>
+      <c r="I73" s="79">
+        <v>0.49190487192846383</v>
+      </c>
+      <c r="J73" s="80">
+        <v>110.14952000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="23"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15">
-        <v>8.4</v>
-      </c>
-      <c r="D15">
-        <f>C15/1000</f>
-        <v>8.4000000000000012E-3</v>
-      </c>
-      <c r="E15">
-        <f>C15/C17</f>
+      <c r="E75" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J75" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42">
+        <v>5.7</v>
+      </c>
+      <c r="D76" s="42">
+        <f>C76/1000</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="G76" s="66">
+        <f>D76/F76</f>
+        <v>13.255813953488373</v>
+      </c>
+      <c r="H76" s="66">
+        <v>500</v>
+      </c>
+      <c r="I76" s="66">
+        <v>15</v>
+      </c>
+      <c r="J76" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J78" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="38">
+        <f>24.3+4*0.29*1.7</f>
+        <v>26.272000000000002</v>
+      </c>
+      <c r="D79" s="38">
+        <f>C79/1000</f>
+        <v>2.6272000000000004E-2</v>
+      </c>
+      <c r="E79" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="62">
+        <v>960</v>
+      </c>
+      <c r="I79" s="62">
+        <v>130</v>
+      </c>
+      <c r="J79" s="65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="39"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38">
+        <v>3.1203999999999998E-6</v>
+      </c>
+      <c r="G81" s="38">
+        <v>1417.6865462237477</v>
+      </c>
+      <c r="H81" s="62">
+        <v>960</v>
+      </c>
+      <c r="I81" s="62">
+        <v>130</v>
+      </c>
+      <c r="J81" s="65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="63">
+        <v>1.52E-5</v>
+      </c>
+      <c r="G82" s="38">
+        <v>1417.6865462237477</v>
+      </c>
+      <c r="H82" s="62">
+        <v>960</v>
+      </c>
+      <c r="I82" s="62">
+        <v>130</v>
+      </c>
+      <c r="J82" s="65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38">
+        <v>3.3600000000000003E-8</v>
+      </c>
+      <c r="G83" s="38">
+        <v>1417.6865462237477</v>
+      </c>
+      <c r="H83" s="62">
+        <v>960</v>
+      </c>
+      <c r="I83" s="62">
+        <v>130</v>
+      </c>
+      <c r="J83" s="65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38">
+        <v>1.92E-8</v>
+      </c>
+      <c r="G84" s="38">
+        <v>1417.6865462237477</v>
+      </c>
+      <c r="H84" s="62">
+        <v>960</v>
+      </c>
+      <c r="I84" s="62">
+        <v>130</v>
+      </c>
+      <c r="J84" s="65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="82"/>
+      <c r="C85" s="82"/>
+      <c r="D85" s="82"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="82"/>
+      <c r="I85" s="82"/>
+      <c r="J85" s="83"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38">
+        <v>1417.6865462237477</v>
+      </c>
+      <c r="H86" s="62">
+        <v>960</v>
+      </c>
+      <c r="I86" s="62">
+        <v>130</v>
+      </c>
+      <c r="J86" s="65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42">
+        <f>F81+F82+F83*4+F84*4</f>
+        <v>1.8531600000000001E-5</v>
+      </c>
+      <c r="G87" s="43">
+        <f>D79/F87</f>
+        <v>1417.6865462237477</v>
+      </c>
+      <c r="H87" s="66">
+        <v>960</v>
+      </c>
+      <c r="I87" s="66">
+        <v>130</v>
+      </c>
+      <c r="J87" s="67">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G92" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J92" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="D93" s="38">
+        <f>C93/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E93" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>C16/C17</f>
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="F93" s="38">
+        <v>3.96E-7</v>
+      </c>
+      <c r="G93" s="49">
+        <f>D93/F93</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H93" s="50">
+        <v>325</v>
+      </c>
+      <c r="I93" s="50">
+        <v>50</v>
+      </c>
+      <c r="J93" s="51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="83"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="D95" s="38">
+        <f>C95/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E95" s="38">
+        <v>1</v>
+      </c>
+      <c r="F95" s="38"/>
+      <c r="G95" s="49">
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H95" s="49">
+        <v>325</v>
+      </c>
+      <c r="I95" s="49">
+        <v>50</v>
+      </c>
+      <c r="J95" s="53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="D96" s="38">
+        <f>C96/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E96" s="38">
+        <v>1</v>
+      </c>
+      <c r="F96" s="38"/>
+      <c r="G96" s="49">
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H96" s="49">
+        <v>325</v>
+      </c>
+      <c r="I96" s="49">
+        <v>50</v>
+      </c>
+      <c r="J96" s="53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="D97" s="38">
+        <f>C97/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E97" s="38">
+        <v>1</v>
+      </c>
+      <c r="F97" s="38"/>
+      <c r="G97" s="49">
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H97" s="49">
+        <v>325</v>
+      </c>
+      <c r="I97" s="49">
+        <v>50</v>
+      </c>
+      <c r="J97" s="53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="D98" s="42">
+        <f>C98/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E98" s="42">
+        <v>1</v>
+      </c>
+      <c r="F98" s="42"/>
+      <c r="G98" s="43">
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H98" s="43">
+        <v>325</v>
+      </c>
+      <c r="I98" s="43">
+        <v>50</v>
+      </c>
+      <c r="J98" s="44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J100" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B101" s="42"/>
+      <c r="C101" s="42">
+        <v>34</v>
+      </c>
+      <c r="D101" s="42">
+        <f>C101/1000</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42">
+        <v>1.216E-5</v>
+      </c>
+      <c r="G101" s="43">
+        <f>D101/F101</f>
+        <v>2796.0526315789475</v>
+      </c>
+      <c r="H101" s="66">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="J101" s="44">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J105" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="38">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D106" s="38">
+        <f>C106/1000</f>
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="E106" s="38">
+        <f>D106/$D$108</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="F106" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="62">
+        <v>8800</v>
+      </c>
+      <c r="H106" s="62">
+        <v>380</v>
+      </c>
+      <c r="I106" s="62">
+        <v>62</v>
+      </c>
+      <c r="J106" s="65">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="D107" s="38">
+        <f>C107/1000</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E107" s="38">
+        <f>D107/$D$108</f>
+        <v>0.55172413793103459</v>
+      </c>
+      <c r="F107" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="62">
+        <v>1070</v>
+      </c>
+      <c r="H107" s="62">
+        <v>1990</v>
+      </c>
+      <c r="I107" s="62">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J107" s="65">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38">
+        <f>SUM(C106:C107)</f>
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="D108" s="38">
+        <f>SUM(D106:D107)</f>
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="E108" s="38">
+        <f>SUM(E106:E107)</f>
+        <v>1</v>
+      </c>
+      <c r="F108" s="38">
+        <v>2.8980000000000001E-7</v>
+      </c>
+      <c r="G108" s="49">
+        <f>D108/F108</f>
+        <v>2501.7253278122839</v>
+      </c>
+      <c r="H108" s="49">
+        <f>H106*$E$106+H107*$E$107</f>
+        <v>1268.2758620689658</v>
+      </c>
+      <c r="I108" s="49">
+        <f>I106*$E$106+I107*$E$107</f>
+        <v>27.882482758620689</v>
+      </c>
+      <c r="J108" s="53">
+        <f>J106*$E$106+J107*$E$107</f>
+        <v>27.882482758620689</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="82"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="J109" s="83"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="43">
+        <v>2501.7253278122839</v>
+      </c>
+      <c r="H110" s="43">
+        <v>1268.2758620689658</v>
+      </c>
+      <c r="I110" s="43">
+        <v>27.882482758620689</v>
+      </c>
+      <c r="J110" s="44">
+        <v>27.882482758620689</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E114" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F114" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J114" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="38">
+        <v>30</v>
+      </c>
+      <c r="D115" s="38">
+        <f>C115/1000</f>
+        <v>0.03</v>
+      </c>
+      <c r="E115" s="63">
+        <v>1</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="39"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="38">
+        <v>2.6599999999999999E-6</v>
+      </c>
+      <c r="G117" s="49">
+        <v>1949.571094359241</v>
+      </c>
+      <c r="H117" s="50">
+        <v>1010</v>
+      </c>
+      <c r="I117" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="J117" s="51">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" s="63">
+        <v>7.9800000000000003E-7</v>
+      </c>
+      <c r="G118" s="49">
+        <v>1949.571094359241</v>
+      </c>
+      <c r="H118" s="50">
+        <v>1010</v>
+      </c>
+      <c r="I118" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="J118" s="51">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" s="38">
+        <v>7.9800000000000003E-7</v>
+      </c>
+      <c r="G119" s="49">
+        <v>1949.571094359241</v>
+      </c>
+      <c r="H119" s="50">
+        <v>1010</v>
+      </c>
+      <c r="I119" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="J119" s="51">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="38">
+        <v>2.9440000000000001E-6</v>
+      </c>
+      <c r="G120" s="49">
+        <v>1949.571094359241</v>
+      </c>
+      <c r="H120" s="50">
+        <v>1010</v>
+      </c>
+      <c r="I120" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="J120" s="51">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="38">
+        <v>2.9440000000000001E-6</v>
+      </c>
+      <c r="G121" s="49">
+        <v>1949.571094359241</v>
+      </c>
+      <c r="H121" s="50">
+        <v>1010</v>
+      </c>
+      <c r="I121" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="J121" s="51">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="38">
+        <v>5.2440000000000001E-6</v>
+      </c>
+      <c r="G122" s="49">
+        <v>1949.571094359241</v>
+      </c>
+      <c r="H122" s="50">
+        <v>1010</v>
+      </c>
+      <c r="I122" s="50">
+        <v>0.27</v>
+      </c>
+      <c r="J122" s="51">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B123" s="42"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42">
+        <f>SUM(F117:F122)</f>
+        <v>1.5387999999999999E-5</v>
+      </c>
+      <c r="G123" s="43">
+        <f>D115/F123</f>
+        <v>1949.571094359241</v>
+      </c>
+      <c r="H123" s="66">
+        <v>1010</v>
+      </c>
+      <c r="I123" s="66">
+        <v>0.27</v>
+      </c>
+      <c r="J123" s="67">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F126" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G126" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J126" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="38">
+        <f>1.7*0.1775</f>
+        <v>0.30174999999999996</v>
+      </c>
+      <c r="D127" s="38">
+        <f>C127/1000</f>
+        <v>3.0174999999999999E-4</v>
+      </c>
+      <c r="E127" s="38">
+        <f>D127/$D$130</f>
+        <v>0.50992817912970001</v>
+      </c>
+      <c r="F127" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" s="62">
+        <v>500</v>
+      </c>
+      <c r="I127" s="62">
+        <v>15</v>
+      </c>
+      <c r="J127" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128" s="38">
+        <v>0.22</v>
+      </c>
+      <c r="D128" s="38">
+        <f t="shared" ref="D128:E130" si="2">C128/1000</f>
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="E128" s="38">
+        <f t="shared" ref="E128:E129" si="3">D128/$D$130</f>
+        <v>0.37177862272919304</v>
+      </c>
+      <c r="F128" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="62">
+        <v>500</v>
+      </c>
+      <c r="I128" s="62">
+        <v>15</v>
+      </c>
+      <c r="J128" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="38">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D129" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="E129" s="38">
+        <f t="shared" si="3"/>
+        <v>0.11829319814110689</v>
+      </c>
+      <c r="F129" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" s="62">
+        <v>900</v>
+      </c>
+      <c r="I129" s="62">
+        <v>209</v>
+      </c>
+      <c r="J129" s="65">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
-        <f>SUM(C15:C16)</f>
-        <v>8.4</v>
-      </c>
-      <c r="D17">
-        <f>C17/1000</f>
-        <v>8.4000000000000012E-3</v>
-      </c>
-      <c r="E17">
-        <f>SUM(E15:E16)</f>
+      <c r="C130" s="38">
+        <f>SUM(C127:C129)</f>
+        <v>0.59175</v>
+      </c>
+      <c r="D130" s="38">
+        <f t="shared" si="2"/>
+        <v>5.9175000000000005E-4</v>
+      </c>
+      <c r="E130" s="38">
+        <f>SUM(E127:E129)</f>
         <v>1</v>
       </c>
-      <c r="H17">
-        <f>H15*E15+H16*E16</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>I15*E15+I16*E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="34"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D20">
-        <f>C20/1000</f>
-        <v>9.8000000000000014E-3</v>
-      </c>
-      <c r="E20">
-        <f>C20/C22</f>
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21">
-        <v>0.4</v>
-      </c>
-      <c r="D21">
-        <f>C21/1000</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E21">
-        <f>C21/C22</f>
-        <v>3.9215686274509803E-2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <f>SUM(C20:C21)</f>
-        <v>10.200000000000001</v>
-      </c>
-      <c r="D22">
-        <f>C22/1000</f>
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E22">
-        <f>SUM(E20:E21)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F22">
-        <v>4.6079999999999998E-6</v>
-      </c>
-      <c r="H22">
-        <f>H20*E20+H21*E21</f>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f>I20*E20+I21*E21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="34"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D29">
-        <f>C29/1000</f>
-        <v>9.8000000000000014E-3</v>
-      </c>
-      <c r="E29">
-        <f>C29/C31</f>
-        <v>0.94230769230769229</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30">
-        <v>0.6</v>
-      </c>
-      <c r="D30">
-        <f>C30/1000</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E30">
-        <f>C30/C31</f>
-        <v>5.7692307692307689E-2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C29:C30)</f>
-        <v>10.4</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D29:D30)</f>
-        <v>1.0400000000000001E-2</v>
-      </c>
-      <c r="E31">
-        <f>SUM(E29:E30)</f>
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>4.6079999999999998E-6</v>
-      </c>
-      <c r="H31">
-        <f>H29*E29+H30*E30</f>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f>I29*E29+I30*E30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35">
-        <v>6.6</v>
-      </c>
-      <c r="D35">
-        <f>C35/1000</f>
-        <v>6.6E-3</v>
-      </c>
-      <c r="E35" t="e">
-        <f>C35/C37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" t="e">
-        <f>C36/C37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37">
-        <v>4.0500000000000002E-6</v>
-      </c>
-      <c r="H37" t="e">
-        <f>H35*E35+H36*E36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" t="e">
-        <f>I35*E35+I36*E36</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41">
-        <v>5.6</v>
-      </c>
-      <c r="D41">
-        <f>C41/1000</f>
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42">
-        <v>2.4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43">
-        <v>2.5600000000000001E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47">
-        <v>5.5</v>
-      </c>
-      <c r="D47">
-        <f>C47/1000</f>
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48">
-        <v>1.6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49">
-        <v>2.5600000000000001E-6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" t="s">
-        <v>216</v>
-      </c>
-      <c r="C53">
-        <v>5.4</v>
-      </c>
-      <c r="D53">
-        <f>C53/1000</f>
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54">
-        <v>1.6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55">
-        <v>2.5600000000000001E-6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D59">
-        <f>C59/1000</f>
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60">
-        <v>2.5600000000000001E-6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65">
-        <v>7.6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66">
-        <v>0.7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68">
-        <v>2.5600000000000001E-6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71">
-        <v>5.7</v>
-      </c>
-      <c r="D71">
-        <f>C71/1000</f>
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="F71">
-        <v>4.2999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74">
-        <v>24.3</v>
-      </c>
-      <c r="D74">
-        <f>C74/1000</f>
-        <v>2.4300000000000002E-2</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76">
-        <v>3.1203999999999998E-6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B77" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="32">
-        <v>1.52E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78">
-        <v>3.3600000000000003E-8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>175</v>
-      </c>
-      <c r="B79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79">
-        <v>1.92E-8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82">
-        <f>F76+F77+F78*4+F79*4</f>
-        <v>1.8531600000000001E-5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I87" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88">
-        <v>0.9</v>
-      </c>
-      <c r="D88">
-        <f>C88/1000</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="F88">
-        <v>3.96E-7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I95" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96">
-        <v>34</v>
-      </c>
-      <c r="D96">
-        <f>C96/1000</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F96">
-        <v>1.216E-5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101">
-        <v>3.25</v>
-      </c>
-      <c r="D101">
-        <f>C101/1000</f>
-        <v>3.2499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F103">
-        <v>2.8980000000000001E-7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H109" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I109" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B110" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110">
-        <v>30</v>
-      </c>
-      <c r="D110">
-        <f>C110/1000</f>
-        <v>0.03</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" s="7">
-        <v>2070</v>
-      </c>
-      <c r="H110" s="7">
-        <v>1010</v>
-      </c>
-      <c r="I110" s="7">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>133</v>
-      </c>
-      <c r="B112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112">
-        <v>2.6599999999999999E-6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>134</v>
-      </c>
-      <c r="B113" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" s="32">
-        <v>7.9800000000000003E-7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>135</v>
-      </c>
-      <c r="B114" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114">
-        <v>7.9800000000000003E-7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" t="s">
-        <v>24</v>
-      </c>
-      <c r="F115">
-        <v>2.9440000000000001E-6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>131</v>
-      </c>
-      <c r="B116" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116">
-        <v>2.9440000000000001E-6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117">
-        <v>5.2440000000000001E-6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F118">
-        <f>SUM(F112:F117)</f>
-        <v>1.5387999999999999E-5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I121" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>178</v>
-      </c>
-      <c r="F122" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>179</v>
-      </c>
-      <c r="F123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
+      <c r="F130" s="38">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G130" s="49">
+        <f>D130/F130</f>
+        <v>4551.9230769230771</v>
+      </c>
+      <c r="H130" s="49">
+        <f>H127*$E$127+H128*$E$128+H129*$E$129</f>
+        <v>547.3172792564427</v>
+      </c>
+      <c r="I130" s="49">
+        <v>15</v>
+      </c>
+      <c r="J130" s="53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B131" s="82"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="82"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="82"/>
+      <c r="H131" s="82"/>
+      <c r="I131" s="82"/>
+      <c r="J131" s="83"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="F124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F125">
-        <v>1.3E-7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>181</v>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="43">
+        <v>4551.9230769230771</v>
+      </c>
+      <c r="H132" s="43">
+        <v>547.3172792564427</v>
+      </c>
+      <c r="I132" s="43">
+        <v>15</v>
+      </c>
+      <c r="J132" s="44">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5018,10 +6738,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,7 +6751,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -5089,52 +6809,52 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
         <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
         <v>145</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>9.5</v>
@@ -5142,7 +6862,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14">
         <v>9.8000000000000007</v>
@@ -5150,7 +6870,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15">
         <v>10.199999999999999</v>
@@ -5158,7 +6878,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16">
         <v>11.2</v>
@@ -5166,7 +6886,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17">
         <v>11.4</v>
@@ -5174,21 +6894,21 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25">
         <v>3.5000000000000003E-2</v>
@@ -5198,21 +6918,21 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G25" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" t="s">
         <v>197</v>
-      </c>
-      <c r="I25" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26">
         <v>0.48</v>
@@ -5224,13 +6944,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27">
         <v>0.01</v>
@@ -5242,18 +6962,18 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31">
         <v>3.5000000000000003E-2</v>
@@ -5265,13 +6985,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32">
         <v>0.1</v>
@@ -5283,13 +7003,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D33">
         <v>0.73499999999999999</v>
@@ -5301,13 +7021,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34">
         <v>0.01</v>
@@ -5319,18 +7039,18 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D37">
         <v>3.5000000000000003E-2</v>
@@ -5342,13 +7062,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38">
         <v>0.35399999999999998</v>
@@ -5360,13 +7080,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39">
         <v>0.01</v>
@@ -5381,18 +7101,18 @@
         <v>65</v>
       </c>
       <c r="O41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42">
         <v>3.5000000000000003E-2</v>
@@ -5404,13 +7124,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D43">
         <v>1.51</v>
@@ -5422,13 +7142,13 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44">
         <v>0.01</v>
@@ -5440,18 +7160,18 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47">
         <v>0.21</v>
@@ -5464,13 +7184,13 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D48">
         <v>3.5000000000000003E-2</v>
@@ -5480,15 +7200,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D49">
         <v>0.01</v>
@@ -5498,20 +7218,20 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D52">
         <v>0.91</v>
@@ -5521,15 +7241,15 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D53">
         <v>3.5000000000000003E-2</v>
@@ -5538,16 +7258,19 @@
         <f t="shared" ref="E53" si="5">D53*B53</f>
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D54">
         <v>0.01</v>
@@ -5556,66 +7279,107 @@
         <f>D54*B54</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>24.88</v>
+      </c>
+      <c r="I55" t="s">
+        <v>238</v>
+      </c>
+      <c r="K55" s="78">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M55" t="s">
+        <v>240</v>
+      </c>
+      <c r="O55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="H56">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I56" t="s">
+        <v>239</v>
+      </c>
+      <c r="K56" s="78">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M56" t="s">
+        <v>241</v>
+      </c>
+      <c r="O56" t="s">
+        <v>243</v>
+      </c>
+      <c r="P56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70">
         <v>0.21</v>
@@ -5627,13 +7391,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D71">
         <v>3.5000000000000003E-2</v>
@@ -5645,13 +7409,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72">
         <v>0.01</v>
@@ -5663,18 +7427,18 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D76">
         <v>0.28000000000000003</v>
@@ -5686,13 +7450,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77">
         <v>3.5000000000000003E-2</v>
@@ -5704,13 +7468,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D78">
         <v>0.01</v>
@@ -5722,12 +7486,12 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B81">
         <f>E76</f>
@@ -5736,7 +7500,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B82">
         <f>E70</f>
@@ -5745,7 +7509,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83">
         <f>E71+E77</f>
@@ -5754,7 +7518,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B84">
         <f>E72+E78</f>
@@ -5772,7 +7536,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,16 +7571,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>82</v>
@@ -5905,7 +7669,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>66</v>
@@ -6357,7 +8121,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -6389,7 +8153,7 @@
         <f>L22/1000/1000/1000</f>
         <v>0</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="26" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="14"/>
@@ -6417,7 +8181,7 @@
         <f>L23/1000/1000/1000</f>
         <v>0</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="26" t="s">
         <v>94</v>
       </c>
       <c r="G23" s="14"/>
@@ -6443,10 +8207,10 @@
         <v>14.75</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -6614,7 +8378,7 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -6792,20 +8556,20 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25">
         <f>SUM(H2:H37)-H31</f>
         <v>0.23277</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="25">
         <f t="shared" si="2"/>
         <v>232.77</v>
       </c>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="251">
   <si>
     <t>Material</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Epoxy Adhesive (Scotch-Weld 2216)</t>
-  </si>
-  <si>
-    <t>0.81 (in-plane), 0.29 (cross-plane)</t>
   </si>
   <si>
     <t>Stainless Steel (AlSl304SS)</t>
@@ -788,6 +785,21 @@
       </rPr>
       <t>) [kg/m2]</t>
     </r>
+  </si>
+  <si>
+    <t>Spacers Arriba</t>
+  </si>
+  <si>
+    <t>Son parte del soporte</t>
+  </si>
+  <si>
+    <t>Spacer Bot Kband?</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>antenna thickness</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1779,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,8 +1828,8 @@
       <c r="E2" s="7">
         <v>1200</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
+      <c r="F2" s="7">
+        <v>8181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,10 +1837,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7">
         <v>8930</v>
@@ -1842,13 +1854,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
         <v>2070</v>
@@ -1862,13 +1874,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
         <v>8000</v>
@@ -1882,7 +1894,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -1902,13 +1914,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
         <v>2200</v>
@@ -1931,13 +1943,13 @@
         <v>0.71</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,13 +1963,13 @@
         <v>0.24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,10 +1997,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
         <v>1300</v>
@@ -2002,13 +2014,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
         <v>2750</v>
@@ -2017,18 +2029,18 @@
         <v>1000</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
         <v>8800</v>
@@ -2042,13 +2054,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
         <v>2700</v>
@@ -2062,7 +2074,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7">
         <v>0.12</v>
@@ -2082,7 +2094,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7">
         <v>0.91</v>
@@ -2102,7 +2114,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="7">
         <v>0.94</v>
@@ -2165,39 +2177,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="6"/>
@@ -2208,15 +2220,15 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2246,10 +2258,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2279,10 +2291,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2312,10 +2324,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2345,10 +2357,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -2378,10 +2390,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2411,10 +2423,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -2444,10 +2456,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -2477,13 +2489,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6">
@@ -2508,7 +2520,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
@@ -2522,10 +2534,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -2555,10 +2567,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -2588,13 +2600,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="6">
         <v>2200</v>
@@ -2621,13 +2633,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="6">
         <v>2810</v>
@@ -2659,7 +2671,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -2676,13 +2688,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="11">
         <v>5316</v>
@@ -2709,13 +2721,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="11">
         <v>2750</v>
@@ -2747,7 +2759,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -2761,13 +2773,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="14">
         <v>8800</v>
@@ -2791,18 +2803,18 @@
         <v>4.7937499999999993</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="14">
         <v>1070</v>
@@ -2826,12 +2838,12 @@
         <v>5.8999999999999995</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
@@ -2860,7 +2872,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
@@ -2874,13 +2886,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
@@ -2905,7 +2917,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="19"/>
@@ -2919,13 +2931,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="17">
         <v>8000</v>
@@ -2953,13 +2965,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="17">
         <v>8000</v>
@@ -2987,13 +2999,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="17">
         <v>8000</v>
@@ -3017,19 +3029,19 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="17">
         <v>8000</v>
@@ -3057,7 +3069,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -3074,13 +3086,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="17">
         <v>8000</v>
@@ -3107,13 +3119,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="17">
         <v>2700</v>
@@ -3141,13 +3153,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17">
         <v>1150</v>
@@ -3196,7 +3208,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -3274,19 +3286,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3303,28 +3315,28 @@
         <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2">
-        <f>B16*$B$2/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <f t="shared" ref="G2:G10" si="0">B16*$B$2/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>0.31617014819685402</v>
       </c>
       <c r="H2">
-        <f>C16*$B$3/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <f t="shared" ref="H2:H10" si="1">C16*$B$3/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>0.67371402559304039</v>
       </c>
       <c r="I2">
-        <f>D16*$B$5/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <f t="shared" ref="I2:I10" si="2">D16*$B$5/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>1.011582621010571E-2</v>
       </c>
       <c r="J2">
-        <f>E16*$B$6/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <f t="shared" ref="J2:J10" si="3">E16*$B$6/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="7">
         <v>1850</v>
@@ -3336,28 +3348,28 @@
         <v>0.81</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <f>B17*$B$2/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <f t="shared" si="0"/>
         <v>0.31617014819685402</v>
       </c>
       <c r="H3">
-        <f>C17*$B$3/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <f t="shared" si="1"/>
         <v>0.67371402559304039</v>
       </c>
       <c r="I3">
-        <f>D17*$B$5/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <f t="shared" si="2"/>
         <v>1.011582621010571E-2</v>
       </c>
       <c r="J3">
-        <f>E17*$B$6/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="7">
         <v>1850</v>
@@ -3369,28 +3381,28 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4">
-        <f>B18*$B$2/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <f t="shared" si="0"/>
         <v>0.31617014819685402</v>
       </c>
       <c r="H4">
-        <f>C18*$B$3/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <f t="shared" si="1"/>
         <v>0.67371402559304039</v>
       </c>
       <c r="I4">
-        <f>D18*$B$5/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <f t="shared" si="2"/>
         <v>1.011582621010571E-2</v>
       </c>
       <c r="J4">
-        <f>E18*$B$6/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="31">
         <v>2000</v>
@@ -3402,31 +3414,31 @@
         <v>0.2</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <f>B19*$B$2/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <f t="shared" si="0"/>
         <v>0.36134340437011064</v>
       </c>
       <c r="H5">
-        <f>C19*$B$3/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <f t="shared" si="1"/>
         <v>0.63094916952483715</v>
       </c>
       <c r="I5">
-        <f>D19*$B$5/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <f t="shared" si="2"/>
         <v>7.7074261050522177E-3</v>
       </c>
       <c r="J5">
-        <f>E19*$B$6/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="7">
         <v>2200</v>
@@ -3438,139 +3450,139 @@
         <v>0.2</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6">
-        <f>B20*$B$2/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <f t="shared" si="0"/>
         <v>0.36134340437011064</v>
       </c>
       <c r="H6">
-        <f>C20*$B$3/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <f t="shared" si="1"/>
         <v>0.63094916952483715</v>
       </c>
       <c r="I6">
-        <f>D20*$B$5/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <f t="shared" si="2"/>
         <v>7.7074261050522177E-3</v>
       </c>
       <c r="J6">
-        <f>E20*$B$6/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G7">
-        <f>B21*$B$2/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <f t="shared" si="0"/>
         <v>0.36134340437011064</v>
       </c>
       <c r="H7">
-        <f>C21*$B$3/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <f t="shared" si="1"/>
         <v>0.63094916952483715</v>
       </c>
       <c r="I7">
-        <f>D21*$B$5/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <f t="shared" si="2"/>
         <v>7.7074261050522177E-3</v>
       </c>
       <c r="J7">
-        <f>E21*$B$6/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <f>B22*$B$2/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <f t="shared" si="0"/>
         <v>0.18073787081478057</v>
       </c>
       <c r="H8">
-        <f>C22*$B$3/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <f t="shared" si="1"/>
         <v>0.8076967559127971</v>
       </c>
       <c r="I8">
-        <f>D22*$B$5/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <f t="shared" si="2"/>
         <v>1.1565373272422368E-2</v>
       </c>
       <c r="J8">
-        <f>E22*$B$6/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G9">
-        <f>B23*$B$2/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <f t="shared" si="0"/>
         <v>0.47221312920202457</v>
       </c>
       <c r="H9">
-        <f>C23*$B$3/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <f t="shared" si="1"/>
         <v>0.39130763226147613</v>
       </c>
       <c r="I9">
-        <f>D23*$B$5/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <f t="shared" si="2"/>
         <v>2.0144537053357843E-2</v>
       </c>
       <c r="J9">
-        <f>E23*$B$6/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <f t="shared" si="3"/>
         <v>0.11633470148314154</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G10" t="e">
-        <f>B24*$B$2/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" t="e">
-        <f>C24*$B$3/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" t="e">
-        <f>D24*$B$5/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J10" t="e">
-        <f>E24*$B$6/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="D15" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>206</v>
-      </c>
       <c r="E15" s="76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H15" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16">
         <v>0.14000000000000001</v>
@@ -3585,21 +3597,21 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f>(B16*$B$2*$C$2+C16*$B$3*$C$3+D16*$B$5*$C$5+E16*$B$6*$C$6)/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
+        <f t="shared" ref="F16:F24" si="4">(B16*$B$2*$C$2+C16*$B$3*$C$3+D16*$B$5*$C$5+E16*$B$6*$C$6)/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>940.29816397754291</v>
       </c>
       <c r="G16">
-        <f>1/(G2/$D$2+H2/$D$4+I2/$D$5+J2/$D$6)</f>
+        <f t="shared" ref="G16:G24" si="5">1/(G2/$D$2+H2/$D$4+I2/$D$5+J2/$D$6)</f>
         <v>0.42113750296583358</v>
       </c>
       <c r="H16">
-        <f>(B16*$D$2+C16*$D$3+D16*$D$5+E16*$D$6)*(B16+C16+D16+E16)</f>
+        <f t="shared" ref="H16:H24" si="6">(B16*$D$2+C16*$D$3+D16*$D$5+E16*$D$6)*(B16+C16+D16+E16)</f>
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>0.14000000000000001</v>
@@ -3614,21 +3626,21 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f>(B17*$B$2*$C$2+C17*$B$3*$C$3+D17*$B$5*$C$5+E17*$B$6*$C$6)/(B17*$B$2+C17*$B$3+D17*$B$5+E17*$B$6)</f>
+        <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
       <c r="G17">
-        <f>1/(G3/$D$2+H3/$D$4+I3/$D$5+J3/$D$6)</f>
+        <f t="shared" si="5"/>
         <v>0.42113750296583358</v>
       </c>
       <c r="H17">
-        <f>(B17*$D$2+C17*$D$3+D17*$D$5+E17*$D$6)*(B17+C17+D17+E17)</f>
+        <f t="shared" si="6"/>
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0.14000000000000001</v>
@@ -3643,21 +3655,21 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>(B18*$B$2*$C$2+C18*$B$3*$C$3+D18*$B$5*$C$5+E18*$B$6*$C$6)/(B18*$B$2+C18*$B$3+D18*$B$5+E18*$B$6)</f>
+        <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
       <c r="G18">
-        <f>1/(G4/$D$2+H4/$D$4+I4/$D$5+J4/$D$6)</f>
+        <f t="shared" si="5"/>
         <v>0.42113750296583358</v>
       </c>
       <c r="H18">
-        <f>(B18*$D$2+C18*$D$3+D18*$D$5+E18*$D$6)*(B18+C18+D18+E18)</f>
+        <f t="shared" si="6"/>
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19">
         <v>0.21000000000000002</v>
@@ -3672,21 +3684,21 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f>(B19*$B$2*$C$2+C19*$B$3*$C$3+D19*$B$5*$C$5+E19*$B$6*$C$6)/(B19*$B$2+C19*$B$3+D19*$B$5+E19*$B$6)</f>
+        <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
       <c r="G19">
-        <f>1/(G5/$D$2+H5/$D$4+I5/$D$5+J5/$D$6)</f>
+        <f t="shared" si="5"/>
         <v>0.45144132745896365</v>
       </c>
       <c r="H19">
-        <f>(B19*$D$2+C19*$D$3+D19*$D$5+E19*$D$6)*(B19+C19+D19+E19)</f>
+        <f t="shared" si="6"/>
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20">
         <v>0.21000000000000002</v>
@@ -3701,21 +3713,21 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>(B20*$B$2*$C$2+C20*$B$3*$C$3+D20*$B$5*$C$5+E20*$B$6*$C$6)/(B20*$B$2+C20*$B$3+D20*$B$5+E20*$B$6)</f>
+        <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
       <c r="G20">
-        <f>1/(G6/$D$2+H6/$D$4+I6/$D$5+J6/$D$6)</f>
+        <f t="shared" si="5"/>
         <v>0.45144132745896365</v>
       </c>
       <c r="H20">
-        <f>(B20*$D$2+C20*$D$3+D20*$D$5+E20*$D$6)*(B20+C20+D20+E20)</f>
+        <f t="shared" si="6"/>
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21">
         <v>0.21000000000000002</v>
@@ -3730,21 +3742,21 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>(B21*$B$2*$C$2+C21*$B$3*$C$3+D21*$B$5*$C$5+E21*$B$6*$C$6)/(B21*$B$2+C21*$B$3+D21*$B$5+E21*$B$6)</f>
+        <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
       <c r="G21">
-        <f>1/(G7/$D$2+H7/$D$4+I7/$D$5+J7/$D$6)</f>
+        <f t="shared" si="5"/>
         <v>0.45144132745896365</v>
       </c>
       <c r="H21">
-        <f>(B21*$D$2+C21*$D$3+D21*$D$5+E21*$D$6)*(B21+C21+D21+E21)</f>
+        <f t="shared" si="6"/>
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>7.0000000000000007E-2</v>
@@ -3759,21 +3771,21 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>(B22*$B$2*$C$2+C22*$B$3*$C$3+D22*$B$5*$C$5+E22*$B$6*$C$6)/(B22*$B$2+C22*$B$3+D22*$B$5+E22*$B$6)</f>
+        <f t="shared" si="4"/>
         <v>1050.3855606314694</v>
       </c>
       <c r="G22">
-        <f>1/(G8/$D$2+H8/$D$4+I8/$D$5+J8/$D$6)</f>
+        <f t="shared" si="5"/>
         <v>0.35168669699040533</v>
       </c>
       <c r="H22">
-        <f>(B22*$D$2+C22*$D$3+D22*$D$5+E22*$D$6)*(B22+C22+D22+E22)</f>
+        <f t="shared" si="6"/>
         <v>46.763360000000006</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23">
         <v>0.21000000000000002</v>
@@ -3788,21 +3800,21 @@
         <v>0.21</v>
       </c>
       <c r="F23">
-        <f>(B23*$B$2*$C$2+C23*$B$3*$C$3+D23*$B$5*$C$5+E23*$B$6*$C$6)/(B23*$B$2+C23*$B$3+D23*$B$5+E23*$B$6)</f>
+        <f t="shared" si="4"/>
         <v>783.19706393372451</v>
       </c>
       <c r="G23">
-        <f>1/(G9/$D$2+H9/$D$4+I9/$D$5+J9/$D$6)</f>
+        <f t="shared" si="5"/>
         <v>0.49190487192846383</v>
       </c>
       <c r="H23">
-        <f>(B23*$D$2+C23*$D$3+D23*$D$5+E23*$D$6)*(B23+C23+D23+E23)</f>
+        <f t="shared" si="6"/>
         <v>110.14952000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3817,15 +3829,15 @@
         <v>0</v>
       </c>
       <c r="F24" t="e">
-        <f>(B24*$B$2*$C$2+C24*$B$3*$C$3+D24*$B$5*$C$5+E24*$B$6*$C$6)/(B24*$B$2+C24*$B$3+D24*$B$5+E24*$B$6)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" t="e">
-        <f>1/(G10/$D$2+H10/$D$4+I10/$D$5+J10/$D$6)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H24">
-        <f>(B24*$D$2+C24*$D$3+D24*$D$5+E24*$D$6)*(B24+C24+D24+E24)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3842,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="D83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,27 +3873,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>5</v>
@@ -3896,10 +3908,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -3927,7 +3939,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
@@ -3940,7 +3952,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -3962,22 +3974,22 @@
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>5</v>
@@ -3986,18 +3998,18 @@
         <v>4</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="38">
         <v>14.2</v>
@@ -4011,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="38">
         <f>D12/F12</f>
@@ -4029,10 +4041,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="38">
         <v>0</v>
@@ -4044,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="38">
         <v>2133.4134615384614</v>
@@ -4061,10 +4073,10 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="42">
         <f>SUM(C10:C11)</f>
@@ -4099,22 +4111,22 @@
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>5</v>
@@ -4123,18 +4135,18 @@
         <v>4</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="38">
         <v>8.4</v>
@@ -4144,27 +4156,27 @@
         <v>8.4000000000000012E-3</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -4178,16 +4190,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="38">
         <f>F18/($F$18+$F$19+$F$20+$F$21)</f>
@@ -4211,16 +4223,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="38">
         <f t="shared" ref="E19:E21" si="0">F19/($F$18+$F$19+$F$20+$F$21)</f>
@@ -4244,16 +4256,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="38">
         <f t="shared" si="0"/>
@@ -4277,16 +4289,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="38">
         <f t="shared" si="0"/>
@@ -4310,10 +4322,10 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="42">
         <v>8.4</v>
@@ -4350,22 +4362,22 @@
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>5</v>
@@ -4374,21 +4386,21 @@
         <v>4</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L25" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C26" s="38">
         <v>9.8000000000000007</v>
@@ -4402,7 +4414,7 @@
         <v>0.96078431372549011</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="38">
         <v>2213.541666666667</v>
@@ -4416,13 +4428,16 @@
       <c r="J26" s="39">
         <v>170.87540000000004</v>
       </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="38">
         <v>0.4</v>
@@ -4436,7 +4451,7 @@
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="38">
         <v>2213.541666666667</v>
@@ -4453,10 +4468,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="38">
         <f>SUM(C26:C27)</f>
@@ -4489,7 +4504,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="82"/>
       <c r="C29" s="82"/>
@@ -4503,7 +4518,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="38">
@@ -4534,7 +4549,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42">
@@ -4568,22 +4583,22 @@
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>5</v>
@@ -4592,21 +4607,21 @@
         <v>4</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C35" s="38">
         <v>9.8000000000000007</v>
@@ -4620,7 +4635,7 @@
         <v>0.94230769230769229</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="38">
         <v>2256.9444444444448</v>
@@ -4634,13 +4649,16 @@
       <c r="J35" s="39">
         <v>170.87540000000004</v>
       </c>
+      <c r="L35" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="38">
         <v>0.6</v>
@@ -4654,7 +4672,7 @@
         <v>5.7692307692307689E-2</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="38">
         <v>2256.9444444444448</v>
@@ -4671,10 +4689,10 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="42">
         <f>SUM(C35:C36)</f>
@@ -4708,22 +4726,22 @@
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>5</v>
@@ -4732,21 +4750,21 @@
         <v>4</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L40" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41">
         <v>7.1</v>
@@ -4760,7 +4778,7 @@
         <v>1.0757575757575757</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G41" s="38">
         <v>1629.6296296296296</v>
@@ -4774,13 +4792,16 @@
       <c r="J41" s="39">
         <v>170.87540000000004</v>
       </c>
+      <c r="L41" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="38">
         <v>0</v>
@@ -4794,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G42" s="38">
         <v>1629.6296296296296</v>
@@ -4811,10 +4832,10 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="42">
         <v>6.6</v>
@@ -4844,22 +4865,22 @@
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>5</v>
@@ -4868,18 +4889,18 @@
         <v>4</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="38">
         <v>5.6</v>
@@ -4893,7 +4914,7 @@
         <v>0.7</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G47" s="38">
         <v>3125</v>
@@ -4910,7 +4931,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="38">
@@ -4925,7 +4946,7 @@
         <v>0.3</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G48" s="38">
         <v>3125</v>
@@ -4942,7 +4963,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="42"/>
       <c r="C49" s="42">
@@ -4977,22 +4998,22 @@
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>5</v>
@@ -5001,18 +5022,18 @@
         <v>4</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="38">
         <v>5.5</v>
@@ -5026,7 +5047,7 @@
         <v>0.77464788732394363</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G53" s="38">
         <v>2773.4374999999995</v>
@@ -5043,7 +5064,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="38"/>
       <c r="C54" s="38">
@@ -5058,7 +5079,7 @@
         <v>0.22535211267605637</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G54" s="38">
         <v>2773.4374999999995</v>
@@ -5075,7 +5096,7 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="42"/>
       <c r="C55" s="42">
@@ -5110,22 +5131,22 @@
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" s="34" t="s">
         <v>5</v>
@@ -5134,18 +5155,18 @@
         <v>4</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C59" s="38">
         <v>5.4</v>
@@ -5159,7 +5180,7 @@
         <v>0.77142857142857146</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G59" s="38">
         <v>2734.375</v>
@@ -5176,7 +5197,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" s="38"/>
       <c r="C60" s="38">
@@ -5191,7 +5212,7 @@
         <v>0.22857142857142856</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G60" s="38">
         <v>2734.375</v>
@@ -5208,7 +5229,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" s="42"/>
       <c r="C61" s="42">
@@ -5243,22 +5264,22 @@
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G64" s="34" t="s">
         <v>5</v>
@@ -5267,18 +5288,18 @@
         <v>4</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C65" s="38">
         <v>9.1999999999999993</v>
@@ -5291,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G65" s="38">
         <v>3593.75</v>
@@ -5308,7 +5329,7 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="42"/>
       <c r="C66" s="42">
@@ -5340,22 +5361,22 @@
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E69" s="34">
+        <v>1</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G69" s="34" t="s">
         <v>5</v>
@@ -5364,18 +5385,18 @@
         <v>4</v>
       </c>
       <c r="I69" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L69" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="38"/>
       <c r="C70" s="38">
@@ -5384,16 +5405,19 @@
       <c r="D70" s="38"/>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="39"/>
+      <c r="L70" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="38">
@@ -5402,7 +5426,7 @@
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
@@ -5411,14 +5435,14 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38"/>
       <c r="F72" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
@@ -5427,7 +5451,7 @@
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -5454,39 +5478,39 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H75" s="35" t="s">
         <v>4</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76" s="42"/>
       <c r="C76" s="42">
@@ -5519,22 +5543,22 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D78" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G78" s="34" t="s">
         <v>5</v>
@@ -5543,18 +5567,18 @@
         <v>4</v>
       </c>
       <c r="I78" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C79" s="38">
         <f>24.3+4*0.29*1.7</f>
@@ -5565,13 +5589,13 @@
         <v>2.6272000000000004E-2</v>
       </c>
       <c r="E79" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H79" s="62">
         <v>960</v>
@@ -5585,7 +5609,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -5599,13 +5623,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -5627,13 +5651,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -5655,13 +5679,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
@@ -5683,13 +5707,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="38"/>
@@ -5711,7 +5735,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="82"/>
       <c r="C85" s="82"/>
@@ -5725,7 +5749,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -5747,7 +5771,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -5773,27 +5797,27 @@
     </row>
     <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F92" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G92" s="34" t="s">
         <v>5</v>
@@ -5802,15 +5826,15 @@
         <v>4</v>
       </c>
       <c r="I92" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="38"/>
       <c r="C93" s="38">
@@ -5842,7 +5866,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="82"/>
       <c r="C94" s="82"/>
@@ -5856,7 +5880,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95" s="38"/>
       <c r="C95" s="38">
@@ -5885,7 +5909,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" s="38"/>
       <c r="C96" s="38">
@@ -5914,7 +5938,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" s="38"/>
       <c r="C97" s="38">
@@ -5943,7 +5967,7 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98" s="42"/>
       <c r="C98" s="42">
@@ -5973,22 +5997,22 @@
     <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D100" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F100" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G100" s="34" t="s">
         <v>5</v>
@@ -5997,15 +6021,15 @@
         <v>4</v>
       </c>
       <c r="I100" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J100" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101" s="42"/>
       <c r="C101" s="42">
@@ -6027,35 +6051,38 @@
         <v>1000</v>
       </c>
       <c r="I101" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="J101" s="44">
         <v>2.5</v>
-      </c>
-      <c r="J101" s="44">
-        <v>0.6</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B105" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G105" s="34" t="s">
         <v>5</v>
@@ -6064,18 +6091,18 @@
         <v>4</v>
       </c>
       <c r="I105" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J105" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106" s="38">
         <v>0.32500000000000001</v>
@@ -6089,7 +6116,7 @@
         <v>0.44827586206896552</v>
       </c>
       <c r="F106" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G106" s="62">
         <v>8800</v>
@@ -6106,10 +6133,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C107" s="38">
         <v>0.4</v>
@@ -6123,7 +6150,7 @@
         <v>0.55172413793103459</v>
       </c>
       <c r="F107" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G107" s="62">
         <v>1070</v>
@@ -6140,7 +6167,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" s="38"/>
       <c r="C108" s="38">
@@ -6177,7 +6204,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109" s="82"/>
       <c r="C109" s="82"/>
@@ -6191,7 +6218,7 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
@@ -6211,29 +6238,29 @@
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F114" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G114" s="34" t="s">
         <v>5</v>
@@ -6242,18 +6269,21 @@
         <v>4</v>
       </c>
       <c r="I114" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J114" s="36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="L114" s="74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C115" s="38">
         <v>30</v>
@@ -6266,24 +6296,27 @@
         <v>1</v>
       </c>
       <c r="F115" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G115" s="62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H115" s="62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I115" s="62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J115" s="39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
@@ -6294,22 +6327,25 @@
       <c r="H116" s="38"/>
       <c r="I116" s="38"/>
       <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L116" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E117" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F117" s="38">
         <v>2.6599999999999999E-6</v>
@@ -6327,21 +6363,21 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E118" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F118" s="63">
         <v>7.9800000000000003E-7</v>
@@ -6359,21 +6395,21 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B119" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D119" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F119" s="38">
         <v>7.9800000000000003E-7</v>
@@ -6391,21 +6427,21 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B120" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E120" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F120" s="38">
         <v>2.9440000000000001E-6</v>
@@ -6423,21 +6459,21 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D121" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E121" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F121" s="38">
         <v>2.9440000000000001E-6</v>
@@ -6455,21 +6491,21 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D122" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E122" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F122" s="38">
         <v>5.2440000000000001E-6</v>
@@ -6487,9 +6523,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B123" s="42"/>
       <c r="C123" s="42"/>
@@ -6513,33 +6549,33 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B126" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F126" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G126" s="34" t="s">
         <v>5</v>
@@ -6548,18 +6584,21 @@
         <v>4</v>
       </c>
       <c r="I126" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J126" s="36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="L126" s="74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127" s="38">
         <f>1.7*0.1775</f>
@@ -6574,10 +6613,10 @@
         <v>0.50992817912970001</v>
       </c>
       <c r="F127" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G127" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H127" s="62">
         <v>500</v>
@@ -6588,19 +6627,22 @@
       <c r="J127" s="65">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L127" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128" s="38">
         <v>0.22</v>
       </c>
       <c r="D128" s="38">
-        <f t="shared" ref="D128:E130" si="2">C128/1000</f>
+        <f t="shared" ref="D128:D130" si="2">C128/1000</f>
         <v>2.2000000000000001E-4</v>
       </c>
       <c r="E128" s="38">
@@ -6608,10 +6650,10 @@
         <v>0.37177862272919304</v>
       </c>
       <c r="F128" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G128" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H128" s="62">
         <v>500</v>
@@ -6625,10 +6667,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B129" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C129" s="38">
         <v>7.0000000000000007E-2</v>
@@ -6642,10 +6684,10 @@
         <v>0.11829319814110689</v>
       </c>
       <c r="F129" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H129" s="62">
         <v>900</v>
@@ -6659,10 +6701,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C130" s="38">
         <f>SUM(C127:C129)</f>
@@ -6696,7 +6738,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B131" s="82"/>
       <c r="C131" s="82"/>
@@ -6710,7 +6752,7 @@
     </row>
     <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" s="42"/>
       <c r="C132" s="42"/>
@@ -6751,7 +6793,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -6766,13 +6808,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="14">
         <v>8800</v>
@@ -6786,13 +6828,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="14">
         <v>1070</v>
@@ -6806,55 +6848,55 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
         <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
         <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <v>9.5</v>
@@ -6862,7 +6904,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14">
         <v>9.8000000000000007</v>
@@ -6870,7 +6912,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15">
         <v>10.199999999999999</v>
@@ -6878,7 +6920,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16">
         <v>11.2</v>
@@ -6886,7 +6928,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17">
         <v>11.4</v>
@@ -6894,21 +6936,21 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25">
         <v>3.5000000000000003E-2</v>
@@ -6918,21 +6960,21 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" t="s">
         <v>196</v>
-      </c>
-      <c r="I25" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26">
         <v>0.48</v>
@@ -6944,13 +6986,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27">
         <v>0.01</v>
@@ -6962,18 +7004,18 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31">
         <v>3.5000000000000003E-2</v>
@@ -6985,13 +7027,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32">
         <v>0.1</v>
@@ -7003,13 +7045,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33">
         <v>0.73499999999999999</v>
@@ -7021,13 +7063,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D34">
         <v>0.01</v>
@@ -7039,18 +7081,18 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D37">
         <v>3.5000000000000003E-2</v>
@@ -7062,13 +7104,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38">
         <v>0.35399999999999998</v>
@@ -7080,13 +7122,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D39">
         <v>0.01</v>
@@ -7098,21 +7140,21 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42">
         <v>3.5000000000000003E-2</v>
@@ -7124,13 +7166,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D43">
         <v>1.51</v>
@@ -7142,13 +7184,13 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44">
         <v>0.01</v>
@@ -7160,18 +7202,18 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D47">
         <v>0.21</v>
@@ -7184,13 +7226,13 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D48">
         <v>3.5000000000000003E-2</v>
@@ -7202,13 +7244,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D49">
         <v>0.01</v>
@@ -7220,18 +7262,18 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52">
         <v>0.91</v>
@@ -7243,13 +7285,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D53">
         <v>3.5000000000000003E-2</v>
@@ -7259,18 +7301,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D54">
         <v>0.01</v>
@@ -7280,10 +7322,10 @@
         <v>0.02</v>
       </c>
       <c r="H54" t="s">
+        <v>235</v>
+      </c>
+      <c r="I54" t="s">
         <v>236</v>
-      </c>
-      <c r="I54" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -7291,95 +7333,95 @@
         <v>24.88</v>
       </c>
       <c r="I55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K55" s="78">
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="M55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H56">
         <v>10.119999999999999</v>
       </c>
       <c r="I56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K56" s="78">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="M56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O56" t="s">
+        <v>242</v>
+      </c>
+      <c r="P56" t="s">
         <v>243</v>
-      </c>
-      <c r="P56" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70">
         <v>0.21</v>
@@ -7391,13 +7433,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71">
         <v>3.5000000000000003E-2</v>
@@ -7409,13 +7451,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D72">
         <v>0.01</v>
@@ -7427,18 +7469,18 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D76">
         <v>0.28000000000000003</v>
@@ -7450,13 +7492,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D77">
         <v>3.5000000000000003E-2</v>
@@ -7468,13 +7510,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D78">
         <v>0.01</v>
@@ -7486,12 +7528,12 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81">
         <f>E76</f>
@@ -7500,7 +7542,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B82">
         <f>E70</f>
@@ -7509,7 +7551,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B83">
         <f>E71+E77</f>
@@ -7518,7 +7560,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B84">
         <f>E72+E78</f>
@@ -7556,39 +7598,39 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="6"/>
@@ -7601,10 +7643,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -7634,10 +7676,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -7664,15 +7706,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -7699,16 +7741,16 @@
         <v>6.6</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -7735,15 +7777,15 @@
         <v>10.199999999999999</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -7770,15 +7812,15 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -7805,15 +7847,15 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -7840,18 +7882,18 @@
         <v>44.4</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
@@ -7876,7 +7918,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
@@ -7890,10 +7932,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -7923,10 +7965,10 @@
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -7956,13 +7998,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6">
         <v>2200</v>
@@ -7989,13 +8031,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6">
         <v>2810</v>
@@ -8027,7 +8069,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -8050,13 +8092,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="11">
         <v>5316</v>
@@ -8083,13 +8125,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="11">
         <v>2750</v>
@@ -8121,7 +8163,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -8138,13 +8180,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="14">
         <v>8800</v>
@@ -8154,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -8166,13 +8208,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="14">
         <v>1070</v>
@@ -8182,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -8194,7 +8236,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
@@ -8207,10 +8249,10 @@
         <v>14.75</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -8221,7 +8263,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
@@ -8235,13 +8277,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17">
@@ -8266,7 +8308,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="19"/>
@@ -8280,13 +8322,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="17">
         <v>8000</v>
@@ -8314,13 +8356,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="17">
         <v>8000</v>
@@ -8348,13 +8390,13 @@
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="17">
         <v>8000</v>
@@ -8378,19 +8420,19 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="17">
         <v>8000</v>
@@ -8418,7 +8460,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -8435,13 +8477,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="17">
         <v>8000</v>
@@ -8468,13 +8510,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="17">
         <v>2700</v>
@@ -8502,13 +8544,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17">
         <v>1150</v>
@@ -8557,7 +8599,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive\Documentos\GitHub\PoCat-Thermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8F6BB-D67C-420C-818B-91B3B494804F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22992" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
     <sheet name="Extra" sheetId="9" r:id="rId5"/>
     <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="259">
   <si>
     <t>Material</t>
   </si>
@@ -756,9 +757,6 @@
   </si>
   <si>
     <t>(4 screws)</t>
-  </si>
-  <si>
-    <t>Revise</t>
   </si>
   <si>
     <r>
@@ -787,26 +785,53 @@
     </r>
   </si>
   <si>
-    <t>Spacers Arriba</t>
-  </si>
-  <si>
-    <t>Son parte del soporte</t>
-  </si>
-  <si>
-    <t>Spacer Bot Kband?</t>
-  </si>
-  <si>
-    <t>mass</t>
-  </si>
-  <si>
-    <t>antenna thickness</t>
+    <t>5% area de antenna</t>
+  </si>
+  <si>
+    <t>hecha de cobre</t>
+  </si>
+  <si>
+    <t>Kba</t>
+  </si>
+  <si>
+    <t>Copper/RT</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Screws Crossing (0.29* 4)</t>
+  </si>
+  <si>
+    <t>SD_BattSuppSpacer_2</t>
+  </si>
+  <si>
+    <t>SD_BattSuppSpacer_1</t>
+  </si>
+  <si>
+    <t>SD_BattSuppSpacer_4</t>
+  </si>
+  <si>
+    <t>SD_BattSuppSpacer_3</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>White Paint</t>
+  </si>
+  <si>
+    <t>Black Coat</t>
+  </si>
+  <si>
+    <t>Optical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,13 +882,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -926,11 +944,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -944,6 +957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,12 +1121,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1172,13 +1190,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1188,7 +1199,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1197,7 +1207,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1210,17 +1219,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1232,30 +1235,31 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1376,7 +1380,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciacp.png"/>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciacp.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1431,7 +1441,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciaip.png"/>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciaip.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1475,15 +1491,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Material" dataDxfId="5"/>
-    <tableColumn id="2" name="Solar Absorptivity (αs)" dataDxfId="4"/>
-    <tableColumn id="3" name="IR Emissivity (εIR)" dataDxfId="3"/>
-    <tableColumn id="4" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
-    <tableColumn id="5" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
-    <tableColumn id="6" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Material" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Solar Absorptivity (αs)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IR Emissivity (εIR)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1565,6 +1581,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1600,6 +1633,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1775,24 +1825,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1882,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1902,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1872,7 +1922,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1892,7 +1942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1912,7 +1962,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1982,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1952,7 +2002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1972,7 +2022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +2042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2062,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2032,7 +2082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2052,7 +2102,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2072,7 +2122,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2092,7 +2142,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2112,7 +2162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2132,16 +2182,43 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20">
+        <v>0.27</v>
+      </c>
+      <c r="C20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21">
+        <v>0.96</v>
+      </c>
+      <c r="C21">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
     </row>
   </sheetData>
@@ -2153,29 +2230,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +2284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -2223,7 +2300,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -2256,7 +2333,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -2289,7 +2366,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -2322,7 +2399,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>156</v>
       </c>
@@ -2355,7 +2432,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>157</v>
       </c>
@@ -2388,7 +2465,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>158</v>
       </c>
@@ -2421,7 +2498,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>167</v>
       </c>
@@ -2454,7 +2531,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
@@ -2487,7 +2564,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
@@ -2518,7 +2595,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -2532,7 +2609,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -2565,7 +2642,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -2598,7 +2675,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -2631,7 +2708,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -2664,12 +2741,12 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -2686,7 +2763,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -2719,7 +2796,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -2752,12 +2829,12 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>136</v>
       </c>
@@ -2771,7 +2848,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>160</v>
       </c>
@@ -2806,7 +2883,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
@@ -2841,7 +2918,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>92</v>
       </c>
@@ -2865,12 +2942,12 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
@@ -2884,7 +2961,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>44</v>
       </c>
@@ -2915,7 +2992,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>47</v>
       </c>
@@ -2929,7 +3006,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>35</v>
       </c>
@@ -2963,7 +3040,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>36</v>
       </c>
@@ -2997,7 +3074,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3033,7 +3110,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>57</v>
       </c>
@@ -3067,7 +3144,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
@@ -3084,7 +3161,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
@@ -3117,7 +3194,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -3151,7 +3228,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
@@ -3185,7 +3262,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="17"/>
@@ -3201,12 +3278,12 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>92</v>
       </c>
@@ -3226,19 +3303,19 @@
       </c>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
@@ -3249,40 +3326,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3301,7 +3378,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3334,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -3367,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>209</v>
       </c>
@@ -3400,17 +3477,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="7">
         <v>2000</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="7">
         <v>1000</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="7">
         <v>0.2</v>
       </c>
       <c r="E5" t="s">
@@ -3436,8 +3513,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B6" s="7">
@@ -3469,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>202</v>
       </c>
@@ -3490,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>64</v>
       </c>
@@ -3511,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>220</v>
       </c>
@@ -3532,55 +3609,55 @@
         <v>0.11633470148314154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>223</v>
       </c>
-      <c r="G10" t="e">
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" t="e">
+        <v>0.31562736682655895</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" t="e">
+        <v>0.52310022721534966</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" t="e">
+        <v>2.0196919969704619E-2</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+        <v>0.14107548598838676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="66" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -3609,7 +3686,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3638,7 +3715,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -3667,7 +3744,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -3696,7 +3773,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3725,7 +3802,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -3754,7 +3831,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3783,7 +3860,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -3812,36 +3889,36 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>223</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="e">
+        <v>0.254</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" t="e">
+        <v>904.86619540520076</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.38300309109725139</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+        <v>88.525164000000032</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="3"/>
     </row>
   </sheetData>
@@ -3851,2924 +3928,3082 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView topLeftCell="C52" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="L1" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="33" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3">
         <v>1.2</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3">
         <f>C3/1000</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="44">
         <v>4.5600000000000001E-7</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="45">
         <f>D3/F3</f>
         <v>2631.5789473684208</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="45">
         <v>1990</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="46">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39">
         <v>4.5600000000000001E-7</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="39">
         <v>2631.5789473684208</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="39">
         <v>1990</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="40">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10">
         <v>14.2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10">
         <f>C10/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10">
         <f>C10/C12</f>
         <v>1</v>
       </c>
-      <c r="F10" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="38">
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
         <f>D12/F12</f>
         <v>2133.4134615384614</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10">
         <v>903.96364021734939</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="35">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="38">
-        <v>0</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="38">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
         <v>2133.4134615384614</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11">
         <v>903.96364021734939</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="35">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="38">
         <f>SUM(C10:C11)</f>
         <v>14.2</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="38">
         <f>C12/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="38">
         <f>SUM(E10:E11)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="38">
         <v>6.6560000000000003E-6</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="39">
         <v>2133.4134615384614</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="39">
         <f>H10*E10+H11*E11</f>
         <v>903.96364021734939</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="39">
         <f>I10*E10+I11*E11</f>
         <v>0.45144132745896365</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="40">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16">
         <v>8.4</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16">
         <f>C16/1000</f>
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
         <f>F18/($F$18+$F$19+$F$20+$F$21)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18">
         <v>1.3312000000000001E-6</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18">
         <v>1953.125</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18">
         <v>0.35168669699040533</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="35">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
         <f t="shared" ref="E19:E21" si="0">F19/($F$18+$F$19+$F$20+$F$21)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19">
         <v>1.3312000000000001E-6</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19">
         <v>1953.125</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19">
         <v>0.35168669699040533</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="35">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20">
         <v>8.1920000000000003E-7</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20">
         <v>1953.125</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20">
         <v>0.35168669699040533</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="35">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21">
         <v>8.1920000000000003E-7</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21">
         <v>1953.125</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21">
         <v>0.35168669699040533</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="35">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="38">
         <v>8.4</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="38">
         <f>C22/1000</f>
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="38">
         <f>SUM(E18:E21)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="38">
         <f>SUM(F18:F21)</f>
         <v>4.3008000000000004E-6</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="39">
         <f>D16/F22</f>
         <v>1953.125</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="39">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="39">
         <v>0.35168669699040533</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="40">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="L25" s="74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26">
         <f>C26/1000</f>
         <v>9.8000000000000014E-3</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26">
         <f>C26/C28</f>
         <v>0.96078431372549011</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="38">
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
         <v>2213.541666666667</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26">
         <v>903.96364021734939</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="35">
         <v>170.87540000000004</v>
       </c>
-      <c r="L26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27">
         <v>0.4</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27">
         <f>C27/1000</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27">
         <f>C27/C28</f>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="F27" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="38">
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27">
         <v>2213.541666666667</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27">
         <v>903.96364021734939</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="35">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28">
         <f>SUM(C26:C27)</f>
         <v>10.200000000000001</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28">
         <f>C28/1000</f>
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28">
         <f>SUM(E26:E27)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="44">
         <f>D28/F28</f>
         <v>2213.541666666667</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="44">
         <v>903.96364021734939</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="44">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="48">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="83"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="69"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38">
+      <c r="C30">
         <v>10.200000000000001</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30">
         <f>SUM(E28:E29)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="44">
         <v>2213.541666666667</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="44">
         <v>903.96364021734939</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="44">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="48">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38">
         <v>10.200000000000001</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="38">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="38">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="38">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="39">
         <v>2213.541666666667</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="39">
         <v>903.96364021734939</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="39">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="40">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="34" t="s">
+      <c r="B34" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="L34" s="74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35">
         <f>C35/1000</f>
         <v>9.8000000000000014E-3</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35">
         <f>C35/C37</f>
         <v>0.94230769230769229</v>
       </c>
-      <c r="F35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="38">
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35">
         <v>2256.9444444444448</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35">
         <v>903.96364021734939</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="35">
         <v>170.87540000000004</v>
       </c>
-      <c r="L35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36">
         <v>0.6</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36">
         <f>C36/1000</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36">
         <f>C36/C37</f>
         <v>5.7692307692307689E-2</v>
       </c>
-      <c r="F36" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="38">
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36">
         <v>2256.9444444444448</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36">
         <v>903.96364021734939</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="35">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="38">
         <f>SUM(C35:C36)</f>
         <v>10.4</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="38">
         <f>SUM(D35:D36)</f>
         <v>1.0400000000000001E-2</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="38">
         <f>SUM(E35:E36)</f>
         <v>1</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="38">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G37" s="54">
+      <c r="G37" s="49">
         <f>D37/F37</f>
         <v>2256.9444444444448</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="49">
         <v>903.96364021734939</v>
       </c>
-      <c r="I37" s="54">
+      <c r="I37" s="49">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="50">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="34" t="s">
+      <c r="B40" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="35" t="s">
+      <c r="I40" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J40" s="36" t="s">
+      <c r="J40" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="L40" s="74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" t="s">
         <v>213</v>
       </c>
       <c r="C41">
         <v>7.1</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41">
         <f>C41/1000</f>
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41">
         <f>C41/C43</f>
         <v>1.0757575757575757</v>
       </c>
-      <c r="F41" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="38">
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41">
         <v>1629.6296296296296</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41">
         <v>903.96364021734939</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J41" s="39">
+      <c r="J41" s="35">
         <v>170.87540000000004</v>
       </c>
-      <c r="L41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="38">
-        <v>0</v>
-      </c>
-      <c r="D42" s="38">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <f t="shared" ref="D42:D43" si="1">C42/1000</f>
         <v>0</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42">
         <f>C42/C43</f>
         <v>0</v>
       </c>
-      <c r="F42" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="38">
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42">
         <v>1629.6296296296296</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42">
         <v>903.96364021734939</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J42" s="35">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="38">
         <v>6.6</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="38">
         <f t="shared" si="1"/>
         <v>6.6E-3</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42">
+      <c r="E43" s="38"/>
+      <c r="F43" s="38">
         <v>4.0500000000000002E-6</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="39">
         <f>D41/F43</f>
         <v>1753.0864197530861</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="39">
         <v>903.96364021734939</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="39">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="40">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="34" t="s">
+      <c r="B46" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J46" s="36" t="s">
+      <c r="J46" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47">
         <v>5.6</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47">
         <f>C47/1000</f>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47">
         <f>D47/$D$49</f>
         <v>0.7</v>
       </c>
-      <c r="F47" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="38">
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47">
         <v>3125</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47">
         <v>940.29816397754291</v>
       </c>
-      <c r="I47" s="38">
+      <c r="I47">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J47" s="35">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38">
+      <c r="C48">
         <v>2.4</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48">
         <f>C48/1000</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48">
         <f>D48/$D$49</f>
         <v>0.3</v>
       </c>
-      <c r="F48" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="38">
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48">
         <v>3125</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48">
         <v>940.29816397754291</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J48" s="35">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38">
         <f>SUM(C47:C48)</f>
         <v>8</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="38">
         <f>SUM(D47:D48)</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="38">
         <f>SUM(E47:E48)</f>
         <v>1</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="38">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G49" s="43">
+      <c r="G49" s="39">
         <f>D49/F49</f>
         <v>3125</v>
       </c>
-      <c r="H49" s="43">
+      <c r="H49" s="39">
         <v>940.29816397754291</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="39">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J49" s="44">
+      <c r="J49" s="40">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="34" t="s">
+      <c r="B52" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="35" t="s">
+      <c r="I52" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J52" s="36" t="s">
+      <c r="J52" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53">
         <v>5.5</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53">
         <f>C53/1000</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53">
         <f>D53/D55</f>
         <v>0.77464788732394363</v>
       </c>
-      <c r="F53" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="38">
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53">
         <v>2773.4374999999995</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53">
         <v>940.29816397754291</v>
       </c>
-      <c r="I53" s="38">
+      <c r="I53">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J53" s="39">
+      <c r="J53" s="35">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38">
+      <c r="C54">
         <v>1.6</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54">
         <f>C54/1000</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54">
         <f>D54/$D$55</f>
         <v>0.22535211267605637</v>
       </c>
-      <c r="F54" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="38">
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54">
         <v>2773.4374999999995</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54">
         <v>940.29816397754291</v>
       </c>
-      <c r="I54" s="38">
+      <c r="I54">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J54" s="39">
+      <c r="J54" s="35">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42">
+      <c r="B55" s="38"/>
+      <c r="C55" s="38">
         <f>SUM(C53:C54)</f>
         <v>7.1</v>
       </c>
-      <c r="D55" s="42">
+      <c r="D55" s="38">
         <f>SUM(D53:D54)</f>
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="38">
         <f>SUM(E53:E54)</f>
         <v>1</v>
       </c>
-      <c r="F55" s="42">
+      <c r="F55" s="38">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G55" s="43">
+      <c r="G55" s="39">
         <f>D55/F55</f>
         <v>2773.4374999999995</v>
       </c>
-      <c r="H55" s="43">
+      <c r="H55" s="39">
         <v>940.29816397754291</v>
       </c>
-      <c r="I55" s="43">
+      <c r="I55" s="39">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J55" s="44">
+      <c r="J55" s="40">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="34" t="s">
+      <c r="B58" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="35" t="s">
+      <c r="H58" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="35" t="s">
+      <c r="I58" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J58" s="36" t="s">
+      <c r="J58" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59">
         <v>5.4</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59">
         <f>C59/1000</f>
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59">
         <f>D59/$D$61</f>
         <v>0.77142857142857146</v>
       </c>
-      <c r="F59" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" s="38">
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59">
         <v>2734.375</v>
       </c>
-      <c r="H59" s="38">
+      <c r="H59">
         <v>940.29816397754291</v>
       </c>
-      <c r="I59" s="38">
+      <c r="I59">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J59" s="39">
+      <c r="J59" s="35">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38">
+      <c r="C60">
         <v>1.6</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D60">
         <f>C60/1000</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60">
         <f>D60/$D$61</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="F60" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="38">
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60">
         <v>2734.375</v>
       </c>
-      <c r="H60" s="38">
+      <c r="H60">
         <v>940.29816397754291</v>
       </c>
-      <c r="I60" s="38">
+      <c r="I60">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J60" s="39">
+      <c r="J60" s="35">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38">
         <f>SUM(C59:C60)</f>
         <v>7</v>
       </c>
-      <c r="D61" s="42">
+      <c r="D61" s="38">
         <f>SUM(D59:D60)</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E61" s="42">
+      <c r="E61" s="38">
         <f>SUM(E59:E60)</f>
         <v>1</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="38">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G61" s="43">
+      <c r="G61" s="39">
         <f>D61/F61</f>
         <v>2734.375</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="39">
         <v>940.29816397754291</v>
       </c>
-      <c r="I61" s="43">
+      <c r="I61" s="39">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J61" s="44">
+      <c r="J61" s="40">
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56" t="s">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="34" t="s">
+      <c r="B64" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="F64" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="34" t="s">
+      <c r="G64" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H64" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="35" t="s">
+      <c r="I64" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J64" s="36" t="s">
+      <c r="J64" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="46" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65">
         <f>C65/1000</f>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="38">
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65">
         <v>3593.75</v>
       </c>
-      <c r="H65" s="38">
+      <c r="H65">
         <v>783.19706393372451</v>
       </c>
-      <c r="I65" s="38">
+      <c r="I65">
         <v>0.49190487192846383</v>
       </c>
-      <c r="J65" s="39">
+      <c r="J65" s="35">
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42">
+      <c r="B66" s="38"/>
+      <c r="C66" s="38">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="38">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="38">
         <v>1</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="38">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="39">
         <f>D65/F66</f>
         <v>3593.75</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="39">
         <v>783.19706393372451</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="39">
         <v>0.49190487192846383</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="40">
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="56" t="s">
+    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="34" t="s">
+      <c r="B69" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="31">
         <v>1</v>
       </c>
-      <c r="F69" s="34" t="s">
+      <c r="F69" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G69" s="34" t="s">
+      <c r="G69" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="35" t="s">
+      <c r="H69" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="35" t="s">
+      <c r="I69" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J69" s="36" t="s">
+      <c r="J69" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="L69" s="74" t="s">
+      <c r="L69" s="22"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70">
+        <v>7.6</v>
+      </c>
+      <c r="D70">
+        <f>C70/1000</f>
+        <v>7.6E-3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71">
+        <v>0.7</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:D73" si="2">C71/1000</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="35"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38">
+        <f>SUM(C70:C71)</f>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>8.2999999999999984E-3</v>
+      </c>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G73" s="39">
+        <f>D73/F73</f>
+        <v>3242.1874999999991</v>
+      </c>
+      <c r="H73" s="39">
+        <v>904.86619540520076</v>
+      </c>
+      <c r="I73" s="39">
+        <v>0.38300309109725139</v>
+      </c>
+      <c r="J73" s="40">
+        <v>88.525164000000032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="23"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G75" s="31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38">
-        <v>7.6</v>
-      </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="39"/>
-      <c r="L70" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="39"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="39"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41" t="s">
+      <c r="H75" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J75" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42">
-        <v>2.5600000000000001E-6</v>
-      </c>
-      <c r="G73" s="79">
-        <v>3593.75</v>
-      </c>
-      <c r="H73" s="79">
-        <v>783.19706393372451</v>
-      </c>
-      <c r="I73" s="79">
-        <v>0.49190487192846383</v>
-      </c>
-      <c r="J73" s="80">
-        <v>110.14952000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="J75" s="36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42">
+      <c r="B76" s="38"/>
+      <c r="C76" s="38">
         <v>5.7</v>
       </c>
-      <c r="D76" s="42">
+      <c r="D76" s="38">
         <f>C76/1000</f>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42">
+      <c r="E76" s="38"/>
+      <c r="F76" s="38">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="G76" s="66">
+      <c r="G76" s="57">
         <f>D76/F76</f>
         <v>13.255813953488373</v>
       </c>
-      <c r="H76" s="66">
+      <c r="H76" s="57">
         <v>500</v>
       </c>
-      <c r="I76" s="66">
+      <c r="I76" s="57">
         <v>15</v>
       </c>
-      <c r="J76" s="67">
+      <c r="J76" s="58">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="23"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="34" t="s">
+      <c r="B78" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E78" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="34" t="s">
+      <c r="F78" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G78" s="34" t="s">
+      <c r="G78" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="35" t="s">
+      <c r="H78" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I78" s="35" t="s">
+      <c r="I78" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J78" s="36" t="s">
+      <c r="J78" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="38">
-        <f>24.3+4*0.29*1.7</f>
-        <v>26.272000000000002</v>
-      </c>
-      <c r="D79" s="38">
+      <c r="C79">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="D79">
         <f>C79/1000</f>
-        <v>2.6272000000000004E-2</v>
-      </c>
-      <c r="E79" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" s="62">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E79">
+        <f>D79/D88</f>
+        <v>0.92407207762205446</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="7">
         <v>960</v>
       </c>
-      <c r="I79" s="62">
+      <c r="I79" s="7">
         <v>130</v>
       </c>
-      <c r="J79" s="65">
+      <c r="J79" s="56">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="40" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80">
+        <f>4*0.29*1.7</f>
+        <v>1.9719999999999998</v>
+      </c>
+      <c r="D80">
+        <f>C80/1000</f>
+        <v>1.9719999999999998E-3</v>
+      </c>
+      <c r="E80">
+        <f>D80/D88</f>
+        <v>7.5927922377945462E-2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="7">
+        <v>500</v>
+      </c>
+      <c r="I80" s="7">
+        <v>15</v>
+      </c>
+      <c r="J80" s="56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="39"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="58" t="s">
+      <c r="J81" s="35"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38">
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82">
         <v>3.1203999999999998E-6</v>
       </c>
-      <c r="G81" s="38">
-        <v>1417.6865462237477</v>
-      </c>
-      <c r="H81" s="62">
-        <v>960</v>
-      </c>
-      <c r="I81" s="62">
-        <v>130</v>
-      </c>
-      <c r="J81" s="65">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="68" t="s">
+      <c r="G82">
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H82" s="7">
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I82" s="7">
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J82" s="56">
+        <v>121.26828892653627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B82" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="63">
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83">
         <v>1.52E-5</v>
       </c>
-      <c r="G82" s="38">
-        <v>1417.6865462237477</v>
-      </c>
-      <c r="H82" s="62">
-        <v>960</v>
-      </c>
-      <c r="I82" s="62">
-        <v>130</v>
-      </c>
-      <c r="J82" s="65">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="68" t="s">
+      <c r="G83">
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H83" s="7">
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I83" s="7">
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J83" s="56">
+        <v>121.26828892653627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38">
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84">
         <v>3.3600000000000003E-8</v>
       </c>
-      <c r="G83" s="38">
-        <v>1417.6865462237477</v>
-      </c>
-      <c r="H83" s="62">
-        <v>960</v>
-      </c>
-      <c r="I83" s="62">
-        <v>130</v>
-      </c>
-      <c r="J83" s="65">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="68" t="s">
+      <c r="G84">
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H84" s="7">
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I84" s="7">
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J84" s="56">
+        <v>121.26828892653627</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B84" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38">
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85">
         <v>1.92E-8</v>
       </c>
-      <c r="G84" s="38">
-        <v>1417.6865462237477</v>
-      </c>
-      <c r="H84" s="62">
-        <v>960</v>
-      </c>
-      <c r="I84" s="62">
-        <v>130</v>
-      </c>
-      <c r="J84" s="65">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="81" t="s">
+      <c r="G85">
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H85" s="7">
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I85" s="7">
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J85" s="56">
+        <v>121.26828892653627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="82"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="83"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="68" t="s">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="69"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38">
-        <v>1417.6865462237477</v>
-      </c>
-      <c r="H86" s="62">
-        <v>960</v>
-      </c>
-      <c r="I86" s="62">
-        <v>130</v>
-      </c>
-      <c r="J86" s="65">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="41" t="s">
+      <c r="G87">
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H87" s="7">
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I87" s="7">
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J87" s="56">
+        <v>121.26828892653627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42">
-        <f>F81+F82+F83*4+F84*4</f>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38">
+        <f>SUM(C79:C80)</f>
+        <v>25.972000000000001</v>
+      </c>
+      <c r="D88" s="38">
+        <f>SUM(D79:D80)</f>
+        <v>2.5972000000000002E-2</v>
+      </c>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38">
+        <f>F82+F83+F84*4+F85*4</f>
         <v>1.8531600000000001E-5</v>
       </c>
-      <c r="G87" s="43">
-        <f>D79/F87</f>
-        <v>1417.6865462237477</v>
-      </c>
-      <c r="H87" s="66">
-        <v>960</v>
-      </c>
-      <c r="I87" s="66">
-        <v>130</v>
-      </c>
-      <c r="J87" s="67">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="70" t="s">
+      <c r="G88" s="39">
+        <f>D88/F88</f>
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H88" s="57">
+        <f>H79*$E$79+H80*$E$80</f>
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I88" s="57">
+        <f>I79*$E$79+I80*$E$80</f>
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J88" s="58">
+        <f>J79*$E$79+J80*$E$80</f>
+        <v>121.26828892653627</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="69" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B92" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="34" t="s">
+      <c r="B93" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D93" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="34" t="s">
+      <c r="E93" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="34" t="s">
+      <c r="F93" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G92" s="34" t="s">
+      <c r="G93" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H92" s="35" t="s">
+      <c r="H93" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="35" t="s">
+      <c r="I93" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J92" s="36" t="s">
+      <c r="J93" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="48" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38">
+      <c r="C94">
         <v>0.9</v>
       </c>
-      <c r="D93" s="38">
-        <f>C93/1000</f>
+      <c r="D94">
+        <f>C94/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E93" s="38">
+      <c r="E94">
         <v>1</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F94">
         <v>3.96E-7</v>
       </c>
-      <c r="G93" s="49">
-        <f>D93/F93</f>
+      <c r="G94" s="44">
+        <f>D94/F94</f>
         <v>2272.7272727272725</v>
       </c>
-      <c r="H93" s="50">
+      <c r="H94" s="45">
         <v>325</v>
       </c>
-      <c r="I93" s="50">
+      <c r="I94" s="45">
         <v>50</v>
       </c>
-      <c r="J93" s="51">
+      <c r="J94" s="46">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="81" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="83"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="40" t="s">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="69"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38">
+      <c r="C96">
         <v>0.9</v>
       </c>
-      <c r="D95" s="38">
-        <f>C95/1000</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E95" s="38">
-        <v>1</v>
-      </c>
-      <c r="F95" s="38"/>
-      <c r="G95" s="49">
-        <v>2272.7272727272725</v>
-      </c>
-      <c r="H95" s="49">
-        <v>325</v>
-      </c>
-      <c r="I95" s="49">
-        <v>50</v>
-      </c>
-      <c r="J95" s="53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="D96" s="38">
+      <c r="D96">
         <f>C96/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E96" s="38">
+      <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" s="38"/>
-      <c r="G96" s="49">
+      <c r="G96" s="44">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H96" s="49">
+      <c r="H96" s="44">
         <v>325</v>
       </c>
-      <c r="I96" s="49">
+      <c r="I96" s="44">
         <v>50</v>
       </c>
-      <c r="J96" s="53">
+      <c r="J96" s="48">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97">
         <v>0.9</v>
       </c>
-      <c r="D97" s="38">
+      <c r="D97">
         <f>C97/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E97">
         <v>1</v>
       </c>
-      <c r="F97" s="38"/>
-      <c r="G97" s="49">
+      <c r="G97" s="44">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H97" s="49">
+      <c r="H97" s="44">
         <v>325</v>
       </c>
-      <c r="I97" s="49">
+      <c r="I97" s="44">
         <v>50</v>
       </c>
-      <c r="J97" s="53">
+      <c r="J97" s="48">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98">
         <v>0.9</v>
       </c>
-      <c r="D98" s="42">
+      <c r="D98">
         <f>C98/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E98" s="42">
+      <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98" s="42"/>
-      <c r="G98" s="43">
+      <c r="G98" s="44">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H98" s="43">
+      <c r="H98" s="44">
         <v>325</v>
       </c>
-      <c r="I98" s="43">
+      <c r="I98" s="44">
         <v>50</v>
       </c>
-      <c r="J98" s="44">
+      <c r="J98" s="48">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="69" t="s">
+    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="D99" s="38">
+        <f>C99/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E99" s="38">
+        <v>1</v>
+      </c>
+      <c r="F99" s="38"/>
+      <c r="G99" s="39">
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H99" s="39">
+        <v>325</v>
+      </c>
+      <c r="I99" s="39">
+        <v>50</v>
+      </c>
+      <c r="J99" s="40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B100" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="34" t="s">
+      <c r="B101" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D100" s="34" t="s">
+      <c r="D101" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E101" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F100" s="34" t="s">
+      <c r="F101" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G100" s="34" t="s">
+      <c r="G101" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="35" t="s">
+      <c r="H101" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="35" t="s">
+      <c r="I101" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J100" s="36" t="s">
+      <c r="J101" s="33" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="41" t="s">
+      <c r="K101" s="22"/>
+    </row>
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42">
+      <c r="B102" s="38"/>
+      <c r="C102" s="38">
         <v>34</v>
       </c>
-      <c r="D101" s="42">
-        <f>C101/1000</f>
+      <c r="D102" s="38">
+        <f>C102/1000</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42">
+      <c r="E102" s="38"/>
+      <c r="F102" s="38">
         <v>1.216E-5</v>
       </c>
-      <c r="G101" s="43">
-        <f>D101/F101</f>
+      <c r="G102" s="39">
+        <f>D102/F102</f>
         <v>2796.0526315789475</v>
       </c>
-      <c r="H101" s="66">
+      <c r="H102" s="57">
         <v>1000</v>
       </c>
-      <c r="I101" s="43">
+      <c r="I102" s="39">
         <v>0.6</v>
       </c>
-      <c r="J101" s="44">
+      <c r="J102" s="40">
         <v>2.5</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I104">
+      <c r="I105">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="71" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="B105" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="34" t="s">
+      <c r="B106" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D105" s="34" t="s">
+      <c r="D106" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E105" s="34" t="s">
+      <c r="E106" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F105" s="34" t="s">
+      <c r="F106" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G105" s="34" t="s">
+      <c r="G106" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H105" s="35" t="s">
+      <c r="H106" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I105" s="35" t="s">
+      <c r="I106" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J105" s="36" t="s">
+      <c r="J106" s="33" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="46" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B107" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="38">
+      <c r="C107">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D106" s="38">
-        <f>C106/1000</f>
+      <c r="D107">
+        <f>C107/1000</f>
         <v>3.2499999999999999E-4</v>
       </c>
-      <c r="E106" s="38">
-        <f>D106/$D$108</f>
+      <c r="E107">
+        <f>D107/$D$109</f>
         <v>0.44827586206896552</v>
       </c>
-      <c r="F106" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" s="62">
+      <c r="F107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="7">
         <v>8800</v>
       </c>
-      <c r="H106" s="62">
+      <c r="H107" s="7">
         <v>380</v>
       </c>
-      <c r="I106" s="62">
+      <c r="I107" s="7">
         <v>62</v>
       </c>
-      <c r="J106" s="65">
+      <c r="J107" s="56">
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="46" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B108" t="s">
         <v>21</v>
       </c>
-      <c r="C107" s="38">
+      <c r="C108">
         <v>0.4</v>
       </c>
-      <c r="D107" s="38">
-        <f>C107/1000</f>
+      <c r="D108">
+        <f>C108/1000</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E107" s="38">
-        <f>D107/$D$108</f>
+      <c r="E108">
+        <f>D108/$D$109</f>
         <v>0.55172413793103459</v>
       </c>
-      <c r="F107" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" s="62">
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="7">
         <v>1070</v>
       </c>
-      <c r="H107" s="62">
+      <c r="H108" s="7">
         <v>1990</v>
       </c>
-      <c r="I107" s="62">
+      <c r="I108" s="7">
         <v>0.16200000000000001</v>
       </c>
-      <c r="J107" s="65">
+      <c r="J108" s="56">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38">
-        <f>SUM(C106:C107)</f>
+      <c r="C109">
+        <f>SUM(C107:C108)</f>
         <v>0.72500000000000009</v>
       </c>
-      <c r="D108" s="38">
-        <f>SUM(D106:D107)</f>
+      <c r="D109">
+        <f>SUM(D107:D108)</f>
         <v>7.2499999999999995E-4</v>
       </c>
-      <c r="E108" s="38">
-        <f>SUM(E106:E107)</f>
+      <c r="E109">
+        <f>SUM(E107:E108)</f>
         <v>1</v>
       </c>
-      <c r="F108" s="38">
+      <c r="F109">
         <v>2.8980000000000001E-7</v>
       </c>
-      <c r="G108" s="49">
-        <f>D108/F108</f>
+      <c r="G109" s="44">
+        <f>D109/F109</f>
         <v>2501.7253278122839</v>
       </c>
-      <c r="H108" s="49">
-        <f>H106*$E$106+H107*$E$107</f>
+      <c r="H109" s="44">
+        <f>H107*$E$107+H108*$E$108</f>
         <v>1268.2758620689658</v>
       </c>
-      <c r="I108" s="49">
-        <f>I106*$E$106+I107*$E$107</f>
+      <c r="I109" s="44">
+        <f>I107*$E$107+I108*$E$108</f>
         <v>27.882482758620689</v>
       </c>
-      <c r="J108" s="53">
-        <f>J106*$E$106+J107*$E$107</f>
+      <c r="J109" s="48">
+        <f>J107*$E$107+J108*$E$108</f>
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="81" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="82"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="82"/>
-      <c r="I109" s="82"/>
-      <c r="J109" s="83"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="52" t="s">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="69"/>
+    </row>
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="43">
+      <c r="B111" s="38"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="39">
         <v>2501.7253278122839</v>
       </c>
-      <c r="H110" s="43">
+      <c r="H111" s="39">
         <v>1268.2758620689658</v>
       </c>
-      <c r="I110" s="43">
+      <c r="I111" s="39">
         <v>27.882482758620689</v>
       </c>
-      <c r="J110" s="44">
+      <c r="J111" s="40">
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="16" t="s">
+    <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="34" t="s">
+      <c r="B115" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D115" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E114" s="34" t="s">
+      <c r="E115" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F114" s="34" t="s">
+      <c r="F115" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G114" s="34" t="s">
+      <c r="G115" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H114" s="35" t="s">
+      <c r="H115" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I114" s="35" t="s">
+      <c r="I115" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J114" s="36" t="s">
+      <c r="J115" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="L114" s="74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="37" t="s">
+      <c r="L115" s="22"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B116" t="s">
         <v>51</v>
       </c>
-      <c r="C115" s="38">
+      <c r="C116">
         <v>30</v>
       </c>
-      <c r="D115" s="38">
-        <f>C115/1000</f>
+      <c r="D116">
+        <f>C116/1000</f>
         <v>0.03</v>
       </c>
-      <c r="E115" s="63">
+      <c r="E116">
         <v>1</v>
       </c>
-      <c r="F115" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="H115" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="I115" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="J115" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="L115" s="31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="40" t="s">
+      <c r="F116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L116" s="7"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="39"/>
-      <c r="L116" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="72" t="s">
+      <c r="J117" s="35"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="B117" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D117" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" s="38">
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118">
         <v>2.6599999999999999E-6</v>
       </c>
-      <c r="G117" s="49">
-        <v>1949.571094359241</v>
-      </c>
-      <c r="H117" s="50">
+      <c r="G118" s="44">
+        <f>$G$130</f>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H118" s="45">
         <v>1010</v>
       </c>
-      <c r="I117" s="50">
+      <c r="I118" s="45">
         <v>0.27</v>
       </c>
-      <c r="J117" s="51">
+      <c r="J118" s="46">
         <v>0.27</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="72" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B118" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="63">
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119">
         <v>7.9800000000000003E-7</v>
       </c>
-      <c r="G118" s="49">
-        <v>1949.571094359241</v>
-      </c>
-      <c r="H118" s="50">
+      <c r="G119" s="44">
+        <f t="shared" ref="G119:G123" si="3">$G$130</f>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H119" s="45">
         <v>1010</v>
       </c>
-      <c r="I118" s="50">
+      <c r="I119" s="45">
         <v>0.27</v>
       </c>
-      <c r="J118" s="51">
+      <c r="J119" s="46">
         <v>0.27</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="72" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B119" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" s="38">
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120">
         <v>7.9800000000000003E-7</v>
       </c>
-      <c r="G119" s="49">
-        <v>1949.571094359241</v>
-      </c>
-      <c r="H119" s="50">
+      <c r="G120" s="44">
+        <f t="shared" si="3"/>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H120" s="45">
         <v>1010</v>
       </c>
-      <c r="I119" s="50">
+      <c r="I120" s="45">
         <v>0.27</v>
       </c>
-      <c r="J119" s="51">
+      <c r="J120" s="46">
         <v>0.27</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="72" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="B120" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="38">
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121">
         <v>2.9440000000000001E-6</v>
       </c>
-      <c r="G120" s="49">
-        <v>1949.571094359241</v>
-      </c>
-      <c r="H120" s="50">
+      <c r="G121" s="44">
+        <f t="shared" si="3"/>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H121" s="45">
         <v>1010</v>
       </c>
-      <c r="I120" s="50">
+      <c r="I121" s="45">
         <v>0.27</v>
       </c>
-      <c r="J120" s="51">
+      <c r="J121" s="46">
         <v>0.27</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="72" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121" s="38">
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122">
         <v>2.9440000000000001E-6</v>
       </c>
-      <c r="G121" s="49">
-        <v>1949.571094359241</v>
-      </c>
-      <c r="H121" s="50">
+      <c r="G122" s="44">
+        <f t="shared" si="3"/>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H122" s="45">
         <v>1010</v>
       </c>
-      <c r="I121" s="50">
+      <c r="I122" s="45">
         <v>0.27</v>
       </c>
-      <c r="J121" s="51">
+      <c r="J122" s="46">
         <v>0.27</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="72" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="B122" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122" s="38">
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123">
         <v>5.2440000000000001E-6</v>
       </c>
-      <c r="G122" s="49">
-        <v>1949.571094359241</v>
-      </c>
-      <c r="H122" s="50">
+      <c r="G123" s="44">
+        <f t="shared" si="3"/>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H123" s="45">
         <v>1010</v>
       </c>
-      <c r="I122" s="50">
+      <c r="I123" s="45">
         <v>0.27</v>
       </c>
-      <c r="J122" s="51">
+      <c r="J123" s="46">
         <v>0.27</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="42"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42">
-        <f>SUM(F117:F122)</f>
-        <v>1.5387999999999999E-5</v>
-      </c>
-      <c r="G123" s="43">
-        <f>D115/F123</f>
-        <v>1949.571094359241</v>
-      </c>
-      <c r="H123" s="66">
-        <v>1010</v>
-      </c>
-      <c r="I123" s="66">
-        <v>0.27</v>
-      </c>
-      <c r="J123" s="67">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B126" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D126" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E126" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F126" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G126" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="I126" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="J126" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="L126" s="74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B127" s="38" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <f>SUM(C125:C126)</f>
+        <v>0.30199515966809148</v>
+      </c>
+      <c r="D124">
+        <f>SUM(D125:D126)</f>
+        <v>3.0199515966809152E-4</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G124" s="44">
+        <f>(1.7*0.1775/1000)/F124+G123</f>
+        <v>4206.9974468578948</v>
+      </c>
+      <c r="H124" s="45">
+        <v>500</v>
+      </c>
+      <c r="I124" s="45">
+        <v>15</v>
+      </c>
+      <c r="J124" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125">
+        <f>F124*G123</f>
+        <v>2.4515966809152628E-4</v>
+      </c>
+      <c r="D125">
+        <f>C125/1000</f>
+        <v>2.4515966809152627E-7</v>
+      </c>
+      <c r="E125">
+        <f>D125/D124</f>
+        <v>8.1179999163221545E-4</v>
+      </c>
+      <c r="G125" s="72"/>
+      <c r="H125" s="73"/>
+      <c r="I125" s="73"/>
+      <c r="J125" s="74"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" t="s">
         <v>48</v>
       </c>
-      <c r="C127" s="38">
+      <c r="C126">
         <f>1.7*0.1775</f>
         <v>0.30174999999999996</v>
       </c>
-      <c r="D127" s="38">
-        <f>C127/1000</f>
+      <c r="D126">
+        <f>C126/1000</f>
         <v>3.0174999999999999E-4</v>
       </c>
-      <c r="E127" s="38">
-        <f>D127/$D$130</f>
+      <c r="E126">
+        <f>D126/D124</f>
+        <v>0.99918820000836783</v>
+      </c>
+      <c r="G126" s="72"/>
+      <c r="H126" s="73"/>
+      <c r="I126" s="73"/>
+      <c r="J126" s="74"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G127" s="44">
+        <v>4206.9974468578948</v>
+      </c>
+      <c r="H127" s="45">
+        <v>500</v>
+      </c>
+      <c r="I127" s="45">
+        <v>15</v>
+      </c>
+      <c r="J127" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G128" s="44">
+        <v>4206.9974468578948</v>
+      </c>
+      <c r="H128" s="45">
+        <v>500</v>
+      </c>
+      <c r="I128" s="45">
+        <v>15</v>
+      </c>
+      <c r="J128" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G129" s="44">
+        <v>4206.9974468578948</v>
+      </c>
+      <c r="H129" s="45">
+        <v>500</v>
+      </c>
+      <c r="I129" s="45">
+        <v>15</v>
+      </c>
+      <c r="J129" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38">
+        <f>SUM(F118:F129)</f>
+        <v>1.5908000000000001E-5</v>
+      </c>
+      <c r="G130" s="39">
+        <f>D116/F130</f>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H130" s="57">
+        <v>1010</v>
+      </c>
+      <c r="I130" s="57">
+        <v>0.27</v>
+      </c>
+      <c r="J130" s="58">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I133" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J133" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="L133" s="22"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134">
+        <f>1.7*0.1775</f>
+        <v>0.30174999999999996</v>
+      </c>
+      <c r="D134">
+        <f>C134/1000</f>
+        <v>3.0174999999999999E-4</v>
+      </c>
+      <c r="E134">
+        <f>D134/$D$137</f>
         <v>0.50992817912970001</v>
       </c>
-      <c r="F127" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H127" s="62">
+      <c r="F134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" s="7">
         <v>500</v>
       </c>
-      <c r="I127" s="62">
+      <c r="I134" s="7">
         <v>15</v>
       </c>
-      <c r="J127" s="65">
+      <c r="J134" s="56">
         <v>15</v>
       </c>
-      <c r="L127" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="46" t="s">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B135" t="s">
         <v>48</v>
       </c>
-      <c r="C128" s="38">
+      <c r="C135">
         <v>0.22</v>
       </c>
-      <c r="D128" s="38">
-        <f t="shared" ref="D128:D130" si="2">C128/1000</f>
+      <c r="D135">
+        <f t="shared" ref="D135:D137" si="4">C135/1000</f>
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="E128" s="38">
-        <f t="shared" ref="E128:E129" si="3">D128/$D$130</f>
+      <c r="E135">
+        <f t="shared" ref="E135:E136" si="5">D135/$D$137</f>
         <v>0.37177862272919304</v>
       </c>
-      <c r="F128" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H128" s="62">
+      <c r="F135" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>23</v>
+      </c>
+      <c r="H135" s="7">
         <v>500</v>
       </c>
-      <c r="I128" s="62">
+      <c r="I135" s="7">
         <v>15</v>
       </c>
-      <c r="J128" s="65">
+      <c r="J135" s="56">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="64" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B136" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="38">
+      <c r="C136">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D129" s="38">
-        <f t="shared" si="2"/>
+      <c r="D136">
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-5</v>
       </c>
-      <c r="E129" s="38">
-        <f t="shared" si="3"/>
+      <c r="E136">
+        <f t="shared" si="5"/>
         <v>0.11829319814110689</v>
       </c>
-      <c r="F129" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H129" s="62">
+      <c r="F136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" s="7">
         <v>900</v>
       </c>
-      <c r="I129" s="62">
+      <c r="I136" s="7">
         <v>209</v>
       </c>
-      <c r="J129" s="65">
+      <c r="J136" s="56">
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="47" t="s">
+      <c r="B137" t="s">
         <v>22</v>
       </c>
-      <c r="C130" s="38">
-        <f>SUM(C127:C129)</f>
+      <c r="C137">
+        <f>SUM(C134:C136)</f>
         <v>0.59175</v>
       </c>
-      <c r="D130" s="38">
-        <f t="shared" si="2"/>
+      <c r="D137">
+        <f t="shared" si="4"/>
         <v>5.9175000000000005E-4</v>
       </c>
-      <c r="E130" s="38">
-        <f>SUM(E127:E129)</f>
+      <c r="E137">
+        <f>SUM(E134:E136)</f>
         <v>1</v>
       </c>
-      <c r="F130" s="38">
+      <c r="F137">
         <v>1.3E-7</v>
       </c>
-      <c r="G130" s="49">
-        <f>D130/F130</f>
+      <c r="G137" s="44">
+        <f>D137/F137</f>
         <v>4551.9230769230771</v>
       </c>
-      <c r="H130" s="49">
-        <f>H127*$E$127+H128*$E$128+H129*$E$129</f>
+      <c r="H137" s="44">
+        <f>H134*$E$134+H135*$E$135+H136*$E$136</f>
         <v>547.3172792564427</v>
       </c>
-      <c r="I130" s="49">
+      <c r="I137" s="44">
         <v>15</v>
       </c>
-      <c r="J130" s="53">
+      <c r="J137" s="48">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="81" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B131" s="82"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="82"/>
-      <c r="H131" s="82"/>
-      <c r="I131" s="82"/>
-      <c r="J131" s="83"/>
-    </row>
-    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="73" t="s">
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="69"/>
+    </row>
+    <row r="139" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="B132" s="42"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="42"/>
-      <c r="G132" s="43">
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="39">
         <v>4551.9230769230771</v>
       </c>
-      <c r="H132" s="43">
+      <c r="H139" s="39">
         <v>547.3172792564427</v>
       </c>
-      <c r="I132" s="43">
+      <c r="I139" s="39">
         <v>15</v>
       </c>
-      <c r="J132" s="44">
+      <c r="J139" s="40">
         <v>15</v>
       </c>
     </row>
@@ -6779,19 +7014,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>136</v>
       </c>
@@ -6806,7 +7041,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
@@ -6826,7 +7061,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
@@ -6846,7 +7081,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -6854,7 +7089,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -6862,7 +7097,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -6870,7 +7105,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -6878,7 +7113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -6886,7 +7121,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -6894,7 +7129,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -6902,7 +7137,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -6910,7 +7145,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -6918,7 +7153,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -6926,7 +7161,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -6934,7 +7169,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -6942,7 +7177,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -6966,7 +7201,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -6984,7 +7219,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>186</v>
       </c>
@@ -7002,12 +7237,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -7025,7 +7260,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -7043,7 +7278,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -7061,7 +7296,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -7079,12 +7314,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -7102,7 +7337,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -7120,7 +7355,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -7138,7 +7373,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -7146,7 +7381,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>193</v>
       </c>
@@ -7164,7 +7399,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -7182,7 +7417,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -7200,12 +7435,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -7224,7 +7459,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -7242,7 +7477,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -7260,12 +7495,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -7283,7 +7518,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>193</v>
       </c>
@@ -7304,7 +7539,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -7328,14 +7563,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H55">
         <v>24.88</v>
       </c>
       <c r="I55" t="s">
         <v>237</v>
       </c>
-      <c r="K55" s="78">
+      <c r="K55" s="67">
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="M55" t="s">
@@ -7345,7 +7580,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -7355,7 +7590,7 @@
       <c r="I56" t="s">
         <v>238</v>
       </c>
-      <c r="K56" s="78">
+      <c r="K56" s="67">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="M56" t="s">
@@ -7368,52 +7603,114 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57" si="6">D57*B57</f>
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58">
+        <v>0.254</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E59" si="7">D58*B58</f>
+        <v>0.254</v>
+      </c>
+      <c r="F58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>E58</f>
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>E52+E47</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>E53+E48</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>E54+E49</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -7431,7 +7728,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -7445,11 +7742,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71" si="6">D71*B71</f>
+        <f t="shared" ref="E71" si="8">D71*B71</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -7467,12 +7764,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -7490,7 +7787,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -7504,11 +7801,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77" si="7">D77*B77</f>
+        <f t="shared" ref="E77" si="9">D77*B77</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -7526,12 +7823,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -7540,7 +7837,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -7549,7 +7846,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -7558,7 +7855,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -7574,29 +7871,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -7628,7 +7925,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -7641,7 +7938,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -7674,7 +7971,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -7709,7 +8006,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -7745,7 +8042,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -7780,7 +8077,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
@@ -7815,7 +8112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>78</v>
       </c>
@@ -7850,7 +8147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -7885,7 +8182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
@@ -7916,7 +8213,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -7930,7 +8227,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -7963,7 +8260,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -7996,7 +8293,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -8029,7 +8326,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -8062,12 +8359,12 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -8090,7 +8387,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
@@ -8123,7 +8420,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -8156,12 +8453,12 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>145</v>
       </c>
@@ -8178,7 +8475,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
@@ -8206,7 +8503,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>55</v>
       </c>
@@ -8234,7 +8531,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>92</v>
       </c>
@@ -8256,12 +8553,12 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -8275,7 +8572,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -8306,7 +8603,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>47</v>
       </c>
@@ -8320,7 +8617,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>35</v>
       </c>
@@ -8354,7 +8651,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>36</v>
       </c>
@@ -8388,7 +8685,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -8424,7 +8721,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
@@ -8458,7 +8755,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>27</v>
       </c>
@@ -8475,7 +8772,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>38</v>
       </c>
@@ -8508,7 +8805,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>39</v>
       </c>
@@ -8542,7 +8839,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
@@ -8576,7 +8873,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="17"/>
@@ -8592,12 +8889,12 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>92</v>
       </c>
@@ -8617,7 +8914,7 @@
       </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H40" s="3"/>
     </row>
   </sheetData>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive\Documentos\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8F6BB-D67C-420C-818B-91B3B494804F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22992" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22995" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
     <sheet name="Extra" sheetId="9" r:id="rId5"/>
     <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="259">
   <si>
     <t>Material</t>
   </si>
@@ -830,7 +829,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1259,7 +1258,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1383,7 +1382,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciacp.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1443,7 @@
         <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciaip.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,15 +1490,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Material" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Solar Absorptivity (αs)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IR Emissivity (εIR)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
+    <tableColumn id="1" name="Material" dataDxfId="5"/>
+    <tableColumn id="2" name="Solar Absorptivity (αs)" dataDxfId="4"/>
+    <tableColumn id="3" name="IR Emissivity (εIR)" dataDxfId="3"/>
+    <tableColumn id="4" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
+    <tableColumn id="5" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
+    <tableColumn id="6" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1581,23 +1580,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1633,23 +1615,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1825,24 +1790,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1847,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1867,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1922,15 +1887,15 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
+      <c r="C5" s="7">
+        <v>0.7</v>
       </c>
       <c r="D5" s="7">
         <v>8000</v>
@@ -1942,15 +1907,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D6" s="7">
         <v>2810</v>
@@ -1962,7 +1927,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1982,7 +1947,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2002,7 +1967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +1987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2042,7 +2007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2062,7 +2027,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2082,7 +2047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2102,7 +2067,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2122,7 +2087,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2142,7 +2107,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2162,7 +2127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2182,26 +2147,26 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B20">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="C20">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>257</v>
       </c>
@@ -2209,16 +2174,16 @@
         <v>0.96</v>
       </c>
       <c r="C21">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
     </row>
   </sheetData>
@@ -2230,29 +2195,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2284,7 +2249,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -2300,7 +2265,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -2333,7 +2298,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -2366,7 +2331,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -2399,7 +2364,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>156</v>
       </c>
@@ -2432,7 +2397,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>157</v>
       </c>
@@ -2465,7 +2430,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>158</v>
       </c>
@@ -2498,7 +2463,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>167</v>
       </c>
@@ -2531,7 +2496,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
@@ -2564,7 +2529,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
@@ -2595,7 +2560,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -2609,7 +2574,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -2642,7 +2607,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -2675,7 +2640,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -2708,7 +2673,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -2741,12 +2706,12 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -2763,7 +2728,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -2796,7 +2761,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -2829,12 +2794,12 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>136</v>
       </c>
@@ -2848,7 +2813,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>160</v>
       </c>
@@ -2883,7 +2848,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
@@ -2918,7 +2883,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>92</v>
       </c>
@@ -2942,12 +2907,12 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
@@ -2961,7 +2926,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>44</v>
       </c>
@@ -2992,7 +2957,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>47</v>
       </c>
@@ -3006,7 +2971,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>35</v>
       </c>
@@ -3040,7 +3005,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>36</v>
       </c>
@@ -3074,7 +3039,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3110,7 +3075,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>57</v>
       </c>
@@ -3144,7 +3109,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
@@ -3161,7 +3126,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
@@ -3194,7 +3159,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -3228,7 +3193,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
@@ -3262,7 +3227,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="17"/>
@@ -3278,12 +3243,12 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>92</v>
       </c>
@@ -3303,19 +3268,19 @@
       </c>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
@@ -3326,30 +3291,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1"/>
-    <col min="12" max="12" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3378,7 +3343,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3411,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -3444,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>209</v>
       </c>
@@ -3477,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>198</v>
       </c>
@@ -3513,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>217</v>
       </c>
@@ -3546,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>202</v>
       </c>
@@ -3567,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>64</v>
       </c>
@@ -3588,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>220</v>
       </c>
@@ -3609,7 +3574,7 @@
         <v>0.11633470148314154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>223</v>
       </c>
@@ -3630,8 +3595,8 @@
         <v>0.14107548598838676</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>197</v>
       </c>
@@ -3657,7 +3622,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -3686,7 +3651,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3715,7 +3680,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -3744,7 +3709,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -3773,7 +3738,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3802,7 +3767,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -3831,7 +3796,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3860,7 +3825,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -3889,7 +3854,7 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -3918,7 +3883,7 @@
         <v>88.525164000000032</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="3"/>
     </row>
   </sheetData>
@@ -3928,28 +3893,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView topLeftCell="C52" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>88</v>
       </c>
@@ -3957,7 +3922,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>97</v>
       </c>
@@ -3987,7 +3952,7 @@
       </c>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>92</v>
       </c>
@@ -4018,7 +3983,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>98</v>
       </c>
@@ -4031,7 +3996,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>99</v>
       </c>
@@ -4052,8 +4017,8 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>89</v>
       </c>
@@ -4085,7 +4050,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>90</v>
       </c>
@@ -4120,7 +4085,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>91</v>
       </c>
@@ -4152,7 +4117,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>92</v>
       </c>
@@ -4189,8 +4154,8 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>225</v>
       </c>
@@ -4222,7 +4187,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>224</v>
       </c>
@@ -4255,13 +4220,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>95</v>
       </c>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>226</v>
       </c>
@@ -4294,7 +4259,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>227</v>
       </c>
@@ -4327,7 +4292,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>228</v>
       </c>
@@ -4360,7 +4325,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>229</v>
       </c>
@@ -4393,7 +4358,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>92</v>
       </c>
@@ -4429,11 +4394,11 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>100</v>
       </c>
@@ -4466,7 +4431,7 @@
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>101</v>
       </c>
@@ -4500,7 +4465,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>91</v>
       </c>
@@ -4534,7 +4499,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>92</v>
       </c>
@@ -4570,7 +4535,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="68" t="s">
         <v>98</v>
       </c>
@@ -4584,7 +4549,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="69"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>122</v>
       </c>
@@ -4614,7 +4579,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="54" t="s">
         <v>121</v>
       </c>
@@ -4644,11 +4609,11 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>102</v>
       </c>
@@ -4681,7 +4646,7 @@
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>105</v>
       </c>
@@ -4715,7 +4680,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>103</v>
       </c>
@@ -4749,7 +4714,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>92</v>
       </c>
@@ -4785,8 +4750,8 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>104</v>
       </c>
@@ -4819,7 +4784,7 @@
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
         <v>106</v>
       </c>
@@ -4853,7 +4818,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>91</v>
       </c>
@@ -4887,7 +4852,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>92</v>
       </c>
@@ -4919,8 +4884,8 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>107</v>
       </c>
@@ -4952,7 +4917,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
         <v>110</v>
       </c>
@@ -4986,7 +4951,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
         <v>91</v>
       </c>
@@ -5017,7 +4982,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>92</v>
       </c>
@@ -5051,8 +5016,8 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
         <v>108</v>
       </c>
@@ -5084,7 +5049,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
         <v>111</v>
       </c>
@@ -5118,7 +5083,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>91</v>
       </c>
@@ -5149,7 +5114,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
         <v>92</v>
       </c>
@@ -5183,8 +5148,8 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="51" t="s">
         <v>109</v>
       </c>
@@ -5216,7 +5181,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
         <v>112</v>
       </c>
@@ -5250,7 +5215,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
         <v>91</v>
       </c>
@@ -5281,7 +5246,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="37" t="s">
         <v>92</v>
       </c>
@@ -5315,8 +5280,8 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="51" t="s">
         <v>113</v>
       </c>
@@ -5348,7 +5313,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
         <v>181</v>
       </c>
@@ -5381,7 +5346,7 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>92</v>
       </c>
@@ -5412,8 +5377,8 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="51" t="s">
         <v>114</v>
       </c>
@@ -5446,7 +5411,7 @@
       </c>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
         <v>115</v>
       </c>
@@ -5465,7 +5430,7 @@
       </c>
       <c r="J70" s="35"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
         <v>69</v>
       </c>
@@ -5484,7 +5449,7 @@
       </c>
       <c r="J71" s="35"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
         <v>91</v>
       </c>
@@ -5497,7 +5462,7 @@
       </c>
       <c r="J72" s="35"/>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
         <v>92</v>
       </c>
@@ -5528,10 +5493,10 @@
         <v>88.525164000000032</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
         <v>126</v>
       </c>
@@ -5563,7 +5528,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>92</v>
       </c>
@@ -5593,10 +5558,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>168</v>
       </c>
@@ -5628,7 +5593,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
         <v>128</v>
       </c>
@@ -5663,7 +5628,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
         <v>250</v>
       </c>
@@ -5695,13 +5660,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
         <v>169</v>
       </c>
       <c r="J81" s="35"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
         <v>170</v>
       </c>
@@ -5727,7 +5692,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
         <v>171</v>
       </c>
@@ -5753,7 +5718,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
         <v>172</v>
       </c>
@@ -5779,7 +5744,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
         <v>173</v>
       </c>
@@ -5805,7 +5770,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="68" t="s">
         <v>98</v>
       </c>
@@ -5819,7 +5784,7 @@
       <c r="I86" s="17"/>
       <c r="J86" s="69"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
         <v>174</v>
       </c>
@@ -5836,7 +5801,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="37" t="s">
         <v>92</v>
       </c>
@@ -5871,12 +5836,12 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="59" t="s">
         <v>117</v>
       </c>
@@ -5908,7 +5873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
         <v>92</v>
       </c>
@@ -5939,7 +5904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="68" t="s">
         <v>98</v>
       </c>
@@ -5953,7 +5918,7 @@
       <c r="I95" s="17"/>
       <c r="J95" s="69"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>116</v>
       </c>
@@ -5980,7 +5945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
         <v>118</v>
       </c>
@@ -6007,7 +5972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>119</v>
       </c>
@@ -6034,7 +5999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="47" t="s">
         <v>120</v>
       </c>
@@ -6063,8 +6028,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="59" t="s">
         <v>123</v>
       </c>
@@ -6097,7 +6062,7 @@
       </c>
       <c r="K101" s="22"/>
     </row>
-    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="37" t="s">
         <v>92</v>
       </c>
@@ -6127,7 +6092,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>53</v>
       </c>
@@ -6135,7 +6100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>124</v>
       </c>
@@ -6167,7 +6132,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
         <v>54</v>
       </c>
@@ -6201,7 +6166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
         <v>55</v>
       </c>
@@ -6235,7 +6200,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
         <v>92</v>
       </c>
@@ -6271,7 +6236,7 @@
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="68" t="s">
         <v>98</v>
       </c>
@@ -6285,7 +6250,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="69"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="47" t="s">
         <v>125</v>
       </c>
@@ -6307,12 +6272,12 @@
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>127</v>
       </c>
@@ -6345,7 +6310,7 @@
       </c>
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="34" t="s">
         <v>128</v>
       </c>
@@ -6379,13 +6344,13 @@
       </c>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
         <v>130</v>
       </c>
       <c r="J117" s="35"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="62" t="s">
         <v>131</v>
       </c>
@@ -6418,7 +6383,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="62" t="s">
         <v>132</v>
       </c>
@@ -6451,7 +6416,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="62" t="s">
         <v>133</v>
       </c>
@@ -6484,7 +6449,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="62" t="s">
         <v>134</v>
       </c>
@@ -6517,7 +6482,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="62" t="s">
         <v>129</v>
       </c>
@@ -6550,7 +6515,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="62" t="s">
         <v>135</v>
       </c>
@@ -6583,7 +6548,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="70" t="s">
         <v>252</v>
       </c>
@@ -6618,7 +6583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="71" t="s">
         <v>51</v>
       </c>
@@ -6642,7 +6607,7 @@
       <c r="I125" s="73"/>
       <c r="J125" s="74"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="62" t="s">
         <v>255</v>
       </c>
@@ -6666,7 +6631,7 @@
       <c r="I126" s="73"/>
       <c r="J126" s="74"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="62" t="s">
         <v>251</v>
       </c>
@@ -6698,7 +6663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="62" t="s">
         <v>254</v>
       </c>
@@ -6730,7 +6695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="62" t="s">
         <v>253</v>
       </c>
@@ -6762,7 +6727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="37" t="s">
         <v>92</v>
       </c>
@@ -6788,17 +6753,17 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="61" t="s">
         <v>175</v>
       </c>
@@ -6831,7 +6796,7 @@
       </c>
       <c r="L133" s="22"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
         <v>176</v>
       </c>
@@ -6866,7 +6831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="42" t="s">
         <v>177</v>
       </c>
@@ -6900,7 +6865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="55" t="s">
         <v>178</v>
       </c>
@@ -6934,7 +6899,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="43" t="s">
         <v>92</v>
       </c>
@@ -6971,7 +6936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
         <v>98</v>
       </c>
@@ -6985,7 +6950,7 @@
       <c r="I138" s="17"/>
       <c r="J138" s="69"/>
     </row>
-    <row r="139" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="63" t="s">
         <v>179</v>
       </c>
@@ -7014,19 +6979,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A62" sqref="A62:B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>136</v>
       </c>
@@ -7041,7 +7006,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
@@ -7061,7 +7026,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
@@ -7081,7 +7046,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -7089,7 +7054,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -7097,7 +7062,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -7105,7 +7070,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -7113,7 +7078,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -7121,7 +7086,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -7129,7 +7094,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -7137,7 +7102,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -7145,7 +7110,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -7153,7 +7118,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -7161,7 +7126,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -7169,7 +7134,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -7177,7 +7142,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -7201,7 +7166,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -7219,7 +7184,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>186</v>
       </c>
@@ -7237,12 +7202,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -7260,7 +7225,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -7278,7 +7243,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -7296,7 +7261,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -7314,12 +7279,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -7337,7 +7302,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -7355,7 +7320,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -7373,7 +7338,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -7381,7 +7346,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>193</v>
       </c>
@@ -7399,7 +7364,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -7417,7 +7382,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -7435,12 +7400,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -7459,7 +7424,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -7477,7 +7442,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -7495,12 +7460,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -7518,7 +7483,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>193</v>
       </c>
@@ -7539,7 +7504,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -7563,7 +7528,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H55">
         <v>24.88</v>
       </c>
@@ -7580,7 +7545,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -7603,7 +7568,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -7624,7 +7589,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -7645,7 +7610,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -7664,12 +7629,12 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -7678,7 +7643,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -7687,7 +7652,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -7696,7 +7661,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -7705,12 +7670,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -7728,7 +7693,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -7746,7 +7711,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -7764,12 +7729,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -7787,7 +7752,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -7805,7 +7770,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -7823,12 +7788,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -7837,7 +7802,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -7846,7 +7811,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -7855,7 +7820,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -7871,29 +7836,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -7925,7 +7890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -7938,7 +7903,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -7971,7 +7936,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -8006,7 +7971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -8042,7 +8007,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -8077,7 +8042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
@@ -8112,7 +8077,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>78</v>
       </c>
@@ -8147,7 +8112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -8182,7 +8147,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
@@ -8213,7 +8178,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -8227,7 +8192,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -8260,7 +8225,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -8293,7 +8258,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -8326,7 +8291,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -8359,12 +8324,12 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -8387,7 +8352,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
@@ -8420,7 +8385,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -8453,12 +8418,12 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>145</v>
       </c>
@@ -8475,7 +8440,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
@@ -8503,7 +8468,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>55</v>
       </c>
@@ -8531,7 +8496,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>92</v>
       </c>
@@ -8553,12 +8518,12 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -8572,7 +8537,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -8603,7 +8568,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>47</v>
       </c>
@@ -8617,7 +8582,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>35</v>
       </c>
@@ -8651,7 +8616,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>36</v>
       </c>
@@ -8685,7 +8650,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -8721,7 +8686,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
@@ -8755,7 +8720,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>27</v>
       </c>
@@ -8772,7 +8737,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>38</v>
       </c>
@@ -8805,7 +8770,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>39</v>
       </c>
@@ -8839,7 +8804,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
@@ -8873,7 +8838,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="17"/>
@@ -8889,12 +8854,12 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>92</v>
       </c>
@@ -8914,7 +8879,7 @@
       </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H40" s="3"/>
     </row>
   </sheetData>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22995" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22995" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="261">
   <si>
     <t>Material</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>Optical</t>
+  </si>
+  <si>
+    <t>LiPo Battery*</t>
+  </si>
+  <si>
+    <t>* Measures for LiPo Batteries are not readily available, this is a rough estimation taking into account the cover is made of aluminum</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1256,6 +1262,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -1382,7 +1391,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciacp.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1452,7 @@
         <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciaip.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,15 +1499,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F21"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Material" dataDxfId="5"/>
-    <tableColumn id="2" name="Solar Absorptivity (αs)" dataDxfId="4"/>
-    <tableColumn id="3" name="IR Emissivity (εIR)" dataDxfId="3"/>
-    <tableColumn id="4" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
-    <tableColumn id="5" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
-    <tableColumn id="6" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
+    <tableColumn id="2" name="IR Emissivity (εIR)" dataDxfId="1"/>
+    <tableColumn id="3" name="Solar Absorptivity (αs)" dataDxfId="0"/>
+    <tableColumn id="4" name="Density (ρ) [kg/m³]" dataDxfId="4"/>
+    <tableColumn id="5" name="Specific heat (cp) [J/kg·K]" dataDxfId="3"/>
+    <tableColumn id="6" name="Conductivity (k) [W/m·K]" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1791,20 +1800,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>5</v>
@@ -1832,10 +1843,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="C2" s="7">
         <v>0.12</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.94</v>
       </c>
       <c r="D2" s="7">
         <v>1850</v>
@@ -1871,11 +1882,11 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
+      <c r="B4" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D4" s="7">
         <v>2070</v>
@@ -1891,11 +1902,11 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
+      <c r="B5" s="7">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C5" s="7">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="D5" s="7">
         <v>8000</v>
@@ -1912,10 +1923,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.18</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.21</v>
       </c>
       <c r="D6" s="7">
         <v>2810</v>
@@ -1952,10 +1963,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.4</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.71</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>23</v>
@@ -1972,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="C9" s="7">
         <v>0.23</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.24</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>23</v>
@@ -1992,10 +2003,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="C10" s="7">
         <v>0.08</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.11</v>
       </c>
       <c r="D10" s="7">
         <v>5765</v>
@@ -2029,13 +2040,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>259</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.5</v>
       </c>
       <c r="D12" s="7">
         <v>2750</v>
@@ -2071,11 +2082,11 @@
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
+      <c r="B14" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.8</v>
       </c>
       <c r="D14" s="7">
         <v>2700</v>
@@ -2092,10 +2103,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.85</v>
       </c>
       <c r="D15" s="7">
         <v>1150</v>
@@ -2112,10 +2123,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="C16" s="7">
         <v>0.91</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.85</v>
       </c>
       <c r="D16" s="7">
         <v>5316</v>
@@ -2127,15 +2138,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="C17" s="7">
         <v>0.94</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.82</v>
       </c>
       <c r="D17" s="7">
         <v>1070</v>
@@ -2147,49 +2158,70 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B20">
+        <v>0.94</v>
+      </c>
+      <c r="C20">
         <v>0.19</v>
       </c>
-      <c r="C20">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B21">
+        <v>0.94</v>
+      </c>
+      <c r="C21">
         <v>0.96</v>
       </c>
-      <c r="C21">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2198,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView topLeftCell="C52" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A74" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive\Documentos\GitHub\PoCat-Thermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041057C-619F-47FC-B322-1D5207889C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22995" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Masses and Volumes" sheetId="8" r:id="rId2"/>
     <sheet name="Properties PCBs" sheetId="10" r:id="rId3"/>
     <sheet name="Bulks" sheetId="6" r:id="rId4"/>
-    <sheet name="Extra" sheetId="9" r:id="rId5"/>
-    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId6"/>
+    <sheet name="UDC" sheetId="11" r:id="rId5"/>
+    <sheet name="Extra" sheetId="9" r:id="rId6"/>
+    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="332">
   <si>
     <t>Material</t>
   </si>
@@ -831,12 +833,225 @@
   <si>
     <t>* Measures for LiPo Batteries are not readily available, this is a rough estimation taking into account the cover is made of aluminum</t>
   </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>W (mm)</t>
+  </si>
+  <si>
+    <t>L (mm)</t>
+  </si>
+  <si>
+    <t>H (mm)</t>
+  </si>
+  <si>
+    <t>X1SON</t>
+  </si>
+  <si>
+    <t>14-pin LGA</t>
+  </si>
+  <si>
+    <t>SQFN016V4040</t>
+  </si>
+  <si>
+    <t>RSV (QFN, 16)</t>
+  </si>
+  <si>
+    <t>ILSP</t>
+  </si>
+  <si>
+    <t>TDFN-10</t>
+  </si>
+  <si>
+    <t>TQFN</t>
+  </si>
+  <si>
+    <t>TSSOP8</t>
+  </si>
+  <si>
+    <t>QFN</t>
+  </si>
+  <si>
+    <t>LQFP - 64 pins</t>
+  </si>
+  <si>
+    <t>QFN (24L)</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>RoHS Compliant??</t>
+  </si>
+  <si>
+    <t>QFN Leadless SMT</t>
+  </si>
+  <si>
+    <t>QFN Package</t>
+  </si>
+  <si>
+    <t>HV1195</t>
+  </si>
+  <si>
+    <t>DFN (8L)</t>
+  </si>
+  <si>
+    <t>MC1630-1 (6L)</t>
+  </si>
+  <si>
+    <t>MSOP8G SMT</t>
+  </si>
+  <si>
+    <t>Conductance G (W/K)</t>
+  </si>
+  <si>
+    <t>RθJC​ (°C/W)</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>NGTN_ADCS_U1</t>
+  </si>
+  <si>
+    <t>NGTN_ADCS_U2</t>
+  </si>
+  <si>
+    <t>NGTN_ADCS_U3</t>
+  </si>
+  <si>
+    <t>NGTN_ADCS_U4</t>
+  </si>
+  <si>
+    <t>NGTN_ADCS_U5</t>
+  </si>
+  <si>
+    <t>NGTN_ADCS_U6</t>
+  </si>
+  <si>
+    <t>NGTN_ADCS_U7</t>
+  </si>
+  <si>
+    <t>NGTN_Batt_Heater</t>
+  </si>
+  <si>
+    <t>NGTN_EPS_IC1</t>
+  </si>
+  <si>
+    <t>NGTN_EPS_IC2</t>
+  </si>
+  <si>
+    <t>NGTN_EPS_U1</t>
+  </si>
+  <si>
+    <t>NGTN_EPS_U2</t>
+  </si>
+  <si>
+    <t>NGTN_EPS_U3</t>
+  </si>
+  <si>
+    <t>NGTN_EPS_U4</t>
+  </si>
+  <si>
+    <t>NGTN_OBC_STM32</t>
+  </si>
+  <si>
+    <t>NGTN_OBC_SX1262</t>
+  </si>
+  <si>
+    <t>NGTN_PLTOP_U1</t>
+  </si>
+  <si>
+    <t>NGTN_PLTOP_U2</t>
+  </si>
+  <si>
+    <t>NGTN_PLTOP_Y1</t>
+  </si>
+  <si>
+    <t>NGTN_PLUNDER_U1</t>
+  </si>
+  <si>
+    <t>NGTN_PLUNDER_U2</t>
+  </si>
+  <si>
+    <t>NGTN_PLUNDER_U3</t>
+  </si>
+  <si>
+    <t>NGTN_PLUNDER_U4</t>
+  </si>
+  <si>
+    <t>NGTN_PLUNDER_U5</t>
+  </si>
+  <si>
+    <t>NGTN_PLUNDER_U7</t>
+  </si>
+  <si>
+    <t>ESATAN Name</t>
+  </si>
+  <si>
+    <t>LPV542</t>
+  </si>
+  <si>
+    <t>IIM-42652</t>
+  </si>
+  <si>
+    <t>BD2606MVV</t>
+  </si>
+  <si>
+    <t>TMUX1108RSVR</t>
+  </si>
+  <si>
+    <t>MMC5983MA</t>
+  </si>
+  <si>
+    <t>DS2782E+</t>
+  </si>
+  <si>
+    <t>ISL9120IRTNZ</t>
+  </si>
+  <si>
+    <t>SPV1040TTR</t>
+  </si>
+  <si>
+    <t>LTC4040EUFD#PBF</t>
+  </si>
+  <si>
+    <t>STM32L476RGTx</t>
+  </si>
+  <si>
+    <t>SX1262IMLTRT</t>
+  </si>
+  <si>
+    <t>HMC342LC4</t>
+  </si>
+  <si>
+    <t>HMC516LC5</t>
+  </si>
+  <si>
+    <t>HMC506LP4ETR</t>
+  </si>
+  <si>
+    <t>CMD271P3</t>
+  </si>
+  <si>
+    <t>SIM-14+</t>
+  </si>
+  <si>
+    <t>LT5537EDDB#TRMPBF</t>
+  </si>
+  <si>
+    <t>LEE2-6+</t>
+  </si>
+  <si>
+    <t>HMC358MS8GE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,8 +1113,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,6 +1190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1262,12 +1490,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1375,6 +1605,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>726141</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>681317</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EABFAC-BF3B-4CC8-9045-976DB304130F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7862047" y="0"/>
+          <a:ext cx="4688541" cy="2339239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -1391,7 +1670,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciacp.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1731,7 @@
         <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciaip.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,15 +1778,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Material" dataDxfId="5"/>
-    <tableColumn id="2" name="IR Emissivity (εIR)" dataDxfId="1"/>
-    <tableColumn id="3" name="Solar Absorptivity (αs)" dataDxfId="0"/>
-    <tableColumn id="4" name="Density (ρ) [kg/m³]" dataDxfId="4"/>
-    <tableColumn id="5" name="Specific heat (cp) [J/kg·K]" dataDxfId="3"/>
-    <tableColumn id="6" name="Conductivity (k) [W/m·K]" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Material" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IR Emissivity (εIR)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Solar Absorptivity (αs)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1589,6 +1868,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1624,6 +1920,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1799,26 +2112,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +2151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +2171,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +2191,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +2211,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1918,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +2251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1958,7 +2271,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1978,7 +2291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +2311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2038,7 +2351,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>259</v>
       </c>
@@ -2058,7 +2371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2098,7 +2411,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2118,7 +2431,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2158,21 +2471,21 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>256</v>
       </c>
@@ -2182,11 +2495,11 @@
       <c r="C20">
         <v>0.19</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>257</v>
       </c>
@@ -2196,25 +2509,25 @@
       <c r="C21">
         <v>0.96</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I22" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
   </sheetData>
@@ -2227,29 +2540,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2281,7 +2594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -2297,7 +2610,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2643,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -2363,7 +2676,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -2396,7 +2709,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>156</v>
       </c>
@@ -2429,7 +2742,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>157</v>
       </c>
@@ -2462,7 +2775,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>158</v>
       </c>
@@ -2495,7 +2808,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>167</v>
       </c>
@@ -2528,7 +2841,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
@@ -2561,7 +2874,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
@@ -2592,7 +2905,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -2606,7 +2919,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -2639,7 +2952,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -2672,7 +2985,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -2705,7 +3018,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -2738,12 +3051,12 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -2760,7 +3073,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -2793,7 +3106,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -2826,12 +3139,12 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>136</v>
       </c>
@@ -2845,7 +3158,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>160</v>
       </c>
@@ -2880,7 +3193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
@@ -2915,7 +3228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>92</v>
       </c>
@@ -2939,12 +3252,12 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
@@ -2958,7 +3271,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>44</v>
       </c>
@@ -2989,7 +3302,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>47</v>
       </c>
@@ -3003,7 +3316,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>35</v>
       </c>
@@ -3037,7 +3350,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>36</v>
       </c>
@@ -3071,7 +3384,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3107,7 +3420,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>57</v>
       </c>
@@ -3141,7 +3454,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
@@ -3158,7 +3471,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
@@ -3191,7 +3504,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -3225,7 +3538,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
@@ -3259,7 +3572,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="17"/>
@@ -3275,12 +3588,12 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>92</v>
       </c>
@@ -3300,19 +3613,19 @@
       </c>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
@@ -3323,30 +3636,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +3688,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3408,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -3441,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>209</v>
       </c>
@@ -3474,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>198</v>
       </c>
@@ -3510,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>217</v>
       </c>
@@ -3543,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>202</v>
       </c>
@@ -3564,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>64</v>
       </c>
@@ -3585,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>220</v>
       </c>
@@ -3606,7 +3919,7 @@
         <v>0.11633470148314154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>223</v>
       </c>
@@ -3627,8 +3940,8 @@
         <v>0.14107548598838676</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="64" t="s">
         <v>197</v>
       </c>
@@ -3654,7 +3967,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -3683,7 +3996,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3712,7 +4025,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -3741,7 +4054,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -3770,7 +4083,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3799,7 +4112,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -3828,7 +4141,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3857,7 +4170,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -3886,7 +4199,7 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -3915,7 +4228,7 @@
         <v>88.525164000000032</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="3"/>
     </row>
   </sheetData>
@@ -3925,28 +4238,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView topLeftCell="A74" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>88</v>
       </c>
@@ -3954,7 +4267,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>97</v>
       </c>
@@ -3984,7 +4297,7 @@
       </c>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>92</v>
       </c>
@@ -4015,7 +4328,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>98</v>
       </c>
@@ -4028,7 +4341,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>99</v>
       </c>
@@ -4049,8 +4362,8 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>89</v>
       </c>
@@ -4082,7 +4395,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>90</v>
       </c>
@@ -4117,7 +4430,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>91</v>
       </c>
@@ -4149,7 +4462,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>92</v>
       </c>
@@ -4186,8 +4499,8 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>225</v>
       </c>
@@ -4219,7 +4532,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>224</v>
       </c>
@@ -4252,13 +4565,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>95</v>
       </c>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>226</v>
       </c>
@@ -4291,7 +4604,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>227</v>
       </c>
@@ -4324,7 +4637,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
         <v>228</v>
       </c>
@@ -4357,7 +4670,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
         <v>229</v>
       </c>
@@ -4390,7 +4703,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
         <v>92</v>
       </c>
@@ -4426,11 +4739,11 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>100</v>
       </c>
@@ -4463,7 +4776,7 @@
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>101</v>
       </c>
@@ -4497,7 +4810,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>91</v>
       </c>
@@ -4531,7 +4844,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>92</v>
       </c>
@@ -4567,7 +4880,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="68" t="s">
         <v>98</v>
       </c>
@@ -4581,7 +4894,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="69"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="52" t="s">
         <v>122</v>
       </c>
@@ -4611,7 +4924,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54" t="s">
         <v>121</v>
       </c>
@@ -4641,11 +4954,11 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
         <v>102</v>
       </c>
@@ -4678,7 +4991,7 @@
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>105</v>
       </c>
@@ -4712,7 +5025,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>103</v>
       </c>
@@ -4746,7 +5059,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="37" t="s">
         <v>92</v>
       </c>
@@ -4782,8 +5095,8 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="51" t="s">
         <v>104</v>
       </c>
@@ -4816,7 +5129,7 @@
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="42" t="s">
         <v>106</v>
       </c>
@@ -4850,7 +5163,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
         <v>91</v>
       </c>
@@ -4884,7 +5197,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="37" t="s">
         <v>92</v>
       </c>
@@ -4916,8 +5229,8 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
         <v>107</v>
       </c>
@@ -4949,7 +5262,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="42" t="s">
         <v>110</v>
       </c>
@@ -4983,7 +5296,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="42" t="s">
         <v>91</v>
       </c>
@@ -5014,7 +5327,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
         <v>92</v>
       </c>
@@ -5048,8 +5361,8 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
         <v>108</v>
       </c>
@@ -5081,7 +5394,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="42" t="s">
         <v>111</v>
       </c>
@@ -5115,7 +5428,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="42" t="s">
         <v>91</v>
       </c>
@@ -5146,7 +5459,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="37" t="s">
         <v>92</v>
       </c>
@@ -5180,8 +5493,8 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="51" t="s">
         <v>109</v>
       </c>
@@ -5213,7 +5526,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="42" t="s">
         <v>112</v>
       </c>
@@ -5247,7 +5560,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
         <v>91</v>
       </c>
@@ -5278,7 +5591,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="37" t="s">
         <v>92</v>
       </c>
@@ -5312,8 +5625,8 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="51" t="s">
         <v>113</v>
       </c>
@@ -5345,7 +5658,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="42" t="s">
         <v>181</v>
       </c>
@@ -5378,7 +5691,7 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="37" t="s">
         <v>92</v>
       </c>
@@ -5409,8 +5722,8 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="51" t="s">
         <v>114</v>
       </c>
@@ -5443,7 +5756,7 @@
       </c>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="42" t="s">
         <v>115</v>
       </c>
@@ -5462,7 +5775,7 @@
       </c>
       <c r="J70" s="35"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="42" t="s">
         <v>69</v>
       </c>
@@ -5481,7 +5794,7 @@
       </c>
       <c r="J71" s="35"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
         <v>91</v>
       </c>
@@ -5494,7 +5807,7 @@
       </c>
       <c r="J72" s="35"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="37" t="s">
         <v>92</v>
       </c>
@@ -5525,10 +5838,10 @@
         <v>88.525164000000032</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="23"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="41" t="s">
         <v>126</v>
       </c>
@@ -5560,7 +5873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="37" t="s">
         <v>92</v>
       </c>
@@ -5590,10 +5903,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="23"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
         <v>168</v>
       </c>
@@ -5625,7 +5938,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
         <v>128</v>
       </c>
@@ -5660,7 +5973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>250</v>
       </c>
@@ -5692,13 +6005,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="36" t="s">
         <v>169</v>
       </c>
       <c r="J81" s="35"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="53" t="s">
         <v>170</v>
       </c>
@@ -5724,7 +6037,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="53" t="s">
         <v>171</v>
       </c>
@@ -5750,7 +6063,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="53" t="s">
         <v>172</v>
       </c>
@@ -5776,7 +6089,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="53" t="s">
         <v>173</v>
       </c>
@@ -5802,7 +6115,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="68" t="s">
         <v>98</v>
       </c>
@@ -5816,7 +6129,7 @@
       <c r="I86" s="17"/>
       <c r="J86" s="69"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="53" t="s">
         <v>174</v>
       </c>
@@ -5833,7 +6146,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="37" t="s">
         <v>92</v>
       </c>
@@ -5868,12 +6181,12 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="59" t="s">
         <v>117</v>
       </c>
@@ -5905,7 +6218,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="43" t="s">
         <v>92</v>
       </c>
@@ -5936,7 +6249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="68" t="s">
         <v>98</v>
       </c>
@@ -5950,7 +6263,7 @@
       <c r="I95" s="17"/>
       <c r="J95" s="69"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="36" t="s">
         <v>116</v>
       </c>
@@ -5977,7 +6290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="36" t="s">
         <v>118</v>
       </c>
@@ -6004,7 +6317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
         <v>119</v>
       </c>
@@ -6031,7 +6344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="47" t="s">
         <v>120</v>
       </c>
@@ -6060,8 +6373,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="59" t="s">
         <v>123</v>
       </c>
@@ -6094,7 +6407,7 @@
       </c>
       <c r="K101" s="22"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="37" t="s">
         <v>92</v>
       </c>
@@ -6124,7 +6437,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="s">
         <v>53</v>
       </c>
@@ -6132,7 +6445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="61" t="s">
         <v>124</v>
       </c>
@@ -6164,7 +6477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="42" t="s">
         <v>54</v>
       </c>
@@ -6198,7 +6511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="42" t="s">
         <v>55</v>
       </c>
@@ -6232,7 +6545,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="43" t="s">
         <v>92</v>
       </c>
@@ -6268,7 +6581,7 @@
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="68" t="s">
         <v>98</v>
       </c>
@@ -6282,7 +6595,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="69"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="47" t="s">
         <v>125</v>
       </c>
@@ -6304,12 +6617,12 @@
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="30" t="s">
         <v>127</v>
       </c>
@@ -6342,7 +6655,7 @@
       </c>
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="34" t="s">
         <v>128</v>
       </c>
@@ -6376,13 +6689,13 @@
       </c>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="36" t="s">
         <v>130</v>
       </c>
       <c r="J117" s="35"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="62" t="s">
         <v>131</v>
       </c>
@@ -6415,7 +6728,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="62" t="s">
         <v>132</v>
       </c>
@@ -6448,7 +6761,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="62" t="s">
         <v>133</v>
       </c>
@@ -6481,7 +6794,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="62" t="s">
         <v>134</v>
       </c>
@@ -6514,7 +6827,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="62" t="s">
         <v>129</v>
       </c>
@@ -6547,7 +6860,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="62" t="s">
         <v>135</v>
       </c>
@@ -6580,7 +6893,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="70" t="s">
         <v>252</v>
       </c>
@@ -6615,7 +6928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="71" t="s">
         <v>51</v>
       </c>
@@ -6639,7 +6952,7 @@
       <c r="I125" s="73"/>
       <c r="J125" s="74"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="62" t="s">
         <v>255</v>
       </c>
@@ -6663,7 +6976,7 @@
       <c r="I126" s="73"/>
       <c r="J126" s="74"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="62" t="s">
         <v>251</v>
       </c>
@@ -6695,7 +7008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="62" t="s">
         <v>254</v>
       </c>
@@ -6727,7 +7040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="62" t="s">
         <v>253</v>
       </c>
@@ -6759,7 +7072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="37" t="s">
         <v>92</v>
       </c>
@@ -6785,17 +7098,17 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="61" t="s">
         <v>175</v>
       </c>
@@ -6828,7 +7141,7 @@
       </c>
       <c r="L133" s="22"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="42" t="s">
         <v>176</v>
       </c>
@@ -6863,7 +7176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="42" t="s">
         <v>177</v>
       </c>
@@ -6897,7 +7210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="55" t="s">
         <v>178</v>
       </c>
@@ -6931,7 +7244,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="43" t="s">
         <v>92</v>
       </c>
@@ -6968,7 +7281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="68" t="s">
         <v>98</v>
       </c>
@@ -6982,7 +7295,7 @@
       <c r="I138" s="17"/>
       <c r="J138" s="69"/>
     </row>
-    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="63" t="s">
         <v>179</v>
       </c>
@@ -7011,854 +7324,685 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D53AE0-DA50-4BFF-91F5-0F83D06C1B07}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:B66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14">
-        <f>'Masses and Volumes Old VC'!L41/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="14">
-        <v>8800</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1070</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="G2" s="29">
+        <v>20</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="G3" s="29">
+        <v>20</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="29">
+        <v>20</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="G5" s="29">
+        <v>15</v>
+      </c>
+      <c r="H5" s="29">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29">
+        <v>4</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="29">
+        <v>5</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>15</v>
+      </c>
+      <c r="H8" s="29">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="29">
+        <v>7</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="29">
+        <v>7</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="29">
+        <v>20</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="29">
+        <v>20</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="29">
+        <v>20</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="29">
+        <v>3</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="G16" s="29">
+        <v>10</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="29">
+        <v>4</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="29">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="29">
+        <v>5</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="29">
+        <v>4</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="29">
+        <v>5</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.08</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G22" s="29">
+        <v>8</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="29">
+        <v>7</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="B24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G24" s="29">
+        <v>10</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E25">
-        <f>D25*B25</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G25" t="s">
-        <v>195</v>
-      </c>
-      <c r="I25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="B25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G25" s="29">
+        <v>10</v>
+      </c>
+      <c r="H25" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26">
+        <v>311</v>
+      </c>
+      <c r="B26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="5">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26">
-        <v>0.48</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26:E27" si="0">D26*B26</f>
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27">
-        <v>0.01</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E31">
-        <f>D31*B31</f>
-        <v>0.21000000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32">
+      <c r="E26" s="5">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32">
-        <v>0.1</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ref="E32:E33" si="1">D32*B32</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34">
-        <v>0.01</v>
-      </c>
-      <c r="E34">
-        <f>D34*B34</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E37">
-        <f>D37*B37</f>
-        <v>0.21000000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ref="E38:E39" si="2">D38*B38</f>
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39">
-        <v>0.01</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="O41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E42">
-        <f>D42*B42</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43">
-        <v>1.51</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ref="E43:E44" si="3">D43*B43</f>
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44">
-        <v>0.01</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47">
-        <v>0.21</v>
-      </c>
-      <c r="E47">
-        <f>D47*B47</f>
-        <v>0.21</v>
-      </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ref="E48" si="4">D48*B48</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49">
-        <v>0.01</v>
-      </c>
-      <c r="E49">
-        <f>D49*B49</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52">
-        <v>0.91</v>
-      </c>
-      <c r="E52">
-        <f>D52*B52</f>
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ref="E53" si="5">D53*B53</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>186</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54">
-        <v>0.01</v>
-      </c>
-      <c r="E54">
-        <f>D54*B54</f>
-        <v>0.02</v>
-      </c>
-      <c r="H54" t="s">
-        <v>235</v>
-      </c>
-      <c r="I54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H55">
-        <v>24.88</v>
-      </c>
-      <c r="I55" t="s">
-        <v>237</v>
-      </c>
-      <c r="K55" s="67">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="M55" t="s">
-        <v>239</v>
-      </c>
-      <c r="O55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>222</v>
-      </c>
-      <c r="H56">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="I56" t="s">
-        <v>238</v>
-      </c>
-      <c r="K56" s="67">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="M56" t="s">
-        <v>240</v>
-      </c>
-      <c r="O56" t="s">
-        <v>242</v>
-      </c>
-      <c r="P56" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ref="E57" si="6">D57*B57</f>
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>217</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58">
-        <v>0.254</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ref="E58:E59" si="7">D58*B58</f>
-        <v>0.254</v>
-      </c>
-      <c r="F58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>186</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63">
-        <f>E58</f>
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64">
-        <f>E52+E47</f>
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65">
-        <f>E53+E48</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66">
-        <f>E54+E49</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70">
-        <v>0.21</v>
-      </c>
-      <c r="E70">
-        <f>D70*B70</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ref="E71" si="8">D71*B71</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72">
-        <v>0.01</v>
-      </c>
-      <c r="E72">
-        <f>D72*B72</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E76">
-        <f>D76*B76</f>
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>193</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ref="E77" si="9">D77*B77</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>186</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78">
-        <v>0.01</v>
-      </c>
-      <c r="E78">
-        <f>D78*B78</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>185</v>
-      </c>
-      <c r="B81">
-        <f>E76</f>
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>217</v>
-      </c>
-      <c r="B82">
-        <f>E70</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B83">
-        <f>E71+E77</f>
-        <v>0.21000000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B84">
-        <f>E72+E78</f>
-        <v>0.04</v>
+      <c r="F26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="29">
+        <v>20</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -7868,29 +8012,886 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14">
+        <f>'Masses and Volumes Old VC'!L41/1000/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="14">
+        <v>8800</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1070</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E25">
+        <f>D25*B25</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26">
+        <v>0.48</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E27" si="0">D26*B26</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27">
+        <v>0.01</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E31">
+        <f>D31*B31</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E33" si="1">D32*B32</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
+        <f>D34*B34</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E37">
+        <f>D37*B37</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E39" si="2">D38*B38</f>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39">
+        <v>0.01</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E42">
+        <f>D42*B42</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43">
+        <v>1.51</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E44" si="3">D43*B43</f>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44">
+        <v>0.01</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47">
+        <v>0.21</v>
+      </c>
+      <c r="E47">
+        <f>D47*B47</f>
+        <v>0.21</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="4">D48*B48</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49">
+        <v>0.01</v>
+      </c>
+      <c r="E49">
+        <f>D49*B49</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52">
+        <v>0.91</v>
+      </c>
+      <c r="E52">
+        <f>D52*B52</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="5">D53*B53</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54">
+        <v>0.01</v>
+      </c>
+      <c r="E54">
+        <f>D54*B54</f>
+        <v>0.02</v>
+      </c>
+      <c r="H54" t="s">
+        <v>235</v>
+      </c>
+      <c r="I54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>24.88</v>
+      </c>
+      <c r="I55" t="s">
+        <v>237</v>
+      </c>
+      <c r="K55" s="67">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="M55" t="s">
+        <v>239</v>
+      </c>
+      <c r="O55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="H56">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I56" t="s">
+        <v>238</v>
+      </c>
+      <c r="K56" s="67">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M56" t="s">
+        <v>240</v>
+      </c>
+      <c r="O56" t="s">
+        <v>242</v>
+      </c>
+      <c r="P56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57" si="6">D57*B57</f>
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58">
+        <v>0.254</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E59" si="7">D58*B58</f>
+        <v>0.254</v>
+      </c>
+      <c r="F58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63">
+        <f>E58</f>
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64">
+        <f>E52+E47</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65">
+        <f>E53+E48</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66">
+        <f>E54+E49</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70">
+        <v>0.21</v>
+      </c>
+      <c r="E70">
+        <f>D70*B70</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71" si="8">D71*B71</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72">
+        <v>0.01</v>
+      </c>
+      <c r="E72">
+        <f>D72*B72</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E76">
+        <f>D76*B76</f>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77" si="9">D77*B77</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78">
+        <v>0.01</v>
+      </c>
+      <c r="E78">
+        <f>D78*B78</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81">
+        <f>E76</f>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82">
+        <f>E70</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83">
+        <f>E71+E77</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84">
+        <f>E72+E78</f>
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -7922,7 +8923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -7935,7 +8936,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -7968,7 +8969,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -8003,7 +9004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -8039,7 +9040,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -8074,7 +9075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
@@ -8109,7 +9110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>78</v>
       </c>
@@ -8144,7 +9145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -8179,7 +9180,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
@@ -8210,7 +9211,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -8224,7 +9225,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -8257,7 +9258,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -8290,7 +9291,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -8323,7 +9324,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -8356,12 +9357,12 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -8384,7 +9385,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
@@ -8417,7 +9418,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -8450,12 +9451,12 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>145</v>
       </c>
@@ -8472,7 +9473,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
@@ -8500,7 +9501,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>55</v>
       </c>
@@ -8528,7 +9529,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>92</v>
       </c>
@@ -8550,12 +9551,12 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -8569,7 +9570,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -8600,7 +9601,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>47</v>
       </c>
@@ -8614,7 +9615,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>35</v>
       </c>
@@ -8648,7 +9649,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>36</v>
       </c>
@@ -8682,7 +9683,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -8718,7 +9719,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
@@ -8752,7 +9753,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>27</v>
       </c>
@@ -8769,7 +9770,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>38</v>
       </c>
@@ -8802,7 +9803,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>39</v>
       </c>
@@ -8836,7 +9837,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
@@ -8870,7 +9871,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="17"/>
@@ -8886,12 +9887,12 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>92</v>
       </c>
@@ -8911,7 +9912,7 @@
       </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H40" s="3"/>
     </row>
   </sheetData>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041057C-619F-47FC-B322-1D5207889C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7EC71-4B3C-4EE5-BD19-575C5C3DBEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="36" windowWidth="22992" windowHeight="12324" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="379">
   <si>
     <t>Material</t>
   </si>
@@ -906,9 +906,6 @@
     <t>Conductance G (W/K)</t>
   </si>
   <si>
-    <t>RθJC​ (°C/W)</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -1045,13 +1042,157 @@
   </si>
   <si>
     <t>HMC358MS8GE</t>
+  </si>
+  <si>
+    <t>Package Type</t>
+  </si>
+  <si>
+    <t>ΘJA (°C/W)</t>
+  </si>
+  <si>
+    <t>ΘJB (°C/W)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>10–20</t>
+  </si>
+  <si>
+    <t>Small plastic package; primary heat path through PCB.</t>
+  </si>
+  <si>
+    <t>5–15</t>
+  </si>
+  <si>
+    <t>SQFN016V4040 (4x4 mm)</t>
+  </si>
+  <si>
+    <t>5–10</t>
+  </si>
+  <si>
+    <t>100–150</t>
+  </si>
+  <si>
+    <t>Exposed pad enhances thermal performance.</t>
+  </si>
+  <si>
+    <t>Thin QFN with efficient heat dissipation.</t>
+  </si>
+  <si>
+    <t>120–180</t>
+  </si>
+  <si>
+    <t>10–15</t>
+  </si>
+  <si>
+    <t>Exposed pad directs heat to PCB.</t>
+  </si>
+  <si>
+    <t>LQFP-64</t>
+  </si>
+  <si>
+    <t>Larger package; better heat spreading.</t>
+  </si>
+  <si>
+    <t>Generic SMT; assume plastic package.</t>
+  </si>
+  <si>
+    <t>Leadless QFN with exposed pad.</t>
+  </si>
+  <si>
+    <t>Standard QFN thermal performance.</t>
+  </si>
+  <si>
+    <t>2–5</t>
+  </si>
+  <si>
+    <t>Larger package; better heat transfer.</t>
+  </si>
+  <si>
+    <t>Exposed pad for PCB heat transfer.</t>
+  </si>
+  <si>
+    <t>Tiny package (2x2mm); limited thermal paths.</t>
+  </si>
+  <si>
+    <t>Similar to TSSOP; plastic encapsulation.</t>
+  </si>
+  <si>
+    <t>60–120</t>
+  </si>
+  <si>
+    <t>Exposed pad benefits from 2s2p PCB.</t>
+  </si>
+  <si>
+    <t>80–120</t>
+  </si>
+  <si>
+    <t>Similar to QFN; benefits from 2s2p PCB.</t>
+  </si>
+  <si>
+    <t>40–80</t>
+  </si>
+  <si>
+    <t>Limited improvement due to plastic package.</t>
+  </si>
+  <si>
+    <t>Likely QFN; benefits from 2s2p PCB.</t>
+  </si>
+  <si>
+    <t>40–60</t>
+  </si>
+  <si>
+    <t>Moderate improvement in ΘJAΘJA​.</t>
+  </si>
+  <si>
+    <t>Improved ΘJAΘJA​ due to better heat spreading.</t>
+  </si>
+  <si>
+    <t>Exposed pad for low ΘJBΘJB​.</t>
+  </si>
+  <si>
+    <t>ΘJB1 (°C/W)</t>
+  </si>
+  <si>
+    <t>ΘJB2 (°C/W)</t>
+  </si>
+  <si>
+    <t>ΘJBEst (°C/W)</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/an/spra953d/spra953d.pdf?ts=1742435438606</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/en/resources/technical-articles/thermal-characterization-of-ic-packages.html</t>
+  </si>
+  <si>
+    <t>https://fscdn.rohm.com/en/products/databook/applinote/common/how_to_use_the_rth_and_thermal_characteristics_parameters_an-e.pdf</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Estimations using AI</t>
+  </si>
+  <si>
+    <t>Estimation 2</t>
+  </si>
+  <si>
+    <t>The highest resistance provided has been chosen, between the two of them.</t>
+  </si>
+  <si>
+    <t>Determining Theta_JB requieres extensive testing, not possible nor necessary.</t>
+  </si>
+  <si>
+    <t>UDC=User Defined Conductor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,6 +1257,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1358,7 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1495,6 +1643,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1602,55 +1764,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>726141</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>681317</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8415</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EABFAC-BF3B-4CC8-9045-976DB304130F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7862047" y="0"/>
-          <a:ext cx="4688541" cy="2339239"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4241,7 +4354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
@@ -7325,30 +7438,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D53AE0-DA50-4BFF-91F5-0F83D06C1B07}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" s="75" t="s">
         <v>261</v>
@@ -7362,19 +7478,29 @@
       <c r="F1" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="G1" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="H1" s="75" t="s">
+      <c r="G1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" s="75" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L1" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="82"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>265</v>
@@ -7388,19 +7514,26 @@
       <c r="F2" s="5">
         <v>0.45</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="5">
         <v>20</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I2" s="29">
+        <v>20</v>
+      </c>
+      <c r="J2" s="78">
+        <f>1/G2</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>265</v>
@@ -7414,19 +7547,26 @@
       <c r="F3" s="5">
         <v>0.45</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="5">
         <v>20</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="29">
+        <v>20</v>
+      </c>
+      <c r="J3" s="78">
+        <f t="shared" ref="J3:J26" si="0">1/G3</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>265</v>
@@ -7440,19 +7580,29 @@
       <c r="F4" s="5">
         <v>0.45</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="5">
         <v>20</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I4" s="29">
+        <v>20</v>
+      </c>
+      <c r="J4" s="78">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L4" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>266</v>
@@ -7466,19 +7616,29 @@
       <c r="F5" s="5">
         <v>0.91</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="5">
         <v>15</v>
       </c>
-      <c r="H5" s="29">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I5" s="29">
+        <v>15</v>
+      </c>
+      <c r="J5" s="78">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>267</v>
@@ -7492,19 +7652,29 @@
       <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" t="s">
+        <v>339</v>
+      </c>
+      <c r="I6" s="29">
+        <v>10</v>
+      </c>
+      <c r="J6" s="78">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>268</v>
@@ -7518,19 +7688,29 @@
       <c r="F7" s="5">
         <v>0.5</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" s="29">
+        <v>10</v>
+      </c>
+      <c r="J7" s="78">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>269</v>
@@ -7544,16 +7724,26 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="5">
         <v>15</v>
       </c>
-      <c r="H8" s="29">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I8" s="29">
+        <v>20</v>
+      </c>
+      <c r="J8" s="78">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
@@ -7562,13 +7752,15 @@
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
       <c r="H9" s="76"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="79"/>
+      <c r="J9" s="76"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>270</v>
@@ -7582,19 +7774,26 @@
       <c r="F10" s="5">
         <v>0.5</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="5">
         <v>7</v>
       </c>
-      <c r="H10" s="29">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>339</v>
+      </c>
+      <c r="I10" s="29">
+        <v>10</v>
+      </c>
+      <c r="J10" s="78">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>271</v>
@@ -7608,19 +7807,29 @@
       <c r="F11" s="5">
         <v>0.5</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="5">
         <v>7</v>
       </c>
-      <c r="H11" s="29">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="29">
+        <v>10</v>
+      </c>
+      <c r="J11" s="78">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L11" s="80" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>272</v>
@@ -7634,19 +7843,32 @@
       <c r="F12" s="5">
         <v>0.5</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="5">
         <v>20</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="29">
+        <v>20</v>
+      </c>
+      <c r="J12" s="78">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L12" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>272</v>
@@ -7660,19 +7882,30 @@
       <c r="F13" s="5">
         <v>0.5</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" s="29">
+        <v>20</v>
+      </c>
+      <c r="J13" s="78">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>272</v>
@@ -7686,19 +7919,32 @@
       <c r="F14" s="5">
         <v>0.5</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="5">
         <v>20</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="29">
+        <v>20</v>
+      </c>
+      <c r="J14" s="78">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L14" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>273</v>
@@ -7712,71 +7958,99 @@
       <c r="F15" s="5">
         <v>0.75</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="5">
         <v>3</v>
       </c>
-      <c r="H15" s="29">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="H15" t="s">
+        <v>339</v>
+      </c>
+      <c r="I15" s="29">
+        <v>10</v>
+      </c>
+      <c r="J15" s="78">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L15" s="83"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="29">
         <v>10</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="29">
         <v>10</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="29">
         <v>1.6</v>
       </c>
       <c r="G16" s="29">
         <v>10</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" s="29">
+        <v>15</v>
+      </c>
+      <c r="J16" s="78">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="29">
         <v>4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="29">
         <v>4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="29">
         <v>0.5</v>
       </c>
       <c r="G17" s="29">
         <v>4</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I17" s="29">
+        <v>10</v>
+      </c>
+      <c r="J17" s="78">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>276</v>
@@ -7790,19 +8064,30 @@
       <c r="F18" s="5">
         <v>0.5</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="5">
         <v>5</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" t="s">
+        <v>335</v>
+      </c>
+      <c r="I18" s="29">
+        <v>20</v>
+      </c>
+      <c r="J18" s="78">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>277</v>
@@ -7816,19 +8101,26 @@
       <c r="F19" s="5">
         <v>0.5</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="5">
         <v>5</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" t="s">
+        <v>339</v>
+      </c>
+      <c r="I19" s="29">
+        <v>10</v>
+      </c>
+      <c r="J19" s="78">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>278</v>
@@ -7842,19 +8134,26 @@
       <c r="F20" s="5">
         <v>0.5</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="5">
         <v>4</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" t="s">
+        <v>339</v>
+      </c>
+      <c r="I20" s="29">
+        <v>10</v>
+      </c>
+      <c r="J20" s="78">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>279</v>
@@ -7868,19 +8167,26 @@
       <c r="F21" s="5">
         <v>0.5</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="5">
         <v>5</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" t="s">
+        <v>339</v>
+      </c>
+      <c r="I21" s="29">
+        <v>10</v>
+      </c>
+      <c r="J21" s="78">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>280</v>
@@ -7894,19 +8200,26 @@
       <c r="F22" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="5">
         <v>8</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I22" s="29">
+        <v>5</v>
+      </c>
+      <c r="J22" s="78">
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>281</v>
@@ -7920,19 +8233,26 @@
       <c r="F23" s="5">
         <v>0.5</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="5">
         <v>7</v>
       </c>
-      <c r="H23" s="29">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>339</v>
+      </c>
+      <c r="I23" s="29">
+        <v>10</v>
+      </c>
+      <c r="J23" s="78">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>282</v>
@@ -7946,19 +8266,26 @@
       <c r="F24" s="5">
         <v>0.89</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="5">
         <v>10</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" t="s">
+        <v>335</v>
+      </c>
+      <c r="I24" s="29">
+        <v>20</v>
+      </c>
+      <c r="J24" s="78">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>282</v>
@@ -7972,19 +8299,26 @@
       <c r="F25" s="5">
         <v>0.89</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="5">
         <v>10</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" t="s">
+        <v>335</v>
+      </c>
+      <c r="I25" s="29">
+        <v>20</v>
+      </c>
+      <c r="J25" s="78">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>283</v>
@@ -7998,16 +8332,532 @@
       <c r="F26" s="5">
         <v>0.5</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="5">
         <v>20</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" t="s">
+        <v>344</v>
+      </c>
+      <c r="I26" s="29">
+        <v>15</v>
+      </c>
+      <c r="J26" s="78">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>375</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L30" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" t="s">
+        <v>335</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" t="s">
+        <v>335</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" t="s">
+        <v>335</v>
+      </c>
+      <c r="K34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" t="s">
+        <v>337</v>
+      </c>
+      <c r="K35" t="s">
+        <v>338</v>
+      </c>
+      <c r="L35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D36" t="s">
+        <v>339</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" t="s">
+        <v>358</v>
+      </c>
+      <c r="D39" t="s">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>272</v>
+      </c>
+      <c r="L40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s">
+        <v>272</v>
+      </c>
+      <c r="L41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" t="s">
+        <v>340</v>
+      </c>
+      <c r="D42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>272</v>
+      </c>
+      <c r="L42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" t="s">
+        <v>344</v>
+      </c>
+      <c r="K43" t="s">
+        <v>273</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>346</v>
+      </c>
+      <c r="L44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" t="s">
+        <v>360</v>
+      </c>
+      <c r="D45" t="s">
+        <v>337</v>
+      </c>
+      <c r="K45" t="s">
+        <v>275</v>
+      </c>
+      <c r="L45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>322</v>
+      </c>
+      <c r="B46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" t="s">
+        <v>339</v>
+      </c>
+      <c r="K46" t="s">
+        <v>276</v>
+      </c>
+      <c r="L46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47" t="s">
+        <v>335</v>
+      </c>
+      <c r="K47" t="s">
+        <v>277</v>
+      </c>
+      <c r="L47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" t="s">
+        <v>356</v>
+      </c>
+      <c r="D48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>278</v>
+      </c>
+      <c r="L48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" t="s">
+        <v>279</v>
+      </c>
+      <c r="L49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s">
+        <v>280</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" t="s">
+        <v>363</v>
+      </c>
+      <c r="D51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>281</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>328</v>
+      </c>
+      <c r="B52" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" t="s">
+        <v>358</v>
+      </c>
+      <c r="D52" t="s">
+        <v>339</v>
+      </c>
+      <c r="K52" t="s">
+        <v>282</v>
+      </c>
+      <c r="L52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" t="s">
+        <v>335</v>
+      </c>
+      <c r="K53" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" t="s">
+        <v>335</v>
+      </c>
+      <c r="K54" t="s">
+        <v>283</v>
+      </c>
+      <c r="L54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>330</v>
+      </c>
+      <c r="B55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" t="s">
+        <v>340</v>
+      </c>
+      <c r="D55" t="s">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L14:L15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8016,7 +8866,7 @@
   <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:B66"/>
+      <selection activeCell="G64" sqref="G63:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7EC71-4B3C-4EE5-BD19-575C5C3DBEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF3367-98FA-47D3-845E-B530EEC4B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="36" windowWidth="22992" windowHeight="12324" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Properties PCBs" sheetId="10" r:id="rId3"/>
     <sheet name="Bulks" sheetId="6" r:id="rId4"/>
     <sheet name="UDC" sheetId="11" r:id="rId5"/>
-    <sheet name="Extra" sheetId="9" r:id="rId6"/>
-    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId7"/>
+    <sheet name="Conductances" sheetId="12" r:id="rId6"/>
+    <sheet name="Extra" sheetId="9" r:id="rId7"/>
+    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -7440,7 +7441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D53AE0-DA50-4BFF-91F5-0F83D06C1B07}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:J21"/>
     </sheetView>
   </sheetViews>
@@ -8862,6 +8863,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22733B97-020B-4F8D-AA6D-CE76BADDD329}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
@@ -9718,7 +9731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive\Documentos\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EF3367-98FA-47D3-845E-B530EEC4B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="30" windowWidth="22995" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -18,16 +17,15 @@
     <sheet name="Properties PCBs" sheetId="10" r:id="rId3"/>
     <sheet name="Bulks" sheetId="6" r:id="rId4"/>
     <sheet name="UDC" sheetId="11" r:id="rId5"/>
-    <sheet name="Conductances" sheetId="12" r:id="rId6"/>
-    <sheet name="Extra" sheetId="9" r:id="rId7"/>
-    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId8"/>
+    <sheet name="Extra" sheetId="9" r:id="rId6"/>
+    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="378">
   <si>
     <t>Material</t>
   </si>
@@ -826,9 +824,6 @@
     <t>Black Coat</t>
   </si>
   <si>
-    <t>Optical</t>
-  </si>
-  <si>
     <t>LiPo Battery*</t>
   </si>
   <si>
@@ -1192,7 +1187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1507,7 +1502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1652,15 +1647,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1784,7 +1790,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciacp.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1851,7 @@
         <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciaip.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,15 +1898,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F21"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Material" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IR Emissivity (εIR)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Solar Absorptivity (αs)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
+    <tableColumn id="1" name="Material" dataDxfId="5"/>
+    <tableColumn id="2" name="IR Emissivity (εIR)" dataDxfId="4"/>
+    <tableColumn id="3" name="Solar Absorptivity (αs)" dataDxfId="3"/>
+    <tableColumn id="4" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
+    <tableColumn id="5" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
+    <tableColumn id="6" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1982,23 +1988,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2034,23 +2023,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2226,26 +2198,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2257,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2305,7 +2277,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2325,7 +2297,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2365,7 +2337,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2385,7 +2357,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2405,7 +2377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2425,7 +2397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2417,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2465,9 +2437,9 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="7">
         <v>0.3</v>
@@ -2485,7 +2457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2505,7 +2477,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +2497,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2545,7 +2517,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2565,7 +2537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2585,63 +2557,77 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B20">
+      <c r="B18">
         <v>0.94</v>
       </c>
-      <c r="C20">
+      <c r="C18">
         <v>0.19</v>
       </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19">
+        <v>0.94</v>
+      </c>
+      <c r="C19">
+        <v>0.96</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21">
-        <v>0.94</v>
-      </c>
-      <c r="C21">
-        <v>0.96</v>
-      </c>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I22" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
     </row>
   </sheetData>
@@ -2654,29 +2640,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2708,7 +2694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -2724,7 +2710,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -2757,7 +2743,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -2790,7 +2776,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -2823,7 +2809,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>156</v>
       </c>
@@ -2856,7 +2842,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>157</v>
       </c>
@@ -2889,7 +2875,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>158</v>
       </c>
@@ -2922,7 +2908,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>167</v>
       </c>
@@ -2955,7 +2941,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
@@ -2988,7 +2974,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
@@ -3019,7 +3005,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -3033,7 +3019,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -3066,7 +3052,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -3099,7 +3085,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -3132,7 +3118,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -3165,12 +3151,12 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -3187,7 +3173,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -3220,7 +3206,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -3253,12 +3239,12 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>136</v>
       </c>
@@ -3272,7 +3258,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>160</v>
       </c>
@@ -3307,7 +3293,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
@@ -3342,7 +3328,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>92</v>
       </c>
@@ -3366,12 +3352,12 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
@@ -3385,7 +3371,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>44</v>
       </c>
@@ -3416,7 +3402,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>47</v>
       </c>
@@ -3430,7 +3416,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>35</v>
       </c>
@@ -3464,7 +3450,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>36</v>
       </c>
@@ -3498,7 +3484,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3534,7 +3520,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>57</v>
       </c>
@@ -3568,7 +3554,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
@@ -3585,7 +3571,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
@@ -3618,7 +3604,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -3652,7 +3638,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
@@ -3686,7 +3672,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="17"/>
@@ -3702,12 +3688,12 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>92</v>
       </c>
@@ -3727,19 +3713,19 @@
       </c>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
@@ -3750,30 +3736,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1"/>
-    <col min="12" max="12" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3802,7 +3788,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3835,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -3868,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>209</v>
       </c>
@@ -3901,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>198</v>
       </c>
@@ -3937,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>217</v>
       </c>
@@ -3970,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>202</v>
       </c>
@@ -3991,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>64</v>
       </c>
@@ -4012,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>220</v>
       </c>
@@ -4033,7 +4019,7 @@
         <v>0.11633470148314154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>223</v>
       </c>
@@ -4054,8 +4040,8 @@
         <v>0.14107548598838676</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>197</v>
       </c>
@@ -4081,7 +4067,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -4097,20 +4083,20 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="92">
         <f t="shared" ref="F16:F24" si="4">(B16*$B$2*$C$2+C16*$B$3*$C$3+D16*$B$5*$C$5+E16*$B$6*$C$6)/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>940.29816397754291</v>
       </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G24" si="5">1/(G2/$D$2+H2/$D$4+I2/$D$5+J2/$D$6)</f>
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H24" si="6">(B16*$D$2+C16*$D$3+D16*$D$5+E16*$D$6)*(B16+C16+D16+E16)</f>
+      <c r="G16" s="92">
+        <f>1/(B16/$D$2+C16/$D$4+D16/$D$5+E16/$D$6)*(B16+C16+D16+E16)</f>
+        <v>0.31583930722281617</v>
+      </c>
+      <c r="H16" s="92">
+        <f t="shared" ref="H16:H24" si="5">(B16*$D$2+C16*$D$3+D16*$D$5+E16*$D$6)*(B16+C16+D16+E16)</f>
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4126,20 +4112,20 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="92">
         <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="92">
+        <f t="shared" ref="G17:G24" si="6">1/(B17/$D$2+C17/$D$4+D17/$D$5+E17/$D$6)*(B17+C17+D17+E17)</f>
+        <v>0.31583930722281617</v>
+      </c>
+      <c r="H17" s="92">
         <f t="shared" si="5"/>
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -4155,20 +4141,20 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="92">
         <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="92">
+        <f t="shared" si="6"/>
+        <v>0.31583930722281617</v>
+      </c>
+      <c r="H18" s="92">
         <f t="shared" si="5"/>
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -4184,20 +4170,20 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="92">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="92">
+        <f t="shared" si="6"/>
+        <v>0.32237405144561837</v>
+      </c>
+      <c r="H19" s="92">
         <f t="shared" si="5"/>
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="6"/>
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -4213,20 +4199,20 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="92">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="92">
+        <f t="shared" si="6"/>
+        <v>0.32237405144561837</v>
+      </c>
+      <c r="H20" s="92">
         <f t="shared" si="5"/>
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="6"/>
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -4242,20 +4228,20 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="92">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="92">
+        <f t="shared" si="6"/>
+        <v>0.32237405144561837</v>
+      </c>
+      <c r="H21" s="92">
         <f t="shared" si="5"/>
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="6"/>
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -4271,20 +4257,20 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="92">
         <f t="shared" si="4"/>
         <v>1050.3855606314694</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="92">
+        <f t="shared" si="6"/>
+        <v>0.30148453519157836</v>
+      </c>
+      <c r="H22" s="92">
         <f t="shared" si="5"/>
-        <v>0.35168669699040533</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="6"/>
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -4300,20 +4286,20 @@
       <c r="E23">
         <v>0.21</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="92">
         <f t="shared" si="4"/>
         <v>783.19706393372451</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="92">
+        <f t="shared" si="6"/>
+        <v>0.31347382420811998</v>
+      </c>
+      <c r="H23" s="92">
         <f t="shared" si="5"/>
-        <v>0.49190487192846383</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="6"/>
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -4329,20 +4315,20 @@
       <c r="E24">
         <v>0.254</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="92">
         <f t="shared" si="4"/>
         <v>904.86619540520076</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="92">
+        <f t="shared" si="6"/>
+        <v>0.29142496305131627</v>
+      </c>
+      <c r="H24" s="92">
         <f t="shared" si="5"/>
-        <v>0.38300309109725139</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="6"/>
         <v>88.525164000000032</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="3"/>
     </row>
   </sheetData>
@@ -4352,28 +4338,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>88</v>
       </c>
@@ -4381,7 +4367,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>97</v>
       </c>
@@ -4411,7 +4397,7 @@
       </c>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>92</v>
       </c>
@@ -4428,7 +4414,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="85">
         <v>4.5600000000000001E-7</v>
       </c>
       <c r="G3" s="45">
@@ -4442,7 +4428,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>98</v>
       </c>
@@ -4450,12 +4436,12 @@
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>99</v>
       </c>
@@ -4463,7 +4449,7 @@
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
-      <c r="F5" s="39">
+      <c r="F5" s="87">
         <v>4.5600000000000001E-7</v>
       </c>
       <c r="G5" s="39">
@@ -4476,8 +4462,8 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>89</v>
       </c>
@@ -4493,7 +4479,7 @@
       <c r="E9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G9" s="31" t="s">
@@ -4509,7 +4495,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>90</v>
       </c>
@@ -4527,7 +4513,7 @@
         <f>C10/C12</f>
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G10">
@@ -4544,7 +4530,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>91</v>
       </c>
@@ -4560,7 +4546,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G11">
@@ -4576,7 +4562,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>92</v>
       </c>
@@ -4595,7 +4581,7 @@
         <f>SUM(E10:E11)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="90">
         <v>6.6560000000000003E-6</v>
       </c>
       <c r="G12" s="39">
@@ -4613,8 +4599,13 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="89"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>225</v>
       </c>
@@ -4630,7 +4621,7 @@
       <c r="E15" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G15" s="31" t="s">
@@ -4646,7 +4637,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>224</v>
       </c>
@@ -4663,7 +4654,7 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G16" t="s">
@@ -4679,13 +4670,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>95</v>
       </c>
+      <c r="F17" s="89"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>226</v>
       </c>
@@ -4702,7 +4694,7 @@
         <f>F18/($F$18+$F$19+$F$20+$F$21)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="89">
         <v>1.3312000000000001E-6</v>
       </c>
       <c r="G18">
@@ -4718,7 +4710,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>227</v>
       </c>
@@ -4735,7 +4727,7 @@
         <f t="shared" ref="E19:E21" si="0">F19/($F$18+$F$19+$F$20+$F$21)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="89">
         <v>1.3312000000000001E-6</v>
       </c>
       <c r="G19">
@@ -4751,7 +4743,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>228</v>
       </c>
@@ -4768,7 +4760,7 @@
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="89">
         <v>8.1920000000000003E-7</v>
       </c>
       <c r="G20">
@@ -4784,7 +4776,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>229</v>
       </c>
@@ -4801,7 +4793,7 @@
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="89">
         <v>8.1920000000000003E-7</v>
       </c>
       <c r="G21">
@@ -4817,7 +4809,7 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>92</v>
       </c>
@@ -4835,7 +4827,7 @@
         <f>SUM(E18:E21)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="90">
         <f>SUM(F18:F21)</f>
         <v>4.3008000000000004E-6</v>
       </c>
@@ -4853,11 +4845,14 @@
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F23" s="89"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="89"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>100</v>
       </c>
@@ -4873,7 +4868,7 @@
       <c r="E25" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="31" t="s">
@@ -4890,7 +4885,7 @@
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>101</v>
       </c>
@@ -4908,7 +4903,7 @@
         <f>C26/C28</f>
         <v>0.96078431372549011</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G26">
@@ -4924,7 +4919,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>91</v>
       </c>
@@ -4942,7 +4937,7 @@
         <f>C27/C28</f>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G27">
@@ -4958,7 +4953,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>92</v>
       </c>
@@ -4977,7 +4972,7 @@
         <f>SUM(E26:E27)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="89">
         <v>4.6079999999999998E-6</v>
       </c>
       <c r="G28" s="44">
@@ -4994,7 +4989,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="68" t="s">
         <v>98</v>
       </c>
@@ -5002,13 +4997,13 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="69"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>122</v>
       </c>
@@ -5022,7 +5017,7 @@
         <f>SUM(E28:E29)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="89">
         <v>4.6079999999999998E-6</v>
       </c>
       <c r="G30" s="44">
@@ -5038,7 +5033,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="54" t="s">
         <v>121</v>
       </c>
@@ -5052,7 +5047,7 @@
       <c r="E31" s="38">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="90">
         <v>4.6079999999999998E-6</v>
       </c>
       <c r="G31" s="39">
@@ -5068,11 +5063,14 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F32" s="89"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="89"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>102</v>
       </c>
@@ -5088,7 +5086,7 @@
       <c r="E34" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G34" s="31" t="s">
@@ -5105,7 +5103,7 @@
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>105</v>
       </c>
@@ -5123,7 +5121,7 @@
         <f>C35/C37</f>
         <v>0.94230769230769229</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G35">
@@ -5139,7 +5137,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>103</v>
       </c>
@@ -5157,7 +5155,7 @@
         <f>C36/C37</f>
         <v>5.7692307692307689E-2</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G36">
@@ -5173,7 +5171,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>92</v>
       </c>
@@ -5192,7 +5190,7 @@
         <f>SUM(E35:E36)</f>
         <v>1</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="90">
         <v>4.6079999999999998E-6</v>
       </c>
       <c r="G37" s="49">
@@ -5209,8 +5207,13 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F38" s="89"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="89"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>104</v>
       </c>
@@ -5226,7 +5229,7 @@
       <c r="E40" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G40" s="31" t="s">
@@ -5243,7 +5246,7 @@
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
         <v>106</v>
       </c>
@@ -5261,7 +5264,7 @@
         <f>C41/C43</f>
         <v>1.0757575757575757</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G41">
@@ -5277,7 +5280,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>91</v>
       </c>
@@ -5295,7 +5298,7 @@
         <f>C42/C43</f>
         <v>0</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G42">
@@ -5311,7 +5314,7 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>92</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>6.6E-3</v>
       </c>
       <c r="E43" s="38"/>
-      <c r="F43" s="38">
+      <c r="F43" s="90">
         <v>4.0500000000000002E-6</v>
       </c>
       <c r="G43" s="39">
@@ -5343,8 +5346,13 @@
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F44" s="89"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="89"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>107</v>
       </c>
@@ -5360,7 +5368,7 @@
       <c r="E46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G46" s="31" t="s">
@@ -5376,7 +5384,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
         <v>110</v>
       </c>
@@ -5394,7 +5402,7 @@
         <f>D47/$D$49</f>
         <v>0.7</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G47">
@@ -5410,7 +5418,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
         <v>91</v>
       </c>
@@ -5425,7 +5433,7 @@
         <f>D48/$D$49</f>
         <v>0.3</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G48">
@@ -5441,7 +5449,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>92</v>
       </c>
@@ -5458,7 +5466,7 @@
         <f>SUM(E47:E48)</f>
         <v>1</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="90">
         <v>2.5600000000000001E-6</v>
       </c>
       <c r="G49" s="39">
@@ -5475,8 +5483,13 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="89"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="89"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
         <v>108</v>
       </c>
@@ -5492,7 +5505,7 @@
       <c r="E52" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G52" s="31" t="s">
@@ -5508,7 +5521,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
         <v>111</v>
       </c>
@@ -5526,7 +5539,7 @@
         <f>D53/D55</f>
         <v>0.77464788732394363</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G53">
@@ -5542,7 +5555,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>91</v>
       </c>
@@ -5557,7 +5570,7 @@
         <f>D54/$D$55</f>
         <v>0.22535211267605637</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G54">
@@ -5573,7 +5586,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
         <v>92</v>
       </c>
@@ -5590,7 +5603,7 @@
         <f>SUM(E53:E54)</f>
         <v>1</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="90">
         <v>2.5600000000000001E-6</v>
       </c>
       <c r="G55" s="39">
@@ -5607,8 +5620,13 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="89"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="89"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="51" t="s">
         <v>109</v>
       </c>
@@ -5624,7 +5642,7 @@
       <c r="E58" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G58" s="31" t="s">
@@ -5640,7 +5658,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
         <v>112</v>
       </c>
@@ -5658,7 +5676,7 @@
         <f>D59/$D$61</f>
         <v>0.77142857142857146</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G59">
@@ -5674,7 +5692,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
         <v>91</v>
       </c>
@@ -5689,7 +5707,7 @@
         <f>D60/$D$61</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G60">
@@ -5705,7 +5723,7 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="37" t="s">
         <v>92</v>
       </c>
@@ -5722,7 +5740,7 @@
         <f>SUM(E59:E60)</f>
         <v>1</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="90">
         <v>2.5600000000000001E-6</v>
       </c>
       <c r="G61" s="39">
@@ -5739,8 +5757,13 @@
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="89"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="89"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="51" t="s">
         <v>113</v>
       </c>
@@ -5756,7 +5779,7 @@
       <c r="E64" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G64" s="31" t="s">
@@ -5772,7 +5795,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
         <v>181</v>
       </c>
@@ -5789,7 +5812,7 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G65">
@@ -5805,7 +5828,7 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>92</v>
       </c>
@@ -5819,7 +5842,7 @@
       <c r="E66" s="38">
         <v>1</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="90">
         <v>2.5600000000000001E-6</v>
       </c>
       <c r="G66" s="39">
@@ -5836,8 +5859,13 @@
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F67" s="89"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="89"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="51" t="s">
         <v>114</v>
       </c>
@@ -5853,7 +5881,7 @@
       <c r="E69" s="31">
         <v>1</v>
       </c>
-      <c r="F69" s="31" t="s">
+      <c r="F69" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G69" s="31" t="s">
@@ -5870,7 +5898,7 @@
       </c>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
         <v>115</v>
       </c>
@@ -5884,12 +5912,12 @@
         <f>C70/1000</f>
         <v>7.6E-3</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="89" t="s">
         <v>23</v>
       </c>
       <c r="J70" s="35"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
         <v>69</v>
       </c>
@@ -5903,12 +5931,12 @@
         <f t="shared" ref="D71:D73" si="2">C71/1000</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="89" t="s">
         <v>23</v>
       </c>
       <c r="J71" s="35"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
         <v>91</v>
       </c>
@@ -5916,12 +5944,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="89" t="s">
         <v>23</v>
       </c>
       <c r="J72" s="35"/>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
         <v>92</v>
       </c>
@@ -5935,7 +5963,7 @@
         <v>8.2999999999999984E-3</v>
       </c>
       <c r="E73" s="38"/>
-      <c r="F73" s="38">
+      <c r="F73" s="90">
         <v>2.5600000000000001E-6</v>
       </c>
       <c r="G73" s="39">
@@ -5952,10 +5980,11 @@
         <v>88.525164000000032</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F74" s="89"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
         <v>126</v>
       </c>
@@ -5971,7 +6000,7 @@
       <c r="E75" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="88" t="s">
         <v>215</v>
       </c>
       <c r="G75" s="31" t="s">
@@ -5987,7 +6016,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>92</v>
       </c>
@@ -6000,7 +6029,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="E76" s="38"/>
-      <c r="F76" s="38">
+      <c r="F76" s="90">
         <v>4.2999999999999999E-4</v>
       </c>
       <c r="G76" s="57">
@@ -6017,10 +6046,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F77" s="89"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>168</v>
       </c>
@@ -6036,7 +6066,7 @@
       <c r="E78" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G78" s="31" t="s">
@@ -6052,7 +6082,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
         <v>128</v>
       </c>
@@ -6071,7 +6101,7 @@
         <f>D79/D88</f>
         <v>0.92407207762205446</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G79" t="s">
@@ -6087,7 +6117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
         <v>250</v>
       </c>
@@ -6106,6 +6136,7 @@
         <f>D80/D88</f>
         <v>7.5927922377945462E-2</v>
       </c>
+      <c r="F80" s="89"/>
       <c r="G80" t="s">
         <v>23</v>
       </c>
@@ -6119,13 +6150,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
         <v>169</v>
       </c>
+      <c r="F81" s="89"/>
       <c r="J81" s="35"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
         <v>170</v>
       </c>
@@ -6135,7 +6167,7 @@
       <c r="C82" t="s">
         <v>23</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="89">
         <v>3.1203999999999998E-6</v>
       </c>
       <c r="G82">
@@ -6151,7 +6183,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
         <v>171</v>
       </c>
@@ -6161,7 +6193,7 @@
       <c r="C83" t="s">
         <v>23</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="89">
         <v>1.52E-5</v>
       </c>
       <c r="G83">
@@ -6177,7 +6209,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
         <v>172</v>
       </c>
@@ -6187,7 +6219,7 @@
       <c r="C84" t="s">
         <v>23</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="89">
         <v>3.3600000000000003E-8</v>
       </c>
       <c r="G84">
@@ -6203,7 +6235,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
         <v>173</v>
       </c>
@@ -6213,7 +6245,7 @@
       <c r="C85" t="s">
         <v>23</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="89">
         <v>1.92E-8</v>
       </c>
       <c r="G85">
@@ -6229,7 +6261,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="68" t="s">
         <v>98</v>
       </c>
@@ -6237,16 +6269,17 @@
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
+      <c r="F86" s="86"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="69"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
         <v>174</v>
       </c>
+      <c r="F87" s="89"/>
       <c r="G87">
         <v>1401.4979818256384</v>
       </c>
@@ -6260,7 +6293,7 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="37" t="s">
         <v>92</v>
       </c>
@@ -6274,7 +6307,7 @@
         <v>2.5972000000000002E-2</v>
       </c>
       <c r="E88" s="38"/>
-      <c r="F88" s="38">
+      <c r="F88" s="90">
         <f>F82+F83+F84*4+F85*4</f>
         <v>1.8531600000000001E-5</v>
       </c>
@@ -6295,12 +6328,22 @@
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F89" s="89"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F90" s="89"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F91" s="89"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="60" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F92" s="89"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="59" t="s">
         <v>117</v>
       </c>
@@ -6316,7 +6359,7 @@
       <c r="E93" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="F93" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G93" s="31" t="s">
@@ -6332,7 +6375,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
         <v>92</v>
       </c>
@@ -6346,7 +6389,7 @@
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="89">
         <v>3.96E-7</v>
       </c>
       <c r="G94" s="44">
@@ -6363,7 +6406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="68" t="s">
         <v>98</v>
       </c>
@@ -6371,13 +6414,13 @@
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
+      <c r="F95" s="86"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="69"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>116</v>
       </c>
@@ -6391,6 +6434,7 @@
       <c r="E96">
         <v>1</v>
       </c>
+      <c r="F96" s="89"/>
       <c r="G96" s="44">
         <v>2272.7272727272725</v>
       </c>
@@ -6404,7 +6448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
         <v>118</v>
       </c>
@@ -6418,6 +6462,7 @@
       <c r="E97">
         <v>1</v>
       </c>
+      <c r="F97" s="89"/>
       <c r="G97" s="44">
         <v>2272.7272727272725</v>
       </c>
@@ -6431,7 +6476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>119</v>
       </c>
@@ -6445,6 +6490,7 @@
       <c r="E98">
         <v>1</v>
       </c>
+      <c r="F98" s="89"/>
       <c r="G98" s="44">
         <v>2272.7272727272725</v>
       </c>
@@ -6458,7 +6504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="47" t="s">
         <v>120</v>
       </c>
@@ -6473,7 +6519,7 @@
       <c r="E99" s="38">
         <v>1</v>
       </c>
-      <c r="F99" s="38"/>
+      <c r="F99" s="90"/>
       <c r="G99" s="39">
         <v>2272.7272727272725</v>
       </c>
@@ -6487,8 +6533,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="89"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="59" t="s">
         <v>123</v>
       </c>
@@ -6504,7 +6552,7 @@
       <c r="E101" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="31" t="s">
+      <c r="F101" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G101" s="31" t="s">
@@ -6521,7 +6569,7 @@
       </c>
       <c r="K101" s="22"/>
     </row>
-    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="37" t="s">
         <v>92</v>
       </c>
@@ -6534,7 +6582,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E102" s="38"/>
-      <c r="F102" s="38">
+      <c r="F102" s="90">
         <v>1.216E-5</v>
       </c>
       <c r="G102" s="39">
@@ -6551,15 +6599,22 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F103" s="89"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F104" s="89"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>53</v>
       </c>
+      <c r="F105" s="89"/>
       <c r="I105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>124</v>
       </c>
@@ -6575,7 +6630,7 @@
       <c r="E106" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G106" s="31" t="s">
@@ -6591,7 +6646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
         <v>54</v>
       </c>
@@ -6609,7 +6664,7 @@
         <f>D107/$D$109</f>
         <v>0.44827586206896552</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G107" s="7">
@@ -6625,7 +6680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
         <v>55</v>
       </c>
@@ -6643,7 +6698,7 @@
         <f>D108/$D$109</f>
         <v>0.55172413793103459</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G108" s="7">
@@ -6659,7 +6714,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
         <v>92</v>
       </c>
@@ -6675,7 +6730,7 @@
         <f>SUM(E107:E108)</f>
         <v>1</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="89">
         <v>2.8980000000000001E-7</v>
       </c>
       <c r="G109" s="44">
@@ -6695,7 +6750,7 @@
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="68" t="s">
         <v>98</v>
       </c>
@@ -6703,13 +6758,13 @@
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
+      <c r="F110" s="86"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="69"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="47" t="s">
         <v>125</v>
       </c>
@@ -6717,7 +6772,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
+      <c r="F111" s="90"/>
       <c r="G111" s="39">
         <v>2501.7253278122839</v>
       </c>
@@ -6731,12 +6786,19 @@
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F112" s="89"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F113" s="89"/>
+    </row>
+    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F114" s="89"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>127</v>
       </c>
@@ -6752,7 +6814,7 @@
       <c r="E115" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="F115" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G115" s="31" t="s">
@@ -6769,7 +6831,7 @@
       </c>
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="34" t="s">
         <v>128</v>
       </c>
@@ -6786,7 +6848,7 @@
       <c r="E116">
         <v>1</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G116" s="7" t="s">
@@ -6803,13 +6865,14 @@
       </c>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
         <v>130</v>
       </c>
+      <c r="F117" s="89"/>
       <c r="J117" s="35"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="62" t="s">
         <v>131</v>
       </c>
@@ -6825,7 +6888,7 @@
       <c r="E118" t="s">
         <v>23</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="89">
         <v>2.6599999999999999E-6</v>
       </c>
       <c r="G118" s="44">
@@ -6842,7 +6905,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="62" t="s">
         <v>132</v>
       </c>
@@ -6858,7 +6921,7 @@
       <c r="E119" t="s">
         <v>23</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="89">
         <v>7.9800000000000003E-7</v>
       </c>
       <c r="G119" s="44">
@@ -6875,7 +6938,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="62" t="s">
         <v>133</v>
       </c>
@@ -6891,7 +6954,7 @@
       <c r="E120" t="s">
         <v>23</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="89">
         <v>7.9800000000000003E-7</v>
       </c>
       <c r="G120" s="44">
@@ -6908,7 +6971,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="62" t="s">
         <v>134</v>
       </c>
@@ -6924,7 +6987,7 @@
       <c r="E121" t="s">
         <v>23</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="89">
         <v>2.9440000000000001E-6</v>
       </c>
       <c r="G121" s="44">
@@ -6941,7 +7004,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="62" t="s">
         <v>129</v>
       </c>
@@ -6957,7 +7020,7 @@
       <c r="E122" t="s">
         <v>23</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="89">
         <v>2.9440000000000001E-6</v>
       </c>
       <c r="G122" s="44">
@@ -6974,7 +7037,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="62" t="s">
         <v>135</v>
       </c>
@@ -6990,7 +7053,7 @@
       <c r="E123" t="s">
         <v>23</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="89">
         <v>5.2440000000000001E-6</v>
       </c>
       <c r="G123" s="44">
@@ -7007,7 +7070,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="70" t="s">
         <v>252</v>
       </c>
@@ -7025,7 +7088,7 @@
       <c r="E124">
         <v>1</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="89">
         <v>1.3E-7</v>
       </c>
       <c r="G124" s="44">
@@ -7042,7 +7105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="71" t="s">
         <v>51</v>
       </c>
@@ -7061,12 +7124,13 @@
         <f>D125/D124</f>
         <v>8.1179999163221545E-4</v>
       </c>
+      <c r="F125" s="89"/>
       <c r="G125" s="72"/>
       <c r="H125" s="73"/>
       <c r="I125" s="73"/>
       <c r="J125" s="74"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="62" t="s">
         <v>255</v>
       </c>
@@ -7085,12 +7149,13 @@
         <f>D126/D124</f>
         <v>0.99918820000836783</v>
       </c>
+      <c r="F126" s="89"/>
       <c r="G126" s="72"/>
       <c r="H126" s="73"/>
       <c r="I126" s="73"/>
       <c r="J126" s="74"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="62" t="s">
         <v>251</v>
       </c>
@@ -7106,7 +7171,7 @@
       <c r="E127" t="s">
         <v>23</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="89">
         <v>1.3E-7</v>
       </c>
       <c r="G127" s="44">
@@ -7122,7 +7187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="62" t="s">
         <v>254</v>
       </c>
@@ -7138,7 +7203,7 @@
       <c r="E128" t="s">
         <v>23</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="89">
         <v>1.3E-7</v>
       </c>
       <c r="G128" s="44">
@@ -7154,7 +7219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="62" t="s">
         <v>253</v>
       </c>
@@ -7170,7 +7235,7 @@
       <c r="E129" t="s">
         <v>23</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="89">
         <v>1.3E-7</v>
       </c>
       <c r="G129" s="44">
@@ -7186,7 +7251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="37" t="s">
         <v>92</v>
       </c>
@@ -7194,7 +7259,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
-      <c r="F130" s="38">
+      <c r="F130" s="90">
         <f>SUM(F118:F129)</f>
         <v>1.5908000000000001E-5</v>
       </c>
@@ -7212,17 +7277,18 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F131" s="89"/>
+    </row>
+    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F132" s="91"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="61" t="s">
         <v>175</v>
       </c>
@@ -7238,7 +7304,7 @@
       <c r="E133" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F133" s="31" t="s">
+      <c r="F133" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G133" s="31" t="s">
@@ -7255,7 +7321,7 @@
       </c>
       <c r="L133" s="22"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
         <v>176</v>
       </c>
@@ -7274,7 +7340,7 @@
         <f>D134/$D$137</f>
         <v>0.50992817912970001</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G134" t="s">
@@ -7290,7 +7356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="42" t="s">
         <v>177</v>
       </c>
@@ -7308,7 +7374,7 @@
         <f t="shared" ref="E135:E136" si="5">D135/$D$137</f>
         <v>0.37177862272919304</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G135" t="s">
@@ -7324,7 +7390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="55" t="s">
         <v>178</v>
       </c>
@@ -7342,7 +7408,7 @@
         <f t="shared" si="5"/>
         <v>0.11829319814110689</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G136" t="s">
@@ -7358,7 +7424,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="43" t="s">
         <v>92</v>
       </c>
@@ -7377,7 +7443,7 @@
         <f>SUM(E134:E136)</f>
         <v>1</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="89">
         <v>1.3E-7</v>
       </c>
       <c r="G137" s="44">
@@ -7395,7 +7461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
         <v>98</v>
       </c>
@@ -7403,13 +7469,13 @@
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
+      <c r="F138" s="86"/>
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
       <c r="J138" s="69"/>
     </row>
-    <row r="139" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="63" t="s">
         <v>179</v>
       </c>
@@ -7417,7 +7483,7 @@
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
+      <c r="F139" s="90"/>
       <c r="G139" s="39">
         <v>4551.9230769230771</v>
       </c>
@@ -7438,73 +7504,73 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D53AE0-DA50-4BFF-91F5-0F83D06C1B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:J21"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J1" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="M1" s="83"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="75" t="s">
+      <c r="C2" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="L1" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="M1" s="82"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
@@ -7519,7 +7585,7 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I2" s="29">
         <v>20</v>
@@ -7529,15 +7595,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
@@ -7552,7 +7618,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I3" s="29">
         <v>20</v>
@@ -7562,15 +7628,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -7585,7 +7651,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I4" s="29">
         <v>20</v>
@@ -7595,18 +7661,18 @@
         <v>0.05</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="5">
         <v>2.5</v>
@@ -7621,7 +7687,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I5" s="29">
         <v>15</v>
@@ -7631,18 +7697,18 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="L5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -7657,7 +7723,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I6" s="29">
         <v>10</v>
@@ -7667,18 +7733,18 @@
         <v>0.25</v>
       </c>
       <c r="L6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="5">
         <v>2.6</v>
@@ -7693,7 +7759,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I7" s="29">
         <v>10</v>
@@ -7703,18 +7769,18 @@
         <v>0.2</v>
       </c>
       <c r="L7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -7729,7 +7795,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I8" s="29">
         <v>20</v>
@@ -7739,12 +7805,12 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="L8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
@@ -7756,15 +7822,15 @@
       <c r="I9" s="79"/>
       <c r="J9" s="76"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -7779,7 +7845,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I10" s="29">
         <v>10</v>
@@ -7789,15 +7855,15 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -7812,7 +7878,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I11" s="29">
         <v>10</v>
@@ -7822,18 +7888,18 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="L11" s="80" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
@@ -7848,7 +7914,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I12" s="29">
         <v>20</v>
@@ -7858,21 +7924,21 @@
         <v>0.05</v>
       </c>
       <c r="L12" s="81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M12" s="81"/>
       <c r="N12" s="81"/>
       <c r="O12" s="81"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
@@ -7887,7 +7953,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I13" s="29">
         <v>20</v>
@@ -7901,15 +7967,15 @@
       <c r="N13" s="81"/>
       <c r="O13" s="81"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" s="5">
         <v>3</v>
@@ -7924,7 +7990,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I14" s="29">
         <v>20</v>
@@ -7933,22 +7999,22 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L14" s="83" t="s">
-        <v>377</v>
+      <c r="L14" s="84" t="s">
+        <v>376</v>
       </c>
       <c r="M14" s="81"/>
       <c r="N14" s="81"/>
       <c r="O14" s="81"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D15" s="5">
         <v>4</v>
@@ -7963,7 +8029,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I15" s="29">
         <v>10</v>
@@ -7972,17 +8038,17 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L15" s="83"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="84"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D16" s="29">
         <v>10</v>
@@ -7997,7 +8063,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I16" s="29">
         <v>15</v>
@@ -8010,15 +8076,15 @@
       <c r="N16" s="81"/>
       <c r="O16" s="81"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="29">
         <v>4</v>
@@ -8033,7 +8099,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I17" s="29">
         <v>10</v>
@@ -8046,15 +8112,15 @@
       <c r="N17" s="81"/>
       <c r="O17" s="81"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D18" s="5">
         <v>4</v>
@@ -8069,7 +8135,7 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I18" s="29">
         <v>20</v>
@@ -8083,15 +8149,15 @@
       <c r="N18" s="81"/>
       <c r="O18" s="81"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D19" s="5">
         <v>5</v>
@@ -8106,7 +8172,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I19" s="29">
         <v>10</v>
@@ -8116,15 +8182,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D20" s="5">
         <v>4</v>
@@ -8139,7 +8205,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I20" s="29">
         <v>10</v>
@@ -8149,15 +8215,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -8172,7 +8238,7 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I21" s="29">
         <v>10</v>
@@ -8182,15 +8248,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="5">
         <v>5.08</v>
@@ -8205,7 +8271,7 @@
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I22" s="29">
         <v>5</v>
@@ -8215,15 +8281,15 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
@@ -8238,7 +8304,7 @@
         <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I23" s="29">
         <v>10</v>
@@ -8248,15 +8314,15 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
@@ -8271,7 +8337,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I24" s="29">
         <v>20</v>
@@ -8281,15 +8347,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
@@ -8304,7 +8370,7 @@
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I25" s="29">
         <v>20</v>
@@ -8314,15 +8380,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
@@ -8337,7 +8403,7 @@
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I26" s="29">
         <v>15</v>
@@ -8347,510 +8413,510 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L30" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="L30" s="75" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F31" s="2"/>
       <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
+        <v>334</v>
+      </c>
+      <c r="K32" t="s">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" t="s">
+        <v>334</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" t="s">
+        <v>334</v>
+      </c>
+      <c r="K34" t="s">
         <v>265</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L34" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>312</v>
-      </c>
-      <c r="B32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="K35" t="s">
+        <v>337</v>
+      </c>
+      <c r="L35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D36" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" t="s">
+        <v>338</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>315</v>
+      </c>
+      <c r="B38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D38" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>316</v>
+      </c>
+      <c r="B39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>270</v>
+      </c>
+      <c r="L39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
+      <c r="D40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>318</v>
+      </c>
+      <c r="B41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" t="s">
         <v>343</v>
       </c>
-      <c r="D32" t="s">
-        <v>335</v>
-      </c>
-      <c r="K32" t="s">
-        <v>265</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="K41" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" t="s">
+        <v>343</v>
+      </c>
+      <c r="K42" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>272</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" t="s">
+        <v>355</v>
+      </c>
+      <c r="D44" t="s">
+        <v>338</v>
+      </c>
+      <c r="K44" t="s">
+        <v>345</v>
+      </c>
+      <c r="L44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" t="s">
+        <v>359</v>
+      </c>
+      <c r="D45" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>312</v>
-      </c>
-      <c r="B33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="K45" t="s">
+        <v>274</v>
+      </c>
+      <c r="L45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K46" t="s">
+        <v>275</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" t="s">
+        <v>357</v>
+      </c>
+      <c r="D47" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" t="s">
+        <v>276</v>
+      </c>
+      <c r="L47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" t="s">
+        <v>277</v>
+      </c>
+      <c r="L48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>324</v>
+      </c>
+      <c r="B49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" t="s">
+        <v>355</v>
+      </c>
+      <c r="D49" t="s">
+        <v>338</v>
+      </c>
+      <c r="K49" t="s">
+        <v>278</v>
+      </c>
+      <c r="L49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>325</v>
+      </c>
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" t="s">
+        <v>338</v>
+      </c>
+      <c r="K50" t="s">
+        <v>279</v>
+      </c>
+      <c r="L50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" t="s">
+        <v>362</v>
+      </c>
+      <c r="D51" t="s">
+        <v>350</v>
+      </c>
+      <c r="K51" t="s">
+        <v>280</v>
+      </c>
+      <c r="L51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>327</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" t="s">
+        <v>338</v>
+      </c>
+      <c r="K52" t="s">
+        <v>281</v>
+      </c>
+      <c r="L52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+      <c r="B53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" t="s">
+        <v>334</v>
+      </c>
+      <c r="K53" t="s">
+        <v>281</v>
+      </c>
+      <c r="L53" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" t="s">
+        <v>334</v>
+      </c>
+      <c r="K54" t="s">
+        <v>282</v>
+      </c>
+      <c r="L54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" t="s">
         <v>343</v>
-      </c>
-      <c r="D33" t="s">
-        <v>335</v>
-      </c>
-      <c r="K33" t="s">
-        <v>265</v>
-      </c>
-      <c r="L33" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>312</v>
-      </c>
-      <c r="B34" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" t="s">
-        <v>343</v>
-      </c>
-      <c r="D34" t="s">
-        <v>335</v>
-      </c>
-      <c r="K34" t="s">
-        <v>266</v>
-      </c>
-      <c r="L34" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>313</v>
-      </c>
-      <c r="B35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" t="s">
-        <v>356</v>
-      </c>
-      <c r="D35" t="s">
-        <v>337</v>
-      </c>
-      <c r="K35" t="s">
-        <v>338</v>
-      </c>
-      <c r="L35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>314</v>
-      </c>
-      <c r="B36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" t="s">
-        <v>356</v>
-      </c>
-      <c r="D36" t="s">
-        <v>339</v>
-      </c>
-      <c r="K36" t="s">
-        <v>268</v>
-      </c>
-      <c r="L36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" t="s">
-        <v>339</v>
-      </c>
-      <c r="K37" t="s">
-        <v>269</v>
-      </c>
-      <c r="L37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>316</v>
-      </c>
-      <c r="B38" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" t="s">
-        <v>358</v>
-      </c>
-      <c r="D38" t="s">
-        <v>335</v>
-      </c>
-      <c r="K38" t="s">
-        <v>270</v>
-      </c>
-      <c r="L38" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>317</v>
-      </c>
-      <c r="B39" t="s">
-        <v>270</v>
-      </c>
-      <c r="C39" t="s">
-        <v>358</v>
-      </c>
-      <c r="D39" t="s">
-        <v>339</v>
-      </c>
-      <c r="K39" t="s">
-        <v>271</v>
-      </c>
-      <c r="L39" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>318</v>
-      </c>
-      <c r="B40" t="s">
-        <v>271</v>
-      </c>
-      <c r="C40" t="s">
-        <v>360</v>
-      </c>
-      <c r="D40" t="s">
-        <v>339</v>
-      </c>
-      <c r="K40" t="s">
-        <v>272</v>
-      </c>
-      <c r="L40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>319</v>
-      </c>
-      <c r="B41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C41" t="s">
-        <v>340</v>
-      </c>
-      <c r="D41" t="s">
-        <v>344</v>
-      </c>
-      <c r="K41" t="s">
-        <v>272</v>
-      </c>
-      <c r="L41" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>319</v>
-      </c>
-      <c r="B42" t="s">
-        <v>272</v>
-      </c>
-      <c r="C42" t="s">
-        <v>340</v>
-      </c>
-      <c r="D42" t="s">
-        <v>344</v>
-      </c>
-      <c r="K42" t="s">
-        <v>272</v>
-      </c>
-      <c r="L42" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>319</v>
-      </c>
-      <c r="B43" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" t="s">
-        <v>340</v>
-      </c>
-      <c r="D43" t="s">
-        <v>344</v>
-      </c>
-      <c r="K43" t="s">
-        <v>273</v>
-      </c>
-      <c r="L43" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>320</v>
-      </c>
-      <c r="B44" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D44" t="s">
-        <v>339</v>
-      </c>
-      <c r="K44" t="s">
-        <v>346</v>
-      </c>
-      <c r="L44" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>321</v>
-      </c>
-      <c r="B45" t="s">
-        <v>346</v>
-      </c>
-      <c r="C45" t="s">
-        <v>360</v>
-      </c>
-      <c r="D45" t="s">
-        <v>337</v>
-      </c>
-      <c r="K45" t="s">
-        <v>275</v>
-      </c>
-      <c r="L45" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>322</v>
-      </c>
-      <c r="B46" t="s">
-        <v>275</v>
-      </c>
-      <c r="C46" t="s">
-        <v>356</v>
-      </c>
-      <c r="D46" t="s">
-        <v>339</v>
-      </c>
-      <c r="K46" t="s">
-        <v>276</v>
-      </c>
-      <c r="L46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>323</v>
-      </c>
-      <c r="B47" t="s">
-        <v>276</v>
-      </c>
-      <c r="C47" t="s">
-        <v>358</v>
-      </c>
-      <c r="D47" t="s">
-        <v>335</v>
-      </c>
-      <c r="K47" t="s">
-        <v>277</v>
-      </c>
-      <c r="L47" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>324</v>
-      </c>
-      <c r="B48" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" t="s">
-        <v>356</v>
-      </c>
-      <c r="D48" t="s">
-        <v>339</v>
-      </c>
-      <c r="K48" t="s">
-        <v>278</v>
-      </c>
-      <c r="L48" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>325</v>
-      </c>
-      <c r="B49" t="s">
-        <v>278</v>
-      </c>
-      <c r="C49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D49" t="s">
-        <v>339</v>
-      </c>
-      <c r="K49" t="s">
-        <v>279</v>
-      </c>
-      <c r="L49" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>326</v>
-      </c>
-      <c r="B50" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" t="s">
-        <v>339</v>
-      </c>
-      <c r="K50" t="s">
-        <v>280</v>
-      </c>
-      <c r="L50" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>327</v>
-      </c>
-      <c r="B51" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" t="s">
-        <v>363</v>
-      </c>
-      <c r="D51" t="s">
-        <v>351</v>
-      </c>
-      <c r="K51" t="s">
-        <v>281</v>
-      </c>
-      <c r="L51" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>328</v>
-      </c>
-      <c r="B52" t="s">
-        <v>281</v>
-      </c>
-      <c r="C52" t="s">
-        <v>358</v>
-      </c>
-      <c r="D52" t="s">
-        <v>339</v>
-      </c>
-      <c r="K52" t="s">
-        <v>282</v>
-      </c>
-      <c r="L52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>329</v>
-      </c>
-      <c r="B53" t="s">
-        <v>282</v>
-      </c>
-      <c r="C53" t="s">
-        <v>343</v>
-      </c>
-      <c r="D53" t="s">
-        <v>335</v>
-      </c>
-      <c r="K53" t="s">
-        <v>282</v>
-      </c>
-      <c r="L53" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>329</v>
-      </c>
-      <c r="B54" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" t="s">
-        <v>343</v>
-      </c>
-      <c r="D54" t="s">
-        <v>335</v>
-      </c>
-      <c r="K54" t="s">
-        <v>283</v>
-      </c>
-      <c r="L54" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>330</v>
-      </c>
-      <c r="B55" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" t="s">
-        <v>340</v>
-      </c>
-      <c r="D55" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -8863,31 +8929,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22733B97-020B-4F8D-AA6D-CE76BADDD329}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G64" sqref="G63:G64"/>
+    <sheetView topLeftCell="C27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>136</v>
       </c>
@@ -8902,7 +8956,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
@@ -8922,7 +8976,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
@@ -8942,7 +8996,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -8950,7 +9004,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -8958,7 +9012,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -8966,7 +9020,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -8974,7 +9028,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -8982,7 +9036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -8990,7 +9044,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -8998,7 +9052,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -9006,7 +9060,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -9014,7 +9068,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -9022,7 +9076,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -9030,7 +9084,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -9038,7 +9092,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -9062,7 +9116,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -9080,7 +9134,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>186</v>
       </c>
@@ -9098,12 +9152,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -9121,7 +9175,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -9139,7 +9193,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -9157,7 +9211,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -9175,12 +9229,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -9198,7 +9252,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -9216,7 +9270,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -9234,7 +9288,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -9242,7 +9296,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>193</v>
       </c>
@@ -9260,7 +9314,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -9278,7 +9332,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -9296,12 +9350,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -9320,7 +9374,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -9338,7 +9392,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -9356,12 +9410,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -9379,7 +9433,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>193</v>
       </c>
@@ -9400,7 +9454,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -9424,7 +9478,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H55">
         <v>24.88</v>
       </c>
@@ -9441,7 +9495,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -9464,7 +9518,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -9485,7 +9539,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -9506,7 +9560,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -9525,12 +9579,12 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -9539,7 +9593,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -9548,7 +9602,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -9557,7 +9611,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -9566,12 +9620,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -9589,7 +9643,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -9607,7 +9661,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -9625,12 +9679,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -9648,7 +9702,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -9666,7 +9720,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -9684,12 +9738,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -9698,7 +9752,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -9707,7 +9761,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -9716,7 +9770,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -9731,30 +9785,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -9786,7 +9840,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -9799,7 +9853,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -9832,7 +9886,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -9867,7 +9921,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -9903,7 +9957,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -9938,7 +9992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
@@ -9973,7 +10027,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>78</v>
       </c>
@@ -10008,7 +10062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -10043,7 +10097,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
@@ -10074,7 +10128,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -10088,7 +10142,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -10121,7 +10175,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -10154,7 +10208,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -10187,7 +10241,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -10220,12 +10274,12 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -10248,7 +10302,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
@@ -10281,7 +10335,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -10314,12 +10368,12 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>145</v>
       </c>
@@ -10336,7 +10390,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
@@ -10364,7 +10418,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>55</v>
       </c>
@@ -10392,7 +10446,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>92</v>
       </c>
@@ -10414,12 +10468,12 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -10433,7 +10487,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -10464,7 +10518,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>47</v>
       </c>
@@ -10478,7 +10532,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>35</v>
       </c>
@@ -10512,7 +10566,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>36</v>
       </c>
@@ -10546,7 +10600,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -10582,7 +10636,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
@@ -10616,7 +10670,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>27</v>
       </c>
@@ -10633,7 +10687,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>38</v>
       </c>
@@ -10666,7 +10720,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>39</v>
       </c>
@@ -10700,7 +10754,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
@@ -10734,7 +10788,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="17"/>
@@ -10750,12 +10804,12 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>92</v>
       </c>
@@ -10775,7 +10829,7 @@
       </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H40" s="3"/>
     </row>
   </sheetData>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive\Documentos\GitHub\PoCat-Thermal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716CC3E-F658-4A04-B8F1-2D19A5579F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="30" windowWidth="22995" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
     <sheet name="Extra" sheetId="9" r:id="rId6"/>
     <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="379">
   <si>
     <t>Material</t>
   </si>
@@ -1183,11 +1184,14 @@
   <si>
     <t>UDC=User Defined Conductor</t>
   </si>
+  <si>
+    <t>Custom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1502,7 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1569,48 +1573,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1624,16 +1603,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1647,7 +1618,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1656,17 +1690,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="6" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1790,7 +1816,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciacp.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1877,7 @@
         <xdr:cNvPr id="3" name="Imagen 2" descr="C:\Users\oscar\OneDrive\Escritorio\resistenciaip.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,15 +1924,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Material" dataDxfId="5"/>
-    <tableColumn id="2" name="IR Emissivity (εIR)" dataDxfId="4"/>
-    <tableColumn id="3" name="Solar Absorptivity (αs)" dataDxfId="3"/>
-    <tableColumn id="4" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
-    <tableColumn id="5" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
-    <tableColumn id="6" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Material" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IR Emissivity (εIR)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Solar Absorptivity (αs)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Density (ρ) [kg/m³]" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Specific heat (cp) [J/kg·K]" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Conductivity (k) [W/m·K]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1988,6 +2014,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2023,6 +2066,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2198,26 +2258,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2317,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2337,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2297,7 +2357,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2317,7 +2377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2337,7 +2397,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2417,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2377,7 +2437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2397,7 +2457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +2477,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2437,7 +2497,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -2457,7 +2517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2477,7 +2537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2497,7 +2557,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2517,7 +2577,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2537,7 +2597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2557,7 +2617,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>256</v>
       </c>
@@ -2577,7 +2637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>257</v>
       </c>
@@ -2597,37 +2657,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I22" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
   </sheetData>
@@ -2640,29 +2700,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2694,7 +2754,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -2710,7 +2770,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -2743,7 +2803,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -2776,7 +2836,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -2809,7 +2869,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>156</v>
       </c>
@@ -2842,7 +2902,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>157</v>
       </c>
@@ -2875,7 +2935,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>158</v>
       </c>
@@ -2908,7 +2968,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>167</v>
       </c>
@@ -2941,7 +3001,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
@@ -2974,7 +3034,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
@@ -3005,7 +3065,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -3019,7 +3079,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -3052,7 +3112,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -3085,7 +3145,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -3118,7 +3178,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -3151,12 +3211,12 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -3173,7 +3233,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -3206,7 +3266,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -3239,12 +3299,12 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>136</v>
       </c>
@@ -3258,7 +3318,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>160</v>
       </c>
@@ -3293,7 +3353,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
@@ -3328,7 +3388,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>92</v>
       </c>
@@ -3352,12 +3412,12 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
@@ -3371,7 +3431,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>44</v>
       </c>
@@ -3402,7 +3462,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>47</v>
       </c>
@@ -3416,7 +3476,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>35</v>
       </c>
@@ -3450,7 +3510,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>36</v>
       </c>
@@ -3484,7 +3544,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3520,7 +3580,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>57</v>
       </c>
@@ -3554,7 +3614,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
@@ -3571,7 +3631,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
@@ -3604,7 +3664,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -3638,7 +3698,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
@@ -3672,7 +3732,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="17"/>
@@ -3688,12 +3748,12 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>92</v>
       </c>
@@ -3713,19 +3773,19 @@
       </c>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
@@ -3736,30 +3796,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +3848,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3821,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -3854,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>209</v>
       </c>
@@ -3887,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>198</v>
       </c>
@@ -3923,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>217</v>
       </c>
@@ -3956,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>202</v>
       </c>
@@ -3977,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>64</v>
       </c>
@@ -3998,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>220</v>
       </c>
@@ -4019,7 +4079,7 @@
         <v>0.11633470148314154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>223</v>
       </c>
@@ -4040,34 +4100,34 @@
         <v>0.14107548598838676</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="53" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -4083,20 +4143,20 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="72">
         <f t="shared" ref="F16:F24" si="4">(B16*$B$2*$C$2+C16*$B$3*$C$3+D16*$B$5*$C$5+E16*$B$6*$C$6)/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>940.29816397754291</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="72">
         <f>1/(B16/$D$2+C16/$D$4+D16/$D$5+E16/$D$6)*(B16+C16+D16+E16)</f>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="72">
         <f t="shared" ref="H16:H24" si="5">(B16*$D$2+C16*$D$3+D16*$D$5+E16*$D$6)*(B16+C16+D16+E16)</f>
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4112,20 +4172,20 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="72">
         <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="72">
         <f t="shared" ref="G17:G24" si="6">1/(B17/$D$2+C17/$D$4+D17/$D$5+E17/$D$6)*(B17+C17+D17+E17)</f>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="72">
         <f t="shared" si="5"/>
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -4141,20 +4201,20 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="72">
         <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G18" s="72">
         <f t="shared" si="6"/>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="72">
         <f t="shared" si="5"/>
         <v>91.472640000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -4170,20 +4230,20 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="72">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="72">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H19" s="92">
+      <c r="H19" s="72">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -4199,20 +4259,20 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="92">
+      <c r="F20" s="72">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="72">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="72">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -4228,20 +4288,20 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="72">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="72">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H21" s="92">
+      <c r="H21" s="72">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -4257,20 +4317,20 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="92">
+      <c r="F22" s="72">
         <f t="shared" si="4"/>
         <v>1050.3855606314694</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="72">
         <f t="shared" si="6"/>
         <v>0.30148453519157836</v>
       </c>
-      <c r="H22" s="92">
+      <c r="H22" s="72">
         <f t="shared" si="5"/>
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -4286,20 +4346,20 @@
       <c r="E23">
         <v>0.21</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="72">
         <f t="shared" si="4"/>
         <v>783.19706393372451</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="72">
         <f t="shared" si="6"/>
         <v>0.31347382420811998</v>
       </c>
-      <c r="H23" s="92">
+      <c r="H23" s="72">
         <f t="shared" si="5"/>
         <v>110.14952000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -4315,20 +4375,20 @@
       <c r="E24">
         <v>0.254</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="72">
         <f t="shared" si="4"/>
         <v>904.86619540520076</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="72">
         <f t="shared" si="6"/>
         <v>0.29142496305131627</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="72">
         <f t="shared" si="5"/>
         <v>88.525164000000032</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="3"/>
     </row>
   </sheetData>
@@ -4338,37 +4398,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>88</v>
       </c>
+      <c r="H1" s="84"/>
       <c r="L1" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -4386,19 +4447,19 @@
       <c r="F2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B3" t="s">
@@ -4407,64 +4468,81 @@
       <c r="C3">
         <v>1.2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="69">
         <f>C3/1000</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="65">
         <v>4.5600000000000001E-7</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="81">
         <f>D3/F3</f>
         <v>2631.5789473684208</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="81">
         <v>1990</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="93">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="F4" s="66"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="94"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="87">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="67">
         <v>4.5600000000000001E-7</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="83">
         <v>2631.5789473684208</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="83">
         <v>1990</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="95">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="69"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="72"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="69"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="72"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="69"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -4473,213 +4551,226 @@
       <c r="C9" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="68" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="C10">
         <v>14.2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="69">
         <f>C10/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
       <c r="E10">
-        <f>C10/C12</f>
+        <f>C10/C11</f>
         <v>1</v>
       </c>
-      <c r="F10" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <f>D12/F12</f>
+      <c r="F10" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="84">
+        <f>D11/F11</f>
         <v>2133.4134615384614</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="84">
         <v>903.96364021734939</v>
       </c>
-      <c r="I10">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J10" s="35">
+      <c r="I10" s="72">
+        <v>0.32237405144561837</v>
+      </c>
+      <c r="J10" s="96">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="36">
+        <f>SUM(C10:C10)</f>
+        <v>14.2</v>
+      </c>
+      <c r="D11" s="70">
+        <f>C11/1000</f>
+        <v>1.4199999999999999E-2</v>
+      </c>
+      <c r="E11" s="36">
+        <f>SUM(E10:E10)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="70">
+        <v>6.6560000000000003E-6</v>
+      </c>
+      <c r="G11" s="83">
         <v>2133.4134615384614</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I11">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J11" s="35">
+      <c r="I11" s="75">
+        <v>0.32237405144561837</v>
+      </c>
+      <c r="J11" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="38">
-        <f>SUM(C10:C11)</f>
-        <v>14.2</v>
-      </c>
-      <c r="D12" s="38">
-        <f>C12/1000</f>
-        <v>1.4199999999999999E-2</v>
-      </c>
-      <c r="E12" s="38">
-        <f>SUM(E10:E11)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="90">
-        <v>6.6560000000000003E-6</v>
-      </c>
-      <c r="G12" s="39">
-        <v>2133.4134615384614</v>
-      </c>
-      <c r="H12" s="39">
-        <f>H10*E10+H11*E11</f>
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I12" s="39">
-        <f>I10*E10+I11*E11</f>
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J12" s="40">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F13" s="89"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="89"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="31" t="s">
+      <c r="B14" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D14" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E14" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F14" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G14" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H14" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I14" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J14" s="97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15">
+        <v>8.4</v>
+      </c>
+      <c r="D15" s="69">
+        <f>C15/1000</f>
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="96"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
         <v>212</v>
       </c>
-      <c r="C16">
-        <v>8.4</v>
-      </c>
-      <c r="D16">
-        <f>C16/1000</f>
-        <v>8.4000000000000012E-3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="89"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>226</v>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <f>F17/($F$17+$F$18+$F$19+$F$20)</f>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="F17" s="69">
+        <v>1.3312000000000001E-6</v>
+      </c>
+      <c r="G17" s="84">
+        <v>1953.125</v>
+      </c>
+      <c r="H17" s="84">
+        <v>1050.3855606314694</v>
+      </c>
+      <c r="I17" s="72">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="96">
+        <v>46.763360000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
+        <v>227</v>
       </c>
       <c r="B18" t="s">
         <v>212</v>
@@ -4687,32 +4778,32 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E18">
-        <f>F18/($F$18+$F$19+$F$20+$F$21)</f>
+        <f t="shared" ref="E18:E20" si="0">F18/($F$17+$F$18+$F$19+$F$20)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="69">
         <v>1.3312000000000001E-6</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="84">
         <v>1953.125</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="84">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I18">
-        <v>0.35168669699040533</v>
-      </c>
-      <c r="J18" s="35">
+      <c r="I18" s="72">
+        <v>0.3</v>
+      </c>
+      <c r="J18" s="96">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>227</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
+        <v>228</v>
       </c>
       <c r="B19" t="s">
         <v>212</v>
@@ -4720,32 +4811,32 @@
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E21" si="0">F19/($F$18+$F$19+$F$20+$F$21)</f>
-        <v>0.30952380952380953</v>
-      </c>
-      <c r="F19" s="89">
-        <v>1.3312000000000001E-6</v>
-      </c>
-      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="F19" s="69">
+        <v>8.1920000000000003E-7</v>
+      </c>
+      <c r="G19" s="84">
         <v>1953.125</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="84">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I19">
-        <v>0.35168669699040533</v>
-      </c>
-      <c r="J19" s="35">
+      <c r="I19" s="72">
+        <v>0.3</v>
+      </c>
+      <c r="J19" s="96">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
-        <v>228</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>229</v>
       </c>
       <c r="B20" t="s">
         <v>212</v>
@@ -4753,1439 +4844,1537 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="69">
         <v>8.1920000000000003E-7</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="84">
         <v>1953.125</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="84">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I20">
-        <v>0.35168669699040533</v>
-      </c>
-      <c r="J20" s="35">
+      <c r="I20" s="72">
+        <v>0.3</v>
+      </c>
+      <c r="J20" s="96">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="B21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="F21" s="89">
-        <v>8.1920000000000003E-7</v>
-      </c>
-      <c r="G21">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="36">
+        <v>8.4</v>
+      </c>
+      <c r="D21" s="70">
+        <f>C21/1000</f>
+        <v>8.4000000000000012E-3</v>
+      </c>
+      <c r="E21" s="36">
+        <f>SUM(E17:E20)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="70">
+        <f>SUM(F17:F20)</f>
+        <v>4.3008000000000004E-6</v>
+      </c>
+      <c r="G21" s="83">
+        <f>D15/F21</f>
         <v>1953.125</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="83">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I21">
-        <v>0.35168669699040533</v>
-      </c>
-      <c r="J21" s="35">
+      <c r="I21" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="95">
         <v>46.763360000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="D22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D25" s="69">
+        <f>C25/1000</f>
+        <v>9.8000000000000014E-3</v>
+      </c>
+      <c r="E25">
+        <f>C25/C27</f>
+        <v>0.96078431372549011</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="84">
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H25" s="84">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I25" s="72">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J25" s="96">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="69">
+        <f>C26/1000</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E26">
+        <f>C26/C27</f>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="84">
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H26" s="84">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I26" s="72">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J26" s="96">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="38">
-        <v>8.4</v>
-      </c>
-      <c r="D22" s="38">
-        <f>C22/1000</f>
-        <v>8.4000000000000012E-3</v>
-      </c>
-      <c r="E22" s="38">
-        <f>SUM(E18:E21)</f>
+      <c r="C27">
+        <f>SUM(C25:C26)</f>
+        <v>10.200000000000001</v>
+      </c>
+      <c r="D27" s="69">
+        <f>C27/1000</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E25:E26)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F27" s="69">
+        <v>4.6079999999999998E-6</v>
+      </c>
+      <c r="G27" s="85">
+        <f>D27/F27</f>
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H27" s="85">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I27" s="76">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J27" s="98">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="94"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="D29" s="69">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E27:E28)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F29" s="69">
+        <v>4.6079999999999998E-6</v>
+      </c>
+      <c r="G29" s="85">
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H29" s="85">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I29" s="76">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J29" s="98">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="D30" s="70">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E30" s="36">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F30" s="70">
+        <v>4.6079999999999998E-6</v>
+      </c>
+      <c r="G30" s="83">
+        <v>2213.541666666667</v>
+      </c>
+      <c r="H30" s="83">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I30" s="75">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J30" s="95">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="D31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D34" s="69">
+        <f>C34/1000</f>
+        <v>9.8000000000000014E-3</v>
+      </c>
+      <c r="E34">
+        <f>C34/C36</f>
+        <v>0.94230769230769229</v>
+      </c>
+      <c r="F34" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="84">
+        <v>2256.9444444444448</v>
+      </c>
+      <c r="H34" s="84">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I34" s="72">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J34" s="96">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35">
+        <v>0.6</v>
+      </c>
+      <c r="D35" s="69">
+        <f>C35/1000</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E35">
+        <f>C35/C36</f>
+        <v>5.7692307692307689E-2</v>
+      </c>
+      <c r="F35" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="84">
+        <v>2256.9444444444448</v>
+      </c>
+      <c r="H35" s="84">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I35" s="72">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J35" s="96">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="36">
+        <f>SUM(C34:C35)</f>
+        <v>10.4</v>
+      </c>
+      <c r="D36" s="70">
+        <f>SUM(D34:D35)</f>
+        <v>1.0400000000000001E-2</v>
+      </c>
+      <c r="E36" s="36">
+        <f>SUM(E34:E35)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="90">
-        <f>SUM(F18:F21)</f>
-        <v>4.3008000000000004E-6</v>
-      </c>
-      <c r="G22" s="39">
-        <f>D16/F22</f>
-        <v>1953.125</v>
-      </c>
-      <c r="H22" s="39">
-        <v>1050.3855606314694</v>
-      </c>
-      <c r="I22" s="39">
-        <v>0.35168669699040533</v>
-      </c>
-      <c r="J22" s="40">
-        <v>46.763360000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="F23" s="89"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="89"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="F36" s="70">
+        <v>4.6079999999999998E-6</v>
+      </c>
+      <c r="G36" s="86">
+        <f>D36/F36</f>
+        <v>2256.9444444444448</v>
+      </c>
+      <c r="H36" s="86">
+        <v>903.96364021734939</v>
+      </c>
+      <c r="I36" s="77">
+        <v>0.45144132745896365</v>
+      </c>
+      <c r="J36" s="99">
+        <v>170.87540000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D39" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F39" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G39" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H39" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I39" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J39" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D26">
-        <f>C26/1000</f>
-        <v>9.8000000000000014E-3</v>
-      </c>
-      <c r="E26">
-        <f>C26/C28</f>
-        <v>0.96078431372549011</v>
-      </c>
-      <c r="F26" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <v>2213.541666666667</v>
-      </c>
-      <c r="H26">
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40">
+        <v>7.1</v>
+      </c>
+      <c r="D40" s="69">
+        <f>C40/1000</f>
+        <v>7.0999999999999995E-3</v>
+      </c>
+      <c r="E40">
+        <f>C40/C42</f>
+        <v>1.0757575757575757</v>
+      </c>
+      <c r="F40" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="84">
+        <v>1629.6296296296296</v>
+      </c>
+      <c r="H40" s="84">
         <v>903.96364021734939</v>
       </c>
-      <c r="I26">
+      <c r="I40" s="72">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J40" s="96">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="C27">
-        <v>0.4</v>
-      </c>
-      <c r="D27">
-        <f>C27/1000</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E27">
-        <f>C27/C28</f>
-        <v>3.9215686274509803E-2</v>
-      </c>
-      <c r="F27" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27">
-        <v>2213.541666666667</v>
-      </c>
-      <c r="H27">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="69">
+        <f t="shared" ref="D41:D42" si="1">C41/1000</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>C41/C42</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="84">
+        <v>1629.6296296296296</v>
+      </c>
+      <c r="H41" s="84">
         <v>903.96364021734939</v>
       </c>
-      <c r="I27">
+      <c r="I41" s="72">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J41" s="96">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B42" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C28">
-        <f>SUM(C26:C27)</f>
-        <v>10.200000000000001</v>
-      </c>
-      <c r="D28">
-        <f>C28/1000</f>
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E28">
-        <f>SUM(E26:E27)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F28" s="89">
-        <v>4.6079999999999998E-6</v>
-      </c>
-      <c r="G28" s="44">
-        <f>D28/F28</f>
-        <v>2213.541666666667</v>
-      </c>
-      <c r="H28" s="44">
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I28" s="44">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J28" s="48">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="69"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30">
-        <v>10.200000000000001</v>
-      </c>
-      <c r="D30">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E30">
-        <f>SUM(E28:E29)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F30" s="89">
-        <v>4.6079999999999998E-6</v>
-      </c>
-      <c r="G30" s="44">
-        <v>2213.541666666667</v>
-      </c>
-      <c r="H30" s="44">
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I30" s="44">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J30" s="48">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38">
-        <v>10.200000000000001</v>
-      </c>
-      <c r="D31" s="38">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E31" s="38">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F31" s="90">
-        <v>4.6079999999999998E-6</v>
-      </c>
-      <c r="G31" s="39">
-        <v>2213.541666666667</v>
-      </c>
-      <c r="H31" s="39">
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I31" s="39">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J31" s="40">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="F32" s="89"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="89"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D35">
-        <f>C35/1000</f>
-        <v>9.8000000000000014E-3</v>
-      </c>
-      <c r="E35">
-        <f>C35/C37</f>
-        <v>0.94230769230769229</v>
-      </c>
-      <c r="F35" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35">
-        <v>2256.9444444444448</v>
-      </c>
-      <c r="H35">
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I35">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J35" s="35">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36">
-        <v>0.6</v>
-      </c>
-      <c r="D36">
-        <f>C36/1000</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E36">
-        <f>C36/C37</f>
-        <v>5.7692307692307689E-2</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36">
-        <v>2256.9444444444448</v>
-      </c>
-      <c r="H36">
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I36">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J36" s="35">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="38">
-        <f>SUM(C35:C36)</f>
-        <v>10.4</v>
-      </c>
-      <c r="D37" s="38">
-        <f>SUM(D35:D36)</f>
-        <v>1.0400000000000001E-2</v>
-      </c>
-      <c r="E37" s="38">
-        <f>SUM(E35:E36)</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="90">
-        <v>4.6079999999999998E-6</v>
-      </c>
-      <c r="G37" s="49">
-        <f>D37/F37</f>
-        <v>2256.9444444444448</v>
-      </c>
-      <c r="H37" s="49">
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I37" s="49">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J37" s="50">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F38" s="89"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="89"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>213</v>
-      </c>
-      <c r="C41">
-        <v>7.1</v>
-      </c>
-      <c r="D41">
-        <f>C41/1000</f>
-        <v>7.0999999999999995E-3</v>
-      </c>
-      <c r="E41">
-        <f>C41/C43</f>
-        <v>1.0757575757575757</v>
-      </c>
-      <c r="F41" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41">
-        <v>1629.6296296296296</v>
-      </c>
-      <c r="H41">
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I41">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J41" s="35">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ref="D42:D43" si="1">C42/1000</f>
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f>C42/C43</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42">
-        <v>1629.6296296296296</v>
-      </c>
-      <c r="H42">
-        <v>903.96364021734939</v>
-      </c>
-      <c r="I42">
-        <v>0.45144132745896365</v>
-      </c>
-      <c r="J42" s="35">
-        <v>170.87540000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="38">
+      <c r="C42" s="36">
         <v>6.6</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D42" s="70">
         <f t="shared" si="1"/>
         <v>6.6E-3</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="90">
+      <c r="E42" s="36"/>
+      <c r="F42" s="70">
         <v>4.0500000000000002E-6</v>
       </c>
-      <c r="G43" s="39">
-        <f>D41/F43</f>
+      <c r="G42" s="83">
+        <f>D40/F42</f>
         <v>1753.0864197530861</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H42" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I42" s="75">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J43" s="40">
+      <c r="J42" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F44" s="89"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="89"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="31" t="s">
+      <c r="B45" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D45" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="88" t="s">
+      <c r="F45" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G45" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H45" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I45" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J45" s="97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B46" t="s">
         <v>214</v>
       </c>
+      <c r="C46">
+        <v>5.6</v>
+      </c>
+      <c r="D46" s="69">
+        <f>C46/1000</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E46">
+        <f>D46/$D$48</f>
+        <v>0.7</v>
+      </c>
+      <c r="F46" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="84">
+        <v>3125</v>
+      </c>
+      <c r="H46" s="84">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I46" s="72">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J46" s="96">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
+        <v>91</v>
+      </c>
       <c r="C47">
-        <v>5.6</v>
-      </c>
-      <c r="D47">
+        <v>2.4</v>
+      </c>
+      <c r="D47" s="69">
         <f>C47/1000</f>
-        <v>5.5999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="E47">
-        <f>D47/$D$49</f>
+        <f>D47/$D$48</f>
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="84">
+        <v>3125</v>
+      </c>
+      <c r="H47" s="84">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I47" s="72">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J47" s="96">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36">
+        <f>SUM(C46:C47)</f>
+        <v>8</v>
+      </c>
+      <c r="D48" s="70">
+        <f>SUM(D46:D47)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E48" s="36">
+        <f>SUM(E46:E47)</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="70">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G48" s="83">
+        <f>D48/F48</f>
+        <v>3125</v>
+      </c>
+      <c r="H48" s="83">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I48" s="75">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J48" s="95">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J51" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52">
+        <v>5.5</v>
+      </c>
+      <c r="D52" s="69">
+        <f>C52/1000</f>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E52">
+        <f>D52/D54</f>
+        <v>0.77464788732394363</v>
+      </c>
+      <c r="F52" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="84">
+        <v>2773.4374999999995</v>
+      </c>
+      <c r="H52" s="84">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I52" s="72">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J52" s="96">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53">
+        <v>1.6</v>
+      </c>
+      <c r="D53" s="69">
+        <f>C53/1000</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E53">
+        <f>D53/$D$54</f>
+        <v>0.22535211267605637</v>
+      </c>
+      <c r="F53" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="84">
+        <v>2773.4374999999995</v>
+      </c>
+      <c r="H53" s="84">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I53" s="72">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J53" s="96">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36">
+        <f>SUM(C52:C53)</f>
+        <v>7.1</v>
+      </c>
+      <c r="D54" s="70">
+        <f>SUM(D52:D53)</f>
+        <v>7.0999999999999995E-3</v>
+      </c>
+      <c r="E54" s="36">
+        <f>SUM(E52:E53)</f>
+        <v>1</v>
+      </c>
+      <c r="F54" s="70">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G54" s="83">
+        <f>D54/F54</f>
+        <v>2773.4374999999995</v>
+      </c>
+      <c r="H54" s="83">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I54" s="75">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J54" s="95">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J57" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58">
+        <v>5.4</v>
+      </c>
+      <c r="D58" s="69">
+        <f>C58/1000</f>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E58">
+        <f>D58/$D$60</f>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="F58" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="84">
+        <v>2734.375</v>
+      </c>
+      <c r="H58" s="84">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I58" s="72">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J58" s="96">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59">
+        <v>1.6</v>
+      </c>
+      <c r="D59" s="69">
+        <f>C59/1000</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E59">
+        <f>D59/$D$60</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="84">
+        <v>2734.375</v>
+      </c>
+      <c r="H59" s="84">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I59" s="72">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J59" s="96">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36">
+        <f>SUM(C58:C59)</f>
+        <v>7</v>
+      </c>
+      <c r="D60" s="70">
+        <f>SUM(D58:D59)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E60" s="36">
+        <f>SUM(E58:E59)</f>
+        <v>1</v>
+      </c>
+      <c r="F60" s="70">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G60" s="83">
+        <f>D60/F60</f>
+        <v>2734.375</v>
+      </c>
+      <c r="H60" s="83">
+        <v>940.29816397754291</v>
+      </c>
+      <c r="I60" s="75">
+        <v>0.42113750296583358</v>
+      </c>
+      <c r="J60" s="95">
+        <v>91.472640000000013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J63" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D64" s="69">
+        <f>C64/1000</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="84">
+        <v>3593.75</v>
+      </c>
+      <c r="H64" s="84">
+        <v>783.19706393372451</v>
+      </c>
+      <c r="I64" s="72">
+        <v>0.49190487192846383</v>
+      </c>
+      <c r="J64" s="96">
+        <v>110.14952000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D65" s="70">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E65" s="36">
+        <v>1</v>
+      </c>
+      <c r="F65" s="70">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G65" s="83">
+        <f>D64/F65</f>
+        <v>3593.75</v>
+      </c>
+      <c r="H65" s="83">
+        <v>783.19706393372451</v>
+      </c>
+      <c r="I65" s="75">
+        <v>0.49190487192846383</v>
+      </c>
+      <c r="J65" s="95">
+        <v>110.14952000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="31">
+        <v>1</v>
+      </c>
+      <c r="F68" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69">
+        <v>7.6</v>
+      </c>
+      <c r="D69" s="69">
+        <f>C69/1000</f>
+        <v>7.6E-3</v>
+      </c>
+      <c r="F69" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="96"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70">
         <v>0.7</v>
       </c>
-      <c r="F47" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47">
-        <v>3125</v>
-      </c>
-      <c r="H47">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I47">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J47" s="35">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="D70" s="69">
+        <f t="shared" ref="D70:D72" si="2">C70/1000</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F70" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="96"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C48">
-        <v>2.4</v>
-      </c>
-      <c r="D48">
-        <f>C48/1000</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E48">
-        <f>D48/$D$49</f>
-        <v>0.3</v>
-      </c>
-      <c r="F48" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48">
-        <v>3125</v>
-      </c>
-      <c r="H48">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I48">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J48" s="35">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="D71" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="96"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38">
-        <f>SUM(C47:C48)</f>
-        <v>8</v>
-      </c>
-      <c r="D49" s="38">
-        <f>SUM(D47:D48)</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E49" s="38">
-        <f>SUM(E47:E48)</f>
-        <v>1</v>
-      </c>
-      <c r="F49" s="90">
-        <v>2.5600000000000001E-6</v>
-      </c>
-      <c r="G49" s="39">
-        <f>D49/F49</f>
-        <v>3125</v>
-      </c>
-      <c r="H49" s="39">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I49" s="39">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J49" s="40">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F50" s="89"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="89"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J52" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53">
-        <v>5.5</v>
-      </c>
-      <c r="D53">
-        <f>C53/1000</f>
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="E53">
-        <f>D53/D55</f>
-        <v>0.77464788732394363</v>
-      </c>
-      <c r="F53" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53">
-        <v>2773.4374999999995</v>
-      </c>
-      <c r="H53">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I53">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J53" s="35">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54">
-        <v>1.6</v>
-      </c>
-      <c r="D54">
-        <f>C54/1000</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="E54">
-        <f>D54/$D$55</f>
-        <v>0.22535211267605637</v>
-      </c>
-      <c r="F54" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54">
-        <v>2773.4374999999995</v>
-      </c>
-      <c r="H54">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I54">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J54" s="35">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38">
-        <f>SUM(C53:C54)</f>
-        <v>7.1</v>
-      </c>
-      <c r="D55" s="38">
-        <f>SUM(D53:D54)</f>
-        <v>7.0999999999999995E-3</v>
-      </c>
-      <c r="E55" s="38">
-        <f>SUM(E53:E54)</f>
-        <v>1</v>
-      </c>
-      <c r="F55" s="90">
-        <v>2.5600000000000001E-6</v>
-      </c>
-      <c r="G55" s="39">
-        <f>D55/F55</f>
-        <v>2773.4374999999995</v>
-      </c>
-      <c r="H55" s="39">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I55" s="39">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J55" s="40">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="89"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F57" s="89"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J58" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59">
-        <v>5.4</v>
-      </c>
-      <c r="D59">
-        <f>C59/1000</f>
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="E59">
-        <f>D59/$D$61</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="F59" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59">
-        <v>2734.375</v>
-      </c>
-      <c r="H59">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I59">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J59" s="35">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60">
-        <v>1.6</v>
-      </c>
-      <c r="D60">
-        <f>C60/1000</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="E60">
-        <f>D60/$D$61</f>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="F60" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60">
-        <v>2734.375</v>
-      </c>
-      <c r="H60">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I60">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J60" s="35">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38">
-        <f>SUM(C59:C60)</f>
-        <v>7</v>
-      </c>
-      <c r="D61" s="38">
-        <f>SUM(D59:D60)</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E61" s="38">
-        <f>SUM(E59:E60)</f>
-        <v>1</v>
-      </c>
-      <c r="F61" s="90">
-        <v>2.5600000000000001E-6</v>
-      </c>
-      <c r="G61" s="39">
-        <f>D61/F61</f>
-        <v>2734.375</v>
-      </c>
-      <c r="H61" s="39">
-        <v>940.29816397754291</v>
-      </c>
-      <c r="I61" s="39">
-        <v>0.42113750296583358</v>
-      </c>
-      <c r="J61" s="40">
-        <v>91.472640000000013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="89"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="89"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J64" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="B65" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D65">
-        <f>C65/1000</f>
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65">
-        <v>3593.75</v>
-      </c>
-      <c r="H65">
-        <v>783.19706393372451</v>
-      </c>
-      <c r="I65">
-        <v>0.49190487192846383</v>
-      </c>
-      <c r="J65" s="35">
-        <v>110.14952000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D66" s="38">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="E66" s="38">
-        <v>1</v>
-      </c>
-      <c r="F66" s="90">
-        <v>2.5600000000000001E-6</v>
-      </c>
-      <c r="G66" s="39">
-        <f>D65/F66</f>
-        <v>3593.75</v>
-      </c>
-      <c r="H66" s="39">
-        <v>783.19706393372451</v>
-      </c>
-      <c r="I66" s="39">
-        <v>0.49190487192846383</v>
-      </c>
-      <c r="J66" s="40">
-        <v>110.14952000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F67" s="89"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F68" s="89"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="31">
-        <v>1</v>
-      </c>
-      <c r="F69" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J69" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="L69" s="22"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70">
-        <v>7.6</v>
-      </c>
-      <c r="D70">
-        <f>C70/1000</f>
-        <v>7.6E-3</v>
-      </c>
-      <c r="F70" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="35"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71">
-        <v>0.7</v>
-      </c>
-      <c r="D71">
-        <f t="shared" ref="D71:D73" si="2">C71/1000</f>
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="F71" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="35"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38">
-        <f>SUM(C70:C71)</f>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36">
+        <f>SUM(C69:C70)</f>
         <v>8.2999999999999989</v>
       </c>
-      <c r="D73">
+      <c r="D72" s="69">
         <f t="shared" si="2"/>
         <v>8.2999999999999984E-3</v>
       </c>
-      <c r="E73" s="38"/>
-      <c r="F73" s="90">
+      <c r="E72" s="36"/>
+      <c r="F72" s="70">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G73" s="39">
-        <f>D73/F73</f>
+      <c r="G72" s="83">
+        <f>D72/F72</f>
         <v>3242.1874999999991</v>
       </c>
-      <c r="H73" s="39">
+      <c r="H72" s="83">
         <v>904.86619540520076</v>
       </c>
-      <c r="I73" s="39">
+      <c r="I72" s="75">
         <v>0.38300309109725139</v>
       </c>
-      <c r="J73" s="40">
+      <c r="J72" s="95">
         <v>88.525164000000032</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-      <c r="F74" s="89"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
+    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="23"/>
+      <c r="D73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="31" t="s">
+      <c r="B74" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D74" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E74" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F75" s="88" t="s">
+      <c r="F74" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="G75" s="31" t="s">
+      <c r="G74" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="H74" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="32" t="s">
+      <c r="I74" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="J75" s="33" t="s">
+      <c r="J74" s="97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38">
+      <c r="B75" s="36"/>
+      <c r="C75" s="36">
         <v>5.7</v>
       </c>
-      <c r="D76" s="38">
-        <f>C76/1000</f>
+      <c r="D75" s="70">
+        <f>C75/1000</f>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="E76" s="38"/>
-      <c r="F76" s="90">
+      <c r="E75" s="36"/>
+      <c r="F75" s="70">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="G76" s="57">
-        <f>D76/F76</f>
+      <c r="G75" s="87">
+        <f>D75/F75</f>
         <v>13.255813953488373</v>
       </c>
-      <c r="H76" s="57">
+      <c r="H75" s="87">
         <v>500</v>
       </c>
-      <c r="I76" s="57">
+      <c r="I75" s="87">
         <v>15</v>
       </c>
-      <c r="J76" s="58">
+      <c r="J75" s="100">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-      <c r="F77" s="89"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="23"/>
+      <c r="D76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="31" t="s">
+      <c r="B77" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D77" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E77" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="88" t="s">
+      <c r="F77" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G78" s="31" t="s">
+      <c r="G77" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="32" t="s">
+      <c r="H77" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I78" s="32" t="s">
+      <c r="I77" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="J78" s="33" t="s">
+      <c r="J77" s="97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B78" t="s">
         <v>52</v>
       </c>
-      <c r="C79">
+      <c r="C78">
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="D79">
-        <f>C79/1000</f>
+      <c r="D78" s="69">
+        <f>C78/1000</f>
         <v>2.4E-2</v>
       </c>
-      <c r="E79">
-        <f>D79/D88</f>
+      <c r="E78">
+        <f>D78/D87</f>
         <v>0.92407207762205446</v>
       </c>
-      <c r="F79" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" s="7">
+      <c r="F78" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="88">
         <v>960</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I78" s="79">
         <v>130</v>
       </c>
-      <c r="J79" s="56">
+      <c r="J78" s="101">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="34" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B79" t="s">
         <v>48</v>
       </c>
-      <c r="C80">
+      <c r="C79">
         <f>4*0.29*1.7</f>
         <v>1.9719999999999998</v>
       </c>
-      <c r="D80">
-        <f>C80/1000</f>
+      <c r="D79" s="69">
+        <f>C79/1000</f>
         <v>1.9719999999999998E-3</v>
       </c>
-      <c r="E80">
-        <f>D80/D88</f>
+      <c r="E79">
+        <f>D79/D87</f>
         <v>7.5927922377945462E-2</v>
       </c>
-      <c r="F80" s="89"/>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" s="7">
+      <c r="F79" s="69"/>
+      <c r="G79" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="88">
         <v>500</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I79" s="79">
         <v>15</v>
       </c>
-      <c r="J80" s="56">
+      <c r="J79" s="101">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F81" s="89"/>
-      <c r="J81" s="35"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="53" t="s">
+      <c r="D80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="96"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="43" t="s">
         <v>170</v>
       </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="69"/>
+      <c r="F81" s="69">
+        <v>3.1203999999999998E-6</v>
+      </c>
+      <c r="G81" s="84">
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H81" s="88">
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I81" s="79">
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J81" s="101">
+        <v>121.26828892653627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="43" t="s">
+        <v>171</v>
+      </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="89">
-        <v>3.1203999999999998E-6</v>
-      </c>
-      <c r="G82">
+      <c r="D82" s="69"/>
+      <c r="F82" s="69">
+        <v>1.52E-5</v>
+      </c>
+      <c r="G82" s="84">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="88">
         <v>925.07315570614492</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="79">
         <v>121.26828892653627</v>
       </c>
-      <c r="J82" s="56">
+      <c r="J82" s="101">
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="53" t="s">
-        <v>171</v>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="43" t="s">
+        <v>172</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -6193,25 +6382,26 @@
       <c r="C83" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="89">
-        <v>1.52E-5</v>
-      </c>
-      <c r="G83">
+      <c r="D83" s="69"/>
+      <c r="F83" s="69">
+        <v>3.3600000000000003E-8</v>
+      </c>
+      <c r="G83" s="84">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="88">
         <v>925.07315570614492</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="79">
         <v>121.26828892653627</v>
       </c>
-      <c r="J83" s="56">
+      <c r="J83" s="101">
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
-        <v>172</v>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="43" t="s">
+        <v>173</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
@@ -6219,695 +6409,762 @@
       <c r="C84" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="89">
-        <v>3.3600000000000003E-8</v>
-      </c>
-      <c r="G84">
+      <c r="D84" s="69"/>
+      <c r="F84" s="69">
+        <v>1.92E-8</v>
+      </c>
+      <c r="G84" s="84">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="88">
         <v>925.07315570614492</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="79">
         <v>121.26828892653627</v>
       </c>
-      <c r="J84" s="56">
+      <c r="J84" s="101">
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="89">
-        <v>1.92E-8</v>
-      </c>
-      <c r="G85">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="82"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="94"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="69"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="84">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H86" s="88">
         <v>925.07315570614492</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I86" s="79">
         <v>121.26828892653627</v>
       </c>
-      <c r="J85" s="56">
+      <c r="J86" s="101">
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="68" t="s">
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36">
+        <f>SUM(C78:C79)</f>
+        <v>25.972000000000001</v>
+      </c>
+      <c r="D87" s="70">
+        <f>SUM(D78:D79)</f>
+        <v>2.5972000000000002E-2</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="70">
+        <f>F81+F82+F83*4+F84*4</f>
+        <v>1.8531600000000001E-5</v>
+      </c>
+      <c r="G87" s="83">
+        <f>D87/F87</f>
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H87" s="87">
+        <f>H78*$E$78+H79*$E$79</f>
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I87" s="78">
+        <f>I78*$E$78+I79*$E$79</f>
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J87" s="100">
+        <f>J78*$E$78+J79*$E$79</f>
+        <v>121.26828892653627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+    </row>
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="84"/>
+      <c r="H91" s="84"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F92" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G92" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J92" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>0.9</v>
+      </c>
+      <c r="D93" s="69">
+        <f>C93/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="69">
+        <v>3.96E-7</v>
+      </c>
+      <c r="G93" s="85">
+        <f>D93/F93</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H93" s="81">
+        <v>325</v>
+      </c>
+      <c r="I93" s="81">
+        <v>50</v>
+      </c>
+      <c r="J93" s="93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="69"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="F87" s="89"/>
-      <c r="G87">
-        <v>1401.4979818256384</v>
-      </c>
-      <c r="H87" s="7">
-        <v>925.07315570614492</v>
-      </c>
-      <c r="I87" s="7">
-        <v>121.26828892653627</v>
-      </c>
-      <c r="J87" s="56">
-        <v>121.26828892653627</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38">
-        <f>SUM(C79:C80)</f>
-        <v>25.972000000000001</v>
-      </c>
-      <c r="D88" s="38">
-        <f>SUM(D79:D80)</f>
-        <v>2.5972000000000002E-2</v>
-      </c>
-      <c r="E88" s="38"/>
-      <c r="F88" s="90">
-        <f>F82+F83+F84*4+F85*4</f>
-        <v>1.8531600000000001E-5</v>
-      </c>
-      <c r="G88" s="39">
-        <f>D88/F88</f>
-        <v>1401.4979818256384</v>
-      </c>
-      <c r="H88" s="57">
-        <f>H79*$E$79+H80*$E$80</f>
-        <v>925.07315570614492</v>
-      </c>
-      <c r="I88" s="57">
-        <f>I79*$E$79+I80*$E$80</f>
-        <v>121.26828892653627</v>
-      </c>
-      <c r="J88" s="58">
-        <f>J79*$E$79+J80*$E$80</f>
-        <v>121.26828892653627</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F89" s="89"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F90" s="89"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F91" s="89"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F92" s="89"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F93" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G93" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I93" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J93" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94">
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="94"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95">
         <v>0.9</v>
       </c>
-      <c r="D94">
-        <f>C94/1000</f>
+      <c r="D95" s="69">
+        <f>C95/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>1</v>
       </c>
-      <c r="F94" s="89">
-        <v>3.96E-7</v>
-      </c>
-      <c r="G94" s="44">
-        <f>D94/F94</f>
+      <c r="F95" s="69"/>
+      <c r="G95" s="85">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H94" s="45">
+      <c r="H95" s="85">
         <v>325</v>
       </c>
-      <c r="I94" s="45">
+      <c r="I95" s="85">
         <v>50</v>
       </c>
-      <c r="J94" s="46">
+      <c r="J95" s="98">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="69"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="36" t="s">
-        <v>116</v>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="C96">
         <v>0.9</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="69">
         <f>C96/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" s="89"/>
-      <c r="G96" s="44">
+      <c r="F96" s="69"/>
+      <c r="G96" s="85">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H96" s="44">
+      <c r="H96" s="85">
         <v>325</v>
       </c>
-      <c r="I96" s="44">
+      <c r="I96" s="85">
         <v>50</v>
       </c>
-      <c r="J96" s="48">
+      <c r="J96" s="98">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="36" t="s">
-        <v>118</v>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="C97">
         <v>0.9</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="69">
         <f>C97/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
-      <c r="F97" s="89"/>
-      <c r="G97" s="44">
+      <c r="F97" s="69"/>
+      <c r="G97" s="85">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H97" s="44">
+      <c r="H97" s="85">
         <v>325</v>
       </c>
-      <c r="I97" s="44">
+      <c r="I97" s="85">
         <v>50</v>
       </c>
-      <c r="J97" s="48">
+      <c r="J97" s="98">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98">
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36">
         <v>0.9</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="70">
         <f>C98/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="36">
         <v>1</v>
       </c>
-      <c r="F98" s="89"/>
-      <c r="G98" s="44">
+      <c r="F98" s="70"/>
+      <c r="G98" s="83">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H98" s="44">
+      <c r="H98" s="83">
         <v>325</v>
       </c>
-      <c r="I98" s="44">
+      <c r="I98" s="83">
         <v>50</v>
       </c>
-      <c r="J98" s="48">
+      <c r="J98" s="95">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="D99" s="38">
-        <f>C99/1000</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E99" s="38">
+    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="84"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G100" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J100" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="K100" s="22"/>
+    </row>
+    <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36">
+        <v>34</v>
+      </c>
+      <c r="D101" s="70">
+        <f>C101/1000</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="70">
+        <v>1.216E-5</v>
+      </c>
+      <c r="G101" s="83">
+        <f>D101/F101</f>
+        <v>2796.0526315789475</v>
+      </c>
+      <c r="H101" s="87">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="J101" s="95">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="84"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="84"/>
+      <c r="H103" s="84"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+    </row>
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="84"/>
+      <c r="H104" s="84"/>
+      <c r="I104" s="72">
+        <v>2</v>
+      </c>
+      <c r="J104" s="72"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J105" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D106" s="69">
+        <f>C106/1000</f>
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="E106">
+        <f>D106/$D$108</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="F106" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="88">
+        <v>8800</v>
+      </c>
+      <c r="H106" s="88">
+        <v>380</v>
+      </c>
+      <c r="I106" s="79">
+        <v>62</v>
+      </c>
+      <c r="J106" s="101">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107">
+        <v>0.4</v>
+      </c>
+      <c r="D107" s="69">
+        <f>C107/1000</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E107">
+        <f>D107/$D$108</f>
+        <v>0.55172413793103459</v>
+      </c>
+      <c r="F107" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="88">
+        <v>1070</v>
+      </c>
+      <c r="H107" s="88">
+        <v>1990</v>
+      </c>
+      <c r="I107" s="79">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J107" s="101">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108">
+        <f>SUM(C106:C107)</f>
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="D108" s="69">
+        <f>SUM(D106:D107)</f>
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="E108">
+        <f>SUM(E106:E107)</f>
         <v>1</v>
       </c>
-      <c r="F99" s="90"/>
-      <c r="G99" s="39">
-        <v>2272.7272727272725</v>
-      </c>
-      <c r="H99" s="39">
-        <v>325</v>
-      </c>
-      <c r="I99" s="39">
-        <v>50</v>
-      </c>
-      <c r="J99" s="40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F100" s="89"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="31" t="s">
+      <c r="F108" s="69">
+        <v>2.8980000000000001E-7</v>
+      </c>
+      <c r="G108" s="85">
+        <f>D108/F108</f>
+        <v>2501.7253278122839</v>
+      </c>
+      <c r="H108" s="85">
+        <f>H106*$E$106+H107*$E$107</f>
+        <v>1268.2758620689658</v>
+      </c>
+      <c r="I108" s="76">
+        <f>I106*$E$106+I107*$E$107</f>
+        <v>27.882482758620689</v>
+      </c>
+      <c r="J108" s="98">
+        <f>J106*$E$106+J107*$E$107</f>
+        <v>27.882482758620689</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="94"/>
+    </row>
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="83">
+        <v>2501.7253278122839</v>
+      </c>
+      <c r="H110" s="83">
+        <v>1268.2758620689658</v>
+      </c>
+      <c r="I110" s="75">
+        <v>27.882482758620689</v>
+      </c>
+      <c r="J110" s="95">
+        <v>27.882482758620689</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="84"/>
+      <c r="H112" s="84"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
+    </row>
+    <row r="113" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="84"/>
+      <c r="H113" s="84"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D101" s="31" t="s">
+      <c r="D114" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E114" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="88" t="s">
+      <c r="F114" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G101" s="31" t="s">
+      <c r="G114" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="32" t="s">
+      <c r="H114" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="32" t="s">
+      <c r="I114" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="J101" s="33" t="s">
+      <c r="J114" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="K101" s="22"/>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38">
-        <v>34</v>
-      </c>
-      <c r="D102" s="38">
-        <f>C102/1000</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E102" s="38"/>
-      <c r="F102" s="90">
-        <v>1.216E-5</v>
-      </c>
-      <c r="G102" s="39">
-        <f>D102/F102</f>
-        <v>2796.0526315789475</v>
-      </c>
-      <c r="H102" s="57">
-        <v>1000</v>
-      </c>
-      <c r="I102" s="39">
-        <v>0.6</v>
-      </c>
-      <c r="J102" s="40">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F103" s="89"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F104" s="89"/>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F105" s="89"/>
-      <c r="I105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E106" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F106" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G106" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I106" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J106" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="D107">
-        <f>C107/1000</f>
-        <v>3.2499999999999999E-4</v>
-      </c>
-      <c r="E107">
-        <f>D107/$D$109</f>
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="F107" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" s="7">
-        <v>8800</v>
-      </c>
-      <c r="H107" s="7">
-        <v>380</v>
-      </c>
-      <c r="I107" s="7">
-        <v>62</v>
-      </c>
-      <c r="J107" s="56">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B108" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108">
-        <v>0.4</v>
-      </c>
-      <c r="D108">
-        <f>C108/1000</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E108">
-        <f>D108/$D$109</f>
-        <v>0.55172413793103459</v>
-      </c>
-      <c r="F108" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="7">
-        <v>1070</v>
-      </c>
-      <c r="H108" s="7">
-        <v>1990</v>
-      </c>
-      <c r="I108" s="7">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="J108" s="56">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C109">
-        <f>SUM(C107:C108)</f>
-        <v>0.72500000000000009</v>
-      </c>
-      <c r="D109">
-        <f>SUM(D107:D108)</f>
-        <v>7.2499999999999995E-4</v>
-      </c>
-      <c r="E109">
-        <f>SUM(E107:E108)</f>
+      <c r="L114" s="22"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115">
+        <v>30</v>
+      </c>
+      <c r="D115" s="69">
+        <f>C115/1000</f>
+        <v>0.03</v>
+      </c>
+      <c r="E115">
         <v>1</v>
       </c>
-      <c r="F109" s="89">
-        <v>2.8980000000000001E-7</v>
-      </c>
-      <c r="G109" s="44">
-        <f>D109/F109</f>
-        <v>2501.7253278122839</v>
-      </c>
-      <c r="H109" s="44">
-        <f>H107*$E$107+H108*$E$108</f>
-        <v>1268.2758620689658</v>
-      </c>
-      <c r="I109" s="44">
-        <f>I107*$E$107+I108*$E$108</f>
-        <v>27.882482758620689</v>
-      </c>
-      <c r="J109" s="48">
-        <f>J107*$E$107+J108*$E$108</f>
-        <v>27.882482758620689</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="69"/>
-    </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="39">
-        <v>2501.7253278122839</v>
-      </c>
-      <c r="H111" s="39">
-        <v>1268.2758620689658</v>
-      </c>
-      <c r="I111" s="39">
-        <v>27.882482758620689</v>
-      </c>
-      <c r="J111" s="40">
-        <v>27.882482758620689</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F112" s="89"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F113" s="89"/>
-    </row>
-    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F114" s="89"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F115" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G115" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I115" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J115" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="L115" s="22"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F115" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I115" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="J115" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="L115" s="7"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" t="s">
-        <v>51</v>
-      </c>
-      <c r="C116">
-        <v>30</v>
-      </c>
-      <c r="D116">
-        <f>C116/1000</f>
-        <v>0.03</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J116" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="L116" s="7"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F117" s="89"/>
-      <c r="J117" s="35"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="62" t="s">
+      <c r="D116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="84"/>
+      <c r="H116" s="84"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="96"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="49" t="s">
         <v>131</v>
       </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="69">
+        <v>2.6599999999999999E-6</v>
+      </c>
+      <c r="G117" s="85">
+        <f>$G$129</f>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H117" s="81">
+        <v>1010</v>
+      </c>
+      <c r="I117" s="73">
+        <v>0.27</v>
+      </c>
+      <c r="J117" s="93">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="49" t="s">
+        <v>132</v>
+      </c>
       <c r="B118" t="s">
         <v>23</v>
       </c>
       <c r="C118" t="s">
         <v>23</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E118" t="s">
         <v>23</v>
       </c>
-      <c r="F118" s="89">
-        <v>2.6599999999999999E-6</v>
-      </c>
-      <c r="G118" s="44">
-        <f>$G$130</f>
+      <c r="F118" s="69">
+        <v>7.9800000000000003E-7</v>
+      </c>
+      <c r="G118" s="85">
+        <f t="shared" ref="G118:G122" si="3">$G$129</f>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H118" s="45">
+      <c r="H118" s="81">
         <v>1010</v>
       </c>
-      <c r="I118" s="45">
+      <c r="I118" s="73">
         <v>0.27</v>
       </c>
-      <c r="J118" s="46">
+      <c r="J118" s="93">
         <v>0.27</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="62" t="s">
-        <v>132</v>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
@@ -6915,281 +7172,280 @@
       <c r="C119" t="s">
         <v>23</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
       </c>
-      <c r="F119" s="89">
+      <c r="F119" s="69">
         <v>7.9800000000000003E-7</v>
       </c>
-      <c r="G119" s="44">
-        <f t="shared" ref="G119:G123" si="3">$G$130</f>
-        <v>1885.8436007040482</v>
-      </c>
-      <c r="H119" s="45">
-        <v>1010</v>
-      </c>
-      <c r="I119" s="45">
-        <v>0.27</v>
-      </c>
-      <c r="J119" s="46">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B120" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="89">
-        <v>7.9800000000000003E-7</v>
-      </c>
-      <c r="G120" s="44">
+      <c r="G119" s="85">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H120" s="45">
+      <c r="H119" s="81">
         <v>1010</v>
       </c>
-      <c r="I120" s="45">
+      <c r="I119" s="73">
         <v>0.27</v>
       </c>
-      <c r="J120" s="46">
+      <c r="J119" s="93">
         <v>0.27</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="62" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B121" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121" s="89">
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="69">
         <v>2.9440000000000001E-6</v>
       </c>
-      <c r="G121" s="44">
+      <c r="G120" s="85">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H121" s="45">
+      <c r="H120" s="81">
         <v>1010</v>
       </c>
-      <c r="I121" s="45">
+      <c r="I120" s="73">
         <v>0.27</v>
       </c>
-      <c r="J121" s="46">
+      <c r="J120" s="93">
         <v>0.27</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="62" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B122" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122" s="89">
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="69">
         <v>2.9440000000000001E-6</v>
       </c>
-      <c r="G122" s="44">
+      <c r="G121" s="85">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H122" s="45">
+      <c r="H121" s="81">
         <v>1010</v>
       </c>
-      <c r="I122" s="45">
+      <c r="I121" s="73">
         <v>0.27</v>
       </c>
-      <c r="J122" s="46">
+      <c r="J121" s="93">
         <v>0.27</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="62" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B123" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" t="s">
-        <v>23</v>
-      </c>
-      <c r="E123" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="89">
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="69">
         <v>5.2440000000000001E-6</v>
       </c>
-      <c r="G123" s="44">
+      <c r="G122" s="85">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H123" s="45">
+      <c r="H122" s="81">
         <v>1010</v>
       </c>
-      <c r="I123" s="45">
+      <c r="I122" s="73">
         <v>0.27</v>
       </c>
-      <c r="J123" s="46">
+      <c r="J122" s="93">
         <v>0.27</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="70" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="56" t="s">
         <v>252</v>
       </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <f>SUM(C124:C125)</f>
+        <v>0.30199515966809148</v>
+      </c>
+      <c r="D123" s="69">
+        <f>SUM(D124:D125)</f>
+        <v>3.0199515966809152E-4</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" s="69">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G123" s="85">
+        <f>(1.7*0.1775/1000)/F123+G122</f>
+        <v>4206.9974468578948</v>
+      </c>
+      <c r="H123" s="81">
+        <v>500</v>
+      </c>
+      <c r="I123" s="81">
+        <v>15</v>
+      </c>
+      <c r="J123" s="93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="57" t="s">
+        <v>51</v>
+      </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C124">
-        <f>SUM(C125:C126)</f>
-        <v>0.30199515966809148</v>
-      </c>
-      <c r="D124">
-        <f>SUM(D125:D126)</f>
-        <v>3.0199515966809152E-4</v>
+        <f>F123*G122</f>
+        <v>2.4515966809152628E-4</v>
+      </c>
+      <c r="D124" s="69">
+        <f>C124/1000</f>
+        <v>2.4515966809152627E-7</v>
       </c>
       <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124" s="89">
-        <v>1.3E-7</v>
-      </c>
-      <c r="G124" s="44">
-        <f>(1.7*0.1775/1000)/F124+G123</f>
-        <v>4206.9974468578948</v>
-      </c>
-      <c r="H124" s="45">
-        <v>500</v>
-      </c>
-      <c r="I124" s="45">
-        <v>15</v>
-      </c>
-      <c r="J124" s="46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="71" t="s">
-        <v>51</v>
+        <f>D124/D123</f>
+        <v>8.1179999163221545E-4</v>
+      </c>
+      <c r="F124" s="69"/>
+      <c r="G124" s="89"/>
+      <c r="H124" s="92"/>
+      <c r="I124" s="92"/>
+      <c r="J124" s="102"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="49" t="s">
+        <v>255</v>
       </c>
       <c r="B125" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C125">
-        <f>F124*G123</f>
-        <v>2.4515966809152628E-4</v>
-      </c>
-      <c r="D125">
-        <f>C125/1000</f>
-        <v>2.4515966809152627E-7</v>
-      </c>
-      <c r="E125">
-        <f>D125/D124</f>
-        <v>8.1179999163221545E-4</v>
-      </c>
-      <c r="F125" s="89"/>
-      <c r="G125" s="72"/>
-      <c r="H125" s="73"/>
-      <c r="I125" s="73"/>
-      <c r="J125" s="74"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="B126" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126">
         <f>1.7*0.1775</f>
         <v>0.30174999999999996</v>
       </c>
-      <c r="D126">
-        <f>C126/1000</f>
+      <c r="D125" s="69">
+        <f>C125/1000</f>
         <v>3.0174999999999999E-4</v>
       </c>
-      <c r="E126">
-        <f>D126/D124</f>
+      <c r="E125">
+        <f>D125/D123</f>
         <v>0.99918820000836783</v>
       </c>
-      <c r="F126" s="89"/>
-      <c r="G126" s="72"/>
-      <c r="H126" s="73"/>
-      <c r="I126" s="73"/>
-      <c r="J126" s="74"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="62" t="s">
+      <c r="F125" s="69"/>
+      <c r="G125" s="89"/>
+      <c r="H125" s="92"/>
+      <c r="I125" s="92"/>
+      <c r="J125" s="102"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="49" t="s">
         <v>251</v>
       </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="69">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G126" s="85">
+        <v>4206.9974468578948</v>
+      </c>
+      <c r="H126" s="81">
+        <v>500</v>
+      </c>
+      <c r="I126" s="81">
+        <v>15</v>
+      </c>
+      <c r="J126" s="93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="49" t="s">
+        <v>254</v>
+      </c>
       <c r="B127" t="s">
         <v>23</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
       </c>
-      <c r="F127" s="89">
+      <c r="F127" s="69">
         <v>1.3E-7</v>
       </c>
-      <c r="G127" s="44">
+      <c r="G127" s="85">
         <v>4206.9974468578948</v>
       </c>
-      <c r="H127" s="45">
+      <c r="H127" s="81">
         <v>500</v>
       </c>
-      <c r="I127" s="45">
+      <c r="I127" s="81">
         <v>15</v>
       </c>
-      <c r="J127" s="46">
+      <c r="J127" s="93">
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="62" t="s">
-        <v>254</v>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="49" t="s">
+        <v>253</v>
       </c>
       <c r="B128" t="s">
         <v>23</v>
@@ -7197,305 +7453,284 @@
       <c r="C128" t="s">
         <v>23</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
       </c>
-      <c r="F128" s="89">
+      <c r="F128" s="69">
         <v>1.3E-7</v>
       </c>
-      <c r="G128" s="44">
+      <c r="G128" s="85">
         <v>4206.9974468578948</v>
       </c>
-      <c r="H128" s="45">
+      <c r="H128" s="81">
         <v>500</v>
       </c>
-      <c r="I128" s="45">
+      <c r="I128" s="81">
         <v>15</v>
       </c>
-      <c r="J128" s="46">
+      <c r="J128" s="93">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="B129" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129" t="s">
-        <v>23</v>
-      </c>
-      <c r="E129" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129" s="89">
-        <v>1.3E-7</v>
-      </c>
-      <c r="G129" s="44">
-        <v>4206.9974468578948</v>
-      </c>
-      <c r="H129" s="45">
+    <row r="129" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="70">
+        <f>SUM(F117:F128)</f>
+        <v>1.5908000000000001E-5</v>
+      </c>
+      <c r="G129" s="83">
+        <f>D115/F129</f>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H129" s="87">
+        <v>1010</v>
+      </c>
+      <c r="I129" s="78">
+        <v>0.27</v>
+      </c>
+      <c r="J129" s="100">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="69"/>
+      <c r="F130" s="69"/>
+      <c r="H130" s="84"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
+    </row>
+    <row r="131" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="69"/>
+      <c r="F131" s="71"/>
+      <c r="H131" s="84"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D132" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J132" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L132" s="22"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133">
+        <f>1.7*0.1775</f>
+        <v>0.30174999999999996</v>
+      </c>
+      <c r="D133" s="69">
+        <f>C133/1000</f>
+        <v>3.0174999999999999E-4</v>
+      </c>
+      <c r="E133">
+        <f>D133/$D$136</f>
+        <v>0.50992817912970001</v>
+      </c>
+      <c r="F133" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>23</v>
+      </c>
+      <c r="H133" s="88">
         <v>500</v>
       </c>
-      <c r="I129" s="45">
+      <c r="I133" s="88">
         <v>15</v>
       </c>
-      <c r="J129" s="46">
+      <c r="J133" s="101">
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="90">
-        <f>SUM(F118:F129)</f>
-        <v>1.5908000000000001E-5</v>
-      </c>
-      <c r="G130" s="39">
-        <f>D116/F130</f>
-        <v>1885.8436007040482</v>
-      </c>
-      <c r="H130" s="57">
-        <v>1010</v>
-      </c>
-      <c r="I130" s="57">
-        <v>0.27</v>
-      </c>
-      <c r="J130" s="58">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="F131" s="89"/>
-    </row>
-    <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132" s="91"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F133" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G133" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H133" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I133" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J133" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="L133" s="22"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="42" t="s">
-        <v>176</v>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="B134" t="s">
         <v>48</v>
       </c>
       <c r="C134">
-        <f>1.7*0.1775</f>
-        <v>0.30174999999999996</v>
-      </c>
-      <c r="D134">
-        <f>C134/1000</f>
-        <v>3.0174999999999999E-4</v>
+        <v>0.22</v>
+      </c>
+      <c r="D134" s="69">
+        <f t="shared" ref="D134:D136" si="4">C134/1000</f>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="E134">
-        <f>D134/$D$137</f>
-        <v>0.50992817912970001</v>
-      </c>
-      <c r="F134" s="89" t="s">
+        <f t="shared" ref="E134:E135" si="5">D134/$D$136</f>
+        <v>0.37177862272919304</v>
+      </c>
+      <c r="F134" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G134" t="s">
         <v>23</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="88">
         <v>500</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="88">
         <v>15</v>
       </c>
-      <c r="J134" s="56">
+      <c r="J134" s="101">
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="42" t="s">
-        <v>177</v>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C135">
-        <v>0.22</v>
-      </c>
-      <c r="D135">
-        <f t="shared" ref="D135:D137" si="4">C135/1000</f>
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="E135">
-        <f t="shared" ref="E135:E136" si="5">D135/$D$137</f>
-        <v>0.37177862272919304</v>
-      </c>
-      <c r="F135" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>23</v>
-      </c>
-      <c r="H135" s="7">
-        <v>500</v>
-      </c>
-      <c r="I135" s="7">
-        <v>15</v>
-      </c>
-      <c r="J135" s="56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="B136" t="s">
-        <v>49</v>
-      </c>
-      <c r="C136">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D136">
+      <c r="D135" s="69">
         <f t="shared" si="4"/>
         <v>7.0000000000000007E-5</v>
       </c>
-      <c r="E136">
+      <c r="E135">
         <f t="shared" si="5"/>
         <v>0.11829319814110689</v>
       </c>
-      <c r="F136" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>23</v>
-      </c>
-      <c r="H136" s="7">
+      <c r="F135" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>23</v>
+      </c>
+      <c r="H135" s="88">
         <v>900</v>
       </c>
-      <c r="I136" s="7">
+      <c r="I135" s="88">
         <v>209</v>
       </c>
-      <c r="J136" s="56">
+      <c r="J135" s="101">
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="43" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B136" t="s">
         <v>22</v>
       </c>
-      <c r="C137">
-        <f>SUM(C134:C136)</f>
+      <c r="C136">
+        <f>SUM(C133:C135)</f>
         <v>0.59175</v>
       </c>
-      <c r="D137">
+      <c r="D136" s="69">
         <f t="shared" si="4"/>
         <v>5.9175000000000005E-4</v>
       </c>
-      <c r="E137">
-        <f>SUM(E134:E136)</f>
+      <c r="E136">
+        <f>SUM(E133:E135)</f>
         <v>1</v>
       </c>
-      <c r="F137" s="89">
+      <c r="F136" s="69">
         <v>1.3E-7</v>
       </c>
-      <c r="G137" s="44">
-        <f>D137/F137</f>
+      <c r="G136" s="85">
+        <f>D136/F136</f>
         <v>4551.9230769230771</v>
       </c>
-      <c r="H137" s="44">
-        <f>H134*$E$134+H135*$E$135+H136*$E$136</f>
+      <c r="H136" s="85">
+        <f>H133*$E$133+H134*$E$134+H135*$E$135</f>
         <v>547.3172792564427</v>
       </c>
-      <c r="I137" s="44">
+      <c r="I136" s="85">
         <v>15</v>
       </c>
-      <c r="J137" s="48">
+      <c r="J136" s="98">
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="68" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="86"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="69"/>
-    </row>
-    <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="63" t="s">
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="66"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="82"/>
+      <c r="I137" s="82"/>
+      <c r="J137" s="94"/>
+    </row>
+    <row r="138" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="39">
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="70"/>
+      <c r="G138" s="83">
         <v>4551.9230769230771</v>
       </c>
-      <c r="H139" s="39">
+      <c r="H138" s="83">
         <v>547.3172792564427</v>
       </c>
-      <c r="I139" s="39">
+      <c r="I138" s="83">
         <v>15</v>
       </c>
-      <c r="J139" s="40">
+      <c r="J138" s="95">
         <v>15</v>
       </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J139" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7504,45 +7739,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="58" t="s">
         <v>263</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -7554,19 +7789,19 @@
       <c r="I1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" s="103"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="60" t="s">
         <v>311</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -7590,16 +7825,16 @@
       <c r="I2" s="29">
         <v>20</v>
       </c>
-      <c r="J2" s="78">
+      <c r="J2" s="61">
         <f>1/G2</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="60" t="s">
         <v>311</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -7623,16 +7858,16 @@
       <c r="I3" s="29">
         <v>20</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="61">
         <f t="shared" ref="J3:J26" si="0">1/G3</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="60" t="s">
         <v>311</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -7656,7 +7891,7 @@
       <c r="I4" s="29">
         <v>20</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="61">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
@@ -7664,7 +7899,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -7692,7 +7927,7 @@
       <c r="I5" s="29">
         <v>15</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="61">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -7700,7 +7935,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -7728,7 +7963,7 @@
       <c r="I6" s="29">
         <v>10</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="61">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -7736,7 +7971,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>290</v>
       </c>
@@ -7764,7 +7999,7 @@
       <c r="I7" s="29">
         <v>10</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="61">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -7772,7 +8007,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -7800,7 +8035,7 @@
       <c r="I8" s="29">
         <v>20</v>
       </c>
-      <c r="J8" s="78">
+      <c r="J8" s="61">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -7808,21 +8043,21 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="76"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -7850,12 +8085,12 @@
       <c r="I10" s="29">
         <v>10</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="61">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -7883,19 +8118,19 @@
       <c r="I11" s="29">
         <v>10</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="61">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="63" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="60" t="s">
         <v>318</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -7919,22 +8154,22 @@
       <c r="I12" s="29">
         <v>20</v>
       </c>
-      <c r="J12" s="78">
+      <c r="J12" s="61">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="60" t="s">
         <v>318</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -7958,20 +8193,20 @@
       <c r="I13" s="29">
         <v>20</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="61">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="60" t="s">
         <v>318</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -7995,22 +8230,22 @@
       <c r="I14" s="29">
         <v>20</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="61">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="L14" s="104" t="s">
         <v>376</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="60" t="s">
         <v>319</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -8034,13 +8269,13 @@
       <c r="I15" s="29">
         <v>10</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="61">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L15" s="84"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="104"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>299</v>
       </c>
@@ -8068,15 +8303,15 @@
       <c r="I16" s="29">
         <v>15</v>
       </c>
-      <c r="J16" s="78">
+      <c r="J16" s="61">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>300</v>
       </c>
@@ -8104,15 +8339,15 @@
       <c r="I17" s="29">
         <v>10</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="61">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>301</v>
       </c>
@@ -8140,16 +8375,16 @@
       <c r="I18" s="29">
         <v>20</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="61">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-    </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>302</v>
       </c>
@@ -8177,12 +8412,12 @@
       <c r="I19" s="29">
         <v>10</v>
       </c>
-      <c r="J19" s="78">
+      <c r="J19" s="61">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>303</v>
       </c>
@@ -8210,12 +8445,12 @@
       <c r="I20" s="29">
         <v>10</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="61">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>304</v>
       </c>
@@ -8243,12 +8478,12 @@
       <c r="I21" s="29">
         <v>10</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="61">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>305</v>
       </c>
@@ -8276,12 +8511,12 @@
       <c r="I22" s="29">
         <v>5</v>
       </c>
-      <c r="J22" s="78">
+      <c r="J22" s="61">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>306</v>
       </c>
@@ -8309,12 +8544,12 @@
       <c r="I23" s="29">
         <v>10</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J23" s="61">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -8342,12 +8577,12 @@
       <c r="I24" s="29">
         <v>20</v>
       </c>
-      <c r="J24" s="78">
+      <c r="J24" s="61">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>308</v>
       </c>
@@ -8375,12 +8610,12 @@
       <c r="I25" s="29">
         <v>20</v>
       </c>
-      <c r="J25" s="78">
+      <c r="J25" s="61">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>309</v>
       </c>
@@ -8408,23 +8643,23 @@
       <c r="I26" s="29">
         <v>15</v>
       </c>
-      <c r="J26" s="78">
+      <c r="J26" s="61">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>374</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="58" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>284</v>
       </c>
@@ -8445,7 +8680,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>311</v>
       </c>
@@ -8465,7 +8700,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>311</v>
       </c>
@@ -8485,7 +8720,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>311</v>
       </c>
@@ -8505,7 +8740,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>312</v>
       </c>
@@ -8525,7 +8760,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -8545,7 +8780,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>314</v>
       </c>
@@ -8565,7 +8800,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>315</v>
       </c>
@@ -8585,7 +8820,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -8605,7 +8840,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>317</v>
       </c>
@@ -8625,7 +8860,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>318</v>
       </c>
@@ -8645,7 +8880,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -8665,7 +8900,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>318</v>
       </c>
@@ -8685,7 +8920,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>319</v>
       </c>
@@ -8705,7 +8940,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>320</v>
       </c>
@@ -8725,7 +8960,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>321</v>
       </c>
@@ -8745,7 +8980,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>322</v>
       </c>
@@ -8765,7 +9000,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>323</v>
       </c>
@@ -8785,7 +9020,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>324</v>
       </c>
@@ -8805,7 +9040,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>325</v>
       </c>
@@ -8825,7 +9060,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>326</v>
       </c>
@@ -8845,7 +9080,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>327</v>
       </c>
@@ -8865,7 +9100,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>328</v>
       </c>
@@ -8885,7 +9120,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>328</v>
       </c>
@@ -8905,7 +9140,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>329</v>
       </c>
@@ -8929,19 +9164,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView topLeftCell="C27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>136</v>
       </c>
@@ -8956,7 +9191,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
@@ -8976,7 +9211,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
@@ -8996,7 +9231,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -9004,7 +9239,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -9012,7 +9247,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -9020,7 +9255,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -9028,7 +9263,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -9036,7 +9271,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -9044,7 +9279,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -9052,7 +9287,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -9060,7 +9295,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -9068,7 +9303,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -9076,7 +9311,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -9084,7 +9319,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -9092,7 +9327,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -9116,7 +9351,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -9134,7 +9369,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>186</v>
       </c>
@@ -9152,12 +9387,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -9175,7 +9410,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -9193,7 +9428,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -9211,7 +9446,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -9229,12 +9464,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -9252,7 +9487,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>185</v>
       </c>
@@ -9270,7 +9505,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -9288,7 +9523,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -9296,7 +9531,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>193</v>
       </c>
@@ -9314,7 +9549,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -9332,7 +9567,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -9350,12 +9585,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -9374,7 +9609,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -9392,7 +9627,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -9410,12 +9645,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -9433,7 +9668,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>193</v>
       </c>
@@ -9454,7 +9689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -9478,14 +9713,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H55">
         <v>24.88</v>
       </c>
       <c r="I55" t="s">
         <v>237</v>
       </c>
-      <c r="K55" s="67">
+      <c r="K55" s="54">
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="M55" t="s">
@@ -9495,7 +9730,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -9505,7 +9740,7 @@
       <c r="I56" t="s">
         <v>238</v>
       </c>
-      <c r="K56" s="67">
+      <c r="K56" s="54">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="M56" t="s">
@@ -9518,7 +9753,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -9539,7 +9774,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -9560,7 +9795,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -9579,12 +9814,12 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -9593,7 +9828,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -9602,7 +9837,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -9611,7 +9846,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -9620,12 +9855,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -9643,7 +9878,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -9661,7 +9896,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -9679,12 +9914,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -9702,7 +9937,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -9720,7 +9955,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -9738,12 +9973,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -9752,7 +9987,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -9761,7 +9996,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -9770,7 +10005,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -9786,29 +10021,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -9840,7 +10075,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -9853,7 +10088,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -9886,7 +10121,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -9921,7 +10156,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
@@ -9957,7 +10192,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -9992,7 +10227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
@@ -10027,7 +10262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>78</v>
       </c>
@@ -10062,7 +10297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -10097,7 +10332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
@@ -10128,7 +10363,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -10142,7 +10377,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
@@ -10175,7 +10410,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -10208,7 +10443,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -10241,7 +10476,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -10274,12 +10509,12 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -10302,7 +10537,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
@@ -10335,7 +10570,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -10368,12 +10603,12 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>145</v>
       </c>
@@ -10390,7 +10625,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
@@ -10418,7 +10653,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>55</v>
       </c>
@@ -10446,7 +10681,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>92</v>
       </c>
@@ -10468,12 +10703,12 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -10487,7 +10722,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -10518,7 +10753,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>47</v>
       </c>
@@ -10532,7 +10767,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>35</v>
       </c>
@@ -10566,7 +10801,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>36</v>
       </c>
@@ -10600,7 +10835,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -10636,7 +10871,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
@@ -10670,7 +10905,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>27</v>
       </c>
@@ -10687,7 +10922,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>38</v>
       </c>
@@ -10720,7 +10955,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>39</v>
       </c>
@@ -10754,7 +10989,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>40</v>
       </c>
@@ -10788,7 +11023,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="17"/>
@@ -10804,12 +11039,12 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>92</v>
       </c>
@@ -10829,7 +11064,7 @@
       </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H40" s="3"/>
     </row>
   </sheetData>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716CC3E-F658-4A04-B8F1-2D19A5579F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E526E2E-D0F5-42FF-AE9B-1B217B667BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="Properties PCBs" sheetId="10" r:id="rId3"/>
     <sheet name="Bulks" sheetId="6" r:id="rId4"/>
     <sheet name="UDC" sheetId="11" r:id="rId5"/>
-    <sheet name="Extra" sheetId="9" r:id="rId6"/>
-    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId7"/>
+    <sheet name="Power" sheetId="12" r:id="rId6"/>
+    <sheet name="Extra" sheetId="9" r:id="rId7"/>
+    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="386">
   <si>
     <t>Material</t>
   </si>
@@ -1186,6 +1187,27 @@
   </si>
   <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Power Consumption (W)</t>
+  </si>
+  <si>
+    <t>Power Consumption (mW)</t>
+  </si>
+  <si>
+    <t>Measuring</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1690,6 +1712,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -3800,7 +3827,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4401,7 +4428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
@@ -7743,7 +7770,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9164,10 +9191,846 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0145C53C-CDB4-4DC1-9C26-F145697A0280}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="105" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="H1" s="105" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="J2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3">
+        <f>0.02/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F3">
+        <f>0.02/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H3">
+        <f>C3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:K3" si="0">D3/1000</f>
+        <v>6.6666666666666675E-6</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666675E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:F5" si="1">0.02/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H27" si="2">C4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I27" si="3">D4/1000</f>
+        <v>6.6666666666666675E-6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J27" si="4">E4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K27" si="5">F4/1000</f>
+        <v>6.6666666666666675E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666675E-6</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666675E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6">
+        <v>1.91</v>
+      </c>
+      <c r="F6">
+        <v>1.91</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1.91E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>1.91E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="106">
+        <v>0</v>
+      </c>
+      <c r="F7" s="106">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="107">
+        <v>0</v>
+      </c>
+      <c r="F10" s="107">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11">
+        <v>0.24</v>
+      </c>
+      <c r="F11">
+        <v>0.24</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2.3999999999999998E-4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12">
+        <v>0.15</v>
+      </c>
+      <c r="F12">
+        <v>0.15</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>1.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="106">
+        <v>0</v>
+      </c>
+      <c r="F13" s="106">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="106">
+        <v>0</v>
+      </c>
+      <c r="F14" s="106">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="106">
+        <v>0</v>
+      </c>
+      <c r="F15" s="106">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="106">
+        <v>0</v>
+      </c>
+      <c r="F16" s="106">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>5.64</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>5.64E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18">
+        <v>389</v>
+      </c>
+      <c r="F18" s="106">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="106">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="F19" s="106">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.1452</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="106">
+        <v>227.7</v>
+      </c>
+      <c r="F20" s="106">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.22769999999999999</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="106">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="F21" s="106">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" s="106">
+        <v>217.8</v>
+      </c>
+      <c r="F22" s="106">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.21780000000000002</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="106">
+        <v>0</v>
+      </c>
+      <c r="F23" s="106">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="106">
+        <v>45</v>
+      </c>
+      <c r="F24" s="106">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="106">
+        <v>500</v>
+      </c>
+      <c r="F25" s="106">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="106">
+        <v>500</v>
+      </c>
+      <c r="F26" s="106">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="106">
+        <v>330</v>
+      </c>
+      <c r="F27" s="106">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0.33</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D3:D27)</f>
+        <v>2691.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
@@ -10020,7 +10883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E526E2E-D0F5-42FF-AE9B-1B217B667BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F472D-5A90-450D-8238-3BB999897A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Masses and Volumes" sheetId="8" r:id="rId2"/>
     <sheet name="Properties PCBs" sheetId="10" r:id="rId3"/>
     <sheet name="Bulks" sheetId="6" r:id="rId4"/>
-    <sheet name="UDC" sheetId="11" r:id="rId5"/>
+    <sheet name="UDC AI" sheetId="11" r:id="rId5"/>
     <sheet name="Power" sheetId="12" r:id="rId6"/>
     <sheet name="Extra" sheetId="9" r:id="rId7"/>
     <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId8"/>
@@ -1214,6 +1214,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1528,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1706,6 +1710,10 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1715,8 +1723,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -7769,8 +7775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7819,10 +7825,10 @@
       <c r="J1" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="107" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="103"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8261,7 +8267,7 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L14" s="104" t="s">
+      <c r="L14" s="108" t="s">
         <v>376</v>
       </c>
       <c r="M14" s="64"/>
@@ -8300,7 +8306,7 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L15" s="104"/>
+      <c r="L15" s="108"/>
     </row>
     <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -9194,8 +9200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0145C53C-CDB4-4DC1-9C26-F145697A0280}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9205,18 +9211,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="109" t="s">
         <v>384</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="H1" s="105" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="H1" s="109" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -9257,27 +9263,29 @@
       <c r="B3" t="s">
         <v>311</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="106">
         <f>0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="106"/>
+      <c r="F3" s="106">
         <f>0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="106"/>
+      <c r="H3" s="105">
         <f>C3/1000</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="105">
         <f t="shared" ref="I3:K3" si="0">D3/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="105">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="105">
         <f t="shared" si="0"/>
         <v>6.6666666666666675E-6</v>
       </c>
@@ -9289,27 +9297,29 @@
       <c r="B4" t="s">
         <v>311</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="106">
         <f t="shared" ref="D4:F5" si="1">0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="106"/>
+      <c r="F4" s="106">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="106"/>
+      <c r="H4" s="105">
         <f t="shared" ref="H4:H27" si="2">C4/1000</f>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="105">
         <f t="shared" ref="I4:I27" si="3">D4/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="105">
         <f t="shared" ref="J4:J27" si="4">E4/1000</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="105">
         <f t="shared" ref="K4:K27" si="5">F4/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
@@ -9321,27 +9331,29 @@
       <c r="B5" t="s">
         <v>311</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="106">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="106"/>
+      <c r="F5" s="106">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="106"/>
+      <c r="H5" s="105">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="105">
         <f t="shared" si="3"/>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="105">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="105">
         <f t="shared" si="5"/>
         <v>6.6666666666666675E-6</v>
       </c>
@@ -9383,10 +9395,10 @@
       <c r="B7" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="106">
-        <v>0</v>
-      </c>
-      <c r="F7" s="106">
+      <c r="D7" s="103">
+        <v>0</v>
+      </c>
+      <c r="F7" s="103">
         <v>0</v>
       </c>
       <c r="H7">
@@ -9470,10 +9482,10 @@
       <c r="A10" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="107">
-        <v>0</v>
-      </c>
-      <c r="F10" s="107">
+      <c r="D10" s="104">
+        <v>0</v>
+      </c>
+      <c r="F10" s="104">
         <v>0</v>
       </c>
       <c r="H10">
@@ -9560,10 +9572,10 @@
       <c r="B13" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="106">
-        <v>0</v>
-      </c>
-      <c r="F13" s="106">
+      <c r="D13" s="103">
+        <v>0</v>
+      </c>
+      <c r="F13" s="103">
         <v>0</v>
       </c>
       <c r="H13">
@@ -9590,10 +9602,10 @@
       <c r="B14" t="s">
         <v>318</v>
       </c>
-      <c r="D14" s="106">
-        <v>0</v>
-      </c>
-      <c r="F14" s="106">
+      <c r="D14" s="103">
+        <v>0</v>
+      </c>
+      <c r="F14" s="103">
         <v>0</v>
       </c>
       <c r="H14">
@@ -9620,10 +9632,10 @@
       <c r="B15" t="s">
         <v>318</v>
       </c>
-      <c r="D15" s="106">
-        <v>0</v>
-      </c>
-      <c r="F15" s="106">
+      <c r="D15" s="103">
+        <v>0</v>
+      </c>
+      <c r="F15" s="103">
         <v>0</v>
       </c>
       <c r="H15">
@@ -9650,10 +9662,10 @@
       <c r="B16" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="106">
-        <v>0</v>
-      </c>
-      <c r="F16" s="106">
+      <c r="D16" s="103">
+        <v>0</v>
+      </c>
+      <c r="F16" s="103">
         <v>0</v>
       </c>
       <c r="H16">
@@ -9713,7 +9725,7 @@
       <c r="D18">
         <v>389</v>
       </c>
-      <c r="F18" s="106">
+      <c r="F18" s="103">
         <v>0</v>
       </c>
       <c r="H18">
@@ -9740,10 +9752,10 @@
       <c r="B19" t="s">
         <v>322</v>
       </c>
-      <c r="D19" s="106">
+      <c r="D19" s="103">
         <v>145.19999999999999</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="103">
         <v>0</v>
       </c>
       <c r="H19">
@@ -9770,10 +9782,10 @@
       <c r="B20" t="s">
         <v>323</v>
       </c>
-      <c r="D20" s="106">
+      <c r="D20" s="103">
         <v>227.7</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="103">
         <v>0</v>
       </c>
       <c r="H20">
@@ -9800,10 +9812,10 @@
       <c r="B21" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="106">
+      <c r="D21" s="103">
         <v>290.39999999999998</v>
       </c>
-      <c r="F21" s="106">
+      <c r="F21" s="103">
         <v>0</v>
       </c>
       <c r="H21">
@@ -9830,10 +9842,10 @@
       <c r="B22" t="s">
         <v>325</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D22" s="103">
         <v>217.8</v>
       </c>
-      <c r="F22" s="106">
+      <c r="F22" s="103">
         <v>0</v>
       </c>
       <c r="H22">
@@ -9860,10 +9872,10 @@
       <c r="B23" t="s">
         <v>326</v>
       </c>
-      <c r="D23" s="106">
-        <v>0</v>
-      </c>
-      <c r="F23" s="106">
+      <c r="D23" s="103">
+        <v>0</v>
+      </c>
+      <c r="F23" s="103">
         <v>0</v>
       </c>
       <c r="H23">
@@ -9890,10 +9902,10 @@
       <c r="B24" t="s">
         <v>327</v>
       </c>
-      <c r="D24" s="106">
+      <c r="D24" s="103">
         <v>45</v>
       </c>
-      <c r="F24" s="106">
+      <c r="F24" s="103">
         <v>0</v>
       </c>
       <c r="H24">
@@ -9920,10 +9932,10 @@
       <c r="B25" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="106">
+      <c r="D25" s="103">
         <v>500</v>
       </c>
-      <c r="F25" s="106">
+      <c r="F25" s="103">
         <v>0</v>
       </c>
       <c r="H25">
@@ -9950,10 +9962,10 @@
       <c r="B26" t="s">
         <v>328</v>
       </c>
-      <c r="D26" s="106">
+      <c r="D26" s="103">
         <v>500</v>
       </c>
-      <c r="F26" s="106">
+      <c r="F26" s="103">
         <v>0</v>
       </c>
       <c r="H26">
@@ -9980,10 +9992,10 @@
       <c r="B27" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="106">
+      <c r="D27" s="103">
         <v>330</v>
       </c>
-      <c r="F27" s="106">
+      <c r="F27" s="103">
         <v>0</v>
       </c>
       <c r="H27">

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F472D-5A90-450D-8238-3BB999897A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E127DD-0493-4395-8D7E-968546525D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1527,12 +1527,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1723,6 +1732,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2736,7 +2747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4434,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5374,21 +5385,22 @@
       <c r="B40" t="s">
         <v>213</v>
       </c>
-      <c r="C40">
-        <v>7.1</v>
+      <c r="C40" s="110">
+        <v>6.6</v>
       </c>
       <c r="D40" s="69">
         <f>C40/1000</f>
-        <v>7.0999999999999995E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E40">
         <f>C40/C42</f>
-        <v>1.0757575757575757</v>
+        <v>0.92957746478873238</v>
       </c>
       <c r="F40" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="84">
+        <f>D40/F42</f>
         <v>1629.6296296296296</v>
       </c>
       <c r="H40" s="84">
@@ -5409,15 +5421,15 @@
         <v>93</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D41" s="69">
         <f t="shared" ref="D41:D42" si="1">C41/1000</f>
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E41">
-        <f>C41/C42</f>
-        <v>0</v>
+        <f>C41/C40</f>
+        <v>7.575757575757576E-2</v>
       </c>
       <c r="F41" s="69" t="s">
         <v>23</v>
@@ -5442,20 +5454,19 @@
       <c r="B42" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="36">
-        <v>6.6</v>
+      <c r="C42" s="111">
+        <v>7.1</v>
       </c>
       <c r="D42" s="70">
-        <f t="shared" si="1"/>
-        <v>6.6E-3</v>
+        <f>C42/1000</f>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="70">
         <v>4.0500000000000002E-6</v>
       </c>
       <c r="G42" s="83">
-        <f>D40/F42</f>
-        <v>1753.0864197530861</v>
+        <v>1629.6296296296296</v>
       </c>
       <c r="H42" s="83">
         <v>903.96364021734939</v>
@@ -7775,7 +7786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E127DD-0493-4395-8D7E-968546525D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE37FDCC-BB21-4CB9-8565-E2D0131E9E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="36" windowWidth="22992" windowHeight="12324" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="386">
   <si>
     <t>Material</t>
   </si>
@@ -1723,6 +1723,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1732,8 +1733,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -4445,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5385,7 +5385,7 @@
       <c r="B40" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="110">
+      <c r="C40">
         <v>6.6</v>
       </c>
       <c r="D40" s="69">
@@ -5424,7 +5424,7 @@
         <v>0.5</v>
       </c>
       <c r="D41" s="69">
-        <f t="shared" ref="D41:D42" si="1">C41/1000</f>
+        <f t="shared" ref="D41" si="1">C41/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E41">
@@ -5454,7 +5454,7 @@
       <c r="B42" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="111">
+      <c r="C42" s="107">
         <v>7.1</v>
       </c>
       <c r="D42" s="70">
@@ -5564,6 +5564,9 @@
       <c r="A47" s="38" t="s">
         <v>91</v>
       </c>
+      <c r="B47" t="s">
+        <v>214</v>
+      </c>
       <c r="C47">
         <v>2.4</v>
       </c>
@@ -5595,7 +5598,9 @@
       <c r="A48" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="36"/>
+      <c r="B48" s="111" t="s">
+        <v>22</v>
+      </c>
       <c r="C48" s="36">
         <f>SUM(C46:C47)</f>
         <v>8</v>
@@ -5710,6 +5715,9 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
         <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>214</v>
       </c>
       <c r="C53">
         <v>1.6</v>
@@ -7836,10 +7844,10 @@
       <c r="J1" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="108" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="107"/>
+      <c r="M1" s="108"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8278,7 +8286,7 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L14" s="108" t="s">
+      <c r="L14" s="109" t="s">
         <v>376</v>
       </c>
       <c r="M14" s="64"/>
@@ -8317,7 +8325,7 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L15" s="108"/>
+      <c r="L15" s="109"/>
     </row>
     <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -9222,18 +9230,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="H1" s="109" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="H1" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE37FDCC-BB21-4CB9-8565-E2D0131E9E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4072BD22-43B3-47F6-9841-6DF049D9F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="36" windowWidth="22992" windowHeight="12324" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="36" windowWidth="22992" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="386">
   <si>
     <t>Material</t>
   </si>
@@ -1541,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1724,6 +1724,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1733,7 +1734,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2305,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3844,7 +3845,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4443,10 +4444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5598,7 +5599,7 @@
       <c r="A48" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="36">
@@ -6068,8 +6069,8 @@
       <c r="D68" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="31">
-        <v>1</v>
+      <c r="E68" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="F68" s="68" t="s">
         <v>86</v>
@@ -6102,13 +6103,25 @@
         <f>C69/1000</f>
         <v>7.6E-3</v>
       </c>
+      <c r="E69" s="112">
+        <f>D69/D71</f>
+        <v>0.91566265060240981</v>
+      </c>
       <c r="F69" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="96"/>
+      <c r="G69" s="84">
+        <v>3242.1874999999991</v>
+      </c>
+      <c r="H69" s="84">
+        <v>904.86619540520076</v>
+      </c>
+      <c r="I69" s="72">
+        <v>0.29142496305131627</v>
+      </c>
+      <c r="J69" s="96">
+        <v>88.525164000000032</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
@@ -6121,258 +6134,281 @@
         <v>0.7</v>
       </c>
       <c r="D70" s="69">
-        <f t="shared" ref="D70:D72" si="2">C70/1000</f>
+        <f t="shared" ref="D70:D71" si="2">C70/1000</f>
         <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E70" s="112">
+        <f>D70/D71</f>
+        <v>8.4337349397590383E-2</v>
       </c>
       <c r="F70" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="96"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
-        <v>91</v>
+      <c r="G70" s="84">
+        <v>3242.1874999999991</v>
+      </c>
+      <c r="H70" s="84">
+        <v>904.86619540520076</v>
+      </c>
+      <c r="I70" s="72">
+        <v>0.29142496305131627</v>
+      </c>
+      <c r="J70" s="96">
+        <v>88.525164000000032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36">
+        <f>SUM(C69:C70)</f>
+        <v>8.2999999999999989</v>
       </c>
       <c r="D71" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="69" t="s">
+        <v>8.2999999999999984E-3</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="70">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="G71" s="83">
+        <f>D71/F71</f>
+        <v>3242.1874999999991</v>
+      </c>
+      <c r="H71" s="83">
+        <v>904.86619540520076</v>
+      </c>
+      <c r="I71" s="75">
+        <v>0.29142496305131627</v>
+      </c>
+      <c r="J71" s="95">
+        <v>88.525164000000032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="23"/>
+      <c r="D72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="G73" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J73" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36">
+        <v>5.7</v>
+      </c>
+      <c r="D74" s="70">
+        <f>C74/1000</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="70">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="G74" s="87">
+        <f>D74/F74</f>
+        <v>13.255813953488373</v>
+      </c>
+      <c r="H74" s="87">
+        <v>500</v>
+      </c>
+      <c r="I74" s="87">
+        <v>15</v>
+      </c>
+      <c r="J74" s="100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="23"/>
+      <c r="D75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J76" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77">
+        <f>24</f>
+        <v>24</v>
+      </c>
+      <c r="D77" s="69">
+        <f>C77/1000</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="E77">
+        <f>D77/D86</f>
+        <v>0.92407207762205446</v>
+      </c>
+      <c r="F77" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="96"/>
-    </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36">
-        <f>SUM(C69:C70)</f>
-        <v>8.2999999999999989</v>
-      </c>
-      <c r="D72" s="69">
-        <f t="shared" si="2"/>
-        <v>8.2999999999999984E-3</v>
-      </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="70">
-        <v>2.5600000000000001E-6</v>
-      </c>
-      <c r="G72" s="83">
-        <f>D72/F72</f>
-        <v>3242.1874999999991</v>
-      </c>
-      <c r="H72" s="83">
-        <v>904.86619540520076</v>
-      </c>
-      <c r="I72" s="75">
-        <v>0.38300309109725139</v>
-      </c>
-      <c r="J72" s="95">
-        <v>88.525164000000032</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="23"/>
-      <c r="D73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D74" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="G74" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="H74" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="J74" s="97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36">
-        <v>5.7</v>
-      </c>
-      <c r="D75" s="70">
-        <f>C75/1000</f>
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="70">
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="G75" s="87">
-        <f>D75/F75</f>
-        <v>13.255813953488373</v>
-      </c>
-      <c r="H75" s="87">
-        <v>500</v>
-      </c>
-      <c r="I75" s="87">
-        <v>15</v>
-      </c>
-      <c r="J75" s="100">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="23"/>
-      <c r="D76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D77" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F77" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="J77" s="97" t="s">
-        <v>206</v>
+      <c r="G77" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="88">
+        <v>960</v>
+      </c>
+      <c r="I77" s="79">
+        <v>130</v>
+      </c>
+      <c r="J77" s="101">
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78">
-        <f>24</f>
-        <v>24</v>
+        <f>4*0.29*1.7</f>
+        <v>1.9719999999999998</v>
       </c>
       <c r="D78" s="69">
         <f>C78/1000</f>
-        <v>2.4E-2</v>
+        <v>1.9719999999999998E-3</v>
       </c>
       <c r="E78">
-        <f>D78/D87</f>
-        <v>0.92407207762205446</v>
-      </c>
-      <c r="F78" s="69" t="s">
-        <v>23</v>
-      </c>
+        <f>D78/D86</f>
+        <v>7.5927922377945462E-2</v>
+      </c>
+      <c r="F78" s="69"/>
       <c r="G78" s="84" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="88">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="I78" s="79">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="J78" s="101">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B79" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79">
-        <f>4*0.29*1.7</f>
-        <v>1.9719999999999998</v>
-      </c>
-      <c r="D79" s="69">
-        <f>C79/1000</f>
-        <v>1.9719999999999998E-3</v>
-      </c>
-      <c r="E79">
-        <f>D79/D87</f>
-        <v>7.5927922377945462E-2</v>
-      </c>
+      <c r="A79" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="69"/>
       <c r="F79" s="69"/>
-      <c r="G79" s="84" t="s">
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="96"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
         <v>23</v>
       </c>
-      <c r="H79" s="88">
-        <v>500</v>
-      </c>
-      <c r="I79" s="79">
-        <v>15</v>
-      </c>
-      <c r="J79" s="101">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="34" t="s">
-        <v>169</v>
+      <c r="C80" t="s">
+        <v>23</v>
       </c>
       <c r="D80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="96"/>
+      <c r="F80" s="69">
+        <v>3.1203999999999998E-6</v>
+      </c>
+      <c r="G80" s="84">
+        <v>1401.4979818256384</v>
+      </c>
+      <c r="H80" s="88">
+        <v>925.07315570614492</v>
+      </c>
+      <c r="I80" s="79">
+        <v>121.26828892653627</v>
+      </c>
+      <c r="J80" s="101">
+        <v>121.26828892653627</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
@@ -6382,7 +6418,7 @@
       </c>
       <c r="D81" s="69"/>
       <c r="F81" s="69">
-        <v>3.1203999999999998E-6</v>
+        <v>1.52E-5</v>
       </c>
       <c r="G81" s="84">
         <v>1401.4979818256384</v>
@@ -6399,7 +6435,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
@@ -6409,7 +6445,7 @@
       </c>
       <c r="D82" s="69"/>
       <c r="F82" s="69">
-        <v>1.52E-5</v>
+        <v>3.3600000000000003E-8</v>
       </c>
       <c r="G82" s="84">
         <v>1401.4979818256384</v>
@@ -6426,7 +6462,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -6436,7 +6472,7 @@
       </c>
       <c r="D83" s="69"/>
       <c r="F83" s="69">
-        <v>3.3600000000000003E-8</v>
+        <v>1.92E-8</v>
       </c>
       <c r="G83" s="84">
         <v>1401.4979818256384</v>
@@ -6452,99 +6488,80 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="69"/>
-      <c r="F84" s="69">
-        <v>1.92E-8</v>
-      </c>
-      <c r="G84" s="84">
+      <c r="A84" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="94"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="84">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H84" s="88">
+      <c r="H85" s="88">
         <v>925.07315570614492</v>
       </c>
-      <c r="I84" s="79">
+      <c r="I85" s="79">
         <v>121.26828892653627</v>
       </c>
-      <c r="J84" s="101">
+      <c r="J85" s="101">
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="74"/>
-      <c r="J85" s="94"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="84">
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36">
+        <f>SUM(C77:C78)</f>
+        <v>25.972000000000001</v>
+      </c>
+      <c r="D86" s="70">
+        <f>SUM(D77:D78)</f>
+        <v>2.5972000000000002E-2</v>
+      </c>
+      <c r="E86" s="36"/>
+      <c r="F86" s="70">
+        <f>F80+F81+F82*4+F83*4</f>
+        <v>1.8531600000000001E-5</v>
+      </c>
+      <c r="G86" s="83">
+        <f>D86/F86</f>
         <v>1401.4979818256384</v>
       </c>
-      <c r="H86" s="88">
+      <c r="H86" s="87">
+        <f>H77*$E$77+H78*$E$78</f>
         <v>925.07315570614492</v>
       </c>
-      <c r="I86" s="79">
+      <c r="I86" s="78">
+        <f>I77*$E$77+I78*$E$78</f>
         <v>121.26828892653627</v>
       </c>
-      <c r="J86" s="101">
+      <c r="J86" s="100">
+        <f>J77*$E$77+J78*$E$78</f>
         <v>121.26828892653627</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36">
-        <f>SUM(C78:C79)</f>
-        <v>25.972000000000001</v>
-      </c>
-      <c r="D87" s="70">
-        <f>SUM(D78:D79)</f>
-        <v>2.5972000000000002E-2</v>
-      </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="70">
-        <f>F81+F82+F83*4+F84*4</f>
-        <v>1.8531600000000001E-5</v>
-      </c>
-      <c r="G87" s="83">
-        <f>D87/F87</f>
-        <v>1401.4979818256384</v>
-      </c>
-      <c r="H87" s="87">
-        <f>H78*$E$78+H79*$E$79</f>
-        <v>925.07315570614492</v>
-      </c>
-      <c r="I87" s="78">
-        <f>I78*$E$78+I79*$E$79</f>
-        <v>121.26828892653627</v>
-      </c>
-      <c r="J87" s="100">
-        <f>J78*$E$78+J79*$E$79</f>
-        <v>121.26828892653627</v>
-      </c>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D88" s="69"/>
@@ -6562,7 +6579,10 @@
       <c r="I89" s="72"/>
       <c r="J89" s="72"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="D90" s="69"/>
       <c r="F90" s="69"/>
       <c r="G90" s="84"/>
@@ -6570,97 +6590,114 @@
       <c r="I90" s="72"/>
       <c r="J90" s="72"/>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="72"/>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F91" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G91" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J91" s="97" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F92" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G92" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="H92" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I92" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="J92" s="97" t="s">
-        <v>206</v>
+      <c r="A92" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>0.9</v>
+      </c>
+      <c r="D92" s="69">
+        <f>C92/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="69">
+        <v>3.96E-7</v>
+      </c>
+      <c r="G92" s="85">
+        <f>D92/F92</f>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H92" s="81">
+        <v>325</v>
+      </c>
+      <c r="I92" s="81">
+        <v>50</v>
+      </c>
+      <c r="J92" s="93">
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93">
+      <c r="A93" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="94"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94">
         <v>0.9</v>
       </c>
-      <c r="D93" s="69">
-        <f>C93/1000</f>
+      <c r="D94" s="69">
+        <f>C94/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>1</v>
       </c>
-      <c r="F93" s="69">
-        <v>3.96E-7</v>
-      </c>
-      <c r="G93" s="85">
-        <f>D93/F93</f>
+      <c r="F94" s="69"/>
+      <c r="G94" s="85">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H93" s="81">
+      <c r="H94" s="85">
         <v>325</v>
       </c>
-      <c r="I93" s="81">
+      <c r="I94" s="85">
         <v>50</v>
       </c>
-      <c r="J93" s="93">
+      <c r="J94" s="98">
         <v>50</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="94"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C95">
         <v>0.9</v>
@@ -6688,7 +6725,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C96">
         <v>0.9</v>
@@ -6714,133 +6751,113 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36">
         <v>0.9</v>
       </c>
-      <c r="D97" s="69">
+      <c r="D97" s="70">
         <f>C97/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="36">
         <v>1</v>
       </c>
-      <c r="F97" s="69"/>
-      <c r="G97" s="85">
+      <c r="F97" s="70"/>
+      <c r="G97" s="83">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H97" s="85">
+      <c r="H97" s="83">
         <v>325</v>
       </c>
-      <c r="I97" s="85">
+      <c r="I97" s="83">
         <v>50</v>
       </c>
-      <c r="J97" s="98">
+      <c r="J97" s="95">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="D98" s="70">
-        <f>C98/1000</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E98" s="36">
-        <v>1</v>
-      </c>
-      <c r="F98" s="70"/>
-      <c r="G98" s="83">
-        <v>2272.7272727272725</v>
-      </c>
-      <c r="H98" s="83">
-        <v>325</v>
-      </c>
-      <c r="I98" s="83">
-        <v>50</v>
-      </c>
-      <c r="J98" s="95">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="84"/>
-      <c r="H99" s="84"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="s">
+      <c r="D98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="84"/>
+      <c r="H98" s="84"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B100" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="31" t="s">
+      <c r="B99" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D100" s="68" t="s">
+      <c r="D99" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E99" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F100" s="68" t="s">
+      <c r="F99" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G100" s="80" t="s">
+      <c r="G99" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="91" t="s">
+      <c r="H99" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="90" t="s">
+      <c r="I99" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="J100" s="97" t="s">
+      <c r="J99" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="K100" s="22"/>
-    </row>
-    <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="35" t="s">
+      <c r="K99" s="22"/>
+    </row>
+    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36">
+      <c r="B100" s="36"/>
+      <c r="C100" s="36">
         <v>34</v>
       </c>
-      <c r="D101" s="70">
-        <f>C101/1000</f>
+      <c r="D100" s="70">
+        <f>C100/1000</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="70">
+      <c r="E100" s="36"/>
+      <c r="F100" s="70">
         <v>1.216E-5</v>
       </c>
-      <c r="G101" s="83">
-        <f>D101/F101</f>
+      <c r="G100" s="83">
+        <f>D100/F100</f>
         <v>2796.0526315789475</v>
       </c>
-      <c r="H101" s="87">
+      <c r="H100" s="87">
         <v>1000</v>
       </c>
-      <c r="I101" s="75">
+      <c r="I100" s="75">
         <v>0.6</v>
       </c>
-      <c r="J101" s="95">
+      <c r="J100" s="95">
         <v>2.5</v>
       </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D101" s="69"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D102" s="69"/>
@@ -6850,198 +6867,198 @@
       <c r="I102" s="72"/>
       <c r="J102" s="72"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="D103" s="69"/>
       <c r="F103" s="69"/>
       <c r="G103" s="84"/>
       <c r="H103" s="84"/>
-      <c r="I103" s="72"/>
+      <c r="I103" s="72">
+        <v>2</v>
+      </c>
       <c r="J103" s="72"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="84"/>
-      <c r="H104" s="84"/>
-      <c r="I104" s="72">
-        <v>2</v>
-      </c>
-      <c r="J104" s="72"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G104" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J104" s="97" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D105" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E105" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F105" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I105" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="J105" s="97" t="s">
-        <v>206</v>
+      <c r="A105" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D105" s="69">
+        <f>C105/1000</f>
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="E105">
+        <f>D105/$D$107</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="F105" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="88">
+        <v>8800</v>
+      </c>
+      <c r="H105" s="88">
+        <v>380</v>
+      </c>
+      <c r="I105" s="79">
+        <v>62</v>
+      </c>
+      <c r="J105" s="101">
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C106">
-        <v>0.32500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="D106" s="69">
         <f>C106/1000</f>
-        <v>3.2499999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E106">
-        <f>D106/$D$108</f>
-        <v>0.44827586206896552</v>
+        <f>D106/$D$107</f>
+        <v>0.55172413793103459</v>
       </c>
       <c r="F106" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G106" s="88">
-        <v>8800</v>
+        <v>1070</v>
       </c>
       <c r="H106" s="88">
-        <v>380</v>
+        <v>1990</v>
       </c>
       <c r="I106" s="79">
-        <v>62</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="J106" s="101">
-        <v>62</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B107" t="s">
-        <v>21</v>
+      <c r="A107" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="C107">
-        <v>0.4</v>
+        <f>SUM(C105:C106)</f>
+        <v>0.72500000000000009</v>
       </c>
       <c r="D107" s="69">
-        <f>C107/1000</f>
-        <v>4.0000000000000002E-4</v>
+        <f>SUM(D105:D106)</f>
+        <v>7.2499999999999995E-4</v>
       </c>
       <c r="E107">
-        <f>D107/$D$108</f>
-        <v>0.55172413793103459</v>
-      </c>
-      <c r="F107" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" s="88">
-        <v>1070</v>
-      </c>
-      <c r="H107" s="88">
-        <v>1990</v>
-      </c>
-      <c r="I107" s="79">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="J107" s="101">
-        <v>0.16200000000000001</v>
+        <f>SUM(E105:E106)</f>
+        <v>1</v>
+      </c>
+      <c r="F107" s="69">
+        <v>2.8980000000000001E-7</v>
+      </c>
+      <c r="G107" s="85">
+        <f>D107/F107</f>
+        <v>2501.7253278122839</v>
+      </c>
+      <c r="H107" s="85">
+        <f>H105*$E$105+H106*$E$106</f>
+        <v>1268.2758620689658</v>
+      </c>
+      <c r="I107" s="76">
+        <f>I105*$E$105+I106*$E$106</f>
+        <v>27.882482758620689</v>
+      </c>
+      <c r="J107" s="98">
+        <f>J105*$E$105+J106*$E$106</f>
+        <v>27.882482758620689</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108">
-        <f>SUM(C106:C107)</f>
-        <v>0.72500000000000009</v>
-      </c>
-      <c r="D108" s="69">
-        <f>SUM(D106:D107)</f>
-        <v>7.2499999999999995E-4</v>
-      </c>
-      <c r="E108">
-        <f>SUM(E106:E107)</f>
-        <v>1</v>
-      </c>
-      <c r="F108" s="69">
-        <v>2.8980000000000001E-7</v>
-      </c>
-      <c r="G108" s="85">
-        <f>D108/F108</f>
+      <c r="A108" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="82"/>
+      <c r="H108" s="82"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="94"/>
+    </row>
+    <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="83">
         <v>2501.7253278122839</v>
       </c>
-      <c r="H108" s="85">
-        <f>H106*$E$106+H107*$E$107</f>
+      <c r="H109" s="83">
         <v>1268.2758620689658</v>
       </c>
-      <c r="I108" s="76">
-        <f>I106*$E$106+I107*$E$107</f>
+      <c r="I109" s="75">
         <v>27.882482758620689</v>
       </c>
-      <c r="J108" s="98">
-        <f>J106*$E$106+J107*$E$107</f>
+      <c r="J109" s="95">
         <v>27.882482758620689</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="82"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="94"/>
-    </row>
-    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="83">
-        <v>2501.7253278122839</v>
-      </c>
-      <c r="H110" s="83">
-        <v>1268.2758620689658</v>
-      </c>
-      <c r="I110" s="75">
-        <v>27.882482758620689</v>
-      </c>
-      <c r="J110" s="95">
-        <v>27.882482758620689</v>
-      </c>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D110" s="69"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="84"/>
+      <c r="H110" s="84"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D111" s="69"/>
@@ -7051,7 +7068,10 @@
       <c r="I111" s="72"/>
       <c r="J111" s="72"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D112" s="69"/>
       <c r="F112" s="69"/>
       <c r="G112" s="84"/>
@@ -7059,98 +7079,120 @@
       <c r="I112" s="72"/>
       <c r="J112" s="72"/>
     </row>
-    <row r="113" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="84"/>
-      <c r="H113" s="84"/>
-      <c r="I113" s="72"/>
-      <c r="J113" s="72"/>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D113" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G113" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I113" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J113" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L113" s="22"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D114" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F114" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G114" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="H114" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="J114" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="L114" s="22"/>
+      <c r="A114" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+      <c r="D114" s="69">
+        <f>C114/1000</f>
+        <v>0.03</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I114" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="J114" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="L114" s="7"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B115" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115">
-        <v>30</v>
-      </c>
-      <c r="D115" s="69">
-        <f>C115/1000</f>
-        <v>0.03</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" s="69" t="s">
+      <c r="A115" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="84"/>
+      <c r="H115" s="84"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="96"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" t="s">
         <v>23</v>
       </c>
-      <c r="G115" s="88" t="s">
+      <c r="C116" t="s">
         <v>23</v>
       </c>
-      <c r="H115" s="88" t="s">
+      <c r="D116" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I115" s="79" t="s">
+      <c r="E116" t="s">
         <v>23</v>
       </c>
-      <c r="J115" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="L115" s="7"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="84"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="96"/>
+      <c r="F116" s="69">
+        <v>2.6599999999999999E-6</v>
+      </c>
+      <c r="G116" s="85">
+        <f>$G$128</f>
+        <v>1885.8436007040482</v>
+      </c>
+      <c r="H116" s="81">
+        <v>1010</v>
+      </c>
+      <c r="I116" s="73">
+        <v>0.27</v>
+      </c>
+      <c r="J116" s="93">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
@@ -7165,10 +7207,10 @@
         <v>23</v>
       </c>
       <c r="F117" s="69">
-        <v>2.6599999999999999E-6</v>
+        <v>7.9800000000000003E-7</v>
       </c>
       <c r="G117" s="85">
-        <f>$G$129</f>
+        <f t="shared" ref="G117:G121" si="3">$G$128</f>
         <v>1885.8436007040482</v>
       </c>
       <c r="H117" s="81">
@@ -7183,7 +7225,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
         <v>23</v>
@@ -7201,7 +7243,7 @@
         <v>7.9800000000000003E-7</v>
       </c>
       <c r="G118" s="85">
-        <f t="shared" ref="G118:G122" si="3">$G$129</f>
+        <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
       <c r="H118" s="81">
@@ -7216,7 +7258,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
@@ -7231,7 +7273,7 @@
         <v>23</v>
       </c>
       <c r="F119" s="69">
-        <v>7.9800000000000003E-7</v>
+        <v>2.9440000000000001E-6</v>
       </c>
       <c r="G119" s="85">
         <f t="shared" si="3"/>
@@ -7249,7 +7291,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="49" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
@@ -7282,7 +7324,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="49" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
         <v>23</v>
@@ -7297,7 +7339,7 @@
         <v>23</v>
       </c>
       <c r="F121" s="69">
-        <v>2.9440000000000001E-6</v>
+        <v>5.2440000000000001E-6</v>
       </c>
       <c r="G121" s="85">
         <f t="shared" si="3"/>
@@ -7314,91 +7356,83 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="49" t="s">
-        <v>135</v>
+      <c r="A122" s="56" t="s">
+        <v>252</v>
       </c>
       <c r="B122" t="s">
         <v>23</v>
       </c>
-      <c r="C122" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" t="s">
-        <v>23</v>
+      <c r="C122">
+        <f>SUM(C123:C124)</f>
+        <v>0.30199515966809148</v>
+      </c>
+      <c r="D122" s="69">
+        <f>SUM(D123:D124)</f>
+        <v>3.0199515966809152E-4</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
       </c>
       <c r="F122" s="69">
-        <v>5.2440000000000001E-6</v>
+        <v>1.3E-7</v>
       </c>
       <c r="G122" s="85">
-        <f t="shared" si="3"/>
-        <v>1885.8436007040482</v>
+        <f>(1.7*0.1775/1000)/F122+G121</f>
+        <v>4206.9974468578948</v>
       </c>
       <c r="H122" s="81">
-        <v>1010</v>
-      </c>
-      <c r="I122" s="73">
-        <v>0.27</v>
+        <v>500</v>
+      </c>
+      <c r="I122" s="81">
+        <v>15</v>
       </c>
       <c r="J122" s="93">
-        <v>0.27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="56" t="s">
-        <v>252</v>
+      <c r="A123" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C123">
-        <f>SUM(C124:C125)</f>
-        <v>0.30199515966809148</v>
+        <f>F122*G121</f>
+        <v>2.4515966809152628E-4</v>
       </c>
       <c r="D123" s="69">
-        <f>SUM(D124:D125)</f>
-        <v>3.0199515966809152E-4</v>
+        <f>C123/1000</f>
+        <v>2.4515966809152627E-7</v>
       </c>
       <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123" s="69">
-        <v>1.3E-7</v>
-      </c>
-      <c r="G123" s="85">
-        <f>(1.7*0.1775/1000)/F123+G122</f>
-        <v>4206.9974468578948</v>
-      </c>
-      <c r="H123" s="81">
-        <v>500</v>
-      </c>
-      <c r="I123" s="81">
-        <v>15</v>
-      </c>
-      <c r="J123" s="93">
-        <v>15</v>
-      </c>
+        <f>D123/D122</f>
+        <v>8.1179999163221545E-4</v>
+      </c>
+      <c r="F123" s="69"/>
+      <c r="G123" s="89"/>
+      <c r="H123" s="92"/>
+      <c r="I123" s="92"/>
+      <c r="J123" s="102"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="57" t="s">
-        <v>51</v>
+      <c r="A124" s="49" t="s">
+        <v>255</v>
       </c>
       <c r="B124" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C124">
-        <f>F123*G122</f>
-        <v>2.4515966809152628E-4</v>
+        <f>1.7*0.1775</f>
+        <v>0.30174999999999996</v>
       </c>
       <c r="D124" s="69">
         <f>C124/1000</f>
-        <v>2.4515966809152627E-7</v>
+        <v>3.0174999999999999E-4</v>
       </c>
       <c r="E124">
-        <f>D124/D123</f>
-        <v>8.1179999163221545E-4</v>
+        <f>D124/D122</f>
+        <v>0.99918820000836783</v>
       </c>
       <c r="F124" s="69"/>
       <c r="G124" s="89"/>
@@ -7408,32 +7442,39 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="49" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
-      </c>
-      <c r="C125">
-        <f>1.7*0.1775</f>
-        <v>0.30174999999999996</v>
-      </c>
-      <c r="D125" s="69">
-        <f>C125/1000</f>
-        <v>3.0174999999999999E-4</v>
-      </c>
-      <c r="E125">
-        <f>D125/D123</f>
-        <v>0.99918820000836783</v>
-      </c>
-      <c r="F125" s="69"/>
-      <c r="G125" s="89"/>
-      <c r="H125" s="92"/>
-      <c r="I125" s="92"/>
-      <c r="J125" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="69">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G125" s="85">
+        <v>4206.9974468578948</v>
+      </c>
+      <c r="H125" s="81">
+        <v>500</v>
+      </c>
+      <c r="I125" s="81">
+        <v>15</v>
+      </c>
+      <c r="J125" s="93">
+        <v>15</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="49" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B126" t="s">
         <v>23</v>
@@ -7465,7 +7506,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
@@ -7495,134 +7536,136 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" t="s">
-        <v>23</v>
-      </c>
-      <c r="F128" s="69">
-        <v>1.3E-7</v>
-      </c>
-      <c r="G128" s="85">
-        <v>4206.9974468578948</v>
-      </c>
-      <c r="H128" s="81">
-        <v>500</v>
-      </c>
-      <c r="I128" s="81">
-        <v>15</v>
-      </c>
-      <c r="J128" s="93">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="35" t="s">
+    <row r="128" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B129" s="36"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="70">
-        <f>SUM(F117:F128)</f>
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="70">
+        <f>SUM(F116:F127)</f>
         <v>1.5908000000000001E-5</v>
       </c>
-      <c r="G129" s="83">
-        <f>D115/F129</f>
+      <c r="G128" s="83">
+        <f>D114/F128</f>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H129" s="87">
+      <c r="H128" s="87">
         <v>1010</v>
       </c>
-      <c r="I129" s="78">
+      <c r="I128" s="78">
         <v>0.27</v>
       </c>
-      <c r="J129" s="100">
+      <c r="J128" s="100">
         <v>0.27</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="3"/>
-      <c r="C130" s="3"/>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="69"/>
+      <c r="F129" s="69"/>
+      <c r="H129" s="84"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+    </row>
+    <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D130" s="69"/>
-      <c r="F130" s="69"/>
+      <c r="F130" s="71"/>
       <c r="H130" s="84"/>
       <c r="I130" s="72"/>
       <c r="J130" s="72"/>
     </row>
-    <row r="131" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="69"/>
-      <c r="F131" s="71"/>
-      <c r="H131" s="84"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D131" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J131" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L131" s="22"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D132" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E132" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F132" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G132" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H132" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I132" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="J132" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="L132" s="22"/>
+      <c r="A132" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132">
+        <f>1.7*0.1775</f>
+        <v>0.30174999999999996</v>
+      </c>
+      <c r="D132" s="69">
+        <f>C132/1000</f>
+        <v>3.0174999999999999E-4</v>
+      </c>
+      <c r="E132">
+        <f>D132/$D$135</f>
+        <v>0.50992817912970001</v>
+      </c>
+      <c r="F132" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="88">
+        <v>500</v>
+      </c>
+      <c r="I132" s="88">
+        <v>15</v>
+      </c>
+      <c r="J132" s="101">
+        <v>15</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B133" t="s">
         <v>48</v>
       </c>
       <c r="C133">
-        <f>1.7*0.1775</f>
-        <v>0.30174999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="D133" s="69">
-        <f>C133/1000</f>
-        <v>3.0174999999999999E-4</v>
+        <f t="shared" ref="D133:D135" si="4">C133/1000</f>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="E133">
-        <f>D133/$D$136</f>
-        <v>0.50992817912970001</v>
+        <f t="shared" ref="E133:E134" si="5">D133/$D$135</f>
+        <v>0.37177862272919304</v>
       </c>
       <c r="F133" s="69" t="s">
         <v>23</v>
@@ -7641,22 +7684,22 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="38" t="s">
-        <v>177</v>
+      <c r="A134" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C134">
-        <v>0.22</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D134" s="69">
-        <f t="shared" ref="D134:D136" si="4">C134/1000</f>
-        <v>2.2000000000000001E-4</v>
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="E134">
-        <f t="shared" ref="E134:E135" si="5">D134/$D$136</f>
-        <v>0.37177862272919304</v>
+        <f t="shared" si="5"/>
+        <v>0.11829319814110689</v>
       </c>
       <c r="F134" s="69" t="s">
         <v>23</v>
@@ -7665,124 +7708,90 @@
         <v>23</v>
       </c>
       <c r="H134" s="88">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="I134" s="88">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="J134" s="101">
-        <v>15</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="45" t="s">
-        <v>178</v>
+      <c r="A135" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>7.0000000000000007E-2</v>
+        <f>SUM(C132:C134)</f>
+        <v>0.59175</v>
       </c>
       <c r="D135" s="69">
         <f t="shared" si="4"/>
-        <v>7.0000000000000007E-5</v>
+        <v>5.9175000000000005E-4</v>
       </c>
       <c r="E135">
-        <f t="shared" si="5"/>
-        <v>0.11829319814110689</v>
-      </c>
-      <c r="F135" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>23</v>
-      </c>
-      <c r="H135" s="88">
-        <v>900</v>
-      </c>
-      <c r="I135" s="88">
-        <v>209</v>
-      </c>
-      <c r="J135" s="101">
-        <v>209</v>
+        <f>SUM(E132:E134)</f>
+        <v>1</v>
+      </c>
+      <c r="F135" s="69">
+        <v>1.3E-7</v>
+      </c>
+      <c r="G135" s="85">
+        <f>D135/F135</f>
+        <v>4551.9230769230771</v>
+      </c>
+      <c r="H135" s="85">
+        <f>H132*$E$132+H133*$E$133+H134*$E$134</f>
+        <v>547.3172792564427</v>
+      </c>
+      <c r="I135" s="85">
+        <v>15</v>
+      </c>
+      <c r="J135" s="98">
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B136" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136">
-        <f>SUM(C133:C135)</f>
-        <v>0.59175</v>
-      </c>
-      <c r="D136" s="69">
-        <f t="shared" si="4"/>
-        <v>5.9175000000000005E-4</v>
-      </c>
-      <c r="E136">
-        <f>SUM(E133:E135)</f>
-        <v>1</v>
-      </c>
-      <c r="F136" s="69">
-        <v>1.3E-7</v>
-      </c>
-      <c r="G136" s="85">
-        <f>D136/F136</f>
+      <c r="A136" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="82"/>
+      <c r="I136" s="82"/>
+      <c r="J136" s="94"/>
+    </row>
+    <row r="137" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="83">
         <v>4551.9230769230771</v>
       </c>
-      <c r="H136" s="85">
-        <f>H133*$E$133+H134*$E$134+H135*$E$135</f>
+      <c r="H137" s="83">
         <v>547.3172792564427</v>
       </c>
-      <c r="I136" s="85">
+      <c r="I137" s="83">
         <v>15</v>
       </c>
-      <c r="J136" s="98">
+      <c r="J137" s="95">
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="82"/>
-      <c r="I137" s="82"/>
-      <c r="J137" s="94"/>
-    </row>
-    <row r="138" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B138" s="36"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="70"/>
-      <c r="G138" s="83">
-        <v>4551.9230769230771</v>
-      </c>
-      <c r="H138" s="83">
-        <v>547.3172792564427</v>
-      </c>
-      <c r="I138" s="83">
-        <v>15</v>
-      </c>
-      <c r="J138" s="95">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J139" s="72"/>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J138" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7844,10 +7853,10 @@
       <c r="J1" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="108"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8286,7 +8295,7 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L14" s="109" t="s">
+      <c r="L14" s="110" t="s">
         <v>376</v>
       </c>
       <c r="M14" s="64"/>
@@ -8325,7 +8334,7 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L15" s="109"/>
+      <c r="L15" s="110"/>
     </row>
     <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -9230,18 +9239,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="111" t="s">
         <v>384</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="H1" s="110" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="H1" s="111" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4072BD22-43B3-47F6-9841-6DF049D9F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F574A872-7C2D-43DC-91AD-5C4A11968248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="36" windowWidth="22992" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="36" windowWidth="22992" windowHeight="12324" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1648,7 +1648,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1734,7 +1733,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2306,7 +2305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
@@ -4188,15 +4187,15 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="71">
         <f t="shared" ref="F16:F24" si="4">(B16*$B$2*$C$2+C16*$B$3*$C$3+D16*$B$5*$C$5+E16*$B$6*$C$6)/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>940.29816397754291</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="71">
         <f>1/(B16/$D$2+C16/$D$4+D16/$D$5+E16/$D$6)*(B16+C16+D16+E16)</f>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="71">
         <f t="shared" ref="H16:H24" si="5">(B16*$D$2+C16*$D$3+D16*$D$5+E16*$D$6)*(B16+C16+D16+E16)</f>
         <v>91.472640000000013</v>
       </c>
@@ -4217,15 +4216,15 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="71">
         <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="71">
         <f t="shared" ref="G17:G24" si="6">1/(B17/$D$2+C17/$D$4+D17/$D$5+E17/$D$6)*(B17+C17+D17+E17)</f>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="71">
         <f t="shared" si="5"/>
         <v>91.472640000000013</v>
       </c>
@@ -4246,15 +4245,15 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="71">
         <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="71">
         <f t="shared" si="6"/>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="71">
         <f t="shared" si="5"/>
         <v>91.472640000000013</v>
       </c>
@@ -4275,15 +4274,15 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="71">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="71">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="71">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
@@ -4304,15 +4303,15 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="71">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="71">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="71">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
@@ -4333,15 +4332,15 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="71">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="71">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="71">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
@@ -4362,15 +4361,15 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="71">
         <f t="shared" si="4"/>
         <v>1050.3855606314694</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="71">
         <f t="shared" si="6"/>
         <v>0.30148453519157836</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="71">
         <f t="shared" si="5"/>
         <v>46.763360000000006</v>
       </c>
@@ -4391,15 +4390,15 @@
       <c r="E23">
         <v>0.21</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="71">
         <f t="shared" si="4"/>
         <v>783.19706393372451</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="71">
         <f t="shared" si="6"/>
         <v>0.31347382420811998</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="71">
         <f t="shared" si="5"/>
         <v>110.14952000000002</v>
       </c>
@@ -4420,15 +4419,15 @@
       <c r="E24">
         <v>0.254</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="71">
         <f t="shared" si="4"/>
         <v>904.86619540520076</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="71">
         <f t="shared" si="6"/>
         <v>0.29142496305131627</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="71">
         <f t="shared" si="5"/>
         <v>88.525164000000032</v>
       </c>
@@ -4468,7 +4467,7 @@
       <c r="A1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="84"/>
+      <c r="H1" s="83"/>
       <c r="L1" s="2" t="s">
         <v>249</v>
       </c>
@@ -4492,10 +4491,10 @@
       <c r="F2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="90" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="32" t="s">
@@ -4513,24 +4512,24 @@
       <c r="C3">
         <v>1.2</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="68">
         <f>C3/1000</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="64">
         <v>4.5600000000000001E-7</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="80">
         <f>D3/F3</f>
         <v>2631.5789473684208</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H3" s="80">
         <v>1990</v>
       </c>
-      <c r="I3" s="93">
+      <c r="I3" s="92">
         <v>0.16200000000000001</v>
       </c>
     </row>
@@ -4540,12 +4539,12 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="66"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="94"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
@@ -4553,38 +4552,38 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
-      <c r="D5" s="70"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="67">
+      <c r="F5" s="66">
         <v>4.5600000000000001E-7</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="82">
         <v>2631.5789473684208</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="82">
         <v>1990</v>
       </c>
-      <c r="I5" s="95">
+      <c r="I5" s="94">
         <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="69"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="72"/>
+      <c r="D6" s="68"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="69"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="72"/>
+      <c r="D7" s="68"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="69"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="72"/>
+      <c r="D8" s="68"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
@@ -4596,22 +4595,22 @@
       <c r="C9" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="89" t="s">
         <v>207</v>
       </c>
       <c r="J9" s="32" t="s">
@@ -4628,7 +4627,7 @@
       <c r="C10">
         <v>14.2</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="68">
         <f>C10/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
@@ -4636,20 +4635,20 @@
         <f>C10/C11</f>
         <v>1</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="83">
         <f>D11/F11</f>
         <v>2133.4134615384614</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="71">
         <v>0.32237405144561837</v>
       </c>
-      <c r="J10" s="96">
+      <c r="J10" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -4664,7 +4663,7 @@
         <f>SUM(C10:C10)</f>
         <v>14.2</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="69">
         <f>C11/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
@@ -4672,37 +4671,37 @@
         <f>SUM(E10:E10)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>6.6560000000000003E-6</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G11" s="82">
         <v>2133.4134615384614</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="82">
         <v>903.96364021734939</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="74">
         <v>0.32237405144561837</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="94">
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="D12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="D13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
@@ -4714,25 +4713,25 @@
       <c r="C14" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="I14" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4746,26 +4745,26 @@
       <c r="C15">
         <v>8.4</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <f>C15/1000</f>
         <v>8.4000000000000012E-3</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="96" t="s">
+      <c r="J15" s="95" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4773,12 +4772,12 @@
       <c r="A16" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="96"/>
+      <c r="D16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
@@ -4790,26 +4789,26 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E17">
         <f>F17/($F$17+$F$18+$F$19+$F$20)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="68">
         <v>1.3312000000000001E-6</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="83">
         <v>1953.125</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="83">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="71">
         <v>0.3</v>
       </c>
-      <c r="J17" s="96">
+      <c r="J17" s="95">
         <v>46.763360000000006</v>
       </c>
     </row>
@@ -4823,26 +4822,26 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E20" si="0">F18/($F$17+$F$18+$F$19+$F$20)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="68">
         <v>1.3312000000000001E-6</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="83">
         <v>1953.125</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="83">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="71">
         <v>0.3</v>
       </c>
-      <c r="J18" s="96">
+      <c r="J18" s="95">
         <v>46.763360000000006</v>
       </c>
     </row>
@@ -4856,26 +4855,26 @@
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="68">
         <v>8.1920000000000003E-7</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="83">
         <v>1953.125</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="83">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="71">
         <v>0.3</v>
       </c>
-      <c r="J19" s="96">
+      <c r="J19" s="95">
         <v>46.763360000000006</v>
       </c>
     </row>
@@ -4889,26 +4888,26 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="68">
         <v>8.1920000000000003E-7</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="83">
         <v>1953.125</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="83">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="71">
         <v>0.3</v>
       </c>
-      <c r="J20" s="96">
+      <c r="J20" s="95">
         <v>46.763360000000006</v>
       </c>
     </row>
@@ -4922,7 +4921,7 @@
       <c r="C21" s="36">
         <v>8.4</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="69">
         <f>C21/1000</f>
         <v>8.4000000000000012E-3</v>
       </c>
@@ -4930,40 +4929,40 @@
         <f>SUM(E17:E20)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="69">
         <f>SUM(F17:F20)</f>
         <v>4.3008000000000004E-6</v>
       </c>
-      <c r="G21" s="83">
+      <c r="G21" s="82">
         <f>D15/F21</f>
         <v>1953.125</v>
       </c>
-      <c r="H21" s="83">
+      <c r="H21" s="82">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="74">
         <v>0.3</v>
       </c>
-      <c r="J21" s="95">
+      <c r="J21" s="94">
         <v>46.763360000000006</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
-      <c r="D22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
+      <c r="D22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
+      <c r="D23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
@@ -4975,25 +4974,25 @@
       <c r="C24" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="90" t="s">
+      <c r="I24" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="97" t="s">
+      <c r="J24" s="96" t="s">
         <v>206</v>
       </c>
       <c r="L24" s="22"/>
@@ -5008,7 +5007,7 @@
       <c r="C25">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="68">
         <f>C25/1000</f>
         <v>9.8000000000000014E-3</v>
       </c>
@@ -5016,19 +5015,19 @@
         <f>C25/C27</f>
         <v>0.96078431372549011</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="83">
         <v>2213.541666666667</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="71">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J25" s="96">
+      <c r="J25" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5042,7 +5041,7 @@
       <c r="C26">
         <v>0.4</v>
       </c>
-      <c r="D26" s="69">
+      <c r="D26" s="68">
         <f>C26/1000</f>
         <v>4.0000000000000002E-4</v>
       </c>
@@ -5050,19 +5049,19 @@
         <f>C26/C27</f>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="83">
         <v>2213.541666666667</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="71">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J26" s="96">
+      <c r="J26" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5077,7 +5076,7 @@
         <f>SUM(C25:C26)</f>
         <v>10.200000000000001</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="68">
         <f>C27/1000</f>
         <v>1.0200000000000001E-2</v>
       </c>
@@ -5085,20 +5084,20 @@
         <f>SUM(E25:E26)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="68">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G27" s="85">
+      <c r="G27" s="84">
         <f>D27/F27</f>
         <v>2213.541666666667</v>
       </c>
-      <c r="H27" s="85">
+      <c r="H27" s="84">
         <v>903.96364021734939</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="75">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J27" s="98">
+      <c r="J27" s="97">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5108,13 +5107,13 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="66"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="94"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="93"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
@@ -5123,26 +5122,26 @@
       <c r="C29">
         <v>10.200000000000001</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="68">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="E29">
         <f>SUM(E27:E28)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="68">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G29" s="85">
+      <c r="G29" s="84">
         <v>2213.541666666667</v>
       </c>
-      <c r="H29" s="85">
+      <c r="H29" s="84">
         <v>903.96364021734939</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="75">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J29" s="98">
+      <c r="J29" s="97">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5154,44 +5153,44 @@
       <c r="C30" s="36">
         <v>10.200000000000001</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="69">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="E30" s="36">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F30" s="69">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G30" s="82">
         <v>2213.541666666667</v>
       </c>
-      <c r="H30" s="83">
+      <c r="H30" s="82">
         <v>903.96364021734939</v>
       </c>
-      <c r="I30" s="75">
+      <c r="I30" s="74">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J30" s="95">
+      <c r="J30" s="94">
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="D31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
+      <c r="D31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
+      <c r="D32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
@@ -5203,25 +5202,25 @@
       <c r="C33" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="80" t="s">
+      <c r="G33" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="91" t="s">
+      <c r="H33" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="90" t="s">
+      <c r="I33" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="97" t="s">
+      <c r="J33" s="96" t="s">
         <v>206</v>
       </c>
       <c r="L33" s="22"/>
@@ -5236,7 +5235,7 @@
       <c r="C34">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="68">
         <f>C34/1000</f>
         <v>9.8000000000000014E-3</v>
       </c>
@@ -5244,19 +5243,19 @@
         <f>C34/C36</f>
         <v>0.94230769230769229</v>
       </c>
-      <c r="F34" s="69" t="s">
+      <c r="F34" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="83">
         <v>2256.9444444444448</v>
       </c>
-      <c r="H34" s="84">
+      <c r="H34" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I34" s="71">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J34" s="96">
+      <c r="J34" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5270,7 +5269,7 @@
       <c r="C35">
         <v>0.6</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="68">
         <f>C35/1000</f>
         <v>5.9999999999999995E-4</v>
       </c>
@@ -5278,19 +5277,19 @@
         <f>C35/C36</f>
         <v>5.7692307692307689E-2</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="83">
         <v>2256.9444444444448</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I35" s="72">
+      <c r="I35" s="71">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J35" s="96">
+      <c r="J35" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5305,7 +5304,7 @@
         <f>SUM(C34:C35)</f>
         <v>10.4</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="69">
         <f>SUM(D34:D35)</f>
         <v>1.0400000000000001E-2</v>
       </c>
@@ -5313,38 +5312,38 @@
         <f>SUM(E34:E35)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="70">
+      <c r="F36" s="69">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G36" s="86">
+      <c r="G36" s="85">
         <f>D36/F36</f>
         <v>2256.9444444444448</v>
       </c>
-      <c r="H36" s="86">
+      <c r="H36" s="85">
         <v>903.96364021734939</v>
       </c>
-      <c r="I36" s="77">
+      <c r="I36" s="76">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J36" s="99">
+      <c r="J36" s="98">
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
+      <c r="D37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
+      <c r="D38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
@@ -5356,25 +5355,25 @@
       <c r="C39" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="80" t="s">
+      <c r="G39" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="91" t="s">
+      <c r="H39" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="90" t="s">
+      <c r="I39" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="97" t="s">
+      <c r="J39" s="96" t="s">
         <v>206</v>
       </c>
       <c r="L39" s="22"/>
@@ -5389,7 +5388,7 @@
       <c r="C40">
         <v>6.6</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D40" s="68">
         <f>C40/1000</f>
         <v>6.6E-3</v>
       </c>
@@ -5397,20 +5396,20 @@
         <f>C40/C42</f>
         <v>0.92957746478873238</v>
       </c>
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="83">
         <f>D40/F42</f>
         <v>1629.6296296296296</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I40" s="72">
+      <c r="I40" s="71">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J40" s="96">
+      <c r="J40" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5424,7 +5423,7 @@
       <c r="C41">
         <v>0.5</v>
       </c>
-      <c r="D41" s="69">
+      <c r="D41" s="68">
         <f t="shared" ref="D41" si="1">C41/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5432,19 +5431,19 @@
         <f>C41/C40</f>
         <v>7.575757575757576E-2</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="84">
+      <c r="G41" s="83">
         <v>1629.6296296296296</v>
       </c>
-      <c r="H41" s="84">
+      <c r="H41" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I41" s="72">
+      <c r="I41" s="71">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J41" s="96">
+      <c r="J41" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5455,45 +5454,45 @@
       <c r="B42" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="107">
+      <c r="C42" s="106">
         <v>7.1</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="69">
         <f>C42/1000</f>
         <v>7.0999999999999995E-3</v>
       </c>
       <c r="E42" s="36"/>
-      <c r="F42" s="70">
+      <c r="F42" s="69">
         <v>4.0500000000000002E-6</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="82">
         <v>1629.6296296296296</v>
       </c>
-      <c r="H42" s="83">
+      <c r="H42" s="82">
         <v>903.96364021734939</v>
       </c>
-      <c r="I42" s="75">
+      <c r="I42" s="74">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J42" s="95">
+      <c r="J42" s="94">
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
+      <c r="D43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
+      <c r="D44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
@@ -5505,25 +5504,25 @@
       <c r="C45" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="80" t="s">
+      <c r="G45" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="91" t="s">
+      <c r="H45" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="90" t="s">
+      <c r="I45" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J45" s="97" t="s">
+      <c r="J45" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5537,7 +5536,7 @@
       <c r="C46">
         <v>5.6</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="68">
         <f>C46/1000</f>
         <v>5.5999999999999999E-3</v>
       </c>
@@ -5545,19 +5544,19 @@
         <f>D46/$D$48</f>
         <v>0.7</v>
       </c>
-      <c r="F46" s="69" t="s">
+      <c r="F46" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="84">
+      <c r="G46" s="83">
         <v>3125</v>
       </c>
-      <c r="H46" s="84">
+      <c r="H46" s="83">
         <v>940.29816397754291</v>
       </c>
-      <c r="I46" s="72">
+      <c r="I46" s="71">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J46" s="96">
+      <c r="J46" s="95">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5571,7 +5570,7 @@
       <c r="C47">
         <v>2.4</v>
       </c>
-      <c r="D47" s="69">
+      <c r="D47" s="68">
         <f>C47/1000</f>
         <v>2.3999999999999998E-3</v>
       </c>
@@ -5579,19 +5578,19 @@
         <f>D47/$D$48</f>
         <v>0.3</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="84">
+      <c r="G47" s="83">
         <v>3125</v>
       </c>
-      <c r="H47" s="84">
+      <c r="H47" s="83">
         <v>940.29816397754291</v>
       </c>
-      <c r="I47" s="72">
+      <c r="I47" s="71">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J47" s="96">
+      <c r="J47" s="95">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5599,14 +5598,14 @@
       <c r="A48" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="107" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="36">
         <f>SUM(C46:C47)</f>
         <v>8</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="69">
         <f>SUM(D46:D47)</f>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -5614,38 +5613,38 @@
         <f>SUM(E46:E47)</f>
         <v>1</v>
       </c>
-      <c r="F48" s="70">
+      <c r="F48" s="69">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G48" s="83">
+      <c r="G48" s="82">
         <f>D48/F48</f>
         <v>3125</v>
       </c>
-      <c r="H48" s="83">
+      <c r="H48" s="82">
         <v>940.29816397754291</v>
       </c>
-      <c r="I48" s="75">
+      <c r="I48" s="74">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J48" s="95">
+      <c r="J48" s="94">
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
+      <c r="D49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
     </row>
     <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
+      <c r="D50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
@@ -5657,25 +5656,25 @@
       <c r="C51" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="68" t="s">
+      <c r="F51" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G51" s="80" t="s">
+      <c r="G51" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="91" t="s">
+      <c r="H51" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="90" t="s">
+      <c r="I51" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J51" s="97" t="s">
+      <c r="J51" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5689,7 +5688,7 @@
       <c r="C52">
         <v>5.5</v>
       </c>
-      <c r="D52" s="69">
+      <c r="D52" s="68">
         <f>C52/1000</f>
         <v>5.4999999999999997E-3</v>
       </c>
@@ -5697,19 +5696,19 @@
         <f>D52/D54</f>
         <v>0.77464788732394363</v>
       </c>
-      <c r="F52" s="69" t="s">
+      <c r="F52" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="84">
+      <c r="G52" s="83">
         <v>2773.4374999999995</v>
       </c>
-      <c r="H52" s="84">
+      <c r="H52" s="83">
         <v>940.29816397754291</v>
       </c>
-      <c r="I52" s="72">
+      <c r="I52" s="71">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J52" s="96">
+      <c r="J52" s="95">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5723,7 +5722,7 @@
       <c r="C53">
         <v>1.6</v>
       </c>
-      <c r="D53" s="69">
+      <c r="D53" s="68">
         <f>C53/1000</f>
         <v>1.6000000000000001E-3</v>
       </c>
@@ -5731,19 +5730,19 @@
         <f>D53/$D$54</f>
         <v>0.22535211267605637</v>
       </c>
-      <c r="F53" s="69" t="s">
+      <c r="F53" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="84">
+      <c r="G53" s="83">
         <v>2773.4374999999995</v>
       </c>
-      <c r="H53" s="84">
+      <c r="H53" s="83">
         <v>940.29816397754291</v>
       </c>
-      <c r="I53" s="72">
+      <c r="I53" s="71">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J53" s="96">
+      <c r="J53" s="95">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5756,7 +5755,7 @@
         <f>SUM(C52:C53)</f>
         <v>7.1</v>
       </c>
-      <c r="D54" s="70">
+      <c r="D54" s="69">
         <f>SUM(D52:D53)</f>
         <v>7.0999999999999995E-3</v>
       </c>
@@ -5764,38 +5763,38 @@
         <f>SUM(E52:E53)</f>
         <v>1</v>
       </c>
-      <c r="F54" s="70">
+      <c r="F54" s="69">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G54" s="83">
+      <c r="G54" s="82">
         <f>D54/F54</f>
         <v>2773.4374999999995</v>
       </c>
-      <c r="H54" s="83">
+      <c r="H54" s="82">
         <v>940.29816397754291</v>
       </c>
-      <c r="I54" s="75">
+      <c r="I54" s="74">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J54" s="95">
+      <c r="J54" s="94">
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
+      <c r="D55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
+      <c r="D56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
@@ -5807,25 +5806,25 @@
       <c r="C57" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="68" t="s">
+      <c r="F57" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="80" t="s">
+      <c r="G57" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="91" t="s">
+      <c r="H57" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="90" t="s">
+      <c r="I57" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J57" s="97" t="s">
+      <c r="J57" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5839,7 +5838,7 @@
       <c r="C58">
         <v>5.4</v>
       </c>
-      <c r="D58" s="69">
+      <c r="D58" s="68">
         <f>C58/1000</f>
         <v>5.4000000000000003E-3</v>
       </c>
@@ -5847,19 +5846,19 @@
         <f>D58/$D$60</f>
         <v>0.77142857142857146</v>
       </c>
-      <c r="F58" s="69" t="s">
+      <c r="F58" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="84">
+      <c r="G58" s="83">
         <v>2734.375</v>
       </c>
-      <c r="H58" s="84">
+      <c r="H58" s="83">
         <v>940.29816397754291</v>
       </c>
-      <c r="I58" s="72">
+      <c r="I58" s="71">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J58" s="96">
+      <c r="J58" s="95">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5870,7 +5869,7 @@
       <c r="C59">
         <v>1.6</v>
       </c>
-      <c r="D59" s="69">
+      <c r="D59" s="68">
         <f>C59/1000</f>
         <v>1.6000000000000001E-3</v>
       </c>
@@ -5878,19 +5877,19 @@
         <f>D59/$D$60</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="84">
+      <c r="G59" s="83">
         <v>2734.375</v>
       </c>
-      <c r="H59" s="84">
+      <c r="H59" s="83">
         <v>940.29816397754291</v>
       </c>
-      <c r="I59" s="72">
+      <c r="I59" s="71">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J59" s="96">
+      <c r="J59" s="95">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5903,7 +5902,7 @@
         <f>SUM(C58:C59)</f>
         <v>7</v>
       </c>
-      <c r="D60" s="70">
+      <c r="D60" s="69">
         <f>SUM(D58:D59)</f>
         <v>7.0000000000000001E-3</v>
       </c>
@@ -5911,38 +5910,38 @@
         <f>SUM(E58:E59)</f>
         <v>1</v>
       </c>
-      <c r="F60" s="70">
+      <c r="F60" s="69">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G60" s="83">
+      <c r="G60" s="82">
         <f>D60/F60</f>
         <v>2734.375</v>
       </c>
-      <c r="H60" s="83">
+      <c r="H60" s="82">
         <v>940.29816397754291</v>
       </c>
-      <c r="I60" s="75">
+      <c r="I60" s="74">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J60" s="95">
+      <c r="J60" s="94">
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
+      <c r="D61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
+      <c r="D62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
@@ -5954,25 +5953,25 @@
       <c r="C63" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F63" s="68" t="s">
+      <c r="F63" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G63" s="80" t="s">
+      <c r="G63" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="91" t="s">
+      <c r="H63" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="90" t="s">
+      <c r="I63" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J63" s="97" t="s">
+      <c r="J63" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5986,26 +5985,26 @@
       <c r="C64">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D64" s="69">
+      <c r="D64" s="68">
         <f>C64/1000</f>
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" s="69" t="s">
+      <c r="F64" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="84">
+      <c r="G64" s="83">
         <v>3593.75</v>
       </c>
-      <c r="H64" s="84">
+      <c r="H64" s="83">
         <v>783.19706393372451</v>
       </c>
-      <c r="I64" s="72">
+      <c r="I64" s="71">
         <v>0.49190487192846383</v>
       </c>
-      <c r="J64" s="96">
+      <c r="J64" s="95">
         <v>110.14952000000002</v>
       </c>
     </row>
@@ -6017,44 +6016,44 @@
       <c r="C65" s="36">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D65" s="70">
+      <c r="D65" s="69">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E65" s="36">
         <v>1</v>
       </c>
-      <c r="F65" s="70">
+      <c r="F65" s="69">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G65" s="83">
+      <c r="G65" s="82">
         <f>D64/F65</f>
         <v>3593.75</v>
       </c>
-      <c r="H65" s="83">
+      <c r="H65" s="82">
         <v>783.19706393372451</v>
       </c>
-      <c r="I65" s="75">
+      <c r="I65" s="74">
         <v>0.49190487192846383</v>
       </c>
-      <c r="J65" s="95">
+      <c r="J65" s="94">
         <v>110.14952000000002</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
+      <c r="D66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="71"/>
     </row>
     <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
+      <c r="D67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
@@ -6066,25 +6065,25 @@
       <c r="C68" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="D68" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E68" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F68" s="68" t="s">
+      <c r="F68" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G68" s="80" t="s">
+      <c r="G68" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="91" t="s">
+      <c r="H68" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="90" t="s">
+      <c r="I68" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J68" s="97" t="s">
+      <c r="J68" s="96" t="s">
         <v>206</v>
       </c>
       <c r="L68" s="22"/>
@@ -6099,27 +6098,27 @@
       <c r="C69">
         <v>7.6</v>
       </c>
-      <c r="D69" s="69">
+      <c r="D69" s="68">
         <f>C69/1000</f>
         <v>7.6E-3</v>
       </c>
-      <c r="E69" s="112">
+      <c r="E69">
         <f>D69/D71</f>
         <v>0.91566265060240981</v>
       </c>
-      <c r="F69" s="69" t="s">
+      <c r="F69" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="84">
+      <c r="G69" s="83">
         <v>3242.1874999999991</v>
       </c>
-      <c r="H69" s="84">
+      <c r="H69" s="83">
         <v>904.86619540520076</v>
       </c>
-      <c r="I69" s="72">
+      <c r="I69" s="71">
         <v>0.29142496305131627</v>
       </c>
-      <c r="J69" s="96">
+      <c r="J69" s="95">
         <v>88.525164000000032</v>
       </c>
     </row>
@@ -6133,27 +6132,27 @@
       <c r="C70">
         <v>0.7</v>
       </c>
-      <c r="D70" s="69">
+      <c r="D70" s="68">
         <f t="shared" ref="D70:D71" si="2">C70/1000</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E70" s="112">
+      <c r="E70">
         <f>D70/D71</f>
         <v>8.4337349397590383E-2</v>
       </c>
-      <c r="F70" s="69" t="s">
+      <c r="F70" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="84">
+      <c r="G70" s="83">
         <v>3242.1874999999991</v>
       </c>
-      <c r="H70" s="84">
+      <c r="H70" s="83">
         <v>904.86619540520076</v>
       </c>
-      <c r="I70" s="72">
+      <c r="I70" s="71">
         <v>0.29142496305131627</v>
       </c>
-      <c r="J70" s="96">
+      <c r="J70" s="95">
         <v>88.525164000000032</v>
       </c>
     </row>
@@ -6166,36 +6165,36 @@
         <f>SUM(C69:C70)</f>
         <v>8.2999999999999989</v>
       </c>
-      <c r="D71" s="69">
+      <c r="D71" s="68">
         <f t="shared" si="2"/>
         <v>8.2999999999999984E-3</v>
       </c>
       <c r="E71" s="36"/>
-      <c r="F71" s="70">
+      <c r="F71" s="69">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G71" s="83">
+      <c r="G71" s="82">
         <f>D71/F71</f>
         <v>3242.1874999999991</v>
       </c>
-      <c r="H71" s="83">
+      <c r="H71" s="82">
         <v>904.86619540520076</v>
       </c>
-      <c r="I71" s="75">
+      <c r="I71" s="74">
         <v>0.29142496305131627</v>
       </c>
-      <c r="J71" s="95">
+      <c r="J71" s="94">
         <v>88.525164000000032</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="23"/>
-      <c r="D72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
+      <c r="D72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
@@ -6207,25 +6206,25 @@
       <c r="C73" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="68" t="s">
+      <c r="F73" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="G73" s="80" t="s">
+      <c r="G73" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="H73" s="91" t="s">
+      <c r="H73" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="90" t="s">
+      <c r="I73" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J73" s="97" t="s">
+      <c r="J73" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6237,36 +6236,36 @@
       <c r="C74" s="36">
         <v>5.7</v>
       </c>
-      <c r="D74" s="70">
+      <c r="D74" s="69">
         <f>C74/1000</f>
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="E74" s="36"/>
-      <c r="F74" s="70">
+      <c r="F74" s="69">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="G74" s="87">
+      <c r="G74" s="86">
         <f>D74/F74</f>
         <v>13.255813953488373</v>
       </c>
-      <c r="H74" s="87">
+      <c r="H74" s="86">
         <v>500</v>
       </c>
-      <c r="I74" s="87">
+      <c r="I74" s="86">
         <v>15</v>
       </c>
-      <c r="J74" s="100">
+      <c r="J74" s="99">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="23"/>
-      <c r="D75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
+      <c r="D75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="30" t="s">
@@ -6278,25 +6277,25 @@
       <c r="C76" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="68" t="s">
+      <c r="D76" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="68" t="s">
+      <c r="F76" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G76" s="80" t="s">
+      <c r="G76" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="91" t="s">
+      <c r="H76" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="90" t="s">
+      <c r="I76" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J76" s="97" t="s">
+      <c r="J76" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6311,7 +6310,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="D77" s="69">
+      <c r="D77" s="68">
         <f>C77/1000</f>
         <v>2.4E-2</v>
       </c>
@@ -6319,19 +6318,19 @@
         <f>D77/D86</f>
         <v>0.92407207762205446</v>
       </c>
-      <c r="F77" s="69" t="s">
+      <c r="F77" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="84" t="s">
+      <c r="G77" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="88">
+      <c r="H77" s="87">
         <v>960</v>
       </c>
-      <c r="I77" s="79">
+      <c r="I77" s="78">
         <v>130</v>
       </c>
-      <c r="J77" s="101">
+      <c r="J77" s="100">
         <v>130</v>
       </c>
     </row>
@@ -6346,7 +6345,7 @@
         <f>4*0.29*1.7</f>
         <v>1.9719999999999998</v>
       </c>
-      <c r="D78" s="69">
+      <c r="D78" s="68">
         <f>C78/1000</f>
         <v>1.9719999999999998E-3</v>
       </c>
@@ -6354,17 +6353,17 @@
         <f>D78/D86</f>
         <v>7.5927922377945462E-2</v>
       </c>
-      <c r="F78" s="69"/>
-      <c r="G78" s="84" t="s">
+      <c r="F78" s="68"/>
+      <c r="G78" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H78" s="88">
+      <c r="H78" s="87">
         <v>500</v>
       </c>
-      <c r="I78" s="79">
+      <c r="I78" s="78">
         <v>15</v>
       </c>
-      <c r="J78" s="101">
+      <c r="J78" s="100">
         <v>15</v>
       </c>
     </row>
@@ -6372,12 +6371,12 @@
       <c r="A79" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="96"/>
+      <c r="D79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="95"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
@@ -6389,20 +6388,20 @@
       <c r="C80" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="69"/>
-      <c r="F80" s="69">
+      <c r="D80" s="68"/>
+      <c r="F80" s="68">
         <v>3.1203999999999998E-6</v>
       </c>
-      <c r="G80" s="84">
+      <c r="G80" s="83">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H80" s="88">
+      <c r="H80" s="87">
         <v>925.07315570614492</v>
       </c>
-      <c r="I80" s="79">
+      <c r="I80" s="78">
         <v>121.26828892653627</v>
       </c>
-      <c r="J80" s="101">
+      <c r="J80" s="100">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6416,20 +6415,20 @@
       <c r="C81" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="F81" s="69">
+      <c r="D81" s="68"/>
+      <c r="F81" s="68">
         <v>1.52E-5</v>
       </c>
-      <c r="G81" s="84">
+      <c r="G81" s="83">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H81" s="88">
+      <c r="H81" s="87">
         <v>925.07315570614492</v>
       </c>
-      <c r="I81" s="79">
+      <c r="I81" s="78">
         <v>121.26828892653627</v>
       </c>
-      <c r="J81" s="101">
+      <c r="J81" s="100">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6443,20 +6442,20 @@
       <c r="C82" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="69"/>
-      <c r="F82" s="69">
+      <c r="D82" s="68"/>
+      <c r="F82" s="68">
         <v>3.3600000000000003E-8</v>
       </c>
-      <c r="G82" s="84">
+      <c r="G82" s="83">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H82" s="88">
+      <c r="H82" s="87">
         <v>925.07315570614492</v>
       </c>
-      <c r="I82" s="79">
+      <c r="I82" s="78">
         <v>121.26828892653627</v>
       </c>
-      <c r="J82" s="101">
+      <c r="J82" s="100">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6470,20 +6469,20 @@
       <c r="C83" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="F83" s="69">
+      <c r="D83" s="68"/>
+      <c r="F83" s="68">
         <v>1.92E-8</v>
       </c>
-      <c r="G83" s="84">
+      <c r="G83" s="83">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H83" s="88">
+      <c r="H83" s="87">
         <v>925.07315570614492</v>
       </c>
-      <c r="I83" s="79">
+      <c r="I83" s="78">
         <v>121.26828892653627</v>
       </c>
-      <c r="J83" s="101">
+      <c r="J83" s="100">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6493,30 +6492,30 @@
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
-      <c r="D84" s="66"/>
+      <c r="D84" s="65"/>
       <c r="E84" s="17"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="74"/>
-      <c r="J84" s="94"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="81"/>
+      <c r="H84" s="81"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="93"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="84">
+      <c r="D85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="83">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H85" s="88">
+      <c r="H85" s="87">
         <v>925.07315570614492</v>
       </c>
-      <c r="I85" s="79">
+      <c r="I85" s="78">
         <v>121.26828892653627</v>
       </c>
-      <c r="J85" s="101">
+      <c r="J85" s="100">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6529,66 +6528,66 @@
         <f>SUM(C77:C78)</f>
         <v>25.972000000000001</v>
       </c>
-      <c r="D86" s="70">
+      <c r="D86" s="69">
         <f>SUM(D77:D78)</f>
         <v>2.5972000000000002E-2</v>
       </c>
       <c r="E86" s="36"/>
-      <c r="F86" s="70">
+      <c r="F86" s="69">
         <f>F80+F81+F82*4+F83*4</f>
         <v>1.8531600000000001E-5</v>
       </c>
-      <c r="G86" s="83">
+      <c r="G86" s="82">
         <f>D86/F86</f>
         <v>1401.4979818256384</v>
       </c>
-      <c r="H86" s="87">
+      <c r="H86" s="86">
         <f>H77*$E$77+H78*$E$78</f>
         <v>925.07315570614492</v>
       </c>
-      <c r="I86" s="78">
+      <c r="I86" s="77">
         <f>I77*$E$77+I78*$E$78</f>
         <v>121.26828892653627</v>
       </c>
-      <c r="J86" s="100">
+      <c r="J86" s="99">
         <f>J77*$E$77+J78*$E$78</f>
         <v>121.26828892653627</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="84"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
+      <c r="D87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D88" s="69"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="84"/>
-      <c r="I88" s="72"/>
-      <c r="J88" s="72"/>
+      <c r="D88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
+      <c r="D89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71"/>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="84"/>
-      <c r="H90" s="84"/>
-      <c r="I90" s="72"/>
-      <c r="J90" s="72"/>
+      <c r="D90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
@@ -6600,25 +6599,25 @@
       <c r="C91" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D91" s="68" t="s">
+      <c r="D91" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="68" t="s">
+      <c r="F91" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G91" s="80" t="s">
+      <c r="G91" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="91" t="s">
+      <c r="H91" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="90" t="s">
+      <c r="I91" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J91" s="97" t="s">
+      <c r="J91" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6629,27 +6628,27 @@
       <c r="C92">
         <v>0.9</v>
       </c>
-      <c r="D92" s="69">
+      <c r="D92" s="68">
         <f>C92/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
-      <c r="F92" s="69">
+      <c r="F92" s="68">
         <v>3.96E-7</v>
       </c>
-      <c r="G92" s="85">
+      <c r="G92" s="84">
         <f>D92/F92</f>
         <v>2272.7272727272725</v>
       </c>
-      <c r="H92" s="81">
+      <c r="H92" s="80">
         <v>325</v>
       </c>
-      <c r="I92" s="81">
+      <c r="I92" s="80">
         <v>50</v>
       </c>
-      <c r="J92" s="93">
+      <c r="J92" s="92">
         <v>50</v>
       </c>
     </row>
@@ -6659,13 +6658,13 @@
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
-      <c r="D93" s="66"/>
+      <c r="D93" s="65"/>
       <c r="E93" s="17"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="94"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="81"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="93"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
@@ -6674,24 +6673,24 @@
       <c r="C94">
         <v>0.9</v>
       </c>
-      <c r="D94" s="69">
+      <c r="D94" s="68">
         <f>C94/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" s="69"/>
-      <c r="G94" s="85">
+      <c r="F94" s="68"/>
+      <c r="G94" s="84">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H94" s="85">
+      <c r="H94" s="84">
         <v>325</v>
       </c>
-      <c r="I94" s="85">
+      <c r="I94" s="84">
         <v>50</v>
       </c>
-      <c r="J94" s="98">
+      <c r="J94" s="97">
         <v>50</v>
       </c>
     </row>
@@ -6702,24 +6701,24 @@
       <c r="C95">
         <v>0.9</v>
       </c>
-      <c r="D95" s="69">
+      <c r="D95" s="68">
         <f>C95/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="85">
+      <c r="F95" s="68"/>
+      <c r="G95" s="84">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H95" s="85">
+      <c r="H95" s="84">
         <v>325</v>
       </c>
-      <c r="I95" s="85">
+      <c r="I95" s="84">
         <v>50</v>
       </c>
-      <c r="J95" s="98">
+      <c r="J95" s="97">
         <v>50</v>
       </c>
     </row>
@@ -6730,24 +6729,24 @@
       <c r="C96">
         <v>0.9</v>
       </c>
-      <c r="D96" s="69">
+      <c r="D96" s="68">
         <f>C96/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" s="69"/>
-      <c r="G96" s="85">
+      <c r="F96" s="68"/>
+      <c r="G96" s="84">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H96" s="85">
+      <c r="H96" s="84">
         <v>325</v>
       </c>
-      <c r="I96" s="85">
+      <c r="I96" s="84">
         <v>50</v>
       </c>
-      <c r="J96" s="98">
+      <c r="J96" s="97">
         <v>50</v>
       </c>
     </row>
@@ -6759,34 +6758,34 @@
       <c r="C97" s="36">
         <v>0.9</v>
       </c>
-      <c r="D97" s="70">
+      <c r="D97" s="69">
         <f>C97/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E97" s="36">
         <v>1</v>
       </c>
-      <c r="F97" s="70"/>
-      <c r="G97" s="83">
+      <c r="F97" s="69"/>
+      <c r="G97" s="82">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H97" s="83">
+      <c r="H97" s="82">
         <v>325</v>
       </c>
-      <c r="I97" s="83">
+      <c r="I97" s="82">
         <v>50</v>
       </c>
-      <c r="J97" s="95">
+      <c r="J97" s="94">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="84"/>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
+      <c r="D98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="83"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="46" t="s">
@@ -6798,25 +6797,25 @@
       <c r="C99" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E99" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F99" s="68" t="s">
+      <c r="F99" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G99" s="80" t="s">
+      <c r="G99" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="91" t="s">
+      <c r="H99" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I99" s="90" t="s">
+      <c r="I99" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J99" s="97" t="s">
+      <c r="J99" s="96" t="s">
         <v>206</v>
       </c>
       <c r="K99" s="22"/>
@@ -6829,56 +6828,56 @@
       <c r="C100" s="36">
         <v>34</v>
       </c>
-      <c r="D100" s="70">
+      <c r="D100" s="69">
         <f>C100/1000</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E100" s="36"/>
-      <c r="F100" s="70">
+      <c r="F100" s="69">
         <v>1.216E-5</v>
       </c>
-      <c r="G100" s="83">
+      <c r="G100" s="82">
         <f>D100/F100</f>
         <v>2796.0526315789475</v>
       </c>
-      <c r="H100" s="87">
+      <c r="H100" s="86">
         <v>1000</v>
       </c>
-      <c r="I100" s="75">
+      <c r="I100" s="74">
         <v>0.6</v>
       </c>
-      <c r="J100" s="95">
+      <c r="J100" s="94">
         <v>2.5</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="84"/>
-      <c r="H101" s="84"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
+      <c r="D101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="83"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="84"/>
-      <c r="H102" s="84"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
+      <c r="D102" s="68"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="83"/>
+      <c r="H102" s="83"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
     </row>
     <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="84"/>
-      <c r="H103" s="84"/>
-      <c r="I103" s="72">
+      <c r="D103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="83"/>
+      <c r="I103" s="71">
         <v>2</v>
       </c>
-      <c r="J103" s="72"/>
+      <c r="J103" s="71"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
@@ -6890,25 +6889,25 @@
       <c r="C104" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E104" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F104" s="68" t="s">
+      <c r="F104" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G104" s="80" t="s">
+      <c r="G104" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H104" s="91" t="s">
+      <c r="H104" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I104" s="90" t="s">
+      <c r="I104" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J104" s="97" t="s">
+      <c r="J104" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6922,7 +6921,7 @@
       <c r="C105">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D105" s="69">
+      <c r="D105" s="68">
         <f>C105/1000</f>
         <v>3.2499999999999999E-4</v>
       </c>
@@ -6930,19 +6929,19 @@
         <f>D105/$D$107</f>
         <v>0.44827586206896552</v>
       </c>
-      <c r="F105" s="69" t="s">
+      <c r="F105" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G105" s="88">
+      <c r="G105" s="87">
         <v>8800</v>
       </c>
-      <c r="H105" s="88">
+      <c r="H105" s="87">
         <v>380</v>
       </c>
-      <c r="I105" s="79">
+      <c r="I105" s="78">
         <v>62</v>
       </c>
-      <c r="J105" s="101">
+      <c r="J105" s="100">
         <v>62</v>
       </c>
     </row>
@@ -6956,7 +6955,7 @@
       <c r="C106">
         <v>0.4</v>
       </c>
-      <c r="D106" s="69">
+      <c r="D106" s="68">
         <f>C106/1000</f>
         <v>4.0000000000000002E-4</v>
       </c>
@@ -6964,19 +6963,19 @@
         <f>D106/$D$107</f>
         <v>0.55172413793103459</v>
       </c>
-      <c r="F106" s="69" t="s">
+      <c r="F106" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G106" s="88">
+      <c r="G106" s="87">
         <v>1070</v>
       </c>
-      <c r="H106" s="88">
+      <c r="H106" s="87">
         <v>1990</v>
       </c>
-      <c r="I106" s="79">
+      <c r="I106" s="78">
         <v>0.16200000000000001</v>
       </c>
-      <c r="J106" s="101">
+      <c r="J106" s="100">
         <v>0.16200000000000001</v>
       </c>
     </row>
@@ -6988,7 +6987,7 @@
         <f>SUM(C105:C106)</f>
         <v>0.72500000000000009</v>
       </c>
-      <c r="D107" s="69">
+      <c r="D107" s="68">
         <f>SUM(D105:D106)</f>
         <v>7.2499999999999995E-4</v>
       </c>
@@ -6996,22 +6995,22 @@
         <f>SUM(E105:E106)</f>
         <v>1</v>
       </c>
-      <c r="F107" s="69">
+      <c r="F107" s="68">
         <v>2.8980000000000001E-7</v>
       </c>
-      <c r="G107" s="85">
+      <c r="G107" s="84">
         <f>D107/F107</f>
         <v>2501.7253278122839</v>
       </c>
-      <c r="H107" s="85">
+      <c r="H107" s="84">
         <f>H105*$E$105+H106*$E$106</f>
         <v>1268.2758620689658</v>
       </c>
-      <c r="I107" s="76">
+      <c r="I107" s="75">
         <f>I105*$E$105+I106*$E$106</f>
         <v>27.882482758620689</v>
       </c>
-      <c r="J107" s="98">
+      <c r="J107" s="97">
         <f>J105*$E$105+J106*$E$106</f>
         <v>27.882482758620689</v>
       </c>
@@ -7022,13 +7021,13 @@
       </c>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
-      <c r="D108" s="66"/>
+      <c r="D108" s="65"/>
       <c r="E108" s="17"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="82"/>
-      <c r="H108" s="82"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="94"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="81"/>
+      <c r="H108" s="81"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="93"/>
     </row>
     <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="40" t="s">
@@ -7036,48 +7035,48 @@
       </c>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
-      <c r="D109" s="70"/>
+      <c r="D109" s="69"/>
       <c r="E109" s="36"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="83">
+      <c r="F109" s="69"/>
+      <c r="G109" s="82">
         <v>2501.7253278122839</v>
       </c>
-      <c r="H109" s="83">
+      <c r="H109" s="82">
         <v>1268.2758620689658</v>
       </c>
-      <c r="I109" s="75">
+      <c r="I109" s="74">
         <v>27.882482758620689</v>
       </c>
-      <c r="J109" s="95">
+      <c r="J109" s="94">
         <v>27.882482758620689</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="84"/>
-      <c r="H110" s="84"/>
-      <c r="I110" s="72"/>
-      <c r="J110" s="72"/>
+      <c r="D110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="83"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="84"/>
-      <c r="H111" s="84"/>
-      <c r="I111" s="72"/>
-      <c r="J111" s="72"/>
+      <c r="D111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="83"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="71"/>
     </row>
     <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="84"/>
-      <c r="H112" s="84"/>
-      <c r="I112" s="72"/>
-      <c r="J112" s="72"/>
+      <c r="D112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="83"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="30" t="s">
@@ -7089,25 +7088,25 @@
       <c r="C113" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D113" s="68" t="s">
+      <c r="D113" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E113" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F113" s="68" t="s">
+      <c r="F113" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G113" s="80" t="s">
+      <c r="G113" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H113" s="91" t="s">
+      <c r="H113" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I113" s="90" t="s">
+      <c r="I113" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J113" s="97" t="s">
+      <c r="J113" s="96" t="s">
         <v>206</v>
       </c>
       <c r="L113" s="22"/>
@@ -7122,26 +7121,26 @@
       <c r="C114">
         <v>30</v>
       </c>
-      <c r="D114" s="69">
+      <c r="D114" s="68">
         <f>C114/1000</f>
         <v>0.03</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
-      <c r="F114" s="69" t="s">
+      <c r="F114" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="G114" s="88" t="s">
+      <c r="G114" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="88" t="s">
+      <c r="H114" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="I114" s="79" t="s">
+      <c r="I114" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="J114" s="96" t="s">
+      <c r="J114" s="95" t="s">
         <v>23</v>
       </c>
       <c r="L114" s="7"/>
@@ -7150,12 +7149,12 @@
       <c r="A115" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="84"/>
-      <c r="H115" s="84"/>
-      <c r="I115" s="72"/>
-      <c r="J115" s="96"/>
+      <c r="D115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="83"/>
+      <c r="I115" s="71"/>
+      <c r="J115" s="95"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="49" t="s">
@@ -7167,26 +7166,26 @@
       <c r="C116" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="69" t="s">
+      <c r="D116" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
       </c>
-      <c r="F116" s="69">
+      <c r="F116" s="68">
         <v>2.6599999999999999E-6</v>
       </c>
-      <c r="G116" s="85">
+      <c r="G116" s="84">
         <f>$G$128</f>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H116" s="81">
+      <c r="H116" s="80">
         <v>1010</v>
       </c>
-      <c r="I116" s="73">
+      <c r="I116" s="72">
         <v>0.27</v>
       </c>
-      <c r="J116" s="93">
+      <c r="J116" s="92">
         <v>0.27</v>
       </c>
     </row>
@@ -7200,26 +7199,26 @@
       <c r="C117" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="69" t="s">
+      <c r="D117" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
       </c>
-      <c r="F117" s="69">
+      <c r="F117" s="68">
         <v>7.9800000000000003E-7</v>
       </c>
-      <c r="G117" s="85">
+      <c r="G117" s="84">
         <f t="shared" ref="G117:G121" si="3">$G$128</f>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H117" s="81">
+      <c r="H117" s="80">
         <v>1010</v>
       </c>
-      <c r="I117" s="73">
+      <c r="I117" s="72">
         <v>0.27</v>
       </c>
-      <c r="J117" s="93">
+      <c r="J117" s="92">
         <v>0.27</v>
       </c>
     </row>
@@ -7233,26 +7232,26 @@
       <c r="C118" t="s">
         <v>23</v>
       </c>
-      <c r="D118" s="69" t="s">
+      <c r="D118" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E118" t="s">
         <v>23</v>
       </c>
-      <c r="F118" s="69">
+      <c r="F118" s="68">
         <v>7.9800000000000003E-7</v>
       </c>
-      <c r="G118" s="85">
+      <c r="G118" s="84">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H118" s="81">
+      <c r="H118" s="80">
         <v>1010</v>
       </c>
-      <c r="I118" s="73">
+      <c r="I118" s="72">
         <v>0.27</v>
       </c>
-      <c r="J118" s="93">
+      <c r="J118" s="92">
         <v>0.27</v>
       </c>
     </row>
@@ -7266,26 +7265,26 @@
       <c r="C119" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="69" t="s">
+      <c r="D119" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
       </c>
-      <c r="F119" s="69">
+      <c r="F119" s="68">
         <v>2.9440000000000001E-6</v>
       </c>
-      <c r="G119" s="85">
+      <c r="G119" s="84">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H119" s="81">
+      <c r="H119" s="80">
         <v>1010</v>
       </c>
-      <c r="I119" s="73">
+      <c r="I119" s="72">
         <v>0.27</v>
       </c>
-      <c r="J119" s="93">
+      <c r="J119" s="92">
         <v>0.27</v>
       </c>
     </row>
@@ -7299,26 +7298,26 @@
       <c r="C120" t="s">
         <v>23</v>
       </c>
-      <c r="D120" s="69" t="s">
+      <c r="D120" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
       </c>
-      <c r="F120" s="69">
+      <c r="F120" s="68">
         <v>2.9440000000000001E-6</v>
       </c>
-      <c r="G120" s="85">
+      <c r="G120" s="84">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H120" s="81">
+      <c r="H120" s="80">
         <v>1010</v>
       </c>
-      <c r="I120" s="73">
+      <c r="I120" s="72">
         <v>0.27</v>
       </c>
-      <c r="J120" s="93">
+      <c r="J120" s="92">
         <v>0.27</v>
       </c>
     </row>
@@ -7332,26 +7331,26 @@
       <c r="C121" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="69" t="s">
+      <c r="D121" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E121" t="s">
         <v>23</v>
       </c>
-      <c r="F121" s="69">
+      <c r="F121" s="68">
         <v>5.2440000000000001E-6</v>
       </c>
-      <c r="G121" s="85">
+      <c r="G121" s="84">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H121" s="81">
+      <c r="H121" s="80">
         <v>1010</v>
       </c>
-      <c r="I121" s="73">
+      <c r="I121" s="72">
         <v>0.27</v>
       </c>
-      <c r="J121" s="93">
+      <c r="J121" s="92">
         <v>0.27</v>
       </c>
     </row>
@@ -7366,27 +7365,27 @@
         <f>SUM(C123:C124)</f>
         <v>0.30199515966809148</v>
       </c>
-      <c r="D122" s="69">
+      <c r="D122" s="68">
         <f>SUM(D123:D124)</f>
         <v>3.0199515966809152E-4</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
-      <c r="F122" s="69">
+      <c r="F122" s="68">
         <v>1.3E-7</v>
       </c>
-      <c r="G122" s="85">
+      <c r="G122" s="84">
         <f>(1.7*0.1775/1000)/F122+G121</f>
         <v>4206.9974468578948</v>
       </c>
-      <c r="H122" s="81">
+      <c r="H122" s="80">
         <v>500</v>
       </c>
-      <c r="I122" s="81">
+      <c r="I122" s="80">
         <v>15</v>
       </c>
-      <c r="J122" s="93">
+      <c r="J122" s="92">
         <v>15</v>
       </c>
     </row>
@@ -7401,7 +7400,7 @@
         <f>F122*G121</f>
         <v>2.4515966809152628E-4</v>
       </c>
-      <c r="D123" s="69">
+      <c r="D123" s="68">
         <f>C123/1000</f>
         <v>2.4515966809152627E-7</v>
       </c>
@@ -7409,11 +7408,11 @@
         <f>D123/D122</f>
         <v>8.1179999163221545E-4</v>
       </c>
-      <c r="F123" s="69"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="92"/>
-      <c r="I123" s="92"/>
-      <c r="J123" s="102"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="101"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="49" t="s">
@@ -7426,7 +7425,7 @@
         <f>1.7*0.1775</f>
         <v>0.30174999999999996</v>
       </c>
-      <c r="D124" s="69">
+      <c r="D124" s="68">
         <f>C124/1000</f>
         <v>3.0174999999999999E-4</v>
       </c>
@@ -7434,11 +7433,11 @@
         <f>D124/D122</f>
         <v>0.99918820000836783</v>
       </c>
-      <c r="F124" s="69"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="92"/>
-      <c r="I124" s="92"/>
-      <c r="J124" s="102"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="88"/>
+      <c r="H124" s="91"/>
+      <c r="I124" s="91"/>
+      <c r="J124" s="101"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="49" t="s">
@@ -7450,25 +7449,25 @@
       <c r="C125" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="69" t="s">
+      <c r="D125" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
       </c>
-      <c r="F125" s="69">
+      <c r="F125" s="68">
         <v>1.3E-7</v>
       </c>
-      <c r="G125" s="85">
+      <c r="G125" s="84">
         <v>4206.9974468578948</v>
       </c>
-      <c r="H125" s="81">
+      <c r="H125" s="80">
         <v>500</v>
       </c>
-      <c r="I125" s="81">
+      <c r="I125" s="80">
         <v>15</v>
       </c>
-      <c r="J125" s="93">
+      <c r="J125" s="92">
         <v>15</v>
       </c>
     </row>
@@ -7482,25 +7481,25 @@
       <c r="C126" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="69" t="s">
+      <c r="D126" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E126" t="s">
         <v>23</v>
       </c>
-      <c r="F126" s="69">
+      <c r="F126" s="68">
         <v>1.3E-7</v>
       </c>
-      <c r="G126" s="85">
+      <c r="G126" s="84">
         <v>4206.9974468578948</v>
       </c>
-      <c r="H126" s="81">
+      <c r="H126" s="80">
         <v>500</v>
       </c>
-      <c r="I126" s="81">
+      <c r="I126" s="80">
         <v>15</v>
       </c>
-      <c r="J126" s="93">
+      <c r="J126" s="92">
         <v>15</v>
       </c>
     </row>
@@ -7514,25 +7513,25 @@
       <c r="C127" t="s">
         <v>23</v>
       </c>
-      <c r="D127" s="69" t="s">
+      <c r="D127" s="68" t="s">
         <v>23</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
       </c>
-      <c r="F127" s="69">
+      <c r="F127" s="68">
         <v>1.3E-7</v>
       </c>
-      <c r="G127" s="85">
+      <c r="G127" s="84">
         <v>4206.9974468578948</v>
       </c>
-      <c r="H127" s="81">
+      <c r="H127" s="80">
         <v>500</v>
       </c>
-      <c r="I127" s="81">
+      <c r="I127" s="80">
         <v>15</v>
       </c>
-      <c r="J127" s="93">
+      <c r="J127" s="92">
         <v>15</v>
       </c>
     </row>
@@ -7542,44 +7541,44 @@
       </c>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
-      <c r="D128" s="70"/>
+      <c r="D128" s="69"/>
       <c r="E128" s="36"/>
-      <c r="F128" s="70">
+      <c r="F128" s="69">
         <f>SUM(F116:F127)</f>
         <v>1.5908000000000001E-5</v>
       </c>
-      <c r="G128" s="83">
+      <c r="G128" s="82">
         <f>D114/F128</f>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H128" s="87">
+      <c r="H128" s="86">
         <v>1010</v>
       </c>
-      <c r="I128" s="78">
+      <c r="I128" s="77">
         <v>0.27</v>
       </c>
-      <c r="J128" s="100">
+      <c r="J128" s="99">
         <v>0.27</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="H129" s="84"/>
-      <c r="I129" s="72"/>
-      <c r="J129" s="72"/>
+      <c r="D129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="H129" s="83"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
     </row>
     <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D130" s="69"/>
-      <c r="F130" s="71"/>
-      <c r="H130" s="84"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="72"/>
+      <c r="D130" s="68"/>
+      <c r="F130" s="70"/>
+      <c r="H130" s="83"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
@@ -7591,25 +7590,25 @@
       <c r="C131" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D131" s="68" t="s">
+      <c r="D131" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E131" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F131" s="68" t="s">
+      <c r="F131" s="67" t="s">
         <v>86</v>
       </c>
       <c r="G131" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H131" s="91" t="s">
+      <c r="H131" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I131" s="90" t="s">
+      <c r="I131" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="J131" s="97" t="s">
+      <c r="J131" s="96" t="s">
         <v>206</v>
       </c>
       <c r="L131" s="22"/>
@@ -7625,7 +7624,7 @@
         <f>1.7*0.1775</f>
         <v>0.30174999999999996</v>
       </c>
-      <c r="D132" s="69">
+      <c r="D132" s="68">
         <f>C132/1000</f>
         <v>3.0174999999999999E-4</v>
       </c>
@@ -7633,19 +7632,19 @@
         <f>D132/$D$135</f>
         <v>0.50992817912970001</v>
       </c>
-      <c r="F132" s="69" t="s">
+      <c r="F132" s="68" t="s">
         <v>23</v>
       </c>
       <c r="G132" t="s">
         <v>23</v>
       </c>
-      <c r="H132" s="88">
+      <c r="H132" s="87">
         <v>500</v>
       </c>
-      <c r="I132" s="88">
+      <c r="I132" s="87">
         <v>15</v>
       </c>
-      <c r="J132" s="101">
+      <c r="J132" s="100">
         <v>15</v>
       </c>
     </row>
@@ -7659,7 +7658,7 @@
       <c r="C133">
         <v>0.22</v>
       </c>
-      <c r="D133" s="69">
+      <c r="D133" s="68">
         <f t="shared" ref="D133:D135" si="4">C133/1000</f>
         <v>2.2000000000000001E-4</v>
       </c>
@@ -7667,19 +7666,19 @@
         <f t="shared" ref="E133:E134" si="5">D133/$D$135</f>
         <v>0.37177862272919304</v>
       </c>
-      <c r="F133" s="69" t="s">
+      <c r="F133" s="68" t="s">
         <v>23</v>
       </c>
       <c r="G133" t="s">
         <v>23</v>
       </c>
-      <c r="H133" s="88">
+      <c r="H133" s="87">
         <v>500</v>
       </c>
-      <c r="I133" s="88">
+      <c r="I133" s="87">
         <v>15</v>
       </c>
-      <c r="J133" s="101">
+      <c r="J133" s="100">
         <v>15</v>
       </c>
     </row>
@@ -7693,7 +7692,7 @@
       <c r="C134">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D134" s="69">
+      <c r="D134" s="68">
         <f t="shared" si="4"/>
         <v>7.0000000000000007E-5</v>
       </c>
@@ -7701,19 +7700,19 @@
         <f t="shared" si="5"/>
         <v>0.11829319814110689</v>
       </c>
-      <c r="F134" s="69" t="s">
+      <c r="F134" s="68" t="s">
         <v>23</v>
       </c>
       <c r="G134" t="s">
         <v>23</v>
       </c>
-      <c r="H134" s="88">
+      <c r="H134" s="87">
         <v>900</v>
       </c>
-      <c r="I134" s="88">
+      <c r="I134" s="87">
         <v>209</v>
       </c>
-      <c r="J134" s="101">
+      <c r="J134" s="100">
         <v>209</v>
       </c>
     </row>
@@ -7728,7 +7727,7 @@
         <f>SUM(C132:C134)</f>
         <v>0.59175</v>
       </c>
-      <c r="D135" s="69">
+      <c r="D135" s="68">
         <f t="shared" si="4"/>
         <v>5.9175000000000005E-4</v>
       </c>
@@ -7736,21 +7735,21 @@
         <f>SUM(E132:E134)</f>
         <v>1</v>
       </c>
-      <c r="F135" s="69">
+      <c r="F135" s="68">
         <v>1.3E-7</v>
       </c>
-      <c r="G135" s="85">
+      <c r="G135" s="84">
         <f>D135/F135</f>
         <v>4551.9230769230771</v>
       </c>
-      <c r="H135" s="85">
+      <c r="H135" s="84">
         <f>H132*$E$132+H133*$E$133+H134*$E$134</f>
         <v>547.3172792564427</v>
       </c>
-      <c r="I135" s="85">
+      <c r="I135" s="84">
         <v>15</v>
       </c>
-      <c r="J135" s="98">
+      <c r="J135" s="97">
         <v>15</v>
       </c>
     </row>
@@ -7760,13 +7759,13 @@
       </c>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
-      <c r="D136" s="66"/>
+      <c r="D136" s="65"/>
       <c r="E136" s="17"/>
-      <c r="F136" s="66"/>
+      <c r="F136" s="65"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="82"/>
-      <c r="I136" s="82"/>
-      <c r="J136" s="94"/>
+      <c r="H136" s="81"/>
+      <c r="I136" s="81"/>
+      <c r="J136" s="93"/>
     </row>
     <row r="137" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="50" t="s">
@@ -7774,24 +7773,24 @@
       </c>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
-      <c r="D137" s="70"/>
+      <c r="D137" s="69"/>
       <c r="E137" s="36"/>
-      <c r="F137" s="70"/>
-      <c r="G137" s="83">
+      <c r="F137" s="69"/>
+      <c r="G137" s="82">
         <v>4551.9230769230771</v>
       </c>
-      <c r="H137" s="83">
+      <c r="H137" s="82">
         <v>547.3172792564427</v>
       </c>
-      <c r="I137" s="83">
+      <c r="I137" s="82">
         <v>15</v>
       </c>
-      <c r="J137" s="95">
+      <c r="J137" s="94">
         <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J138" s="72"/>
+      <c r="J138" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7803,8 +7802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7853,10 +7852,10 @@
       <c r="J1" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="108" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="109"/>
+      <c r="M1" s="108"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7887,7 +7886,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="61">
-        <f>1/G2</f>
+        <f>1/I2</f>
         <v>0.05</v>
       </c>
     </row>
@@ -7920,7 +7919,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="61">
-        <f t="shared" ref="J3:J26" si="0">1/G3</f>
+        <f t="shared" ref="J3:J26" si="0">1/I3</f>
         <v>0.05</v>
       </c>
     </row>
@@ -8022,11 +8021,11 @@
         <v>338</v>
       </c>
       <c r="I6" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" s="61">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L6" t="s">
         <v>370</v>
@@ -8058,7 +8057,7 @@
         <v>338</v>
       </c>
       <c r="I7" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="61">
         <f t="shared" si="0"/>
@@ -8094,7 +8093,7 @@
         <v>334</v>
       </c>
       <c r="I8" s="29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J8" s="61">
         <f t="shared" si="0"/>
@@ -8115,8 +8114,8 @@
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="59"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8148,7 +8147,7 @@
       </c>
       <c r="J10" s="61">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -8181,9 +8180,9 @@
       </c>
       <c r="J11" s="61">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="L11" s="63" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="62" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8213,18 +8212,18 @@
         <v>343</v>
       </c>
       <c r="I12" s="29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J12" s="61">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="L12" s="64" t="s">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L12" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8252,16 +8251,16 @@
         <v>343</v>
       </c>
       <c r="I13" s="29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J13" s="61">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8289,18 +8288,18 @@
         <v>343</v>
       </c>
       <c r="I14" s="29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J14" s="61">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="L14" s="110" t="s">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L14" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -8328,13 +8327,13 @@
         <v>338</v>
       </c>
       <c r="I15" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="61">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L15" s="110"/>
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="109"/>
     </row>
     <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -8362,15 +8361,15 @@
         <v>336</v>
       </c>
       <c r="I16" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J16" s="61">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -8398,15 +8397,15 @@
         <v>338</v>
       </c>
       <c r="I17" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J17" s="61">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8434,16 +8433,16 @@
         <v>334</v>
       </c>
       <c r="I18" s="29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J18" s="61">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -8471,7 +8470,7 @@
         <v>338</v>
       </c>
       <c r="I19" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J19" s="61">
         <f t="shared" si="0"/>
@@ -8504,11 +8503,11 @@
         <v>338</v>
       </c>
       <c r="I20" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" s="61">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -8537,7 +8536,7 @@
         <v>338</v>
       </c>
       <c r="I21" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J21" s="61">
         <f t="shared" si="0"/>
@@ -8574,7 +8573,7 @@
       </c>
       <c r="J22" s="61">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -8607,7 +8606,7 @@
       </c>
       <c r="J23" s="61">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -8636,11 +8635,11 @@
         <v>334</v>
       </c>
       <c r="I24" s="29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J24" s="61">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -8669,11 +8668,11 @@
         <v>334</v>
       </c>
       <c r="I25" s="29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J25" s="61">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -8706,7 +8705,7 @@
       </c>
       <c r="J26" s="61">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -9239,18 +9238,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="H1" s="111" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="H1" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -9262,25 +9261,25 @@
       <c r="C2" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>380</v>
       </c>
       <c r="E2" t="s">
         <v>381</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="62" t="s">
         <v>382</v>
       </c>
       <c r="H2" t="s">
         <v>379</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="62" t="s">
         <v>380</v>
       </c>
       <c r="J2" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="62" t="s">
         <v>382</v>
       </c>
     </row>
@@ -9291,29 +9290,29 @@
       <c r="B3" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="105">
         <f>0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106">
+      <c r="E3" s="105"/>
+      <c r="F3" s="105">
         <f>0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="105">
+      <c r="G3" s="105"/>
+      <c r="H3" s="104">
         <f>C3/1000</f>
         <v>0</v>
       </c>
-      <c r="I3" s="105">
+      <c r="I3" s="104">
         <f t="shared" ref="I3:K3" si="0">D3/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J3" s="105">
+      <c r="J3" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="105">
+      <c r="K3" s="104">
         <f t="shared" si="0"/>
         <v>6.6666666666666675E-6</v>
       </c>
@@ -9325,29 +9324,29 @@
       <c r="B4" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="105">
         <f t="shared" ref="D4:F5" si="1">0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106">
+      <c r="E4" s="105"/>
+      <c r="F4" s="105">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G4" s="106"/>
-      <c r="H4" s="105">
+      <c r="G4" s="105"/>
+      <c r="H4" s="104">
         <f t="shared" ref="H4:H27" si="2">C4/1000</f>
         <v>0</v>
       </c>
-      <c r="I4" s="105">
+      <c r="I4" s="104">
         <f t="shared" ref="I4:I27" si="3">D4/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="104">
         <f t="shared" ref="J4:J27" si="4">E4/1000</f>
         <v>0</v>
       </c>
-      <c r="K4" s="105">
+      <c r="K4" s="104">
         <f t="shared" ref="K4:K27" si="5">F4/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
@@ -9359,29 +9358,29 @@
       <c r="B5" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="105">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106">
+      <c r="E5" s="105"/>
+      <c r="F5" s="105">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="105">
+      <c r="G5" s="105"/>
+      <c r="H5" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="105">
+      <c r="I5" s="104">
         <f t="shared" si="3"/>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K5" s="105">
+      <c r="K5" s="104">
         <f t="shared" si="5"/>
         <v>6.6666666666666675E-6</v>
       </c>
@@ -9423,10 +9422,10 @@
       <c r="B7" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="103">
-        <v>0</v>
-      </c>
-      <c r="F7" s="103">
+      <c r="D7" s="102">
+        <v>0</v>
+      </c>
+      <c r="F7" s="102">
         <v>0</v>
       </c>
       <c r="H7">
@@ -9510,10 +9509,10 @@
       <c r="A10" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="104">
-        <v>0</v>
-      </c>
-      <c r="F10" s="104">
+      <c r="D10" s="103">
+        <v>0</v>
+      </c>
+      <c r="F10" s="103">
         <v>0</v>
       </c>
       <c r="H10">
@@ -9600,10 +9599,10 @@
       <c r="B13" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="103">
-        <v>0</v>
-      </c>
-      <c r="F13" s="103">
+      <c r="D13" s="102">
+        <v>0</v>
+      </c>
+      <c r="F13" s="102">
         <v>0</v>
       </c>
       <c r="H13">
@@ -9630,10 +9629,10 @@
       <c r="B14" t="s">
         <v>318</v>
       </c>
-      <c r="D14" s="103">
-        <v>0</v>
-      </c>
-      <c r="F14" s="103">
+      <c r="D14" s="102">
+        <v>0</v>
+      </c>
+      <c r="F14" s="102">
         <v>0</v>
       </c>
       <c r="H14">
@@ -9660,10 +9659,10 @@
       <c r="B15" t="s">
         <v>318</v>
       </c>
-      <c r="D15" s="103">
-        <v>0</v>
-      </c>
-      <c r="F15" s="103">
+      <c r="D15" s="102">
+        <v>0</v>
+      </c>
+      <c r="F15" s="102">
         <v>0</v>
       </c>
       <c r="H15">
@@ -9690,10 +9689,10 @@
       <c r="B16" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="103">
-        <v>0</v>
-      </c>
-      <c r="F16" s="103">
+      <c r="D16" s="102">
+        <v>0</v>
+      </c>
+      <c r="F16" s="102">
         <v>0</v>
       </c>
       <c r="H16">
@@ -9753,7 +9752,7 @@
       <c r="D18">
         <v>389</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F18" s="102">
         <v>0</v>
       </c>
       <c r="H18">
@@ -9780,10 +9779,10 @@
       <c r="B19" t="s">
         <v>322</v>
       </c>
-      <c r="D19" s="103">
+      <c r="D19" s="102">
         <v>145.19999999999999</v>
       </c>
-      <c r="F19" s="103">
+      <c r="F19" s="102">
         <v>0</v>
       </c>
       <c r="H19">
@@ -9810,10 +9809,10 @@
       <c r="B20" t="s">
         <v>323</v>
       </c>
-      <c r="D20" s="103">
+      <c r="D20" s="102">
         <v>227.7</v>
       </c>
-      <c r="F20" s="103">
+      <c r="F20" s="102">
         <v>0</v>
       </c>
       <c r="H20">
@@ -9840,10 +9839,10 @@
       <c r="B21" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="103">
+      <c r="D21" s="102">
         <v>290.39999999999998</v>
       </c>
-      <c r="F21" s="103">
+      <c r="F21" s="102">
         <v>0</v>
       </c>
       <c r="H21">
@@ -9870,10 +9869,10 @@
       <c r="B22" t="s">
         <v>325</v>
       </c>
-      <c r="D22" s="103">
+      <c r="D22" s="102">
         <v>217.8</v>
       </c>
-      <c r="F22" s="103">
+      <c r="F22" s="102">
         <v>0</v>
       </c>
       <c r="H22">
@@ -9900,10 +9899,10 @@
       <c r="B23" t="s">
         <v>326</v>
       </c>
-      <c r="D23" s="103">
-        <v>0</v>
-      </c>
-      <c r="F23" s="103">
+      <c r="D23" s="102">
+        <v>0</v>
+      </c>
+      <c r="F23" s="102">
         <v>0</v>
       </c>
       <c r="H23">
@@ -9930,10 +9929,10 @@
       <c r="B24" t="s">
         <v>327</v>
       </c>
-      <c r="D24" s="103">
+      <c r="D24" s="102">
         <v>45</v>
       </c>
-      <c r="F24" s="103">
+      <c r="F24" s="102">
         <v>0</v>
       </c>
       <c r="H24">
@@ -9960,10 +9959,10 @@
       <c r="B25" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="103">
+      <c r="D25" s="102">
         <v>500</v>
       </c>
-      <c r="F25" s="103">
+      <c r="F25" s="102">
         <v>0</v>
       </c>
       <c r="H25">
@@ -9990,10 +9989,10 @@
       <c r="B26" t="s">
         <v>328</v>
       </c>
-      <c r="D26" s="103">
+      <c r="D26" s="102">
         <v>500</v>
       </c>
-      <c r="F26" s="103">
+      <c r="F26" s="102">
         <v>0</v>
       </c>
       <c r="H26">
@@ -10020,10 +10019,10 @@
       <c r="B27" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="103">
+      <c r="D27" s="102">
         <v>330</v>
       </c>
-      <c r="F27" s="103">
+      <c r="F27" s="102">
         <v>0</v>
       </c>
       <c r="H27">

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F574A872-7C2D-43DC-91AD-5C4A11968248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9238C211-69B3-4782-988D-A0FC424B3823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="36" windowWidth="22992" windowHeight="12324" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Masses and Volumes" sheetId="8" r:id="rId2"/>
     <sheet name="Properties PCBs" sheetId="10" r:id="rId3"/>
     <sheet name="Bulks" sheetId="6" r:id="rId4"/>
-    <sheet name="UDC AI" sheetId="11" r:id="rId5"/>
+    <sheet name="UDC" sheetId="11" r:id="rId5"/>
     <sheet name="Power" sheetId="12" r:id="rId6"/>
     <sheet name="Extra" sheetId="9" r:id="rId7"/>
     <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId8"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="369">
   <si>
     <t>Material</t>
   </si>
@@ -844,21 +844,9 @@
     <t>H (mm)</t>
   </si>
   <si>
-    <t>X1SON</t>
-  </si>
-  <si>
-    <t>14-pin LGA</t>
-  </si>
-  <si>
-    <t>SQFN016V4040</t>
-  </si>
-  <si>
     <t>RSV (QFN, 16)</t>
   </si>
   <si>
-    <t>ILSP</t>
-  </si>
-  <si>
     <t>TDFN-10</t>
   </si>
   <si>
@@ -883,12 +871,6 @@
     <t>RoHS Compliant??</t>
   </si>
   <si>
-    <t>QFN Leadless SMT</t>
-  </si>
-  <si>
-    <t>QFN Package</t>
-  </si>
-  <si>
     <t>HV1195</t>
   </si>
   <si>
@@ -1042,123 +1024,6 @@
     <t>HMC358MS8GE</t>
   </si>
   <si>
-    <t>Package Type</t>
-  </si>
-  <si>
-    <t>ΘJA (°C/W)</t>
-  </si>
-  <si>
-    <t>ΘJB (°C/W)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>10–20</t>
-  </si>
-  <si>
-    <t>Small plastic package; primary heat path through PCB.</t>
-  </si>
-  <si>
-    <t>5–15</t>
-  </si>
-  <si>
-    <t>SQFN016V4040 (4x4 mm)</t>
-  </si>
-  <si>
-    <t>5–10</t>
-  </si>
-  <si>
-    <t>100–150</t>
-  </si>
-  <si>
-    <t>Exposed pad enhances thermal performance.</t>
-  </si>
-  <si>
-    <t>Thin QFN with efficient heat dissipation.</t>
-  </si>
-  <si>
-    <t>120–180</t>
-  </si>
-  <si>
-    <t>10–15</t>
-  </si>
-  <si>
-    <t>Exposed pad directs heat to PCB.</t>
-  </si>
-  <si>
-    <t>LQFP-64</t>
-  </si>
-  <si>
-    <t>Larger package; better heat spreading.</t>
-  </si>
-  <si>
-    <t>Generic SMT; assume plastic package.</t>
-  </si>
-  <si>
-    <t>Leadless QFN with exposed pad.</t>
-  </si>
-  <si>
-    <t>Standard QFN thermal performance.</t>
-  </si>
-  <si>
-    <t>2–5</t>
-  </si>
-  <si>
-    <t>Larger package; better heat transfer.</t>
-  </si>
-  <si>
-    <t>Exposed pad for PCB heat transfer.</t>
-  </si>
-  <si>
-    <t>Tiny package (2x2mm); limited thermal paths.</t>
-  </si>
-  <si>
-    <t>Similar to TSSOP; plastic encapsulation.</t>
-  </si>
-  <si>
-    <t>60–120</t>
-  </si>
-  <si>
-    <t>Exposed pad benefits from 2s2p PCB.</t>
-  </si>
-  <si>
-    <t>80–120</t>
-  </si>
-  <si>
-    <t>Similar to QFN; benefits from 2s2p PCB.</t>
-  </si>
-  <si>
-    <t>40–80</t>
-  </si>
-  <si>
-    <t>Limited improvement due to plastic package.</t>
-  </si>
-  <si>
-    <t>Likely QFN; benefits from 2s2p PCB.</t>
-  </si>
-  <si>
-    <t>40–60</t>
-  </si>
-  <si>
-    <t>Moderate improvement in ΘJAΘJA​.</t>
-  </si>
-  <si>
-    <t>Improved ΘJAΘJA​ due to better heat spreading.</t>
-  </si>
-  <si>
-    <t>Exposed pad for low ΘJBΘJB​.</t>
-  </si>
-  <si>
-    <t>ΘJB1 (°C/W)</t>
-  </si>
-  <si>
-    <t>ΘJB2 (°C/W)</t>
-  </si>
-  <si>
-    <t>ΘJBEst (°C/W)</t>
-  </si>
-  <si>
     <t>https://www.ti.com/lit/an/spra953d/spra953d.pdf?ts=1742435438606</t>
   </si>
   <si>
@@ -1171,21 +1036,6 @@
     <t>Theory</t>
   </si>
   <si>
-    <t>Estimations using AI</t>
-  </si>
-  <si>
-    <t>Estimation 2</t>
-  </si>
-  <si>
-    <t>The highest resistance provided has been chosen, between the two of them.</t>
-  </si>
-  <si>
-    <t>Determining Theta_JB requieres extensive testing, not possible nor necessary.</t>
-  </si>
-  <si>
-    <t>UDC=User Defined Conductor</t>
-  </si>
-  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -1208,6 +1058,105 @@
   </si>
   <si>
     <t>Measuring</t>
+  </si>
+  <si>
+    <t>HASL (w Lead)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/FR-4</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/DataSheet.aspx?MatGUID=9aebe83845c04c1db5126fada6f76f7e</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/DataSheet.aspx?MatGUID=4d14eac958e5401a8fd152e1261b6843&amp;ckck=1</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/datasheet_print.aspx?matguid=e2147b8f727343b0b0d51efe02a6127e</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/datasheet.aspx?MatGUID=4f19a42be94546b686bbf43f79c51b7d</t>
+  </si>
+  <si>
+    <t>https://www.rogerscorp.com/advanced-electronics-solutions/rt-duroid-laminates/rt-duroid-5880-laminates</t>
+  </si>
+  <si>
+    <t>3Cat4</t>
+  </si>
+  <si>
+    <t>unused</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/DataSheet.aspx?MatGUID=64d7cf04332e428dbca9f755f4624a6c</t>
+  </si>
+  <si>
+    <t>Estimation, density computed</t>
+  </si>
+  <si>
+    <t>Placeholder values</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/datasheettext.aspx?matguid=ff0c4419106b43daa306ceb3f95602df</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/DataSheet.aspx?MatGUID=79875d1b30c94af39029470988004fb6</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/DataSheet.aspx?MatGUID=029a4ff04bdc46d5906b29e0a36dba36</t>
+  </si>
+  <si>
+    <t>https://www.matweb.com/search/DataSheet.aspx?MatGUID=eb7a78f5948d481c9493a67f0d089646</t>
+  </si>
+  <si>
+    <t>https://www.engineeringtoolbox.com/emissivity-coefficients-d_447.html</t>
+  </si>
+  <si>
+    <t>https://techsil.s3.eu-west-2.amazonaws.com/TE/TDS/MGEN00013-tds.pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1R_e9xFnfJCxb2qx-rbQt-H134XDJjOBhBHsxn7WTe3M/edit?gid=0#gid=0</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>KiCad PQ Hardware</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/lpv542.pdf?ts=1745484415972&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252Fes-mx%252FLPV542</t>
+  </si>
+  <si>
+    <t>SQFN016V4040 (16 PIN)</t>
+  </si>
+  <si>
+    <t>LGA (14 PIN)</t>
+  </si>
+  <si>
+    <t>X1SON (8 PIN)</t>
+  </si>
+  <si>
+    <t>ILSP (16)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>h (mm)</t>
+  </si>
+  <si>
+    <t>w (mm)</t>
+  </si>
+  <si>
+    <t>RJB (°C/W)</t>
+  </si>
+  <si>
+    <t>Thermal Pad (mm^2)</t>
+  </si>
+  <si>
+    <t>From the known RJB on the first component (LPV) the rest are computed by weighting pin area.</t>
+  </si>
+  <si>
+    <t>UDC= User Defined Conductor</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1364,12 +1313,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,7 +1484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1643,11 +1586,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1724,16 +1663,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1968,8 +1910,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Material" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IR Emissivity (εIR)" dataDxfId="4"/>
@@ -2303,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,7 +2263,7 @@
     <col min="9" max="9" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2360,8 +2302,11 @@
       <c r="F2" s="7">
         <v>8181</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2380,8 +2325,11 @@
       <c r="F3" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2400,8 +2348,11 @@
       <c r="F4" s="7">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2420,8 +2371,11 @@
       <c r="F5" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2440,8 +2394,11 @@
       <c r="F6" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2460,8 +2417,11 @@
       <c r="F7" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2480,8 +2440,14 @@
       <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2500,8 +2466,14 @@
       <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>343</v>
+      </c>
+      <c r="I9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2520,8 +2492,11 @@
       <c r="F10" s="7">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2540,8 +2515,14 @@
       <c r="F11" s="7">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -2560,8 +2541,14 @@
       <c r="F12" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2580,8 +2567,11 @@
       <c r="F13" s="7">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2600,76 +2590,88 @@
       <c r="F14" s="7">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
+      <c r="H14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="7">
         <v>0.85</v>
       </c>
       <c r="C15" s="7">
-        <v>0.12</v>
+        <v>0.91</v>
       </c>
       <c r="D15" s="7">
-        <v>1150</v>
+        <v>5316</v>
       </c>
       <c r="E15" s="7">
-        <v>1500</v>
+        <v>325</v>
       </c>
       <c r="F15" s="7">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="7">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="C16" s="7">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D16" s="7">
-        <v>5316</v>
+        <v>1070</v>
       </c>
       <c r="E16" s="7">
-        <v>325</v>
+        <v>1990</v>
       </c>
       <c r="F16" s="7">
-        <v>50</v>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="C17" s="7">
+        <v>256</v>
+      </c>
+      <c r="B17">
         <v>0.94</v>
       </c>
-      <c r="D17" s="7">
-        <v>1070</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1990</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.16200000000000001</v>
+      <c r="C17">
+        <v>0.19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B18">
         <v>0.94</v>
       </c>
       <c r="C18">
-        <v>0.19</v>
+        <v>0.96</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>23</v>
@@ -2680,16 +2682,19 @@
       <c r="F18" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="H18" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B19">
-        <v>0.94</v>
-      </c>
-      <c r="C19">
-        <v>0.96</v>
+        <v>336</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>23</v>
@@ -2697,8 +2702,11 @@
       <c r="E19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
+      <c r="F19" s="7">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2710,29 +2718,24 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>259</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+    </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4187,15 +4190,15 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="69">
         <f t="shared" ref="F16:F24" si="4">(B16*$B$2*$C$2+C16*$B$3*$C$3+D16*$B$5*$C$5+E16*$B$6*$C$6)/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
         <v>940.29816397754291</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="69">
         <f>1/(B16/$D$2+C16/$D$4+D16/$D$5+E16/$D$6)*(B16+C16+D16+E16)</f>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="69">
         <f t="shared" ref="H16:H24" si="5">(B16*$D$2+C16*$D$3+D16*$D$5+E16*$D$6)*(B16+C16+D16+E16)</f>
         <v>91.472640000000013</v>
       </c>
@@ -4216,15 +4219,15 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="69">
         <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="69">
         <f t="shared" ref="G17:G24" si="6">1/(B17/$D$2+C17/$D$4+D17/$D$5+E17/$D$6)*(B17+C17+D17+E17)</f>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="69">
         <f t="shared" si="5"/>
         <v>91.472640000000013</v>
       </c>
@@ -4245,15 +4248,15 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="69">
         <f t="shared" si="4"/>
         <v>940.29816397754291</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="69">
         <f t="shared" si="6"/>
         <v>0.31583930722281617</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="69">
         <f t="shared" si="5"/>
         <v>91.472640000000013</v>
       </c>
@@ -4274,15 +4277,15 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="69">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="69">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="69">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
@@ -4303,15 +4306,15 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="69">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="69">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="69">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
@@ -4332,15 +4335,15 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="69">
         <f t="shared" si="4"/>
         <v>903.96364021734939</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="69">
         <f t="shared" si="6"/>
         <v>0.32237405144561837</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="69">
         <f t="shared" si="5"/>
         <v>170.87540000000004</v>
       </c>
@@ -4361,15 +4364,15 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="69">
         <f t="shared" si="4"/>
         <v>1050.3855606314694</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="69">
         <f t="shared" si="6"/>
         <v>0.30148453519157836</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="69">
         <f t="shared" si="5"/>
         <v>46.763360000000006</v>
       </c>
@@ -4390,15 +4393,15 @@
       <c r="E23">
         <v>0.21</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="69">
         <f t="shared" si="4"/>
         <v>783.19706393372451</v>
       </c>
-      <c r="G23" s="71">
+      <c r="G23" s="69">
         <f t="shared" si="6"/>
         <v>0.31347382420811998</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="69">
         <f t="shared" si="5"/>
         <v>110.14952000000002</v>
       </c>
@@ -4419,15 +4422,15 @@
       <c r="E24">
         <v>0.254</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="69">
         <f t="shared" si="4"/>
         <v>904.86619540520076</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="69">
         <f t="shared" si="6"/>
         <v>0.29142496305131627</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="69">
         <f t="shared" si="5"/>
         <v>88.525164000000032</v>
       </c>
@@ -4467,7 +4470,7 @@
       <c r="A1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="83"/>
+      <c r="H1" s="81"/>
       <c r="L1" s="2" t="s">
         <v>249</v>
       </c>
@@ -4491,10 +4494,10 @@
       <c r="F2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="88" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="32" t="s">
@@ -4512,24 +4515,24 @@
       <c r="C3">
         <v>1.2</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="66">
         <f>C3/1000</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="62">
         <v>4.5600000000000001E-7</v>
       </c>
-      <c r="G3" s="80">
+      <c r="G3" s="78">
         <f>D3/F3</f>
         <v>2631.5789473684208</v>
       </c>
-      <c r="H3" s="80">
+      <c r="H3" s="78">
         <v>1990</v>
       </c>
-      <c r="I3" s="92">
+      <c r="I3" s="90">
         <v>0.16200000000000001</v>
       </c>
     </row>
@@ -4539,12 +4542,12 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="65"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="93"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
@@ -4552,38 +4555,38 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
-      <c r="D5" s="69"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="66">
+      <c r="F5" s="64">
         <v>4.5600000000000001E-7</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="80">
         <v>2631.5789473684208</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="80">
         <v>1990</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="92">
         <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="68"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="71"/>
+      <c r="D6" s="66"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="68"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="71"/>
+      <c r="D7" s="66"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="68"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="71"/>
+      <c r="D8" s="66"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
@@ -4595,22 +4598,22 @@
       <c r="C9" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="87" t="s">
         <v>207</v>
       </c>
       <c r="J9" s="32" t="s">
@@ -4622,12 +4625,12 @@
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="C10">
         <v>14.2</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="66">
         <f>C10/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
@@ -4635,20 +4638,20 @@
         <f>C10/C11</f>
         <v>1</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="81">
         <f>D11/F11</f>
         <v>2133.4134615384614</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="81">
         <v>903.96364021734939</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="69">
         <v>0.32237405144561837</v>
       </c>
-      <c r="J10" s="95">
+      <c r="J10" s="93">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -4663,7 +4666,7 @@
         <f>SUM(C10:C10)</f>
         <v>14.2</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="67">
         <f>C11/1000</f>
         <v>1.4199999999999999E-2</v>
       </c>
@@ -4671,37 +4674,37 @@
         <f>SUM(E10:E10)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="67">
         <v>6.6560000000000003E-6</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="80">
         <v>2133.4134615384614</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="80">
         <v>903.96364021734939</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="72">
         <v>0.32237405144561837</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="92">
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
+      <c r="D12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="D13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
@@ -4713,25 +4716,25 @@
       <c r="C14" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="H14" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4745,26 +4748,26 @@
       <c r="C15">
         <v>8.4</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="66">
         <f>C15/1000</f>
         <v>8.4000000000000012E-3</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="H15" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="95" t="s">
+      <c r="J15" s="93" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4772,12 +4775,12 @@
       <c r="A16" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="95"/>
+      <c r="D16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="93"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
@@ -4789,26 +4792,26 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E17">
         <f>F17/($F$17+$F$18+$F$19+$F$20)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="66">
         <v>1.3312000000000001E-6</v>
       </c>
-      <c r="G17" s="83">
+      <c r="G17" s="81">
         <v>1953.125</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="81">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I17" s="71">
+      <c r="I17" s="69">
         <v>0.3</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J17" s="93">
         <v>46.763360000000006</v>
       </c>
     </row>
@@ -4822,26 +4825,26 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E20" si="0">F18/($F$17+$F$18+$F$19+$F$20)</f>
         <v>0.30952380952380953</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="66">
         <v>1.3312000000000001E-6</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G18" s="81">
         <v>1953.125</v>
       </c>
-      <c r="H18" s="83">
+      <c r="H18" s="81">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="69">
         <v>0.3</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="93">
         <v>46.763360000000006</v>
       </c>
     </row>
@@ -4855,26 +4858,26 @@
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="66">
         <v>8.1920000000000003E-7</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G19" s="81">
         <v>1953.125</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="81">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="69">
         <v>0.3</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="93">
         <v>46.763360000000006</v>
       </c>
     </row>
@@ -4888,26 +4891,26 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="66">
         <v>8.1920000000000003E-7</v>
       </c>
-      <c r="G20" s="83">
+      <c r="G20" s="81">
         <v>1953.125</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="81">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="69">
         <v>0.3</v>
       </c>
-      <c r="J20" s="95">
+      <c r="J20" s="93">
         <v>46.763360000000006</v>
       </c>
     </row>
@@ -4921,7 +4924,7 @@
       <c r="C21" s="36">
         <v>8.4</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="67">
         <f>C21/1000</f>
         <v>8.4000000000000012E-3</v>
       </c>
@@ -4929,40 +4932,40 @@
         <f>SUM(E17:E20)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="67">
         <f>SUM(F17:F20)</f>
         <v>4.3008000000000004E-6</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="80">
         <f>D15/F21</f>
         <v>1953.125</v>
       </c>
-      <c r="H21" s="82">
+      <c r="H21" s="80">
         <v>1050.3855606314694</v>
       </c>
-      <c r="I21" s="74">
+      <c r="I21" s="72">
         <v>0.3</v>
       </c>
-      <c r="J21" s="94">
+      <c r="J21" s="92">
         <v>46.763360000000006</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
-      <c r="D22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
+      <c r="D22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="D23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
@@ -4974,25 +4977,25 @@
       <c r="C24" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="90" t="s">
+      <c r="H24" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="89" t="s">
+      <c r="I24" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="96" t="s">
+      <c r="J24" s="94" t="s">
         <v>206</v>
       </c>
       <c r="L24" s="22"/>
@@ -5007,7 +5010,7 @@
       <c r="C25">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="66">
         <f>C25/1000</f>
         <v>9.8000000000000014E-3</v>
       </c>
@@ -5015,19 +5018,19 @@
         <f>C25/C27</f>
         <v>0.96078431372549011</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G25" s="81">
         <v>2213.541666666667</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="81">
         <v>903.96364021734939</v>
       </c>
-      <c r="I25" s="71">
+      <c r="I25" s="69">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J25" s="95">
+      <c r="J25" s="93">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5041,7 +5044,7 @@
       <c r="C26">
         <v>0.4</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="66">
         <f>C26/1000</f>
         <v>4.0000000000000002E-4</v>
       </c>
@@ -5049,19 +5052,19 @@
         <f>C26/C27</f>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="81">
         <v>2213.541666666667</v>
       </c>
-      <c r="H26" s="83">
+      <c r="H26" s="81">
         <v>903.96364021734939</v>
       </c>
-      <c r="I26" s="71">
+      <c r="I26" s="69">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J26" s="95">
+      <c r="J26" s="93">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5076,7 +5079,7 @@
         <f>SUM(C25:C26)</f>
         <v>10.200000000000001</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="66">
         <f>C27/1000</f>
         <v>1.0200000000000001E-2</v>
       </c>
@@ -5084,20 +5087,20 @@
         <f>SUM(E25:E26)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="66">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="82">
         <f>D27/F27</f>
         <v>2213.541666666667</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="82">
         <v>903.96364021734939</v>
       </c>
-      <c r="I27" s="75">
+      <c r="I27" s="73">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J27" s="97">
+      <c r="J27" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5107,13 +5110,13 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="65"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="93"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="91"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
@@ -5122,26 +5125,26 @@
       <c r="C29">
         <v>10.200000000000001</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="66">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="E29">
         <f>SUM(E27:E28)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="66">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="82">
         <v>2213.541666666667</v>
       </c>
-      <c r="H29" s="84">
+      <c r="H29" s="82">
         <v>903.96364021734939</v>
       </c>
-      <c r="I29" s="75">
+      <c r="I29" s="73">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J29" s="97">
+      <c r="J29" s="95">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5153,44 +5156,44 @@
       <c r="C30" s="36">
         <v>10.200000000000001</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="67">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="E30" s="36">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F30" s="69">
+      <c r="F30" s="67">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="80">
         <v>2213.541666666667</v>
       </c>
-      <c r="H30" s="82">
+      <c r="H30" s="80">
         <v>903.96364021734939</v>
       </c>
-      <c r="I30" s="74">
+      <c r="I30" s="72">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J30" s="94">
+      <c r="J30" s="92">
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="D31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
+      <c r="D31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
+      <c r="D32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
@@ -5202,25 +5205,25 @@
       <c r="C33" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="79" t="s">
+      <c r="G33" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="90" t="s">
+      <c r="H33" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="89" t="s">
+      <c r="I33" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="96" t="s">
+      <c r="J33" s="94" t="s">
         <v>206</v>
       </c>
       <c r="L33" s="22"/>
@@ -5235,7 +5238,7 @@
       <c r="C34">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D34" s="68">
+      <c r="D34" s="66">
         <f>C34/1000</f>
         <v>9.8000000000000014E-3</v>
       </c>
@@ -5243,19 +5246,19 @@
         <f>C34/C36</f>
         <v>0.94230769230769229</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="F34" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="83">
+      <c r="G34" s="81">
         <v>2256.9444444444448</v>
       </c>
-      <c r="H34" s="83">
+      <c r="H34" s="81">
         <v>903.96364021734939</v>
       </c>
-      <c r="I34" s="71">
+      <c r="I34" s="69">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J34" s="95">
+      <c r="J34" s="93">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5269,7 +5272,7 @@
       <c r="C35">
         <v>0.6</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="66">
         <f>C35/1000</f>
         <v>5.9999999999999995E-4</v>
       </c>
@@ -5277,19 +5280,19 @@
         <f>C35/C36</f>
         <v>5.7692307692307689E-2</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="83">
+      <c r="G35" s="81">
         <v>2256.9444444444448</v>
       </c>
-      <c r="H35" s="83">
+      <c r="H35" s="81">
         <v>903.96364021734939</v>
       </c>
-      <c r="I35" s="71">
+      <c r="I35" s="69">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J35" s="95">
+      <c r="J35" s="93">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5304,7 +5307,7 @@
         <f>SUM(C34:C35)</f>
         <v>10.4</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="67">
         <f>SUM(D34:D35)</f>
         <v>1.0400000000000001E-2</v>
       </c>
@@ -5312,38 +5315,38 @@
         <f>SUM(E34:E35)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="69">
+      <c r="F36" s="67">
         <v>4.6079999999999998E-6</v>
       </c>
-      <c r="G36" s="85">
+      <c r="G36" s="83">
         <f>D36/F36</f>
         <v>2256.9444444444448</v>
       </c>
-      <c r="H36" s="85">
+      <c r="H36" s="83">
         <v>903.96364021734939</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="74">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J36" s="98">
+      <c r="J36" s="96">
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
+      <c r="D37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
+      <c r="D38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
@@ -5355,25 +5358,25 @@
       <c r="C39" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="79" t="s">
+      <c r="G39" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="89" t="s">
+      <c r="I39" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="96" t="s">
+      <c r="J39" s="94" t="s">
         <v>206</v>
       </c>
       <c r="L39" s="22"/>
@@ -5388,7 +5391,7 @@
       <c r="C40">
         <v>6.6</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="66">
         <f>C40/1000</f>
         <v>6.6E-3</v>
       </c>
@@ -5396,20 +5399,20 @@
         <f>C40/C42</f>
         <v>0.92957746478873238</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="83">
+      <c r="G40" s="81">
         <f>D40/F42</f>
         <v>1629.6296296296296</v>
       </c>
-      <c r="H40" s="83">
+      <c r="H40" s="81">
         <v>903.96364021734939</v>
       </c>
-      <c r="I40" s="71">
+      <c r="I40" s="69">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J40" s="95">
+      <c r="J40" s="93">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5423,7 +5426,7 @@
       <c r="C41">
         <v>0.5</v>
       </c>
-      <c r="D41" s="68">
+      <c r="D41" s="66">
         <f t="shared" ref="D41" si="1">C41/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5431,19 +5434,19 @@
         <f>C41/C40</f>
         <v>7.575757575757576E-2</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="83">
+      <c r="G41" s="81">
         <v>1629.6296296296296</v>
       </c>
-      <c r="H41" s="83">
+      <c r="H41" s="81">
         <v>903.96364021734939</v>
       </c>
-      <c r="I41" s="71">
+      <c r="I41" s="69">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J41" s="95">
+      <c r="J41" s="93">
         <v>170.87540000000004</v>
       </c>
     </row>
@@ -5454,45 +5457,45 @@
       <c r="B42" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="106">
+      <c r="C42" s="104">
         <v>7.1</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="67">
         <f>C42/1000</f>
         <v>7.0999999999999995E-3</v>
       </c>
       <c r="E42" s="36"/>
-      <c r="F42" s="69">
+      <c r="F42" s="67">
         <v>4.0500000000000002E-6</v>
       </c>
-      <c r="G42" s="82">
+      <c r="G42" s="80">
         <v>1629.6296296296296</v>
       </c>
-      <c r="H42" s="82">
+      <c r="H42" s="80">
         <v>903.96364021734939</v>
       </c>
-      <c r="I42" s="74">
+      <c r="I42" s="72">
         <v>0.45144132745896365</v>
       </c>
-      <c r="J42" s="94">
+      <c r="J42" s="92">
         <v>170.87540000000004</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
+      <c r="D43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
+      <c r="D44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
@@ -5504,25 +5507,25 @@
       <c r="C45" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="F45" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="79" t="s">
+      <c r="G45" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="90" t="s">
+      <c r="H45" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="89" t="s">
+      <c r="I45" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J45" s="96" t="s">
+      <c r="J45" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5536,7 +5539,7 @@
       <c r="C46">
         <v>5.6</v>
       </c>
-      <c r="D46" s="68">
+      <c r="D46" s="66">
         <f>C46/1000</f>
         <v>5.5999999999999999E-3</v>
       </c>
@@ -5544,19 +5547,19 @@
         <f>D46/$D$48</f>
         <v>0.7</v>
       </c>
-      <c r="F46" s="68" t="s">
+      <c r="F46" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="83">
+      <c r="G46" s="81">
         <v>3125</v>
       </c>
-      <c r="H46" s="83">
+      <c r="H46" s="81">
         <v>940.29816397754291</v>
       </c>
-      <c r="I46" s="71">
+      <c r="I46" s="69">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J46" s="95">
+      <c r="J46" s="93">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5570,7 +5573,7 @@
       <c r="C47">
         <v>2.4</v>
       </c>
-      <c r="D47" s="68">
+      <c r="D47" s="66">
         <f>C47/1000</f>
         <v>2.3999999999999998E-3</v>
       </c>
@@ -5578,19 +5581,19 @@
         <f>D47/$D$48</f>
         <v>0.3</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="83">
+      <c r="G47" s="81">
         <v>3125</v>
       </c>
-      <c r="H47" s="83">
+      <c r="H47" s="81">
         <v>940.29816397754291</v>
       </c>
-      <c r="I47" s="71">
+      <c r="I47" s="69">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J47" s="95">
+      <c r="J47" s="93">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5598,14 +5601,14 @@
       <c r="A48" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="105" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="36">
         <f>SUM(C46:C47)</f>
         <v>8</v>
       </c>
-      <c r="D48" s="69">
+      <c r="D48" s="67">
         <f>SUM(D46:D47)</f>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -5613,38 +5616,38 @@
         <f>SUM(E46:E47)</f>
         <v>1</v>
       </c>
-      <c r="F48" s="69">
+      <c r="F48" s="67">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G48" s="82">
+      <c r="G48" s="80">
         <f>D48/F48</f>
         <v>3125</v>
       </c>
-      <c r="H48" s="82">
+      <c r="H48" s="80">
         <v>940.29816397754291</v>
       </c>
-      <c r="I48" s="74">
+      <c r="I48" s="72">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J48" s="94">
+      <c r="J48" s="92">
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
+      <c r="D49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
     </row>
     <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
+      <c r="D50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
@@ -5656,25 +5659,25 @@
       <c r="C51" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="67" t="s">
+      <c r="F51" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G51" s="79" t="s">
+      <c r="G51" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="90" t="s">
+      <c r="H51" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="89" t="s">
+      <c r="I51" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J51" s="96" t="s">
+      <c r="J51" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5688,7 +5691,7 @@
       <c r="C52">
         <v>5.5</v>
       </c>
-      <c r="D52" s="68">
+      <c r="D52" s="66">
         <f>C52/1000</f>
         <v>5.4999999999999997E-3</v>
       </c>
@@ -5696,19 +5699,19 @@
         <f>D52/D54</f>
         <v>0.77464788732394363</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="83">
+      <c r="G52" s="81">
         <v>2773.4374999999995</v>
       </c>
-      <c r="H52" s="83">
+      <c r="H52" s="81">
         <v>940.29816397754291</v>
       </c>
-      <c r="I52" s="71">
+      <c r="I52" s="69">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J52" s="95">
+      <c r="J52" s="93">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5722,7 +5725,7 @@
       <c r="C53">
         <v>1.6</v>
       </c>
-      <c r="D53" s="68">
+      <c r="D53" s="66">
         <f>C53/1000</f>
         <v>1.6000000000000001E-3</v>
       </c>
@@ -5730,19 +5733,19 @@
         <f>D53/$D$54</f>
         <v>0.22535211267605637</v>
       </c>
-      <c r="F53" s="68" t="s">
+      <c r="F53" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="83">
+      <c r="G53" s="81">
         <v>2773.4374999999995</v>
       </c>
-      <c r="H53" s="83">
+      <c r="H53" s="81">
         <v>940.29816397754291</v>
       </c>
-      <c r="I53" s="71">
+      <c r="I53" s="69">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J53" s="95">
+      <c r="J53" s="93">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5755,7 +5758,7 @@
         <f>SUM(C52:C53)</f>
         <v>7.1</v>
       </c>
-      <c r="D54" s="69">
+      <c r="D54" s="67">
         <f>SUM(D52:D53)</f>
         <v>7.0999999999999995E-3</v>
       </c>
@@ -5763,38 +5766,38 @@
         <f>SUM(E52:E53)</f>
         <v>1</v>
       </c>
-      <c r="F54" s="69">
+      <c r="F54" s="67">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G54" s="82">
+      <c r="G54" s="80">
         <f>D54/F54</f>
         <v>2773.4374999999995</v>
       </c>
-      <c r="H54" s="82">
+      <c r="H54" s="80">
         <v>940.29816397754291</v>
       </c>
-      <c r="I54" s="74">
+      <c r="I54" s="72">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J54" s="94">
+      <c r="J54" s="92">
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
+      <c r="D55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
     </row>
     <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
+      <c r="D56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
@@ -5806,25 +5809,25 @@
       <c r="C57" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="67" t="s">
+      <c r="F57" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="79" t="s">
+      <c r="G57" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="90" t="s">
+      <c r="H57" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="89" t="s">
+      <c r="I57" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J57" s="96" t="s">
+      <c r="J57" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5838,7 +5841,7 @@
       <c r="C58">
         <v>5.4</v>
       </c>
-      <c r="D58" s="68">
+      <c r="D58" s="66">
         <f>C58/1000</f>
         <v>5.4000000000000003E-3</v>
       </c>
@@ -5846,19 +5849,19 @@
         <f>D58/$D$60</f>
         <v>0.77142857142857146</v>
       </c>
-      <c r="F58" s="68" t="s">
+      <c r="F58" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="83">
+      <c r="G58" s="81">
         <v>2734.375</v>
       </c>
-      <c r="H58" s="83">
+      <c r="H58" s="81">
         <v>940.29816397754291</v>
       </c>
-      <c r="I58" s="71">
+      <c r="I58" s="69">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J58" s="95">
+      <c r="J58" s="93">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5869,7 +5872,7 @@
       <c r="C59">
         <v>1.6</v>
       </c>
-      <c r="D59" s="68">
+      <c r="D59" s="66">
         <f>C59/1000</f>
         <v>1.6000000000000001E-3</v>
       </c>
@@ -5877,19 +5880,19 @@
         <f>D59/$D$60</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="F59" s="68" t="s">
+      <c r="F59" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="83">
+      <c r="G59" s="81">
         <v>2734.375</v>
       </c>
-      <c r="H59" s="83">
+      <c r="H59" s="81">
         <v>940.29816397754291</v>
       </c>
-      <c r="I59" s="71">
+      <c r="I59" s="69">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J59" s="95">
+      <c r="J59" s="93">
         <v>91.472640000000013</v>
       </c>
     </row>
@@ -5902,7 +5905,7 @@
         <f>SUM(C58:C59)</f>
         <v>7</v>
       </c>
-      <c r="D60" s="69">
+      <c r="D60" s="67">
         <f>SUM(D58:D59)</f>
         <v>7.0000000000000001E-3</v>
       </c>
@@ -5910,38 +5913,38 @@
         <f>SUM(E58:E59)</f>
         <v>1</v>
       </c>
-      <c r="F60" s="69">
+      <c r="F60" s="67">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G60" s="82">
+      <c r="G60" s="80">
         <f>D60/F60</f>
         <v>2734.375</v>
       </c>
-      <c r="H60" s="82">
+      <c r="H60" s="80">
         <v>940.29816397754291</v>
       </c>
-      <c r="I60" s="74">
+      <c r="I60" s="72">
         <v>0.42113750296583358</v>
       </c>
-      <c r="J60" s="94">
+      <c r="J60" s="92">
         <v>91.472640000000013</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
+      <c r="D61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
+      <c r="D62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
@@ -5953,25 +5956,25 @@
       <c r="C63" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F63" s="67" t="s">
+      <c r="F63" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G63" s="79" t="s">
+      <c r="G63" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="90" t="s">
+      <c r="H63" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="89" t="s">
+      <c r="I63" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J63" s="96" t="s">
+      <c r="J63" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5985,26 +5988,26 @@
       <c r="C64">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D64" s="68">
+      <c r="D64" s="66">
         <f>C64/1000</f>
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" s="68" t="s">
+      <c r="F64" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="83">
+      <c r="G64" s="81">
         <v>3593.75</v>
       </c>
-      <c r="H64" s="83">
+      <c r="H64" s="81">
         <v>783.19706393372451</v>
       </c>
-      <c r="I64" s="71">
+      <c r="I64" s="69">
         <v>0.49190487192846383</v>
       </c>
-      <c r="J64" s="95">
+      <c r="J64" s="93">
         <v>110.14952000000002</v>
       </c>
     </row>
@@ -6016,44 +6019,44 @@
       <c r="C65" s="36">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D65" s="69">
+      <c r="D65" s="67">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E65" s="36">
         <v>1</v>
       </c>
-      <c r="F65" s="69">
+      <c r="F65" s="67">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="80">
         <f>D64/F65</f>
         <v>3593.75</v>
       </c>
-      <c r="H65" s="82">
+      <c r="H65" s="80">
         <v>783.19706393372451</v>
       </c>
-      <c r="I65" s="74">
+      <c r="I65" s="72">
         <v>0.49190487192846383</v>
       </c>
-      <c r="J65" s="94">
+      <c r="J65" s="92">
         <v>110.14952000000002</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
+      <c r="D66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
     </row>
     <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
+      <c r="D67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
@@ -6065,25 +6068,25 @@
       <c r="C68" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="67" t="s">
+      <c r="D68" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E68" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F68" s="67" t="s">
+      <c r="F68" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G68" s="79" t="s">
+      <c r="G68" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="90" t="s">
+      <c r="H68" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="89" t="s">
+      <c r="I68" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J68" s="96" t="s">
+      <c r="J68" s="94" t="s">
         <v>206</v>
       </c>
       <c r="L68" s="22"/>
@@ -6098,7 +6101,7 @@
       <c r="C69">
         <v>7.6</v>
       </c>
-      <c r="D69" s="68">
+      <c r="D69" s="66">
         <f>C69/1000</f>
         <v>7.6E-3</v>
       </c>
@@ -6106,19 +6109,19 @@
         <f>D69/D71</f>
         <v>0.91566265060240981</v>
       </c>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="83">
+      <c r="G69" s="81">
         <v>3242.1874999999991</v>
       </c>
-      <c r="H69" s="83">
+      <c r="H69" s="81">
         <v>904.86619540520076</v>
       </c>
-      <c r="I69" s="71">
+      <c r="I69" s="69">
         <v>0.29142496305131627</v>
       </c>
-      <c r="J69" s="95">
+      <c r="J69" s="93">
         <v>88.525164000000032</v>
       </c>
     </row>
@@ -6132,7 +6135,7 @@
       <c r="C70">
         <v>0.7</v>
       </c>
-      <c r="D70" s="68">
+      <c r="D70" s="66">
         <f t="shared" ref="D70:D71" si="2">C70/1000</f>
         <v>6.9999999999999999E-4</v>
       </c>
@@ -6140,19 +6143,19 @@
         <f>D70/D71</f>
         <v>8.4337349397590383E-2</v>
       </c>
-      <c r="F70" s="68" t="s">
+      <c r="F70" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="83">
+      <c r="G70" s="81">
         <v>3242.1874999999991</v>
       </c>
-      <c r="H70" s="83">
+      <c r="H70" s="81">
         <v>904.86619540520076</v>
       </c>
-      <c r="I70" s="71">
+      <c r="I70" s="69">
         <v>0.29142496305131627</v>
       </c>
-      <c r="J70" s="95">
+      <c r="J70" s="93">
         <v>88.525164000000032</v>
       </c>
     </row>
@@ -6165,36 +6168,36 @@
         <f>SUM(C69:C70)</f>
         <v>8.2999999999999989</v>
       </c>
-      <c r="D71" s="68">
+      <c r="D71" s="66">
         <f t="shared" si="2"/>
         <v>8.2999999999999984E-3</v>
       </c>
       <c r="E71" s="36"/>
-      <c r="F71" s="69">
+      <c r="F71" s="67">
         <v>2.5600000000000001E-6</v>
       </c>
-      <c r="G71" s="82">
+      <c r="G71" s="80">
         <f>D71/F71</f>
         <v>3242.1874999999991</v>
       </c>
-      <c r="H71" s="82">
+      <c r="H71" s="80">
         <v>904.86619540520076</v>
       </c>
-      <c r="I71" s="74">
+      <c r="I71" s="72">
         <v>0.29142496305131627</v>
       </c>
-      <c r="J71" s="94">
+      <c r="J71" s="92">
         <v>88.525164000000032</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="23"/>
-      <c r="D72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
+      <c r="D72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
@@ -6206,25 +6209,25 @@
       <c r="C73" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="67" t="s">
+      <c r="D73" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="67" t="s">
+      <c r="F73" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="G73" s="79" t="s">
+      <c r="G73" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="H73" s="90" t="s">
+      <c r="H73" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="89" t="s">
+      <c r="I73" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J73" s="96" t="s">
+      <c r="J73" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6236,36 +6239,36 @@
       <c r="C74" s="36">
         <v>5.7</v>
       </c>
-      <c r="D74" s="69">
+      <c r="D74" s="67">
         <f>C74/1000</f>
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="E74" s="36"/>
-      <c r="F74" s="69">
+      <c r="F74" s="67">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="G74" s="86">
+      <c r="G74" s="84">
         <f>D74/F74</f>
         <v>13.255813953488373</v>
       </c>
-      <c r="H74" s="86">
+      <c r="H74" s="84">
         <v>500</v>
       </c>
-      <c r="I74" s="86">
+      <c r="I74" s="84">
         <v>15</v>
       </c>
-      <c r="J74" s="99">
+      <c r="J74" s="97">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="23"/>
-      <c r="D75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
+      <c r="D75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="30" t="s">
@@ -6277,25 +6280,25 @@
       <c r="C76" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="67" t="s">
+      <c r="D76" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="67" t="s">
+      <c r="F76" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G76" s="79" t="s">
+      <c r="G76" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="90" t="s">
+      <c r="H76" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="89" t="s">
+      <c r="I76" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J76" s="96" t="s">
+      <c r="J76" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6310,7 +6313,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="D77" s="68">
+      <c r="D77" s="66">
         <f>C77/1000</f>
         <v>2.4E-2</v>
       </c>
@@ -6318,19 +6321,19 @@
         <f>D77/D86</f>
         <v>0.92407207762205446</v>
       </c>
-      <c r="F77" s="68" t="s">
+      <c r="F77" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="83" t="s">
+      <c r="G77" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="87">
+      <c r="H77" s="85">
         <v>960</v>
       </c>
-      <c r="I77" s="78">
+      <c r="I77" s="76">
         <v>130</v>
       </c>
-      <c r="J77" s="100">
+      <c r="J77" s="98">
         <v>130</v>
       </c>
     </row>
@@ -6345,7 +6348,7 @@
         <f>4*0.29*1.7</f>
         <v>1.9719999999999998</v>
       </c>
-      <c r="D78" s="68">
+      <c r="D78" s="66">
         <f>C78/1000</f>
         <v>1.9719999999999998E-3</v>
       </c>
@@ -6353,17 +6356,17 @@
         <f>D78/D86</f>
         <v>7.5927922377945462E-2</v>
       </c>
-      <c r="F78" s="68"/>
-      <c r="G78" s="83" t="s">
+      <c r="F78" s="66"/>
+      <c r="G78" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="H78" s="87">
+      <c r="H78" s="85">
         <v>500</v>
       </c>
-      <c r="I78" s="78">
+      <c r="I78" s="76">
         <v>15</v>
       </c>
-      <c r="J78" s="100">
+      <c r="J78" s="98">
         <v>15</v>
       </c>
     </row>
@@ -6371,12 +6374,12 @@
       <c r="A79" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="95"/>
+      <c r="D79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="81"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="93"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
@@ -6388,20 +6391,20 @@
       <c r="C80" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="68"/>
-      <c r="F80" s="68">
+      <c r="D80" s="66"/>
+      <c r="F80" s="66">
         <v>3.1203999999999998E-6</v>
       </c>
-      <c r="G80" s="83">
+      <c r="G80" s="81">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H80" s="87">
+      <c r="H80" s="85">
         <v>925.07315570614492</v>
       </c>
-      <c r="I80" s="78">
+      <c r="I80" s="76">
         <v>121.26828892653627</v>
       </c>
-      <c r="J80" s="100">
+      <c r="J80" s="98">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6415,20 +6418,20 @@
       <c r="C81" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="68"/>
-      <c r="F81" s="68">
+      <c r="D81" s="66"/>
+      <c r="F81" s="66">
         <v>1.52E-5</v>
       </c>
-      <c r="G81" s="83">
+      <c r="G81" s="81">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H81" s="87">
+      <c r="H81" s="85">
         <v>925.07315570614492</v>
       </c>
-      <c r="I81" s="78">
+      <c r="I81" s="76">
         <v>121.26828892653627</v>
       </c>
-      <c r="J81" s="100">
+      <c r="J81" s="98">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6442,20 +6445,20 @@
       <c r="C82" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="68"/>
-      <c r="F82" s="68">
+      <c r="D82" s="66"/>
+      <c r="F82" s="66">
         <v>3.3600000000000003E-8</v>
       </c>
-      <c r="G82" s="83">
+      <c r="G82" s="81">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H82" s="87">
+      <c r="H82" s="85">
         <v>925.07315570614492</v>
       </c>
-      <c r="I82" s="78">
+      <c r="I82" s="76">
         <v>121.26828892653627</v>
       </c>
-      <c r="J82" s="100">
+      <c r="J82" s="98">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6469,20 +6472,20 @@
       <c r="C83" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="F83" s="68">
+      <c r="D83" s="66"/>
+      <c r="F83" s="66">
         <v>1.92E-8</v>
       </c>
-      <c r="G83" s="83">
+      <c r="G83" s="81">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H83" s="87">
+      <c r="H83" s="85">
         <v>925.07315570614492</v>
       </c>
-      <c r="I83" s="78">
+      <c r="I83" s="76">
         <v>121.26828892653627</v>
       </c>
-      <c r="J83" s="100">
+      <c r="J83" s="98">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6492,30 +6495,30 @@
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
-      <c r="D84" s="65"/>
+      <c r="D84" s="63"/>
       <c r="E84" s="17"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="81"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="93"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="91"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="83">
+      <c r="D85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="81">
         <v>1401.4979818256384</v>
       </c>
-      <c r="H85" s="87">
+      <c r="H85" s="85">
         <v>925.07315570614492</v>
       </c>
-      <c r="I85" s="78">
+      <c r="I85" s="76">
         <v>121.26828892653627</v>
       </c>
-      <c r="J85" s="100">
+      <c r="J85" s="98">
         <v>121.26828892653627</v>
       </c>
     </row>
@@ -6528,66 +6531,66 @@
         <f>SUM(C77:C78)</f>
         <v>25.972000000000001</v>
       </c>
-      <c r="D86" s="69">
+      <c r="D86" s="67">
         <f>SUM(D77:D78)</f>
         <v>2.5972000000000002E-2</v>
       </c>
       <c r="E86" s="36"/>
-      <c r="F86" s="69">
+      <c r="F86" s="67">
         <f>F80+F81+F82*4+F83*4</f>
         <v>1.8531600000000001E-5</v>
       </c>
-      <c r="G86" s="82">
+      <c r="G86" s="80">
         <f>D86/F86</f>
         <v>1401.4979818256384</v>
       </c>
-      <c r="H86" s="86">
+      <c r="H86" s="84">
         <f>H77*$E$77+H78*$E$78</f>
         <v>925.07315570614492</v>
       </c>
-      <c r="I86" s="77">
+      <c r="I86" s="75">
         <f>I77*$E$77+I78*$E$78</f>
         <v>121.26828892653627</v>
       </c>
-      <c r="J86" s="99">
+      <c r="J86" s="97">
         <f>J77*$E$77+J78*$E$78</f>
         <v>121.26828892653627</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="83"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
+      <c r="D87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
+      <c r="D88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
+      <c r="D89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
+      <c r="D90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
@@ -6599,25 +6602,25 @@
       <c r="C91" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D91" s="67" t="s">
+      <c r="D91" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="67" t="s">
+      <c r="F91" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G91" s="79" t="s">
+      <c r="G91" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="90" t="s">
+      <c r="H91" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="89" t="s">
+      <c r="I91" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J91" s="96" t="s">
+      <c r="J91" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6628,27 +6631,27 @@
       <c r="C92">
         <v>0.9</v>
       </c>
-      <c r="D92" s="68">
+      <c r="D92" s="66">
         <f>C92/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
-      <c r="F92" s="68">
+      <c r="F92" s="66">
         <v>3.96E-7</v>
       </c>
-      <c r="G92" s="84">
+      <c r="G92" s="82">
         <f>D92/F92</f>
         <v>2272.7272727272725</v>
       </c>
-      <c r="H92" s="80">
+      <c r="H92" s="78">
         <v>325</v>
       </c>
-      <c r="I92" s="80">
+      <c r="I92" s="78">
         <v>50</v>
       </c>
-      <c r="J92" s="92">
+      <c r="J92" s="90">
         <v>50</v>
       </c>
     </row>
@@ -6658,13 +6661,13 @@
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
-      <c r="D93" s="65"/>
+      <c r="D93" s="63"/>
       <c r="E93" s="17"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="81"/>
-      <c r="J93" s="93"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="91"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
@@ -6673,24 +6676,24 @@
       <c r="C94">
         <v>0.9</v>
       </c>
-      <c r="D94" s="68">
+      <c r="D94" s="66">
         <f>C94/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" s="68"/>
-      <c r="G94" s="84">
+      <c r="F94" s="66"/>
+      <c r="G94" s="82">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H94" s="84">
+      <c r="H94" s="82">
         <v>325</v>
       </c>
-      <c r="I94" s="84">
+      <c r="I94" s="82">
         <v>50</v>
       </c>
-      <c r="J94" s="97">
+      <c r="J94" s="95">
         <v>50</v>
       </c>
     </row>
@@ -6701,24 +6704,24 @@
       <c r="C95">
         <v>0.9</v>
       </c>
-      <c r="D95" s="68">
+      <c r="D95" s="66">
         <f>C95/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
-      <c r="F95" s="68"/>
-      <c r="G95" s="84">
+      <c r="F95" s="66"/>
+      <c r="G95" s="82">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H95" s="84">
+      <c r="H95" s="82">
         <v>325</v>
       </c>
-      <c r="I95" s="84">
+      <c r="I95" s="82">
         <v>50</v>
       </c>
-      <c r="J95" s="97">
+      <c r="J95" s="95">
         <v>50</v>
       </c>
     </row>
@@ -6729,24 +6732,24 @@
       <c r="C96">
         <v>0.9</v>
       </c>
-      <c r="D96" s="68">
+      <c r="D96" s="66">
         <f>C96/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" s="68"/>
-      <c r="G96" s="84">
+      <c r="F96" s="66"/>
+      <c r="G96" s="82">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H96" s="84">
+      <c r="H96" s="82">
         <v>325</v>
       </c>
-      <c r="I96" s="84">
+      <c r="I96" s="82">
         <v>50</v>
       </c>
-      <c r="J96" s="97">
+      <c r="J96" s="95">
         <v>50</v>
       </c>
     </row>
@@ -6758,34 +6761,34 @@
       <c r="C97" s="36">
         <v>0.9</v>
       </c>
-      <c r="D97" s="69">
+      <c r="D97" s="67">
         <f>C97/1000</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="E97" s="36">
         <v>1</v>
       </c>
-      <c r="F97" s="69"/>
-      <c r="G97" s="82">
+      <c r="F97" s="67"/>
+      <c r="G97" s="80">
         <v>2272.7272727272725</v>
       </c>
-      <c r="H97" s="82">
+      <c r="H97" s="80">
         <v>325</v>
       </c>
-      <c r="I97" s="82">
+      <c r="I97" s="80">
         <v>50</v>
       </c>
-      <c r="J97" s="94">
+      <c r="J97" s="92">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D98" s="68"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
+      <c r="D98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="81"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="46" t="s">
@@ -6797,25 +6800,25 @@
       <c r="C99" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D99" s="67" t="s">
+      <c r="D99" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E99" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F99" s="67" t="s">
+      <c r="F99" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G99" s="79" t="s">
+      <c r="G99" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="90" t="s">
+      <c r="H99" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I99" s="89" t="s">
+      <c r="I99" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J99" s="96" t="s">
+      <c r="J99" s="94" t="s">
         <v>206</v>
       </c>
       <c r="K99" s="22"/>
@@ -6828,56 +6831,56 @@
       <c r="C100" s="36">
         <v>34</v>
       </c>
-      <c r="D100" s="69">
+      <c r="D100" s="67">
         <f>C100/1000</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E100" s="36"/>
-      <c r="F100" s="69">
+      <c r="F100" s="67">
         <v>1.216E-5</v>
       </c>
-      <c r="G100" s="82">
+      <c r="G100" s="80">
         <f>D100/F100</f>
         <v>2796.0526315789475</v>
       </c>
-      <c r="H100" s="86">
+      <c r="H100" s="84">
         <v>1000</v>
       </c>
-      <c r="I100" s="74">
+      <c r="I100" s="72">
         <v>0.6</v>
       </c>
-      <c r="J100" s="94">
+      <c r="J100" s="92">
         <v>2.5</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D101" s="68"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="83"/>
-      <c r="I101" s="71"/>
-      <c r="J101" s="71"/>
+      <c r="D101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="81"/>
+      <c r="H101" s="81"/>
+      <c r="I101" s="69"/>
+      <c r="J101" s="69"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
+      <c r="D102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="81"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
     </row>
     <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="71">
+      <c r="D103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="69">
         <v>2</v>
       </c>
-      <c r="J103" s="71"/>
+      <c r="J103" s="69"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
@@ -6889,25 +6892,25 @@
       <c r="C104" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="67" t="s">
+      <c r="D104" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E104" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F104" s="67" t="s">
+      <c r="F104" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G104" s="79" t="s">
+      <c r="G104" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H104" s="90" t="s">
+      <c r="H104" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I104" s="89" t="s">
+      <c r="I104" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J104" s="96" t="s">
+      <c r="J104" s="94" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6921,7 +6924,7 @@
       <c r="C105">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D105" s="68">
+      <c r="D105" s="66">
         <f>C105/1000</f>
         <v>3.2499999999999999E-4</v>
       </c>
@@ -6929,19 +6932,19 @@
         <f>D105/$D$107</f>
         <v>0.44827586206896552</v>
       </c>
-      <c r="F105" s="68" t="s">
+      <c r="F105" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G105" s="87">
+      <c r="G105" s="85">
         <v>8800</v>
       </c>
-      <c r="H105" s="87">
+      <c r="H105" s="85">
         <v>380</v>
       </c>
-      <c r="I105" s="78">
+      <c r="I105" s="76">
         <v>62</v>
       </c>
-      <c r="J105" s="100">
+      <c r="J105" s="98">
         <v>62</v>
       </c>
     </row>
@@ -6955,7 +6958,7 @@
       <c r="C106">
         <v>0.4</v>
       </c>
-      <c r="D106" s="68">
+      <c r="D106" s="66">
         <f>C106/1000</f>
         <v>4.0000000000000002E-4</v>
       </c>
@@ -6963,19 +6966,19 @@
         <f>D106/$D$107</f>
         <v>0.55172413793103459</v>
       </c>
-      <c r="F106" s="68" t="s">
+      <c r="F106" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G106" s="87">
+      <c r="G106" s="85">
         <v>1070</v>
       </c>
-      <c r="H106" s="87">
+      <c r="H106" s="85">
         <v>1990</v>
       </c>
-      <c r="I106" s="78">
+      <c r="I106" s="76">
         <v>0.16200000000000001</v>
       </c>
-      <c r="J106" s="100">
+      <c r="J106" s="98">
         <v>0.16200000000000001</v>
       </c>
     </row>
@@ -6987,7 +6990,7 @@
         <f>SUM(C105:C106)</f>
         <v>0.72500000000000009</v>
       </c>
-      <c r="D107" s="68">
+      <c r="D107" s="66">
         <f>SUM(D105:D106)</f>
         <v>7.2499999999999995E-4</v>
       </c>
@@ -6995,22 +6998,22 @@
         <f>SUM(E105:E106)</f>
         <v>1</v>
       </c>
-      <c r="F107" s="68">
+      <c r="F107" s="66">
         <v>2.8980000000000001E-7</v>
       </c>
-      <c r="G107" s="84">
+      <c r="G107" s="82">
         <f>D107/F107</f>
         <v>2501.7253278122839</v>
       </c>
-      <c r="H107" s="84">
+      <c r="H107" s="82">
         <f>H105*$E$105+H106*$E$106</f>
         <v>1268.2758620689658</v>
       </c>
-      <c r="I107" s="75">
+      <c r="I107" s="73">
         <f>I105*$E$105+I106*$E$106</f>
         <v>27.882482758620689</v>
       </c>
-      <c r="J107" s="97">
+      <c r="J107" s="95">
         <f>J105*$E$105+J106*$E$106</f>
         <v>27.882482758620689</v>
       </c>
@@ -7021,13 +7024,13 @@
       </c>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
-      <c r="D108" s="65"/>
+      <c r="D108" s="63"/>
       <c r="E108" s="17"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="93"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="79"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="91"/>
     </row>
     <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="40" t="s">
@@ -7035,48 +7038,48 @@
       </c>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
-      <c r="D109" s="69"/>
+      <c r="D109" s="67"/>
       <c r="E109" s="36"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="82">
+      <c r="F109" s="67"/>
+      <c r="G109" s="80">
         <v>2501.7253278122839</v>
       </c>
-      <c r="H109" s="82">
+      <c r="H109" s="80">
         <v>1268.2758620689658</v>
       </c>
-      <c r="I109" s="74">
+      <c r="I109" s="72">
         <v>27.882482758620689</v>
       </c>
-      <c r="J109" s="94">
+      <c r="J109" s="92">
         <v>27.882482758620689</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D110" s="68"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
+      <c r="D110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="81"/>
+      <c r="H110" s="81"/>
+      <c r="I110" s="69"/>
+      <c r="J110" s="69"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="71"/>
+      <c r="D111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="81"/>
+      <c r="H111" s="81"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
     </row>
     <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="68"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="83"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
+      <c r="D112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="69"/>
+      <c r="J112" s="69"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="30" t="s">
@@ -7088,25 +7091,25 @@
       <c r="C113" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D113" s="67" t="s">
+      <c r="D113" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E113" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F113" s="67" t="s">
+      <c r="F113" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G113" s="79" t="s">
+      <c r="G113" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H113" s="90" t="s">
+      <c r="H113" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I113" s="89" t="s">
+      <c r="I113" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J113" s="96" t="s">
+      <c r="J113" s="94" t="s">
         <v>206</v>
       </c>
       <c r="L113" s="22"/>
@@ -7121,26 +7124,26 @@
       <c r="C114">
         <v>30</v>
       </c>
-      <c r="D114" s="68">
+      <c r="D114" s="66">
         <f>C114/1000</f>
         <v>0.03</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
-      <c r="F114" s="68" t="s">
+      <c r="F114" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G114" s="87" t="s">
+      <c r="G114" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="87" t="s">
+      <c r="H114" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="I114" s="78" t="s">
+      <c r="I114" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J114" s="95" t="s">
+      <c r="J114" s="93" t="s">
         <v>23</v>
       </c>
       <c r="L114" s="7"/>
@@ -7149,12 +7152,12 @@
       <c r="A115" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="83"/>
-      <c r="I115" s="71"/>
-      <c r="J115" s="95"/>
+      <c r="D115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="81"/>
+      <c r="H115" s="81"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="93"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="49" t="s">
@@ -7166,26 +7169,26 @@
       <c r="C116" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="68" t="s">
+      <c r="D116" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
       </c>
-      <c r="F116" s="68">
+      <c r="F116" s="66">
         <v>2.6599999999999999E-6</v>
       </c>
-      <c r="G116" s="84">
+      <c r="G116" s="82">
         <f>$G$128</f>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H116" s="80">
+      <c r="H116" s="78">
         <v>1010</v>
       </c>
-      <c r="I116" s="72">
+      <c r="I116" s="70">
         <v>0.27</v>
       </c>
-      <c r="J116" s="92">
+      <c r="J116" s="90">
         <v>0.27</v>
       </c>
     </row>
@@ -7199,26 +7202,26 @@
       <c r="C117" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="68" t="s">
+      <c r="D117" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
       </c>
-      <c r="F117" s="68">
+      <c r="F117" s="66">
         <v>7.9800000000000003E-7</v>
       </c>
-      <c r="G117" s="84">
+      <c r="G117" s="82">
         <f t="shared" ref="G117:G121" si="3">$G$128</f>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H117" s="80">
+      <c r="H117" s="78">
         <v>1010</v>
       </c>
-      <c r="I117" s="72">
+      <c r="I117" s="70">
         <v>0.27</v>
       </c>
-      <c r="J117" s="92">
+      <c r="J117" s="90">
         <v>0.27</v>
       </c>
     </row>
@@ -7232,26 +7235,26 @@
       <c r="C118" t="s">
         <v>23</v>
       </c>
-      <c r="D118" s="68" t="s">
+      <c r="D118" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E118" t="s">
         <v>23</v>
       </c>
-      <c r="F118" s="68">
+      <c r="F118" s="66">
         <v>7.9800000000000003E-7</v>
       </c>
-      <c r="G118" s="84">
+      <c r="G118" s="82">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H118" s="80">
+      <c r="H118" s="78">
         <v>1010</v>
       </c>
-      <c r="I118" s="72">
+      <c r="I118" s="70">
         <v>0.27</v>
       </c>
-      <c r="J118" s="92">
+      <c r="J118" s="90">
         <v>0.27</v>
       </c>
     </row>
@@ -7265,26 +7268,26 @@
       <c r="C119" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="68" t="s">
+      <c r="D119" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
       </c>
-      <c r="F119" s="68">
+      <c r="F119" s="66">
         <v>2.9440000000000001E-6</v>
       </c>
-      <c r="G119" s="84">
+      <c r="G119" s="82">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H119" s="80">
+      <c r="H119" s="78">
         <v>1010</v>
       </c>
-      <c r="I119" s="72">
+      <c r="I119" s="70">
         <v>0.27</v>
       </c>
-      <c r="J119" s="92">
+      <c r="J119" s="90">
         <v>0.27</v>
       </c>
     </row>
@@ -7298,26 +7301,26 @@
       <c r="C120" t="s">
         <v>23</v>
       </c>
-      <c r="D120" s="68" t="s">
+      <c r="D120" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
       </c>
-      <c r="F120" s="68">
+      <c r="F120" s="66">
         <v>2.9440000000000001E-6</v>
       </c>
-      <c r="G120" s="84">
+      <c r="G120" s="82">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H120" s="80">
+      <c r="H120" s="78">
         <v>1010</v>
       </c>
-      <c r="I120" s="72">
+      <c r="I120" s="70">
         <v>0.27</v>
       </c>
-      <c r="J120" s="92">
+      <c r="J120" s="90">
         <v>0.27</v>
       </c>
     </row>
@@ -7331,26 +7334,26 @@
       <c r="C121" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="68" t="s">
+      <c r="D121" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E121" t="s">
         <v>23</v>
       </c>
-      <c r="F121" s="68">
+      <c r="F121" s="66">
         <v>5.2440000000000001E-6</v>
       </c>
-      <c r="G121" s="84">
+      <c r="G121" s="82">
         <f t="shared" si="3"/>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H121" s="80">
+      <c r="H121" s="78">
         <v>1010</v>
       </c>
-      <c r="I121" s="72">
+      <c r="I121" s="70">
         <v>0.27</v>
       </c>
-      <c r="J121" s="92">
+      <c r="J121" s="90">
         <v>0.27</v>
       </c>
     </row>
@@ -7365,27 +7368,27 @@
         <f>SUM(C123:C124)</f>
         <v>0.30199515966809148</v>
       </c>
-      <c r="D122" s="68">
+      <c r="D122" s="66">
         <f>SUM(D123:D124)</f>
         <v>3.0199515966809152E-4</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
-      <c r="F122" s="68">
+      <c r="F122" s="66">
         <v>1.3E-7</v>
       </c>
-      <c r="G122" s="84">
+      <c r="G122" s="82">
         <f>(1.7*0.1775/1000)/F122+G121</f>
         <v>4206.9974468578948</v>
       </c>
-      <c r="H122" s="80">
+      <c r="H122" s="78">
         <v>500</v>
       </c>
-      <c r="I122" s="80">
+      <c r="I122" s="78">
         <v>15</v>
       </c>
-      <c r="J122" s="92">
+      <c r="J122" s="90">
         <v>15</v>
       </c>
     </row>
@@ -7400,7 +7403,7 @@
         <f>F122*G121</f>
         <v>2.4515966809152628E-4</v>
       </c>
-      <c r="D123" s="68">
+      <c r="D123" s="66">
         <f>C123/1000</f>
         <v>2.4515966809152627E-7</v>
       </c>
@@ -7408,11 +7411,11 @@
         <f>D123/D122</f>
         <v>8.1179999163221545E-4</v>
       </c>
-      <c r="F123" s="68"/>
-      <c r="G123" s="88"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="91"/>
-      <c r="J123" s="101"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="86"/>
+      <c r="H123" s="89"/>
+      <c r="I123" s="89"/>
+      <c r="J123" s="99"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="49" t="s">
@@ -7425,7 +7428,7 @@
         <f>1.7*0.1775</f>
         <v>0.30174999999999996</v>
       </c>
-      <c r="D124" s="68">
+      <c r="D124" s="66">
         <f>C124/1000</f>
         <v>3.0174999999999999E-4</v>
       </c>
@@ -7433,11 +7436,11 @@
         <f>D124/D122</f>
         <v>0.99918820000836783</v>
       </c>
-      <c r="F124" s="68"/>
-      <c r="G124" s="88"/>
-      <c r="H124" s="91"/>
-      <c r="I124" s="91"/>
-      <c r="J124" s="101"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="86"/>
+      <c r="H124" s="89"/>
+      <c r="I124" s="89"/>
+      <c r="J124" s="99"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="49" t="s">
@@ -7449,25 +7452,25 @@
       <c r="C125" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="68" t="s">
+      <c r="D125" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
       </c>
-      <c r="F125" s="68">
+      <c r="F125" s="66">
         <v>1.3E-7</v>
       </c>
-      <c r="G125" s="84">
+      <c r="G125" s="82">
         <v>4206.9974468578948</v>
       </c>
-      <c r="H125" s="80">
+      <c r="H125" s="78">
         <v>500</v>
       </c>
-      <c r="I125" s="80">
+      <c r="I125" s="78">
         <v>15</v>
       </c>
-      <c r="J125" s="92">
+      <c r="J125" s="90">
         <v>15</v>
       </c>
     </row>
@@ -7481,25 +7484,25 @@
       <c r="C126" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="68" t="s">
+      <c r="D126" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E126" t="s">
         <v>23</v>
       </c>
-      <c r="F126" s="68">
+      <c r="F126" s="66">
         <v>1.3E-7</v>
       </c>
-      <c r="G126" s="84">
+      <c r="G126" s="82">
         <v>4206.9974468578948</v>
       </c>
-      <c r="H126" s="80">
+      <c r="H126" s="78">
         <v>500</v>
       </c>
-      <c r="I126" s="80">
+      <c r="I126" s="78">
         <v>15</v>
       </c>
-      <c r="J126" s="92">
+      <c r="J126" s="90">
         <v>15</v>
       </c>
     </row>
@@ -7513,25 +7516,25 @@
       <c r="C127" t="s">
         <v>23</v>
       </c>
-      <c r="D127" s="68" t="s">
+      <c r="D127" s="66" t="s">
         <v>23</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
       </c>
-      <c r="F127" s="68">
+      <c r="F127" s="66">
         <v>1.3E-7</v>
       </c>
-      <c r="G127" s="84">
+      <c r="G127" s="82">
         <v>4206.9974468578948</v>
       </c>
-      <c r="H127" s="80">
+      <c r="H127" s="78">
         <v>500</v>
       </c>
-      <c r="I127" s="80">
+      <c r="I127" s="78">
         <v>15</v>
       </c>
-      <c r="J127" s="92">
+      <c r="J127" s="90">
         <v>15</v>
       </c>
     </row>
@@ -7541,44 +7544,44 @@
       </c>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
-      <c r="D128" s="69"/>
+      <c r="D128" s="67"/>
       <c r="E128" s="36"/>
-      <c r="F128" s="69">
+      <c r="F128" s="67">
         <f>SUM(F116:F127)</f>
         <v>1.5908000000000001E-5</v>
       </c>
-      <c r="G128" s="82">
+      <c r="G128" s="80">
         <f>D114/F128</f>
         <v>1885.8436007040482</v>
       </c>
-      <c r="H128" s="86">
+      <c r="H128" s="84">
         <v>1010</v>
       </c>
-      <c r="I128" s="77">
+      <c r="I128" s="75">
         <v>0.27</v>
       </c>
-      <c r="J128" s="99">
+      <c r="J128" s="97">
         <v>0.27</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="71"/>
-      <c r="J129" s="71"/>
+      <c r="D129" s="66"/>
+      <c r="F129" s="66"/>
+      <c r="H129" s="81"/>
+      <c r="I129" s="69"/>
+      <c r="J129" s="69"/>
     </row>
     <row r="130" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D130" s="68"/>
-      <c r="F130" s="70"/>
-      <c r="H130" s="83"/>
-      <c r="I130" s="71"/>
-      <c r="J130" s="71"/>
+      <c r="D130" s="66"/>
+      <c r="F130" s="68"/>
+      <c r="H130" s="81"/>
+      <c r="I130" s="69"/>
+      <c r="J130" s="69"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
@@ -7590,25 +7593,25 @@
       <c r="C131" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D131" s="67" t="s">
+      <c r="D131" s="65" t="s">
         <v>96</v>
       </c>
       <c r="E131" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F131" s="67" t="s">
+      <c r="F131" s="65" t="s">
         <v>86</v>
       </c>
       <c r="G131" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H131" s="90" t="s">
+      <c r="H131" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I131" s="89" t="s">
+      <c r="I131" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="J131" s="96" t="s">
+      <c r="J131" s="94" t="s">
         <v>206</v>
       </c>
       <c r="L131" s="22"/>
@@ -7624,7 +7627,7 @@
         <f>1.7*0.1775</f>
         <v>0.30174999999999996</v>
       </c>
-      <c r="D132" s="68">
+      <c r="D132" s="66">
         <f>C132/1000</f>
         <v>3.0174999999999999E-4</v>
       </c>
@@ -7632,19 +7635,19 @@
         <f>D132/$D$135</f>
         <v>0.50992817912970001</v>
       </c>
-      <c r="F132" s="68" t="s">
+      <c r="F132" s="66" t="s">
         <v>23</v>
       </c>
       <c r="G132" t="s">
         <v>23</v>
       </c>
-      <c r="H132" s="87">
+      <c r="H132" s="85">
         <v>500</v>
       </c>
-      <c r="I132" s="87">
+      <c r="I132" s="85">
         <v>15</v>
       </c>
-      <c r="J132" s="100">
+      <c r="J132" s="98">
         <v>15</v>
       </c>
     </row>
@@ -7658,7 +7661,7 @@
       <c r="C133">
         <v>0.22</v>
       </c>
-      <c r="D133" s="68">
+      <c r="D133" s="66">
         <f t="shared" ref="D133:D135" si="4">C133/1000</f>
         <v>2.2000000000000001E-4</v>
       </c>
@@ -7666,19 +7669,19 @@
         <f t="shared" ref="E133:E134" si="5">D133/$D$135</f>
         <v>0.37177862272919304</v>
       </c>
-      <c r="F133" s="68" t="s">
+      <c r="F133" s="66" t="s">
         <v>23</v>
       </c>
       <c r="G133" t="s">
         <v>23</v>
       </c>
-      <c r="H133" s="87">
+      <c r="H133" s="85">
         <v>500</v>
       </c>
-      <c r="I133" s="87">
+      <c r="I133" s="85">
         <v>15</v>
       </c>
-      <c r="J133" s="100">
+      <c r="J133" s="98">
         <v>15</v>
       </c>
     </row>
@@ -7692,7 +7695,7 @@
       <c r="C134">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D134" s="68">
+      <c r="D134" s="66">
         <f t="shared" si="4"/>
         <v>7.0000000000000007E-5</v>
       </c>
@@ -7700,19 +7703,19 @@
         <f t="shared" si="5"/>
         <v>0.11829319814110689</v>
       </c>
-      <c r="F134" s="68" t="s">
+      <c r="F134" s="66" t="s">
         <v>23</v>
       </c>
       <c r="G134" t="s">
         <v>23</v>
       </c>
-      <c r="H134" s="87">
+      <c r="H134" s="85">
         <v>900</v>
       </c>
-      <c r="I134" s="87">
+      <c r="I134" s="85">
         <v>209</v>
       </c>
-      <c r="J134" s="100">
+      <c r="J134" s="98">
         <v>209</v>
       </c>
     </row>
@@ -7727,7 +7730,7 @@
         <f>SUM(C132:C134)</f>
         <v>0.59175</v>
       </c>
-      <c r="D135" s="68">
+      <c r="D135" s="66">
         <f t="shared" si="4"/>
         <v>5.9175000000000005E-4</v>
       </c>
@@ -7735,21 +7738,21 @@
         <f>SUM(E132:E134)</f>
         <v>1</v>
       </c>
-      <c r="F135" s="68">
+      <c r="F135" s="66">
         <v>1.3E-7</v>
       </c>
-      <c r="G135" s="84">
+      <c r="G135" s="82">
         <f>D135/F135</f>
         <v>4551.9230769230771</v>
       </c>
-      <c r="H135" s="84">
+      <c r="H135" s="82">
         <f>H132*$E$132+H133*$E$133+H134*$E$134</f>
         <v>547.3172792564427</v>
       </c>
-      <c r="I135" s="84">
+      <c r="I135" s="82">
         <v>15</v>
       </c>
-      <c r="J135" s="97">
+      <c r="J135" s="95">
         <v>15</v>
       </c>
     </row>
@@ -7759,13 +7762,13 @@
       </c>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
-      <c r="D136" s="65"/>
+      <c r="D136" s="63"/>
       <c r="E136" s="17"/>
-      <c r="F136" s="65"/>
+      <c r="F136" s="63"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="81"/>
-      <c r="I136" s="81"/>
-      <c r="J136" s="93"/>
+      <c r="H136" s="79"/>
+      <c r="I136" s="79"/>
+      <c r="J136" s="91"/>
     </row>
     <row r="137" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="50" t="s">
@@ -7773,24 +7776,24 @@
       </c>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
-      <c r="D137" s="69"/>
+      <c r="D137" s="67"/>
       <c r="E137" s="36"/>
-      <c r="F137" s="69"/>
-      <c r="G137" s="82">
+      <c r="F137" s="67"/>
+      <c r="G137" s="80">
         <v>4551.9230769230771</v>
       </c>
-      <c r="H137" s="82">
+      <c r="H137" s="80">
         <v>547.3172792564427</v>
       </c>
-      <c r="I137" s="82">
+      <c r="I137" s="80">
         <v>15</v>
       </c>
-      <c r="J137" s="94">
+      <c r="J137" s="92">
         <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J138" s="71"/>
+      <c r="J138" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7800,33 +7803,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C1" s="58" t="s">
         <v>260</v>
@@ -7840,32 +7846,35 @@
       <c r="F1" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="L1" s="108" t="s">
-        <v>377</v>
-      </c>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>305</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
@@ -7877,28 +7886,37 @@
         <v>0.45</v>
       </c>
       <c r="G2" s="5">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I2" s="29">
-        <v>20</v>
-      </c>
-      <c r="J2" s="61">
-        <f>1/I2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3.93</v>
+      </c>
+      <c r="K2" s="108">
+        <v>21</v>
+      </c>
+      <c r="L2" s="109">
+        <f>1/K2</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>311</v>
+        <v>280</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>305</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
@@ -7910,28 +7928,34 @@
         <v>0.45</v>
       </c>
       <c r="G3" s="5">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>334</v>
-      </c>
-      <c r="I3" s="29">
-        <v>20</v>
-      </c>
-      <c r="J3" s="61">
-        <f t="shared" ref="J3:J26" si="0">1/I3</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3.93</v>
+      </c>
+      <c r="K3" s="108">
+        <v>21</v>
+      </c>
+      <c r="L3" s="109">
+        <f t="shared" ref="L3:L25" si="0">1/K3</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>311</v>
+        <v>281</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>305</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -7943,31 +7967,35 @@
         <v>0.45</v>
       </c>
       <c r="G4" s="5">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I4" s="29">
-        <v>20</v>
-      </c>
-      <c r="J4" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="5">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3.93</v>
+      </c>
+      <c r="K4" s="108">
+        <v>21</v>
+      </c>
+      <c r="L4" s="109">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N4" s="107"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="D5" s="5">
         <v>2.5</v>
@@ -7979,31 +8007,35 @@
         <v>0.91</v>
       </c>
       <c r="G5" s="5">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>336</v>
-      </c>
-      <c r="I5" s="29">
-        <v>15</v>
-      </c>
-      <c r="J5" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I5" s="5">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="108">
+        <f>$K$2*($G$2*$H$2*$I$2+$J$2)/(G5*H5*I5+J5)</f>
+        <v>63.284210526315789</v>
+      </c>
+      <c r="L5" s="109">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.5801729873586162E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -8015,31 +8047,38 @@
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>338</v>
-      </c>
-      <c r="I6" s="29">
-        <v>5</v>
-      </c>
-      <c r="J6" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I6" s="5">
+        <v>16</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4.41</v>
+      </c>
+      <c r="K6" s="108">
+        <f t="shared" ref="K6:K15" si="1">$K$2*($G$2*$H$2*$I$2+$J$2)/(G6*H6*I6+J6)</f>
+        <v>14.923404255319147</v>
+      </c>
+      <c r="L6" s="109">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.7008839463929298E-2</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D7" s="5">
         <v>2.6</v>
@@ -8051,31 +8090,36 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="5">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I7" s="29">
-        <v>5</v>
-      </c>
-      <c r="J7" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="108">
+        <f t="shared" si="1"/>
+        <v>46.96875</v>
+      </c>
+      <c r="L7" s="109">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.1290751829673986E-2</v>
+      </c>
+      <c r="N7" s="106"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -8087,114 +8131,161 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>334</v>
-      </c>
-      <c r="I8" s="29">
-        <v>15</v>
-      </c>
-      <c r="J8" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I8" s="5">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="108">
+        <f t="shared" si="1"/>
+        <v>80.930769230769229</v>
+      </c>
+      <c r="L8" s="109">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="61"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.2356239901150081E-2</v>
+      </c>
+      <c r="N8" s="106"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I9" s="5">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="108">
+        <f t="shared" si="1"/>
+        <v>18.457894736842103</v>
+      </c>
+      <c r="L9" s="109">
+        <f t="shared" si="0"/>
+        <v>5.4177359566581131E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="5">
         <v>0.5</v>
       </c>
       <c r="G10" s="5">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>338</v>
-      </c>
-      <c r="I10" s="29">
-        <v>10</v>
-      </c>
-      <c r="J10" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="5">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="K10" s="108">
+        <f t="shared" si="1"/>
+        <v>26.976923076923075</v>
+      </c>
+      <c r="L10" s="109">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.7068719703450242E-2</v>
+      </c>
+      <c r="N10" s="60"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" t="s">
-        <v>317</v>
+        <v>289</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>312</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" s="5">
-        <v>3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F11" s="5">
         <v>0.5</v>
       </c>
       <c r="G11" s="5">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>338</v>
-      </c>
-      <c r="I11" s="29">
-        <v>10</v>
-      </c>
-      <c r="J11" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="108">
+        <f t="shared" si="1"/>
+        <v>109.59375</v>
+      </c>
+      <c r="L11" s="109">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9.1246079270031373E-3</v>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>318</v>
+        <v>290</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>312</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
@@ -8206,34 +8297,39 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="5">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>343</v>
-      </c>
-      <c r="I12" s="29">
-        <v>15</v>
-      </c>
-      <c r="J12" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="5">
+        <v>8</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="108">
+        <f t="shared" si="1"/>
+        <v>109.59375</v>
+      </c>
+      <c r="L12" s="109">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L12" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1246079270031373E-3</v>
+      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>318</v>
+        <v>291</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>312</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
@@ -8245,379 +8341,450 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="5">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>343</v>
-      </c>
-      <c r="I13" s="29">
-        <v>15</v>
-      </c>
-      <c r="J13" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="108">
+        <f t="shared" si="1"/>
+        <v>109.59375</v>
+      </c>
+      <c r="L13" s="109">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1246079270031373E-3</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>318</v>
+        <v>292</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>313</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="5">
+        <v>24</v>
+      </c>
+      <c r="J14" s="5">
+        <v>9.67</v>
+      </c>
+      <c r="K14" s="108">
+        <f t="shared" si="1"/>
+        <v>8.7166528583264284</v>
+      </c>
+      <c r="L14" s="109">
+        <f t="shared" si="0"/>
+        <v>0.11472293508221652</v>
+      </c>
+      <c r="N14" s="61"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="110">
+        <v>10</v>
+      </c>
+      <c r="E15" s="110">
+        <v>10</v>
+      </c>
+      <c r="F15" s="110">
+        <v>1.6</v>
+      </c>
+      <c r="G15" s="110">
+        <v>0.35</v>
+      </c>
+      <c r="H15" s="110">
+        <v>1.35</v>
+      </c>
+      <c r="I15" s="5">
+        <v>64</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="108">
+        <f t="shared" si="1"/>
+        <v>3.4791666666666665</v>
+      </c>
+      <c r="L15" s="109">
+        <f t="shared" si="0"/>
+        <v>0.28742514970059879</v>
+      </c>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="110">
+        <v>4</v>
+      </c>
+      <c r="E16" s="110">
+        <v>4</v>
+      </c>
+      <c r="F16" s="110">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="110">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="110">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="5">
+        <v>24</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="K16" s="108">
+        <f t="shared" ref="K16:K25" si="2">$K$2*(5)/(G16*H16*I16+J16)</f>
+        <v>6.4975247524752477</v>
+      </c>
+      <c r="L16" s="109">
+        <f t="shared" si="0"/>
+        <v>0.15390476190476191</v>
+      </c>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5">
         <v>0.5</v>
       </c>
-      <c r="G14" s="5">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>343</v>
-      </c>
-      <c r="I14" s="29">
-        <v>15</v>
-      </c>
-      <c r="J14" s="61">
+      <c r="G17" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="5">
+        <v>24</v>
+      </c>
+      <c r="J17" s="5">
+        <v>6.25</v>
+      </c>
+      <c r="K17" s="108">
+        <f t="shared" si="2"/>
+        <v>12.485136741973841</v>
+      </c>
+      <c r="L17" s="109">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L14" s="109" t="s">
-        <v>376</v>
-      </c>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>8.0095238095238094E-2</v>
+      </c>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="5">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="F15" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="G15" s="5">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>338</v>
-      </c>
-      <c r="I15" s="29">
+      <c r="E18" s="5">
         <v>5</v>
-      </c>
-      <c r="J15" s="61">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="109"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="29">
-        <v>10</v>
-      </c>
-      <c r="E16" s="29">
-        <v>10</v>
-      </c>
-      <c r="F16" s="29">
-        <v>1.6</v>
-      </c>
-      <c r="G16" s="29">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I16" s="29">
-        <v>10</v>
-      </c>
-      <c r="J16" s="61">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="29">
-        <v>4</v>
-      </c>
-      <c r="E17" s="29">
-        <v>4</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="29">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I17" s="29">
-        <v>5</v>
-      </c>
-      <c r="J17" s="61">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4</v>
       </c>
       <c r="F18" s="5">
         <v>0.5</v>
       </c>
       <c r="G18" s="5">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>334</v>
-      </c>
-      <c r="I18" s="29">
-        <v>5</v>
-      </c>
-      <c r="J18" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>32</v>
+      </c>
+      <c r="J18" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="K18" s="108">
+        <f t="shared" si="2"/>
+        <v>6.9169960474308301</v>
+      </c>
+      <c r="L18" s="109">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.14457142857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D19" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5">
         <v>0.5</v>
       </c>
       <c r="G19" s="5">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>338</v>
-      </c>
-      <c r="I19" s="29">
-        <v>5</v>
-      </c>
-      <c r="J19" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="5">
+        <v>24</v>
+      </c>
+      <c r="J19" s="5">
+        <v>7.55</v>
+      </c>
+      <c r="K19" s="108">
+        <f t="shared" si="2"/>
+        <v>10.067114093959733</v>
+      </c>
+      <c r="L19" s="109">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.9333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D20" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="5">
         <v>0.5</v>
       </c>
       <c r="G20" s="5">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>338</v>
-      </c>
-      <c r="I20" s="29">
-        <v>5</v>
-      </c>
-      <c r="J20" s="61">
+        <v>0.23</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I20" s="5">
+        <v>8</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="K20" s="108">
+        <f t="shared" si="2"/>
+        <v>35.164099129269921</v>
+      </c>
+      <c r="L20" s="109">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.8438095238095241E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D21" s="5">
+        <v>5.08</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I21" s="5">
+        <v>8</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="108">
+        <f t="shared" si="2"/>
+        <v>15.843795267986479</v>
+      </c>
+      <c r="L21" s="109">
+        <f t="shared" si="0"/>
+        <v>6.3116190476190479E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="5">
-        <v>3</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
         <v>0.5</v>
       </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>338</v>
-      </c>
-      <c r="I21" s="29">
-        <v>5</v>
-      </c>
-      <c r="J21" s="61">
+      <c r="G22" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I22" s="5">
+        <v>8</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="K22" s="108">
+        <f t="shared" si="2"/>
+        <v>39.033457249070629</v>
+      </c>
+      <c r="L22" s="109">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>305</v>
-      </c>
-      <c r="B22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5.08</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="G22" s="5">
-        <v>8</v>
-      </c>
-      <c r="H22" t="s">
-        <v>350</v>
-      </c>
-      <c r="I22" s="29">
-        <v>5</v>
-      </c>
-      <c r="J22" s="61">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.5619047619047621E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="5">
         <v>2</v>
       </c>
       <c r="F23" s="5">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="G23" s="5">
-        <v>7</v>
-      </c>
-      <c r="H23" t="s">
-        <v>338</v>
-      </c>
-      <c r="I23" s="29">
-        <v>10</v>
-      </c>
-      <c r="J23" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K23" s="108">
+        <f t="shared" si="2"/>
+        <v>73.943661971830991</v>
+      </c>
+      <c r="L23" s="109">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.3523809523809523E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
@@ -8629,595 +8796,107 @@
         <v>0.89</v>
       </c>
       <c r="G24" s="5">
-        <v>10</v>
-      </c>
-      <c r="H24" t="s">
-        <v>334</v>
-      </c>
-      <c r="I24" s="29">
-        <v>15</v>
-      </c>
-      <c r="J24" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I24" s="5">
+        <v>8</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K24" s="108">
+        <f t="shared" si="2"/>
+        <v>73.943661971830991</v>
+      </c>
+      <c r="L24" s="109">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.3523809523809523E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="5">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>334</v>
-      </c>
-      <c r="I25" s="29">
-        <v>15</v>
-      </c>
-      <c r="J25" s="61">
+        <v>0.38</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I25" s="5">
+        <v>8</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="108">
+        <f t="shared" si="2"/>
+        <v>57.565789473684212</v>
+      </c>
+      <c r="L25" s="109">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>309</v>
-      </c>
-      <c r="B26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3</v>
-      </c>
-      <c r="E26" s="5">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="5">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s">
-        <v>343</v>
-      </c>
-      <c r="I26" s="29">
-        <v>15</v>
-      </c>
-      <c r="J26" s="61">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.7371428571428572E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="J28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>325</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>374</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L30" s="58" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="K31" t="s">
-        <v>264</v>
-      </c>
-      <c r="L31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C32" t="s">
-        <v>342</v>
-      </c>
-      <c r="D32" t="s">
-        <v>334</v>
-      </c>
-      <c r="K32" t="s">
-        <v>264</v>
-      </c>
-      <c r="L32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>311</v>
-      </c>
-      <c r="B33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" t="s">
-        <v>342</v>
-      </c>
-      <c r="D33" t="s">
-        <v>334</v>
-      </c>
-      <c r="K33" t="s">
-        <v>264</v>
-      </c>
-      <c r="L33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" t="s">
-        <v>342</v>
-      </c>
-      <c r="D34" t="s">
-        <v>334</v>
-      </c>
-      <c r="K34" t="s">
-        <v>265</v>
-      </c>
-      <c r="L34" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" t="s">
-        <v>355</v>
-      </c>
-      <c r="D35" t="s">
-        <v>336</v>
-      </c>
-      <c r="K35" t="s">
-        <v>337</v>
-      </c>
-      <c r="L35" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>313</v>
-      </c>
-      <c r="B36" t="s">
-        <v>337</v>
-      </c>
-      <c r="C36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D36" t="s">
-        <v>338</v>
-      </c>
-      <c r="K36" t="s">
-        <v>267</v>
-      </c>
-      <c r="L36" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>314</v>
-      </c>
-      <c r="B37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" t="s">
-        <v>338</v>
-      </c>
-      <c r="K37" t="s">
-        <v>268</v>
-      </c>
-      <c r="L37" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>315</v>
-      </c>
-      <c r="B38" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" t="s">
-        <v>357</v>
-      </c>
-      <c r="D38" t="s">
-        <v>334</v>
-      </c>
-      <c r="K38" t="s">
-        <v>269</v>
-      </c>
-      <c r="L38" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>316</v>
-      </c>
-      <c r="B39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" t="s">
-        <v>338</v>
-      </c>
-      <c r="K39" t="s">
-        <v>270</v>
-      </c>
-      <c r="L39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>317</v>
-      </c>
-      <c r="B40" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" t="s">
-        <v>359</v>
-      </c>
-      <c r="D40" t="s">
-        <v>338</v>
-      </c>
-      <c r="K40" t="s">
-        <v>271</v>
-      </c>
-      <c r="L40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>318</v>
-      </c>
-      <c r="B41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" t="s">
-        <v>339</v>
-      </c>
-      <c r="D41" t="s">
-        <v>343</v>
-      </c>
-      <c r="K41" t="s">
-        <v>271</v>
-      </c>
-      <c r="L41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>318</v>
-      </c>
-      <c r="B42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" t="s">
-        <v>339</v>
-      </c>
-      <c r="D42" t="s">
-        <v>343</v>
-      </c>
-      <c r="K42" t="s">
-        <v>271</v>
-      </c>
-      <c r="L42" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" t="s">
-        <v>271</v>
-      </c>
-      <c r="C43" t="s">
-        <v>339</v>
-      </c>
-      <c r="D43" t="s">
-        <v>343</v>
-      </c>
-      <c r="K43" t="s">
-        <v>272</v>
-      </c>
-      <c r="L43" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>319</v>
-      </c>
-      <c r="B44" t="s">
-        <v>272</v>
-      </c>
-      <c r="C44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D44" t="s">
-        <v>338</v>
-      </c>
-      <c r="K44" t="s">
-        <v>345</v>
-      </c>
-      <c r="L44" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>320</v>
-      </c>
-      <c r="B45" t="s">
-        <v>345</v>
-      </c>
-      <c r="C45" t="s">
-        <v>359</v>
-      </c>
-      <c r="D45" t="s">
-        <v>336</v>
-      </c>
-      <c r="K45" t="s">
-        <v>274</v>
-      </c>
-      <c r="L45" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>321</v>
-      </c>
-      <c r="B46" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" t="s">
-        <v>355</v>
-      </c>
-      <c r="D46" t="s">
-        <v>338</v>
-      </c>
-      <c r="K46" t="s">
-        <v>275</v>
-      </c>
-      <c r="L46" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B47" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" t="s">
-        <v>357</v>
-      </c>
-      <c r="D47" t="s">
-        <v>334</v>
-      </c>
-      <c r="K47" t="s">
-        <v>276</v>
-      </c>
-      <c r="L47" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B48" t="s">
-        <v>276</v>
-      </c>
-      <c r="C48" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48" t="s">
-        <v>338</v>
-      </c>
-      <c r="K48" t="s">
-        <v>277</v>
-      </c>
-      <c r="L48" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
         <v>324</v>
       </c>
-      <c r="B49" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" t="s">
-        <v>355</v>
-      </c>
-      <c r="D49" t="s">
-        <v>338</v>
-      </c>
-      <c r="K49" t="s">
-        <v>278</v>
-      </c>
-      <c r="L49" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>325</v>
-      </c>
-      <c r="B50" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" t="s">
-        <v>355</v>
-      </c>
-      <c r="D50" t="s">
-        <v>338</v>
-      </c>
-      <c r="K50" t="s">
-        <v>279</v>
-      </c>
-      <c r="L50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>326</v>
       </c>
-      <c r="B51" t="s">
-        <v>279</v>
-      </c>
-      <c r="C51" t="s">
-        <v>362</v>
-      </c>
-      <c r="D51" t="s">
-        <v>350</v>
-      </c>
-      <c r="K51" t="s">
-        <v>280</v>
-      </c>
-      <c r="L51" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>327</v>
-      </c>
-      <c r="B52" t="s">
-        <v>280</v>
-      </c>
-      <c r="C52" t="s">
-        <v>357</v>
-      </c>
-      <c r="D52" t="s">
-        <v>338</v>
-      </c>
-      <c r="K52" t="s">
-        <v>281</v>
-      </c>
-      <c r="L52" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>328</v>
-      </c>
-      <c r="B53" t="s">
-        <v>281</v>
-      </c>
-      <c r="C53" t="s">
-        <v>342</v>
-      </c>
-      <c r="D53" t="s">
-        <v>334</v>
-      </c>
-      <c r="K53" t="s">
-        <v>281</v>
-      </c>
-      <c r="L53" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>328</v>
-      </c>
-      <c r="B54" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" t="s">
-        <v>342</v>
-      </c>
-      <c r="D54" t="s">
-        <v>334</v>
-      </c>
-      <c r="K54" t="s">
-        <v>282</v>
-      </c>
-      <c r="L54" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>329</v>
-      </c>
-      <c r="B55" t="s">
-        <v>282</v>
-      </c>
-      <c r="C55" t="s">
-        <v>339</v>
-      </c>
-      <c r="D55" t="s">
-        <v>343</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L14:L15"/>
+  <mergeCells count="1">
+    <mergeCell ref="N6:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9225,10 +8904,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0145C53C-CDB4-4DC1-9C26-F145697A0280}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="49" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9238,159 +8917,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" s="110" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="H1" s="110" t="s">
-        <v>383</v>
-      </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="C1" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="H1" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>380</v>
+        <v>329</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>382</v>
+        <v>331</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>380</v>
+        <v>329</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>330</v>
       </c>
       <c r="J2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>382</v>
+        <v>331</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="105">
+        <v>305</v>
+      </c>
+      <c r="D3" s="103">
         <f>0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105">
+      <c r="E3" s="103"/>
+      <c r="F3" s="103">
         <f>0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="104">
+      <c r="G3" s="103"/>
+      <c r="H3" s="102">
         <f>C3/1000</f>
         <v>0</v>
       </c>
-      <c r="I3" s="104">
+      <c r="I3" s="102">
         <f t="shared" ref="I3:K3" si="0">D3/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J3" s="104">
+      <c r="J3" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="104">
+      <c r="K3" s="102">
         <f t="shared" si="0"/>
         <v>6.6666666666666675E-6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="105">
+        <v>305</v>
+      </c>
+      <c r="D4" s="103">
         <f t="shared" ref="D4:F5" si="1">0.02/3</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105">
+      <c r="E4" s="103"/>
+      <c r="F4" s="103">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="104">
+      <c r="G4" s="103"/>
+      <c r="H4" s="102">
         <f t="shared" ref="H4:H27" si="2">C4/1000</f>
         <v>0</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="102">
         <f t="shared" ref="I4:I27" si="3">D4/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="102">
         <f t="shared" ref="J4:J27" si="4">E4/1000</f>
         <v>0</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="102">
         <f t="shared" ref="K4:K27" si="5">F4/1000</f>
         <v>6.6666666666666675E-6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="105">
+        <v>305</v>
+      </c>
+      <c r="D5" s="103">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105">
+      <c r="E5" s="103"/>
+      <c r="F5" s="103">
         <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="104">
+      <c r="G5" s="103"/>
+      <c r="H5" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="102">
         <f t="shared" si="3"/>
         <v>6.6666666666666675E-6</v>
       </c>
-      <c r="J5" s="104">
+      <c r="J5" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K5" s="104">
+      <c r="K5" s="102">
         <f t="shared" si="5"/>
         <v>6.6666666666666675E-6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D6">
         <v>1.91</v>
@@ -9417,15 +9096,15 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="102">
-        <v>0</v>
-      </c>
-      <c r="F7" s="102">
+        <v>307</v>
+      </c>
+      <c r="D7" s="100">
+        <v>0</v>
+      </c>
+      <c r="F7" s="100">
         <v>0</v>
       </c>
       <c r="H7">
@@ -9447,10 +9126,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9477,10 +9156,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D9">
         <v>0.2</v>
@@ -9507,12 +9186,12 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="103">
-        <v>0</v>
-      </c>
-      <c r="F10" s="103">
+        <v>286</v>
+      </c>
+      <c r="D10" s="101">
+        <v>0</v>
+      </c>
+      <c r="F10" s="101">
         <v>0</v>
       </c>
       <c r="H10">
@@ -9534,10 +9213,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D11">
         <v>0.24</v>
@@ -9564,10 +9243,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D12">
         <v>0.15</v>
@@ -9594,15 +9273,15 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="102">
-        <v>0</v>
-      </c>
-      <c r="F13" s="102">
+        <v>312</v>
+      </c>
+      <c r="D13" s="100">
+        <v>0</v>
+      </c>
+      <c r="F13" s="100">
         <v>0</v>
       </c>
       <c r="H13">
@@ -9624,15 +9303,15 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="102">
-        <v>0</v>
-      </c>
-      <c r="F14" s="102">
+        <v>312</v>
+      </c>
+      <c r="D14" s="100">
+        <v>0</v>
+      </c>
+      <c r="F14" s="100">
         <v>0</v>
       </c>
       <c r="H14">
@@ -9654,15 +9333,15 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" s="102">
-        <v>0</v>
-      </c>
-      <c r="F15" s="102">
+        <v>312</v>
+      </c>
+      <c r="D15" s="100">
+        <v>0</v>
+      </c>
+      <c r="F15" s="100">
         <v>0</v>
       </c>
       <c r="H15">
@@ -9684,15 +9363,15 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="102">
-        <v>0</v>
-      </c>
-      <c r="F16" s="102">
+        <v>313</v>
+      </c>
+      <c r="D16" s="100">
+        <v>0</v>
+      </c>
+      <c r="F16" s="100">
         <v>0</v>
       </c>
       <c r="H16">
@@ -9714,10 +9393,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D17">
         <v>44</v>
@@ -9744,15 +9423,15 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D18">
         <v>389</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="100">
         <v>0</v>
       </c>
       <c r="H18">
@@ -9774,15 +9453,15 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
-      </c>
-      <c r="D19" s="102">
+        <v>316</v>
+      </c>
+      <c r="D19" s="100">
         <v>145.19999999999999</v>
       </c>
-      <c r="F19" s="102">
+      <c r="F19" s="100">
         <v>0</v>
       </c>
       <c r="H19">
@@ -9804,15 +9483,15 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D20" s="102">
+        <v>317</v>
+      </c>
+      <c r="D20" s="100">
         <v>227.7</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="100">
         <v>0</v>
       </c>
       <c r="H20">
@@ -9834,15 +9513,15 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="102">
+        <v>318</v>
+      </c>
+      <c r="D21" s="100">
         <v>290.39999999999998</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="100">
         <v>0</v>
       </c>
       <c r="H21">
@@ -9864,15 +9543,15 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B22" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="102">
+        <v>319</v>
+      </c>
+      <c r="D22" s="100">
         <v>217.8</v>
       </c>
-      <c r="F22" s="102">
+      <c r="F22" s="100">
         <v>0</v>
       </c>
       <c r="H22">
@@ -9894,15 +9573,15 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B23" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="102">
-        <v>0</v>
-      </c>
-      <c r="F23" s="102">
+        <v>320</v>
+      </c>
+      <c r="D23" s="100">
+        <v>0</v>
+      </c>
+      <c r="F23" s="100">
         <v>0</v>
       </c>
       <c r="H23">
@@ -9924,15 +9603,15 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="102">
+        <v>321</v>
+      </c>
+      <c r="D24" s="100">
         <v>45</v>
       </c>
-      <c r="F24" s="102">
+      <c r="F24" s="100">
         <v>0</v>
       </c>
       <c r="H24">
@@ -9954,15 +9633,15 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="102">
+        <v>322</v>
+      </c>
+      <c r="D25" s="100">
         <v>500</v>
       </c>
-      <c r="F25" s="102">
+      <c r="F25" s="100">
         <v>0</v>
       </c>
       <c r="H25">
@@ -9984,15 +9663,15 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D26" s="102">
+        <v>322</v>
+      </c>
+      <c r="D26" s="100">
         <v>500</v>
       </c>
-      <c r="F26" s="102">
+      <c r="F26" s="100">
         <v>0</v>
       </c>
       <c r="H26">
@@ -10014,15 +9693,15 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
-      </c>
-      <c r="D27" s="102">
+        <v>323</v>
+      </c>
+      <c r="D27" s="100">
         <v>330</v>
       </c>
-      <c r="F27" s="102">
+      <c r="F27" s="100">
         <v>0</v>
       </c>
       <c r="H27">
@@ -10053,7 +9732,12 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>385</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -10069,8 +9753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10219,6 +9903,14 @@
       </c>
       <c r="B17">
         <v>11.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">

--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9238C211-69B3-4782-988D-A0FC424B3823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADC3EF1-FA8D-41E2-A19F-84BA4DB26F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,13 @@
     <sheet name="UDC" sheetId="11" r:id="rId5"/>
     <sheet name="Power" sheetId="12" r:id="rId6"/>
     <sheet name="Extra" sheetId="9" r:id="rId7"/>
-    <sheet name="Masses and Volumes Old VC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="362">
   <si>
     <t>Material</t>
   </si>
@@ -257,15 +256,6 @@
     <t>Lateral PCBS+</t>
   </si>
   <si>
-    <t>AOCS PCB++</t>
-  </si>
-  <si>
-    <t>EPS PCB ++</t>
-  </si>
-  <si>
-    <t>OCB-COMMS PCB++</t>
-  </si>
-  <si>
     <t>Top PL PCB</t>
   </si>
   <si>
@@ -275,12 +265,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>With VC and components</t>
-  </si>
-  <si>
-    <t>With components</t>
-  </si>
-  <si>
     <t>COMMS Antenna</t>
   </si>
   <si>
@@ -464,9 +448,6 @@
     <t>14.2g</t>
   </si>
   <si>
-    <t>Vertical Connectors (old)</t>
-  </si>
-  <si>
     <t>7.1g</t>
   </si>
   <si>
@@ -489,9 +470,6 @@
   </si>
   <si>
     <t>Total mass (g)</t>
-  </si>
-  <si>
-    <t>Included</t>
   </si>
   <si>
     <t>Y+ Mag PCB +</t>
@@ -1484,7 +1462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1663,18 +1641,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2303,7 +2277,7 @@
         <v>8181</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2326,7 +2300,7 @@
         <v>400</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2349,7 +2323,7 @@
         <v>0.27</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2372,7 +2346,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2395,7 +2369,7 @@
         <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2418,7 +2392,7 @@
         <v>0.2</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2441,10 +2415,10 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2467,10 +2441,10 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2493,7 +2467,7 @@
         <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2516,15 +2490,15 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B12" s="7">
         <v>0.3</v>
@@ -2542,10 +2516,10 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2568,7 +2542,7 @@
         <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2591,7 +2565,7 @@
         <v>209</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2614,7 +2588,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2637,12 +2611,12 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="H16" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B17">
         <v>0.94</v>
@@ -2660,12 +2634,12 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B18">
         <v>0.94</v>
@@ -2683,12 +2657,12 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>23</v>
@@ -2706,7 +2680,7 @@
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2722,7 +2696,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2780,30 +2754,30 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="6"/>
@@ -2814,7 +2788,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2885,7 +2859,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>65</v>
@@ -2918,7 +2892,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>66</v>
@@ -2951,7 +2925,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>34</v>
@@ -2984,7 +2958,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>67</v>
@@ -3017,7 +2991,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>33</v>
@@ -3083,10 +3057,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>48</v>
@@ -3128,7 +3102,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>72</v>
@@ -3161,7 +3135,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>70</v>
@@ -3353,7 +3327,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -3367,7 +3341,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>73</v>
@@ -3397,7 +3371,7 @@
         <v>4.7937499999999993</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3432,12 +3406,12 @@
         <v>5.8999999999999995</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
@@ -3623,7 +3597,7 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -3802,7 +3776,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -3880,19 +3854,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3909,7 +3883,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G10" si="0">B16*$B$2/(B16*$B$2+C16*$B$3+D16*$B$5+E16*$B$6)</f>
@@ -3930,7 +3904,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B3" s="7">
         <v>1850</v>
@@ -3963,7 +3937,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B4" s="7">
         <v>1850</v>
@@ -3996,7 +3970,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B5" s="7">
         <v>2000</v>
@@ -4008,10 +3982,10 @@
         <v>0.2</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -4032,7 +4006,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B6" s="7">
         <v>2200</v>
@@ -4044,7 +4018,7 @@
         <v>0.2</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -4065,7 +4039,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -4107,7 +4081,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -4128,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -4150,33 +4124,33 @@
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>204</v>
-      </c>
       <c r="D15" s="52" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <v>0.14000000000000001</v>
@@ -4263,7 +4237,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B19">
         <v>0.21000000000000002</v>
@@ -4292,7 +4266,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B20">
         <v>0.21000000000000002</v>
@@ -4321,7 +4295,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B21">
         <v>0.21000000000000002</v>
@@ -4379,7 +4353,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B23">
         <v>0.21000000000000002</v>
@@ -4408,7 +4382,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B24">
         <v>0.14000000000000001</v>
@@ -4468,31 +4442,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H1" s="81"/>
       <c r="L1" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G2" s="77" t="s">
         <v>5</v>
@@ -4507,7 +4481,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -4538,7 +4512,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4551,7 +4525,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -4590,22 +4564,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>94</v>
-      </c>
       <c r="F9" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G9" s="77" t="s">
         <v>5</v>
@@ -4614,18 +4588,18 @@
         <v>4</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C10">
         <v>14.2</v>
@@ -4657,7 +4631,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>23</v>
@@ -4708,22 +4682,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G14" s="77" t="s">
         <v>5</v>
@@ -4732,18 +4706,18 @@
         <v>4</v>
       </c>
       <c r="I14" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C15">
         <v>8.4</v>
@@ -4773,7 +4747,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D16" s="66"/>
       <c r="F16" s="66"/>
@@ -4784,10 +4758,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -4817,10 +4791,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -4850,10 +4824,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -4883,10 +4857,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -4916,7 +4890,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>22</v>
@@ -4969,22 +4943,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G24" s="77" t="s">
         <v>5</v>
@@ -4993,19 +4967,19 @@
         <v>4</v>
       </c>
       <c r="I24" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J24" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" s="22"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C25">
         <v>9.8000000000000007</v>
@@ -5036,10 +5010,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C26">
         <v>0.4</v>
@@ -5070,7 +5044,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -5106,7 +5080,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5120,7 +5094,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C29">
         <v>10.200000000000001</v>
@@ -5150,7 +5124,7 @@
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36">
@@ -5197,22 +5171,22 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G33" s="77" t="s">
         <v>5</v>
@@ -5221,19 +5195,19 @@
         <v>4</v>
       </c>
       <c r="I33" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J33" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C34">
         <v>9.8000000000000007</v>
@@ -5264,10 +5238,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>0.6</v>
@@ -5298,7 +5272,7 @@
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>22</v>
@@ -5350,22 +5324,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F39" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G39" s="77" t="s">
         <v>5</v>
@@ -5374,19 +5348,19 @@
         <v>4</v>
       </c>
       <c r="I39" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J39" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L39" s="22"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C40">
         <v>6.6</v>
@@ -5418,10 +5392,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <v>0.5</v>
@@ -5452,7 +5426,7 @@
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>22</v>
@@ -5499,22 +5473,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D45" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F45" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G45" s="77" t="s">
         <v>5</v>
@@ -5523,18 +5497,18 @@
         <v>4</v>
       </c>
       <c r="I45" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J45" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C46">
         <v>5.6</v>
@@ -5565,10 +5539,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C47">
         <v>2.4</v>
@@ -5599,7 +5573,7 @@
     </row>
     <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B48" s="105" t="s">
         <v>22</v>
@@ -5651,22 +5625,22 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F51" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G51" s="77" t="s">
         <v>5</v>
@@ -5675,18 +5649,18 @@
         <v>4</v>
       </c>
       <c r="I51" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J51" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -5717,10 +5691,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C53">
         <v>1.6</v>
@@ -5751,7 +5725,7 @@
     </row>
     <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="36">
@@ -5801,22 +5775,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G57" s="77" t="s">
         <v>5</v>
@@ -5825,18 +5799,18 @@
         <v>4</v>
       </c>
       <c r="I57" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J57" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C58">
         <v>5.4</v>
@@ -5867,7 +5841,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <v>1.6</v>
@@ -5898,7 +5872,7 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B60" s="36"/>
       <c r="C60" s="36">
@@ -5948,22 +5922,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F63" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G63" s="77" t="s">
         <v>5</v>
@@ -5972,18 +5946,18 @@
         <v>4</v>
       </c>
       <c r="I63" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J63" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C64">
         <v>9.1999999999999993</v>
@@ -6013,7 +5987,7 @@
     </row>
     <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B65" s="36"/>
       <c r="C65" s="36">
@@ -6060,22 +6034,22 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F68" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G68" s="77" t="s">
         <v>5</v>
@@ -6084,19 +6058,19 @@
         <v>4</v>
       </c>
       <c r="I68" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J68" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L68" s="22"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C69">
         <v>7.6</v>
@@ -6130,7 +6104,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C70">
         <v>0.7</v>
@@ -6161,7 +6135,7 @@
     </row>
     <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36">
@@ -6201,39 +6175,39 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F73" s="65" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G73" s="77" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H73" s="88" t="s">
         <v>4</v>
       </c>
       <c r="I73" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J73" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36">
@@ -6272,22 +6246,22 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="30" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F76" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G76" s="77" t="s">
         <v>5</v>
@@ -6296,15 +6270,15 @@
         <v>4</v>
       </c>
       <c r="I76" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J76" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
         <v>52</v>
@@ -6339,7 +6313,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -6372,7 +6346,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D79" s="66"/>
       <c r="F79" s="66"/>
@@ -6383,7 +6357,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
@@ -6410,7 +6384,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="43" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
@@ -6437,7 +6411,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="43" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
@@ -6464,7 +6438,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="43" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -6491,7 +6465,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -6505,7 +6479,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D85" s="66"/>
       <c r="F85" s="66"/>
@@ -6524,7 +6498,7 @@
     </row>
     <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36">
@@ -6594,22 +6568,22 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D91" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F91" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G91" s="77" t="s">
         <v>5</v>
@@ -6618,15 +6592,15 @@
         <v>4</v>
       </c>
       <c r="I91" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J91" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C92">
         <v>0.9</v>
@@ -6657,7 +6631,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -6671,7 +6645,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C94">
         <v>0.9</v>
@@ -6699,7 +6673,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C95">
         <v>0.9</v>
@@ -6727,7 +6701,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C96">
         <v>0.9</v>
@@ -6755,7 +6729,7 @@
     </row>
     <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B97" s="36"/>
       <c r="C97" s="36">
@@ -6792,22 +6766,22 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F99" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G99" s="77" t="s">
         <v>5</v>
@@ -6816,16 +6790,16 @@
         <v>4</v>
       </c>
       <c r="I99" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J99" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K99" s="22"/>
     </row>
     <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B100" s="36"/>
       <c r="C100" s="36">
@@ -6884,22 +6858,22 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B104" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F104" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G104" s="77" t="s">
         <v>5</v>
@@ -6908,10 +6882,10 @@
         <v>4</v>
       </c>
       <c r="I104" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J104" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -6984,7 +6958,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C107">
         <f>SUM(C105:C106)</f>
@@ -7020,7 +6994,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -7034,7 +7008,7 @@
     </row>
     <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -7083,22 +7057,22 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D113" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F113" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G113" s="77" t="s">
         <v>5</v>
@@ -7107,16 +7081,16 @@
         <v>4</v>
       </c>
       <c r="I113" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J113" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L113" s="22"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
         <v>51</v>
@@ -7150,7 +7124,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D115" s="66"/>
       <c r="F115" s="66"/>
@@ -7161,7 +7135,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="49" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
         <v>23</v>
@@ -7194,7 +7168,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="49" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
@@ -7227,7 +7201,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
         <v>23</v>
@@ -7260,7 +7234,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="49" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
@@ -7293,7 +7267,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="49" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
@@ -7326,7 +7300,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="49" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
         <v>23</v>
@@ -7359,7 +7333,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="56" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
         <v>23</v>
@@ -7419,7 +7393,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="49" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
         <v>48</v>
@@ -7444,7 +7418,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="49" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B125" t="s">
         <v>23</v>
@@ -7476,7 +7450,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="49" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
         <v>23</v>
@@ -7508,7 +7482,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="49" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
@@ -7540,7 +7514,7 @@
     </row>
     <row r="128" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -7585,22 +7559,22 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D131" s="65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F131" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G131" s="31" t="s">
         <v>5</v>
@@ -7609,16 +7583,16 @@
         <v>4</v>
       </c>
       <c r="I131" s="87" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J131" s="94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L131" s="22"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
         <v>48</v>
@@ -7653,7 +7627,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="38" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
         <v>48</v>
@@ -7687,7 +7661,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="45" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
         <v>49</v>
@@ -7721,7 +7695,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
@@ -7758,7 +7732,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -7772,7 +7746,7 @@
     </row>
     <row r="137" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="50" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -7829,52 +7803,52 @@
   <sheetData>
     <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="J1" s="58" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
@@ -7897,26 +7871,26 @@
       <c r="J2" s="5">
         <v>3.93</v>
       </c>
-      <c r="K2" s="108">
+      <c r="K2" s="106">
         <v>21</v>
       </c>
-      <c r="L2" s="109">
+      <c r="L2" s="107">
         <f>1/K2</f>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="N2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
@@ -7939,23 +7913,23 @@
       <c r="J3" s="5">
         <v>3.93</v>
       </c>
-      <c r="K3" s="108">
+      <c r="K3" s="106">
         <v>21</v>
       </c>
-      <c r="L3" s="109">
+      <c r="L3" s="107">
         <f t="shared" ref="L3:L25" si="0">1/K3</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -7978,24 +7952,23 @@
       <c r="J4" s="5">
         <v>3.93</v>
       </c>
-      <c r="K4" s="108">
+      <c r="K4" s="106">
         <v>21</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="107">
         <f t="shared" si="0"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D5" s="5">
         <v>2.5</v>
@@ -8018,24 +7991,24 @@
       <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="108">
+      <c r="K5" s="106">
         <f>$K$2*($G$2*$H$2*$I$2+$J$2)/(G5*H5*I5+J5)</f>
         <v>63.284210526315789</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="107">
         <f t="shared" si="0"/>
         <v>1.5801729873586162E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -8058,27 +8031,27 @@
       <c r="J6" s="5">
         <v>4.41</v>
       </c>
-      <c r="K6" s="108">
+      <c r="K6" s="106">
         <f t="shared" ref="K6:K15" si="1">$K$2*($G$2*$H$2*$I$2+$J$2)/(G6*H6*I6+J6)</f>
         <v>14.923404255319147</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="107">
         <f t="shared" si="0"/>
         <v>6.7008839463929298E-2</v>
       </c>
-      <c r="N6" s="106" t="s">
-        <v>367</v>
+      <c r="N6" s="108" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D7" s="5">
         <v>2.6</v>
@@ -8101,25 +8074,25 @@
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="108">
+      <c r="K7" s="106">
         <f t="shared" si="1"/>
         <v>46.96875</v>
       </c>
-      <c r="L7" s="109">
+      <c r="L7" s="107">
         <f t="shared" si="0"/>
         <v>2.1290751829673986E-2</v>
       </c>
-      <c r="N7" s="106"/>
+      <c r="N7" s="108"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -8142,25 +8115,25 @@
       <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="K8" s="108">
+      <c r="K8" s="106">
         <f t="shared" si="1"/>
         <v>80.930769230769229</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="107">
         <f t="shared" si="0"/>
         <v>1.2356239901150081E-2</v>
       </c>
-      <c r="N8" s="106"/>
+      <c r="N8" s="108"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -8183,24 +8156,24 @@
       <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="108">
+      <c r="K9" s="106">
         <f t="shared" si="1"/>
         <v>18.457894736842103</v>
       </c>
-      <c r="L9" s="109">
+      <c r="L9" s="107">
         <f t="shared" si="0"/>
         <v>5.4177359566581131E-2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -8223,11 +8196,11 @@
       <c r="J10" s="5">
         <v>2.1</v>
       </c>
-      <c r="K10" s="108">
+      <c r="K10" s="106">
         <f t="shared" si="1"/>
         <v>26.976923076923075</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="107">
         <f t="shared" si="0"/>
         <v>3.7068719703450242E-2</v>
       </c>
@@ -8235,13 +8208,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -8264,11 +8237,11 @@
       <c r="J11" s="5">
         <v>0</v>
       </c>
-      <c r="K11" s="108">
+      <c r="K11" s="106">
         <f t="shared" si="1"/>
         <v>109.59375</v>
       </c>
-      <c r="L11" s="109">
+      <c r="L11" s="107">
         <f t="shared" si="0"/>
         <v>9.1246079270031373E-3</v>
       </c>
@@ -8279,13 +8252,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
@@ -8308,11 +8281,11 @@
       <c r="J12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="108">
+      <c r="K12" s="106">
         <f t="shared" si="1"/>
         <v>109.59375</v>
       </c>
-      <c r="L12" s="109">
+      <c r="L12" s="107">
         <f t="shared" si="0"/>
         <v>9.1246079270031373E-3</v>
       </c>
@@ -8323,13 +8296,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
@@ -8352,11 +8325,11 @@
       <c r="J13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="108">
+      <c r="K13" s="106">
         <f t="shared" si="1"/>
         <v>109.59375</v>
       </c>
-      <c r="L13" s="109">
+      <c r="L13" s="107">
         <f t="shared" si="0"/>
         <v>9.1246079270031373E-3</v>
       </c>
@@ -8367,13 +8340,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D14" s="5">
         <v>4</v>
@@ -8396,39 +8369,39 @@
       <c r="J14" s="5">
         <v>9.67</v>
       </c>
-      <c r="K14" s="108">
+      <c r="K14" s="106">
         <f t="shared" si="1"/>
         <v>8.7166528583264284</v>
       </c>
-      <c r="L14" s="109">
+      <c r="L14" s="107">
         <f t="shared" si="0"/>
         <v>0.11472293508221652</v>
       </c>
       <c r="N14" s="61"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="107" t="s">
-        <v>293</v>
+      <c r="A15" t="s">
+        <v>286</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" s="110" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="110">
+        <v>307</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="5">
         <v>10</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="5">
         <v>1.6</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="5">
         <v>0.35</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="5">
         <v>1.35</v>
       </c>
       <c r="I15" s="5">
@@ -8437,11 +8410,11 @@
       <c r="J15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="108">
+      <c r="K15" s="106">
         <f t="shared" si="1"/>
         <v>3.4791666666666665</v>
       </c>
-      <c r="L15" s="109">
+      <c r="L15" s="107">
         <f t="shared" si="0"/>
         <v>0.28742514970059879</v>
       </c>
@@ -8450,28 +8423,28 @@
       <c r="Q15" s="61"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="107" t="s">
-        <v>294</v>
+      <c r="A16" t="s">
+        <v>287</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="110" t="s">
-        <v>270</v>
-      </c>
-      <c r="D16" s="110">
+        <v>308</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="5">
         <v>4</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="5">
         <v>0.5</v>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="5">
         <v>0.3</v>
       </c>
-      <c r="H16" s="110">
+      <c r="H16" s="5">
         <v>0.8</v>
       </c>
       <c r="I16" s="5">
@@ -8480,11 +8453,11 @@
       <c r="J16" s="5">
         <v>10.4</v>
       </c>
-      <c r="K16" s="108">
+      <c r="K16" s="106">
         <f t="shared" ref="K16:K25" si="2">$K$2*(5)/(G16*H16*I16+J16)</f>
         <v>6.4975247524752477</v>
       </c>
-      <c r="L16" s="109">
+      <c r="L16" s="107">
         <f t="shared" si="0"/>
         <v>0.15390476190476191</v>
       </c>
@@ -8494,13 +8467,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D17" s="5">
         <v>4</v>
@@ -8523,11 +8496,11 @@
       <c r="J17" s="5">
         <v>6.25</v>
       </c>
-      <c r="K17" s="108">
+      <c r="K17" s="106">
         <f t="shared" si="2"/>
         <v>12.485136741973841</v>
       </c>
-      <c r="L17" s="109">
+      <c r="L17" s="107">
         <f t="shared" si="0"/>
         <v>8.0095238095238094E-2</v>
       </c>
@@ -8538,13 +8511,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
@@ -8567,24 +8540,24 @@
       <c r="J18" s="5">
         <v>12.3</v>
       </c>
-      <c r="K18" s="108">
+      <c r="K18" s="106">
         <f t="shared" si="2"/>
         <v>6.9169960474308301</v>
       </c>
-      <c r="L18" s="109">
+      <c r="L18" s="107">
         <f t="shared" si="0"/>
         <v>0.14457142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D19" s="5">
         <v>4</v>
@@ -8607,24 +8580,24 @@
       <c r="J19" s="5">
         <v>7.55</v>
       </c>
-      <c r="K19" s="108">
+      <c r="K19" s="106">
         <f t="shared" si="2"/>
         <v>10.067114093959733</v>
       </c>
-      <c r="L19" s="109">
+      <c r="L19" s="107">
         <f t="shared" si="0"/>
         <v>9.9333333333333329E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -8647,24 +8620,24 @@
       <c r="J20" s="5">
         <v>2.25</v>
       </c>
-      <c r="K20" s="108">
+      <c r="K20" s="106">
         <f t="shared" si="2"/>
         <v>35.164099129269921</v>
       </c>
-      <c r="L20" s="109">
+      <c r="L20" s="107">
         <f t="shared" si="0"/>
         <v>2.8438095238095241E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D21" s="5">
         <v>5.08</v>
@@ -8687,24 +8660,24 @@
       <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="108">
+      <c r="K21" s="106">
         <f t="shared" si="2"/>
         <v>15.843795267986479</v>
       </c>
-      <c r="L21" s="109">
+      <c r="L21" s="107">
         <f t="shared" si="0"/>
         <v>6.3116190476190479E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
@@ -8727,24 +8700,24 @@
       <c r="J22" s="5">
         <v>1.34</v>
       </c>
-      <c r="K22" s="108">
+      <c r="K22" s="106">
         <f t="shared" si="2"/>
         <v>39.033457249070629</v>
       </c>
-      <c r="L22" s="109">
+      <c r="L22" s="107">
         <f t="shared" si="0"/>
         <v>2.5619047619047621E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D23" s="5">
         <v>2</v>
@@ -8767,24 +8740,24 @@
       <c r="J23" s="5">
         <v>0.72</v>
       </c>
-      <c r="K23" s="108">
+      <c r="K23" s="106">
         <f t="shared" si="2"/>
         <v>73.943661971830991</v>
       </c>
-      <c r="L23" s="109">
+      <c r="L23" s="107">
         <f t="shared" si="0"/>
         <v>1.3523809523809523E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
@@ -8807,24 +8780,24 @@
       <c r="J24" s="5">
         <v>0.72</v>
       </c>
-      <c r="K24" s="108">
+      <c r="K24" s="106">
         <f t="shared" si="2"/>
         <v>73.943661971830991</v>
       </c>
-      <c r="L24" s="109">
+      <c r="L24" s="107">
         <f t="shared" si="0"/>
         <v>1.3523809523809523E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -8847,11 +8820,11 @@
       <c r="J25" s="5">
         <v>0</v>
       </c>
-      <c r="K25" s="108">
+      <c r="K25" s="106">
         <f t="shared" si="2"/>
         <v>57.565789473684212</v>
       </c>
-      <c r="L25" s="109">
+      <c r="L25" s="107">
         <f t="shared" si="0"/>
         <v>1.7371428571428572E-2</v>
       </c>
@@ -8861,26 +8834,26 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J28" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C30" s="2"/>
       <c r="F30" s="2"/>
@@ -8891,7 +8864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -8917,57 +8890,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" s="106" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="H1" s="106" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
+      <c r="C1" s="108" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="H1" s="108" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D3" s="103">
         <f>0.02/3</f>
@@ -8998,10 +8971,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D4" s="103">
         <f t="shared" ref="D4:F5" si="1">0.02/3</f>
@@ -9032,10 +9005,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D5" s="103">
         <f t="shared" si="1"/>
@@ -9066,10 +9039,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D6">
         <v>1.91</v>
@@ -9096,10 +9069,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D7" s="100">
         <v>0</v>
@@ -9126,10 +9099,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9156,10 +9129,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D9">
         <v>0.2</v>
@@ -9186,7 +9159,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D10" s="101">
         <v>0</v>
@@ -9213,10 +9186,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D11">
         <v>0.24</v>
@@ -9243,10 +9216,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D12">
         <v>0.15</v>
@@ -9273,10 +9246,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D13" s="100">
         <v>0</v>
@@ -9303,10 +9276,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D14" s="100">
         <v>0</v>
@@ -9333,10 +9306,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D15" s="100">
         <v>0</v>
@@ -9363,10 +9336,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D16" s="100">
         <v>0</v>
@@ -9393,10 +9366,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D17">
         <v>44</v>
@@ -9423,10 +9396,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D18">
         <v>389</v>
@@ -9453,10 +9426,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D19" s="100">
         <v>145.19999999999999</v>
@@ -9483,10 +9456,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D20" s="100">
         <v>227.7</v>
@@ -9513,10 +9486,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D21" s="100">
         <v>290.39999999999998</v>
@@ -9543,10 +9516,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D22" s="100">
         <v>217.8</v>
@@ -9573,10 +9546,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D23" s="100">
         <v>0</v>
@@ -9603,10 +9576,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D24" s="100">
         <v>45</v>
@@ -9633,10 +9606,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D25" s="100">
         <v>500</v>
@@ -9663,10 +9636,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D26" s="100">
         <v>500</v>
@@ -9693,10 +9666,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D27" s="100">
         <v>330</v>
@@ -9723,7 +9696,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D29">
         <f>SUM(D3:D27)</f>
@@ -9732,12 +9705,12 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -9764,14 +9737,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="14">
-        <f>'Masses and Volumes Old VC'!L41/1000/1000/1000</f>
-        <v>0</v>
+      <c r="E1" s="14" t="e">
+        <f>#REF!/1000/1000/1000</f>
+        <v>#REF!</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -9819,55 +9792,55 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12">
         <v>9.5</v>
@@ -9875,7 +9848,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B14">
         <v>9.8000000000000007</v>
@@ -9883,7 +9856,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B15">
         <v>10.199999999999999</v>
@@ -9891,7 +9864,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B16">
         <v>11.2</v>
@@ -9899,7 +9872,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B17">
         <v>11.4</v>
@@ -9907,29 +9880,29 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D25">
         <v>3.5000000000000003E-2</v>
@@ -9939,21 +9912,21 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D26">
         <v>0.48</v>
@@ -9965,13 +9938,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D27">
         <v>0.01</v>
@@ -9983,18 +9956,18 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D31">
         <v>3.5000000000000003E-2</v>
@@ -10006,13 +9979,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D32">
         <v>0.1</v>
@@ -10024,13 +9997,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D33">
         <v>0.73499999999999999</v>
@@ -10042,13 +10015,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D34">
         <v>0.01</v>
@@ -10060,18 +10033,18 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D37">
         <v>3.5000000000000003E-2</v>
@@ -10083,13 +10056,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D38">
         <v>0.35399999999999998</v>
@@ -10101,13 +10074,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D39">
         <v>0.01</v>
@@ -10122,18 +10095,18 @@
         <v>64</v>
       </c>
       <c r="O41" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D42">
         <v>3.5000000000000003E-2</v>
@@ -10145,13 +10118,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D43">
         <v>1.51</v>
@@ -10163,13 +10136,13 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D44">
         <v>0.01</v>
@@ -10181,18 +10154,18 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D47">
         <v>0.21</v>
@@ -10205,13 +10178,13 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D48">
         <v>3.5000000000000003E-2</v>
@@ -10223,13 +10196,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D49">
         <v>0.01</v>
@@ -10241,18 +10214,18 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D52">
         <v>0.91</v>
@@ -10264,13 +10237,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D53">
         <v>3.5000000000000003E-2</v>
@@ -10280,18 +10253,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H53" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D54">
         <v>0.01</v>
@@ -10301,10 +10274,10 @@
         <v>0.02</v>
       </c>
       <c r="H54" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I54" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -10312,50 +10285,50 @@
         <v>24.88</v>
       </c>
       <c r="I55" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K55" s="54">
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="M55" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O55" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H56">
         <v>10.119999999999999</v>
       </c>
       <c r="I56" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K56" s="54">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="M56" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O56" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -10365,18 +10338,18 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D58">
         <v>0.254</v>
@@ -10386,18 +10359,18 @@
         <v>0.254</v>
       </c>
       <c r="F58" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -10410,12 +10383,12 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B63">
         <f>E58</f>
@@ -10424,7 +10397,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B64">
         <f>E52+E47</f>
@@ -10433,7 +10406,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B65">
         <f>E53+E48</f>
@@ -10442,7 +10415,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B66">
         <f>E54+E49</f>
@@ -10451,18 +10424,18 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D70">
         <v>0.21</v>
@@ -10474,13 +10447,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D71">
         <v>3.5000000000000003E-2</v>
@@ -10492,13 +10465,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D72">
         <v>0.01</v>
@@ -10510,18 +10483,18 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D76">
         <v>0.28000000000000003</v>
@@ -10533,13 +10506,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D77">
         <v>3.5000000000000003E-2</v>
@@ -10551,13 +10524,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D78">
         <v>0.01</v>
@@ -10569,12 +10542,12 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B81">
         <f>E76</f>
@@ -10583,7 +10556,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B82">
         <f>E70</f>
@@ -10592,7 +10565,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B83">
         <f>E71+E77</f>
@@ -10601,7 +10574,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B84">
         <f>E72+E78</f>
@@ -10612,1056 +10585,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L40"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E15" si="0">L3/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <f>F3*G3</f>
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="I3" s="6">
-        <f>H3*1000</f>
-        <v>8.4</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1.66E-2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" ref="H4:H36" si="1">F4*G4</f>
-        <v>1.66E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4:I39" si="2">H4*1000</f>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>6.6E-3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
-        <v>6.6E-3</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1.0199999999999999E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0199999999999999E-2</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="2"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>9.300000000000001E-3</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="1"/>
-        <v>9.300000000000001E-3</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="2"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1.11E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="2"/>
-        <v>44.4</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1850</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>7.6E-3</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>7.6E-3</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2200</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2810</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2.4300000000000002E-2</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4300000000000002E-2</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="2"/>
-        <v>24.3</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <f>L17/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="11">
-        <v>5316</v>
-      </c>
-      <c r="E18" s="11">
-        <f>L18/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>9.5E-4</v>
-      </c>
-      <c r="G18" s="11">
-        <v>5</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="1"/>
-        <v>4.7499999999999999E-3</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2750</v>
-      </c>
-      <c r="E19" s="11">
-        <f>L19/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I19" s="11">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="14">
-        <v>8800</v>
-      </c>
-      <c r="E22" s="14">
-        <f>L22/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="14">
-        <v>1070</v>
-      </c>
-      <c r="E23" s="14">
-        <f>L23/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14">
-        <v>5.5000000000000003E-4</v>
-      </c>
-      <c r="G24" s="14">
-        <v>14.75</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17">
-        <f>L27/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="G27" s="17">
-        <v>1</v>
-      </c>
-      <c r="H27" s="17">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="I27" s="17">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="17">
-        <v>8000</v>
-      </c>
-      <c r="E29" s="17">
-        <f>L29/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="G29" s="17">
-        <v>4</v>
-      </c>
-      <c r="H29" s="17">
-        <f t="shared" si="1"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="I29" s="17">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="17">
-        <v>8000</v>
-      </c>
-      <c r="E30" s="17">
-        <f>L30/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="G30" s="17">
-        <v>2</v>
-      </c>
-      <c r="H30" s="17">
-        <f t="shared" si="1"/>
-        <v>9.3999999999999997E-4</v>
-      </c>
-      <c r="I30" s="17">
-        <f t="shared" si="2"/>
-        <v>0.94</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="17">
-        <v>8000</v>
-      </c>
-      <c r="E31" s="17">
-        <f>L31/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <v>1.93E-4</v>
-      </c>
-      <c r="G31" s="17">
-        <v>16</v>
-      </c>
-      <c r="H31" s="17">
-        <f t="shared" si="1"/>
-        <v>3.088E-3</v>
-      </c>
-      <c r="I31" s="17">
-        <f t="shared" si="2"/>
-        <v>3.0880000000000001</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="17">
-        <v>8000</v>
-      </c>
-      <c r="E32" s="17">
-        <f>L32/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <f>0.0017</f>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="G32" s="17">
-        <v>4</v>
-      </c>
-      <c r="H32" s="17">
-        <f t="shared" si="1"/>
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="I32" s="17">
-        <f t="shared" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="17">
-        <v>8000</v>
-      </c>
-      <c r="E34" s="17">
-        <f>L34/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="G34" s="17">
-        <v>12</v>
-      </c>
-      <c r="H34" s="17">
-        <f t="shared" si="1"/>
-        <v>2.64E-3</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="2"/>
-        <v>2.64</v>
-      </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="17">
-        <v>2700</v>
-      </c>
-      <c r="E35" s="17">
-        <f>L35/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="G35" s="17">
-        <v>12</v>
-      </c>
-      <c r="H35" s="17">
-        <f t="shared" si="1"/>
-        <v>8.3999999999999993E-4</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" si="2"/>
-        <v>0.84</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="17">
-        <v>1150</v>
-      </c>
-      <c r="E36" s="17">
-        <f>L36/1000/1000/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25">
-        <f>SUM(H2:H37)-H31</f>
-        <v>0.23277</v>
-      </c>
-      <c r="I39" s="25">
-        <f t="shared" si="2"/>
-        <v>232.77</v>
-      </c>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H40" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PoCat3_Thermal_Model_Mass_Properties.xlsx
+++ b/PoCat3_Thermal_Model_Mass_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\GitHub\PoCat-Thermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADC3EF1-FA8D-41E2-A19F-84BA4DB26F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0C843-BEB5-4193-939F-C64B50BFA96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="Bulks" sheetId="6" r:id="rId4"/>
     <sheet name="UDC" sheetId="11" r:id="rId5"/>
     <sheet name="Power" sheetId="12" r:id="rId6"/>
-    <sheet name="Extra" sheetId="9" r:id="rId7"/>
+    <sheet name="TCR-CI" sheetId="13" r:id="rId7"/>
+    <sheet name="Extra" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="514">
   <si>
     <t>Material</t>
   </si>
@@ -1135,6 +1136,462 @@
   </si>
   <si>
     <t>UDC= User Defined Conductor</t>
+  </si>
+  <si>
+    <t>AOCS_J_MTQ</t>
+  </si>
+  <si>
+    <t>AOCS_to_J1EPS</t>
+  </si>
+  <si>
+    <t>AOCS_to_J2EPS</t>
+  </si>
+  <si>
+    <t>AOCS_to_J3EPS</t>
+  </si>
+  <si>
+    <t>AOCS_to_J4EPS</t>
+  </si>
+  <si>
+    <t>AOCS_to_Spacer_EPS1</t>
+  </si>
+  <si>
+    <t>AOCS_to_Spacer_EPS2</t>
+  </si>
+  <si>
+    <t>AOCS_to_Spacer_EPS3</t>
+  </si>
+  <si>
+    <t>AOCS_to_Spacer_EPS4</t>
+  </si>
+  <si>
+    <t>BattSpacer1_to_AOCS</t>
+  </si>
+  <si>
+    <t>BattSpacer1_to_MQT</t>
+  </si>
+  <si>
+    <t>BattSpacer2_to_AOCS</t>
+  </si>
+ 